--- a/MainSheet.xlsx
+++ b/MainSheet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="380" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="469" uniqueCount="469">
   <si>
     <t>分类1</t>
   </si>
@@ -365,267 +365,318 @@
     <t>古代刑具</t>
   </si>
   <si>
+    <t>木枷</t>
+  </si>
+  <si>
+    <t>圣安德烈十字</t>
+  </si>
+  <si>
+    <t>铁处女</t>
+  </si>
+  <si>
+    <t>清道夫的女儿</t>
+  </si>
+  <si>
+    <t>苦恼之梨</t>
+  </si>
+  <si>
+    <t>犹大椅</t>
+  </si>
+  <si>
+    <t>三角木马</t>
+  </si>
+  <si>
+    <t>轭</t>
+  </si>
+  <si>
+    <t>饥饿面具</t>
+  </si>
+  <si>
+    <t>断头台</t>
+  </si>
+  <si>
+    <t>吊笼</t>
+  </si>
+  <si>
+    <t>异端者尖叉</t>
+  </si>
+  <si>
+    <t>沉重首枷</t>
+  </si>
+  <si>
+    <t>秃鹫的女儿</t>
+  </si>
+  <si>
+    <t>西班牙椅子</t>
+  </si>
+  <si>
+    <t>钟摆</t>
+  </si>
+  <si>
+    <t>丽萨的铁棺</t>
+  </si>
+  <si>
+    <t>审问椅子</t>
+  </si>
+  <si>
+    <t>水责椅子</t>
+  </si>
+  <si>
+    <t>水车</t>
+  </si>
+  <si>
+    <t>老虎凳</t>
+  </si>
+  <si>
+    <t>木驴</t>
+  </si>
+  <si>
+    <t>澳大利亚梯子</t>
+  </si>
+  <si>
+    <t>刺激道具与情趣饰品</t>
+  </si>
+  <si>
+    <t>通用</t>
+  </si>
+  <si>
+    <t>跳蛋</t>
+  </si>
+  <si>
+    <t>震动棒</t>
+  </si>
+  <si>
+    <t>炮机</t>
+  </si>
+  <si>
+    <t>塞班鞍</t>
+  </si>
+  <si>
+    <t>对头部或脸部</t>
+  </si>
+  <si>
+    <t>头套</t>
+  </si>
+  <si>
+    <t>眼罩</t>
+  </si>
+  <si>
+    <t>口罩</t>
+  </si>
+  <si>
+    <t>对乳房/乳头</t>
+  </si>
+  <si>
+    <t>乳夹</t>
+  </si>
+  <si>
+    <t>内陷矫正器</t>
+  </si>
+  <si>
+    <t>吸奶器</t>
+  </si>
+  <si>
+    <t>乳环/乳钉</t>
+  </si>
+  <si>
+    <t>对阴茎或睾丸</t>
+  </si>
+  <si>
+    <t>飞机杯</t>
+  </si>
+  <si>
+    <t>CB锁</t>
+  </si>
+  <si>
+    <t>束精环</t>
+  </si>
+  <si>
+    <t>对尿道</t>
+  </si>
+  <si>
+    <t>尿道塞/棒</t>
+  </si>
+  <si>
+    <t>导尿管</t>
+  </si>
+  <si>
+    <t>尿袋</t>
+  </si>
+  <si>
+    <t>对阴道或肛门</t>
+  </si>
+  <si>
+    <t>肛塞</t>
+  </si>
+  <si>
+    <t>假阳具</t>
+  </si>
+  <si>
+    <t>拉珠</t>
+  </si>
+  <si>
+    <t>肛鞭</t>
+  </si>
+  <si>
+    <t>前列腺按摩器</t>
+  </si>
+  <si>
+    <t>贞操带</t>
+  </si>
+  <si>
+    <t>阴蒂环</t>
+  </si>
+  <si>
+    <t>阴唇环</t>
+  </si>
+  <si>
+    <t>sp道具</t>
+  </si>
+  <si>
+    <t>鞭子</t>
+  </si>
+  <si>
+    <t>戒尺</t>
+  </si>
+  <si>
+    <t>棍棒</t>
+  </si>
+  <si>
+    <t>电击道具</t>
+  </si>
+  <si>
+    <t>电击棒</t>
+  </si>
+  <si>
+    <t>电极片</t>
+  </si>
+  <si>
+    <t>电击插入物</t>
+  </si>
+  <si>
+    <t>电击项圈</t>
+  </si>
+  <si>
+    <t>电击手环</t>
+  </si>
+  <si>
+    <t>拘束具</t>
+  </si>
+  <si>
+    <t>绳子</t>
+  </si>
+  <si>
+    <t>一般胶带</t>
+  </si>
+  <si>
+    <t>静电胶带</t>
+  </si>
+  <si>
+    <t>保鲜膜/缠绕膜</t>
+  </si>
+  <si>
+    <t>绷带</t>
+  </si>
+  <si>
+    <t>拘束皮带</t>
+  </si>
+  <si>
+    <t>锁链</t>
+  </si>
+  <si>
+    <t>衣夹</t>
+  </si>
+  <si>
+    <t>定时锁</t>
+  </si>
+  <si>
+    <t>对头部</t>
+  </si>
+  <si>
+    <t>降噪耳罩</t>
+  </si>
+  <si>
+    <t>降噪耳塞</t>
+  </si>
+  <si>
+    <t>嘴部</t>
+  </si>
+  <si>
+    <t>口球</t>
+  </si>
+  <si>
+    <t>口衔</t>
+  </si>
+  <si>
+    <t>口枷</t>
+  </si>
+  <si>
+    <t>漏斗口塞</t>
+  </si>
+  <si>
+    <t>充气口塞</t>
+  </si>
+  <si>
+    <t>管型口枷</t>
+  </si>
+  <si>
+    <t>阳具口塞</t>
+  </si>
+  <si>
+    <t>奶嘴</t>
+  </si>
+  <si>
+    <t>医用张口器</t>
+  </si>
+  <si>
+    <t>一次性开口器</t>
+  </si>
+  <si>
+    <t>喂食管</t>
+  </si>
+  <si>
+    <t>对脸部</t>
+  </si>
+  <si>
+    <t>鼻钩</t>
+  </si>
+  <si>
+    <t>对手部</t>
+  </si>
+  <si>
+    <t>手铐</t>
+  </si>
+  <si>
+    <t>指铐</t>
+  </si>
+  <si>
+    <t>对腿部</t>
+  </si>
+  <si>
+    <t>脚镣</t>
+  </si>
+  <si>
+    <t>大腿铐</t>
+  </si>
+  <si>
+    <t>对全身</t>
+  </si>
+  <si>
+    <t>真空床</t>
+  </si>
+  <si>
+    <t>拘束衣</t>
+  </si>
+  <si>
+    <t>其他部位</t>
+  </si>
+  <si>
+    <t>肛钩</t>
+  </si>
+  <si>
     <t>颈手枷</t>
   </si>
   <si>
-    <t>圣安德烈十字</t>
-  </si>
-  <si>
-    <t>铁处女</t>
-  </si>
-  <si>
-    <t>清道夫的女儿</t>
-  </si>
-  <si>
-    <t>苦恼之梨</t>
-  </si>
-  <si>
-    <t>犹大椅</t>
-  </si>
-  <si>
-    <t>三角木马</t>
-  </si>
-  <si>
-    <t>刺激道具与情趣饰品</t>
-  </si>
-  <si>
-    <t>通用</t>
-  </si>
-  <si>
-    <t>跳蛋</t>
-  </si>
-  <si>
-    <t>震动棒</t>
-  </si>
-  <si>
-    <t>炮机</t>
-  </si>
-  <si>
-    <t>塞班鞍</t>
-  </si>
-  <si>
-    <t>对头部或脸部</t>
-  </si>
-  <si>
-    <t>头套</t>
-  </si>
-  <si>
-    <t>眼罩</t>
-  </si>
-  <si>
-    <t>口罩</t>
-  </si>
-  <si>
-    <t>对乳房/乳头</t>
-  </si>
-  <si>
-    <t>乳夹</t>
-  </si>
-  <si>
-    <t>内陷矫正器</t>
-  </si>
-  <si>
-    <t>吸奶器</t>
-  </si>
-  <si>
-    <t>乳环/乳钉</t>
-  </si>
-  <si>
-    <t>对阴茎或睾丸</t>
-  </si>
-  <si>
-    <t>飞机杯</t>
-  </si>
-  <si>
-    <t>CB锁</t>
-  </si>
-  <si>
-    <t>束精环</t>
-  </si>
-  <si>
-    <t>对尿道</t>
-  </si>
-  <si>
-    <t>尿道塞/棒</t>
-  </si>
-  <si>
-    <t>导尿管</t>
-  </si>
-  <si>
-    <t>尿袋</t>
-  </si>
-  <si>
-    <t>对阴道或肛门</t>
-  </si>
-  <si>
-    <t>肛塞</t>
-  </si>
-  <si>
-    <t>假阳具</t>
-  </si>
-  <si>
-    <t>拉珠</t>
-  </si>
-  <si>
-    <t>肛鞭</t>
-  </si>
-  <si>
-    <t>前列腺按摩器</t>
-  </si>
-  <si>
-    <t>贞操带</t>
-  </si>
-  <si>
-    <t>阴蒂环</t>
-  </si>
-  <si>
-    <t>阴唇环</t>
-  </si>
-  <si>
-    <t>sp道具</t>
-  </si>
-  <si>
-    <t>鞭子</t>
-  </si>
-  <si>
-    <t>戒尺</t>
-  </si>
-  <si>
-    <t>棍棒</t>
-  </si>
-  <si>
-    <t>电击道具</t>
-  </si>
-  <si>
-    <t>电击棒</t>
-  </si>
-  <si>
-    <t>电极片</t>
-  </si>
-  <si>
-    <t>电击插入物</t>
-  </si>
-  <si>
-    <t>电击项圈</t>
-  </si>
-  <si>
-    <t>电击手环</t>
-  </si>
-  <si>
-    <t>拘束具</t>
-  </si>
-  <si>
-    <t>绳子</t>
-  </si>
-  <si>
-    <t>一般胶带</t>
-  </si>
-  <si>
-    <t>静电胶带</t>
-  </si>
-  <si>
-    <t>保鲜膜/缠绕膜</t>
-  </si>
-  <si>
-    <t>绷带</t>
-  </si>
-  <si>
-    <t>拘束皮带</t>
-  </si>
-  <si>
-    <t>锁链</t>
-  </si>
-  <si>
-    <t>衣夹</t>
-  </si>
-  <si>
-    <t>定时锁</t>
-  </si>
-  <si>
-    <t>对头部</t>
-  </si>
-  <si>
-    <t>降噪耳罩</t>
-  </si>
-  <si>
-    <t>降噪耳塞</t>
-  </si>
-  <si>
-    <t>嘴部</t>
-  </si>
-  <si>
-    <t>口球</t>
-  </si>
-  <si>
-    <t>口衔</t>
-  </si>
-  <si>
-    <t>口枷</t>
-  </si>
-  <si>
-    <t>漏斗口塞</t>
-  </si>
-  <si>
-    <t>充气口塞</t>
-  </si>
-  <si>
-    <t>管型口枷</t>
-  </si>
-  <si>
-    <t>阳具口塞</t>
-  </si>
-  <si>
-    <t>奶嘴</t>
-  </si>
-  <si>
-    <t>医用张口器</t>
-  </si>
-  <si>
-    <t>一次性开口器</t>
-  </si>
-  <si>
-    <t>喂食管</t>
-  </si>
-  <si>
-    <t>对脸部</t>
-  </si>
-  <si>
-    <t>鼻钩</t>
-  </si>
-  <si>
-    <t>对手部</t>
-  </si>
-  <si>
-    <t>手铐</t>
-  </si>
-  <si>
-    <t>指铐</t>
-  </si>
-  <si>
-    <t>对腿部</t>
-  </si>
-  <si>
-    <t>脚镣</t>
-  </si>
-  <si>
-    <t>大腿铐</t>
-  </si>
-  <si>
-    <t>对全身</t>
-  </si>
-  <si>
-    <t>真空床</t>
-  </si>
-  <si>
-    <t>拘束衣</t>
-  </si>
-  <si>
-    <t>其他部位</t>
-  </si>
-  <si>
-    <t>肛钩</t>
-  </si>
-  <si>
     <t>项圈</t>
   </si>
   <si>
@@ -704,12 +755,18 @@
     <t>阿嘿颜</t>
   </si>
   <si>
+    <t>颜面骑乘</t>
+  </si>
+  <si>
     <t>乳头承重</t>
   </si>
   <si>
     <t>挤奶</t>
   </si>
   <si>
+    <t>虐乳</t>
+  </si>
+  <si>
     <t>对阴茎</t>
   </si>
   <si>
@@ -749,6 +806,12 @@
     <t>对尿道或膀胱</t>
   </si>
   <si>
+    <t>尿道扩张</t>
+  </si>
+  <si>
+    <t>膀胱充入液体</t>
+  </si>
+  <si>
     <t>对肛门</t>
   </si>
   <si>
@@ -785,6 +848,9 @@
     <t>强制高潮</t>
   </si>
   <si>
+    <t>限制高潮</t>
+  </si>
+  <si>
     <t>自慰展示</t>
   </si>
   <si>
@@ -824,6 +890,36 @@
     <t>烙印</t>
   </si>
   <si>
+    <t>动物扮演</t>
+  </si>
+  <si>
+    <t>排泄控制</t>
+  </si>
+  <si>
+    <t>sp</t>
+  </si>
+  <si>
+    <t>人体家具</t>
+  </si>
+  <si>
+    <t>放置</t>
+  </si>
+  <si>
+    <t>机械奸</t>
+  </si>
+  <si>
+    <t>角色扮演</t>
+  </si>
+  <si>
+    <t>摄影</t>
+  </si>
+  <si>
+    <t>女体盛</t>
+  </si>
+  <si>
+    <t>桌下交</t>
+  </si>
+  <si>
     <t>场景行为</t>
   </si>
   <si>
@@ -923,9 +1019,6 @@
     <t>大便失禁</t>
   </si>
   <si>
-    <t>汗液</t>
-  </si>
-  <si>
     <t>血液</t>
   </si>
   <si>
@@ -935,6 +1028,18 @@
     <t>放血</t>
   </si>
   <si>
+    <t>饮血（M对S）</t>
+  </si>
+  <si>
+    <t>指M喝下S的血液</t>
+  </si>
+  <si>
+    <t>饮血（S对M）</t>
+  </si>
+  <si>
+    <t>指S喝下M的血液</t>
+  </si>
+  <si>
     <t>语言与心理</t>
   </si>
   <si>
@@ -1025,9 +1130,27 @@
     <t>椅子束缚</t>
   </si>
   <si>
+    <t>木乃伊</t>
+  </si>
+  <si>
     <t>舔舐行为</t>
   </si>
   <si>
+    <t>舔阴</t>
+  </si>
+  <si>
+    <t>舔肛</t>
+  </si>
+  <si>
+    <t>舔手指</t>
+  </si>
+  <si>
+    <t>舔足</t>
+  </si>
+  <si>
+    <t>舔全身</t>
+  </si>
+  <si>
     <t>人身限制</t>
   </si>
   <si>
@@ -1064,6 +1187,54 @@
     <t>昆虫爬身</t>
   </si>
   <si>
+    <t>刑罚</t>
+  </si>
+  <si>
+    <t>水刑</t>
+  </si>
+  <si>
+    <t>火刑</t>
+  </si>
+  <si>
+    <t>姜刑</t>
+  </si>
+  <si>
+    <t>吊刑</t>
+  </si>
+  <si>
+    <t>宫刑</t>
+  </si>
+  <si>
+    <t>笑刑</t>
+  </si>
+  <si>
+    <t>腰斩</t>
+  </si>
+  <si>
+    <t>车裂</t>
+  </si>
+  <si>
+    <t>剥皮</t>
+  </si>
+  <si>
+    <t>凌迟</t>
+  </si>
+  <si>
+    <t>绞刑</t>
+  </si>
+  <si>
+    <t>枭首</t>
+  </si>
+  <si>
+    <t>烹煮</t>
+  </si>
+  <si>
+    <t>石抱</t>
+  </si>
+  <si>
+    <t>电刑</t>
+  </si>
+  <si>
     <t>性取向</t>
   </si>
   <si>
@@ -1110,6 +1281,102 @@
   </si>
   <si>
     <t>发型</t>
+  </si>
+  <si>
+    <t>整体</t>
+  </si>
+  <si>
+    <t>长发</t>
+  </si>
+  <si>
+    <t>中长发</t>
+  </si>
+  <si>
+    <t>短发</t>
+  </si>
+  <si>
+    <t>光头</t>
+  </si>
+  <si>
+    <t>呆毛</t>
+  </si>
+  <si>
+    <t>卷毛</t>
+  </si>
+  <si>
+    <t>BOBO头</t>
+  </si>
+  <si>
+    <t>蘑菇头</t>
+  </si>
+  <si>
+    <t>刺猬头</t>
+  </si>
+  <si>
+    <t>乱发</t>
+  </si>
+  <si>
+    <t>飞机头</t>
+  </si>
+  <si>
+    <t>地中海</t>
+  </si>
+  <si>
+    <t>爆炸头</t>
+  </si>
+  <si>
+    <t>大背头</t>
+  </si>
+  <si>
+    <t>前发</t>
+  </si>
+  <si>
+    <t>遮眼发</t>
+  </si>
+  <si>
+    <t>齐刘海</t>
+  </si>
+  <si>
+    <t>露额头</t>
+  </si>
+  <si>
+    <t>中分</t>
+  </si>
+  <si>
+    <t>M形刘海</t>
+  </si>
+  <si>
+    <t>长鬓发</t>
+  </si>
+  <si>
+    <t>后发</t>
+  </si>
+  <si>
+    <t>单马尾</t>
+  </si>
+  <si>
+    <t>双马尾</t>
+  </si>
+  <si>
+    <t>多马尾</t>
+  </si>
+  <si>
+    <t>麻花辫</t>
+  </si>
+  <si>
+    <t>朝天辫</t>
+  </si>
+  <si>
+    <t>丸子头</t>
+  </si>
+  <si>
+    <t>尾扎长发</t>
+  </si>
+  <si>
+    <t>Half-up</t>
+  </si>
+  <si>
+    <t>王冠编发</t>
   </si>
   <si>
     <t>发色</t>
@@ -1219,7 +1486,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="146">
+  <borders count="156">
     <border>
       <left/>
       <right/>
@@ -2155,6 +2422,19 @@
       </bottom>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="000000"/>
+      </left>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+    </border>
+    <border>
       <left style="medium"/>
       <bottom style="medium"/>
     </border>
@@ -2327,14 +2607,6 @@
       </top>
     </border>
     <border>
-      <right style="thin"/>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="000000"/>
-      </right>
-    </border>
-    <border>
       <right style="medium"/>
       <top style="thin"/>
     </border>
@@ -2352,11 +2624,79 @@
         <color rgb="000000"/>
       </top>
     </border>
+    <border>
+      <left style="medium"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="000000"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin">
+        <color rgb="000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="000000"/>
+      </left>
+      <right style="medium"/>
+      <top style="thin">
+        <color rgb="000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000"/>
+      </top>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" horizontal="center" vertical="center"/>
@@ -2496,16 +2836,22 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="119" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="false" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="121" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="false" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="87" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="92" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="123" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="126" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="123" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="126" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="118" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
@@ -2514,34 +2860,34 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="118" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="126" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="129" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="126" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="129" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="131" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="134" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="135" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="138" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="135" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="138" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="140" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="143" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="142" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="121" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="142" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="121" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="145" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="146" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="145" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="146" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
@@ -2552,6 +2898,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="108" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="151" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="false" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="68" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="false" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="68" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="false" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="155" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="false" horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
       <alignment wrapText="false" horizontal="center" vertical="center"/>
@@ -2567,7 +2925,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2902,7 +3260,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -6307,7 +6665,7 @@
       <c r="A110" s="22"/>
       <c r="B110" s="18"/>
       <c r="C110" s="18"/>
-      <c r="D110" s="18"/>
+      <c r="D110" s="20"/>
       <c r="E110" s="19"/>
       <c r="F110" s="20"/>
       <c r="G110" s="21"/>
@@ -6336,7 +6694,9 @@
       <c r="A111" s="22"/>
       <c r="B111" s="18"/>
       <c r="C111" s="18"/>
-      <c r="D111" s="18"/>
+      <c r="D111" s="17" t="s">
+        <v>107</v>
+      </c>
       <c r="E111" s="19"/>
       <c r="F111" s="20"/>
       <c r="G111" s="21"/>
@@ -6365,7 +6725,9 @@
       <c r="A112" s="22"/>
       <c r="B112" s="18"/>
       <c r="C112" s="18"/>
-      <c r="D112" s="20"/>
+      <c r="D112" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="E112" s="19"/>
       <c r="F112" s="20"/>
       <c r="G112" s="21"/>
@@ -6392,14 +6754,16 @@
     </row>
     <row r="113">
       <c r="A113" s="22"/>
-      <c r="B113" s="18"/>
+      <c r="B113" s="17" t="s">
+        <v>109</v>
+      </c>
       <c r="C113" s="18"/>
       <c r="D113" s="17" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E113" s="19"/>
-      <c r="F113" s="20"/>
-      <c r="G113" s="21"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="25"/>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
@@ -6426,11 +6790,11 @@
       <c r="B114" s="18"/>
       <c r="C114" s="18"/>
       <c r="D114" s="17" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E114" s="19"/>
-      <c r="F114" s="20"/>
-      <c r="G114" s="21"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="25"/>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
@@ -6453,17 +6817,15 @@
       <c r="AA114" s="4"/>
     </row>
     <row r="115">
-      <c r="A115" s="22"/>
-      <c r="B115" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="C115" s="18"/>
-      <c r="D115" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E115" s="19"/>
-      <c r="F115" s="17"/>
-      <c r="G115" s="25"/>
+      <c r="A115" s="26"/>
+      <c r="B115" s="27"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="E115" s="29"/>
+      <c r="F115" s="28"/>
+      <c r="G115" s="30"/>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
@@ -6486,15 +6848,19 @@
       <c r="AA115" s="4"/>
     </row>
     <row r="116">
-      <c r="A116" s="22"/>
-      <c r="B116" s="18"/>
-      <c r="C116" s="18"/>
-      <c r="D116" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="E116" s="19"/>
-      <c r="F116" s="17"/>
-      <c r="G116" s="25"/>
+      <c r="A116" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B116" s="32"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="33"/>
+      <c r="F116" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G116" s="34" t="s">
+        <v>115</v>
+      </c>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
@@ -6517,15 +6883,17 @@
       <c r="AA116" s="4"/>
     </row>
     <row r="117">
-      <c r="A117" s="26"/>
-      <c r="B117" s="27"/>
-      <c r="C117" s="27"/>
-      <c r="D117" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E117" s="29"/>
-      <c r="F117" s="28"/>
-      <c r="G117" s="30"/>
+      <c r="A117" s="22"/>
+      <c r="B117" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C117" s="18"/>
+      <c r="D117" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E117" s="19"/>
+      <c r="F117" s="20"/>
+      <c r="G117" s="21"/>
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
@@ -6548,19 +6916,15 @@
       <c r="AA117" s="4"/>
     </row>
     <row r="118">
-      <c r="A118" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="B118" s="32"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
-      <c r="E118" s="33"/>
-      <c r="F118" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G118" s="34" t="s">
-        <v>115</v>
-      </c>
+      <c r="A118" s="22"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E118" s="19"/>
+      <c r="F118" s="20"/>
+      <c r="G118" s="21"/>
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
@@ -6584,12 +6948,10 @@
     </row>
     <row r="119">
       <c r="A119" s="22"/>
-      <c r="B119" s="17" t="s">
-        <v>116</v>
-      </c>
+      <c r="B119" s="18"/>
       <c r="C119" s="18"/>
       <c r="D119" s="17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E119" s="19"/>
       <c r="F119" s="20"/>
@@ -6620,7 +6982,7 @@
       <c r="B120" s="18"/>
       <c r="C120" s="18"/>
       <c r="D120" s="17" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E120" s="19"/>
       <c r="F120" s="20"/>
@@ -6651,7 +7013,7 @@
       <c r="B121" s="18"/>
       <c r="C121" s="18"/>
       <c r="D121" s="17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E121" s="19"/>
       <c r="F121" s="20"/>
@@ -6682,7 +7044,7 @@
       <c r="B122" s="18"/>
       <c r="C122" s="18"/>
       <c r="D122" s="17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E122" s="19"/>
       <c r="F122" s="20"/>
@@ -6713,7 +7075,7 @@
       <c r="B123" s="18"/>
       <c r="C123" s="18"/>
       <c r="D123" s="17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E123" s="19"/>
       <c r="F123" s="20"/>
@@ -6744,7 +7106,7 @@
       <c r="B124" s="18"/>
       <c r="C124" s="18"/>
       <c r="D124" s="17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E124" s="19"/>
       <c r="F124" s="20"/>
@@ -6775,7 +7137,7 @@
       <c r="B125" s="18"/>
       <c r="C125" s="18"/>
       <c r="D125" s="17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E125" s="19"/>
       <c r="F125" s="20"/>
@@ -6805,7 +7167,9 @@
       <c r="A126" s="22"/>
       <c r="B126" s="18"/>
       <c r="C126" s="18"/>
-      <c r="D126" s="20"/>
+      <c r="D126" s="17" t="s">
+        <v>126</v>
+      </c>
       <c r="E126" s="19"/>
       <c r="F126" s="20"/>
       <c r="G126" s="21"/>
@@ -6832,14 +7196,10 @@
     </row>
     <row r="127">
       <c r="A127" s="22"/>
-      <c r="B127" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C127" s="17" t="s">
-        <v>125</v>
-      </c>
+      <c r="B127" s="18"/>
+      <c r="C127" s="18"/>
       <c r="D127" s="17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E127" s="19"/>
       <c r="F127" s="20"/>
@@ -6870,7 +7230,7 @@
       <c r="B128" s="18"/>
       <c r="C128" s="18"/>
       <c r="D128" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E128" s="19"/>
       <c r="F128" s="20"/>
@@ -6901,7 +7261,7 @@
       <c r="B129" s="18"/>
       <c r="C129" s="18"/>
       <c r="D129" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E129" s="19"/>
       <c r="F129" s="20"/>
@@ -6932,7 +7292,7 @@
       <c r="B130" s="18"/>
       <c r="C130" s="18"/>
       <c r="D130" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E130" s="19"/>
       <c r="F130" s="20"/>
@@ -6962,7 +7322,9 @@
       <c r="A131" s="22"/>
       <c r="B131" s="18"/>
       <c r="C131" s="18"/>
-      <c r="D131" s="20"/>
+      <c r="D131" s="17" t="s">
+        <v>131</v>
+      </c>
       <c r="E131" s="19"/>
       <c r="F131" s="20"/>
       <c r="G131" s="21"/>
@@ -6991,7 +7353,9 @@
       <c r="A132" s="22"/>
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
-      <c r="D132" s="17"/>
+      <c r="D132" s="17" t="s">
+        <v>132</v>
+      </c>
       <c r="E132" s="19"/>
       <c r="F132" s="20"/>
       <c r="G132" s="21"/>
@@ -7019,11 +7383,9 @@
     <row r="133">
       <c r="A133" s="22"/>
       <c r="B133" s="18"/>
-      <c r="C133" s="17" t="s">
-        <v>130</v>
-      </c>
+      <c r="C133" s="18"/>
       <c r="D133" s="17" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E133" s="19"/>
       <c r="F133" s="20"/>
@@ -7054,7 +7416,7 @@
       <c r="B134" s="18"/>
       <c r="C134" s="18"/>
       <c r="D134" s="17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E134" s="19"/>
       <c r="F134" s="20"/>
@@ -7084,8 +7446,8 @@
       <c r="A135" s="22"/>
       <c r="B135" s="18"/>
       <c r="C135" s="18"/>
-      <c r="D135" s="23" t="s">
-        <v>133</v>
+      <c r="D135" s="17" t="s">
+        <v>135</v>
       </c>
       <c r="E135" s="19"/>
       <c r="F135" s="20"/>
@@ -7114,9 +7476,11 @@
     <row r="136">
       <c r="A136" s="22"/>
       <c r="B136" s="18"/>
-      <c r="C136" s="36"/>
-      <c r="D136" s="18"/>
-      <c r="E136" s="37"/>
+      <c r="C136" s="18"/>
+      <c r="D136" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E136" s="19"/>
       <c r="F136" s="20"/>
       <c r="G136" s="21"/>
       <c r="H136" s="4"/>
@@ -7143,9 +7507,11 @@
     <row r="137">
       <c r="A137" s="22"/>
       <c r="B137" s="18"/>
-      <c r="C137" s="36"/>
-      <c r="D137" s="18"/>
-      <c r="E137" s="37"/>
+      <c r="C137" s="18"/>
+      <c r="D137" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E137" s="19"/>
       <c r="F137" s="20"/>
       <c r="G137" s="21"/>
       <c r="H137" s="4"/>
@@ -7173,7 +7539,9 @@
       <c r="A138" s="22"/>
       <c r="B138" s="18"/>
       <c r="C138" s="18"/>
-      <c r="D138" s="38"/>
+      <c r="D138" s="17" t="s">
+        <v>138</v>
+      </c>
       <c r="E138" s="19"/>
       <c r="F138" s="20"/>
       <c r="G138" s="21"/>
@@ -7201,11 +7569,9 @@
     <row r="139">
       <c r="A139" s="22"/>
       <c r="B139" s="18"/>
-      <c r="C139" s="17" t="s">
-        <v>134</v>
-      </c>
+      <c r="C139" s="18"/>
       <c r="D139" s="17" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="E139" s="19"/>
       <c r="F139" s="20"/>
@@ -7236,7 +7602,7 @@
       <c r="B140" s="18"/>
       <c r="C140" s="18"/>
       <c r="D140" s="17" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E140" s="19"/>
       <c r="F140" s="20"/>
@@ -7264,10 +7630,14 @@
     </row>
     <row r="141">
       <c r="A141" s="22"/>
-      <c r="B141" s="18"/>
-      <c r="C141" s="18"/>
+      <c r="B141" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C141" s="17" t="s">
+        <v>141</v>
+      </c>
       <c r="D141" s="17" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E141" s="19"/>
       <c r="F141" s="20"/>
@@ -7298,7 +7668,7 @@
       <c r="B142" s="18"/>
       <c r="C142" s="18"/>
       <c r="D142" s="17" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E142" s="19"/>
       <c r="F142" s="20"/>
@@ -7327,11 +7697,9 @@
     <row r="143">
       <c r="A143" s="22"/>
       <c r="B143" s="18"/>
-      <c r="C143" s="17" t="s">
-        <v>139</v>
-      </c>
+      <c r="C143" s="18"/>
       <c r="D143" s="17" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E143" s="19"/>
       <c r="F143" s="20"/>
@@ -7362,7 +7730,7 @@
       <c r="B144" s="18"/>
       <c r="C144" s="18"/>
       <c r="D144" s="17" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E144" s="19"/>
       <c r="F144" s="20"/>
@@ -7392,9 +7760,7 @@
       <c r="A145" s="22"/>
       <c r="B145" s="18"/>
       <c r="C145" s="18"/>
-      <c r="D145" s="17" t="s">
-        <v>142</v>
-      </c>
+      <c r="D145" s="20"/>
       <c r="E145" s="19"/>
       <c r="F145" s="20"/>
       <c r="G145" s="21"/>
@@ -7422,12 +7788,8 @@
     <row r="146">
       <c r="A146" s="22"/>
       <c r="B146" s="18"/>
-      <c r="C146" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D146" s="17" t="s">
-        <v>144</v>
-      </c>
+      <c r="C146" s="18"/>
+      <c r="D146" s="17"/>
       <c r="E146" s="19"/>
       <c r="F146" s="20"/>
       <c r="G146" s="21"/>
@@ -7455,9 +7817,11 @@
     <row r="147">
       <c r="A147" s="22"/>
       <c r="B147" s="18"/>
-      <c r="C147" s="18"/>
+      <c r="C147" s="17" t="s">
+        <v>146</v>
+      </c>
       <c r="D147" s="17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E147" s="19"/>
       <c r="F147" s="20"/>
@@ -7488,7 +7852,7 @@
       <c r="B148" s="18"/>
       <c r="C148" s="18"/>
       <c r="D148" s="17" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E148" s="19"/>
       <c r="F148" s="20"/>
@@ -7518,7 +7882,9 @@
       <c r="A149" s="22"/>
       <c r="B149" s="18"/>
       <c r="C149" s="18"/>
-      <c r="D149" s="20"/>
+      <c r="D149" s="23" t="s">
+        <v>149</v>
+      </c>
       <c r="E149" s="19"/>
       <c r="F149" s="20"/>
       <c r="G149" s="21"/>
@@ -7546,13 +7912,9 @@
     <row r="150">
       <c r="A150" s="22"/>
       <c r="B150" s="18"/>
-      <c r="C150" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D150" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="E150" s="19"/>
+      <c r="C150" s="36"/>
+      <c r="D150" s="18"/>
+      <c r="E150" s="37"/>
       <c r="F150" s="20"/>
       <c r="G150" s="21"/>
       <c r="H150" s="4"/>
@@ -7579,11 +7941,9 @@
     <row r="151">
       <c r="A151" s="22"/>
       <c r="B151" s="18"/>
-      <c r="C151" s="18"/>
-      <c r="D151" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="E151" s="19"/>
+      <c r="C151" s="36"/>
+      <c r="D151" s="18"/>
+      <c r="E151" s="37"/>
       <c r="F151" s="20"/>
       <c r="G151" s="21"/>
       <c r="H151" s="4"/>
@@ -7611,9 +7971,7 @@
       <c r="A152" s="22"/>
       <c r="B152" s="18"/>
       <c r="C152" s="18"/>
-      <c r="D152" s="17" t="s">
-        <v>150</v>
-      </c>
+      <c r="D152" s="38"/>
       <c r="E152" s="19"/>
       <c r="F152" s="20"/>
       <c r="G152" s="21"/>
@@ -7641,7 +7999,9 @@
     <row r="153">
       <c r="A153" s="22"/>
       <c r="B153" s="18"/>
-      <c r="C153" s="18"/>
+      <c r="C153" s="17" t="s">
+        <v>150</v>
+      </c>
       <c r="D153" s="17" t="s">
         <v>151</v>
       </c>
@@ -7765,9 +8125,11 @@
     <row r="157">
       <c r="A157" s="22"/>
       <c r="B157" s="18"/>
-      <c r="C157" s="18"/>
+      <c r="C157" s="17" t="s">
+        <v>155</v>
+      </c>
       <c r="D157" s="17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E157" s="19"/>
       <c r="F157" s="20"/>
@@ -7797,7 +8159,9 @@
       <c r="A158" s="22"/>
       <c r="B158" s="18"/>
       <c r="C158" s="18"/>
-      <c r="D158" s="20"/>
+      <c r="D158" s="17" t="s">
+        <v>157</v>
+      </c>
       <c r="E158" s="19"/>
       <c r="F158" s="20"/>
       <c r="G158" s="21"/>
@@ -7825,8 +8189,10 @@
     <row r="159">
       <c r="A159" s="22"/>
       <c r="B159" s="18"/>
-      <c r="C159" s="20"/>
-      <c r="D159" s="20"/>
+      <c r="C159" s="18"/>
+      <c r="D159" s="17" t="s">
+        <v>158</v>
+      </c>
       <c r="E159" s="19"/>
       <c r="F159" s="20"/>
       <c r="G159" s="21"/>
@@ -7855,10 +8221,10 @@
       <c r="A160" s="22"/>
       <c r="B160" s="18"/>
       <c r="C160" s="17" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E160" s="19"/>
       <c r="F160" s="20"/>
@@ -7889,7 +8255,7 @@
       <c r="B161" s="18"/>
       <c r="C161" s="18"/>
       <c r="D161" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E161" s="19"/>
       <c r="F161" s="20"/>
@@ -7920,7 +8286,7 @@
       <c r="B162" s="18"/>
       <c r="C162" s="18"/>
       <c r="D162" s="17" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E162" s="19"/>
       <c r="F162" s="20"/>
@@ -7979,10 +8345,10 @@
       <c r="A164" s="22"/>
       <c r="B164" s="18"/>
       <c r="C164" s="17" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E164" s="19"/>
       <c r="F164" s="20"/>
@@ -8013,7 +8379,7 @@
       <c r="B165" s="18"/>
       <c r="C165" s="18"/>
       <c r="D165" s="17" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E165" s="19"/>
       <c r="F165" s="20"/>
@@ -8044,7 +8410,7 @@
       <c r="B166" s="18"/>
       <c r="C166" s="18"/>
       <c r="D166" s="17" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E166" s="19"/>
       <c r="F166" s="20"/>
@@ -8075,7 +8441,7 @@
       <c r="B167" s="18"/>
       <c r="C167" s="18"/>
       <c r="D167" s="17" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E167" s="19"/>
       <c r="F167" s="20"/>
@@ -8106,7 +8472,7 @@
       <c r="B168" s="18"/>
       <c r="C168" s="18"/>
       <c r="D168" s="17" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E168" s="19"/>
       <c r="F168" s="20"/>
@@ -8136,7 +8502,9 @@
       <c r="A169" s="22"/>
       <c r="B169" s="18"/>
       <c r="C169" s="18"/>
-      <c r="D169" s="20"/>
+      <c r="D169" s="17" t="s">
+        <v>169</v>
+      </c>
       <c r="E169" s="19"/>
       <c r="F169" s="20"/>
       <c r="G169" s="21"/>
@@ -8164,8 +8532,10 @@
     <row r="170">
       <c r="A170" s="22"/>
       <c r="B170" s="18"/>
-      <c r="C170" s="20"/>
-      <c r="D170" s="20"/>
+      <c r="C170" s="18"/>
+      <c r="D170" s="17" t="s">
+        <v>170</v>
+      </c>
       <c r="E170" s="19"/>
       <c r="F170" s="20"/>
       <c r="G170" s="21"/>
@@ -8193,8 +8563,10 @@
     <row r="171">
       <c r="A171" s="22"/>
       <c r="B171" s="18"/>
-      <c r="C171" s="20"/>
-      <c r="D171" s="20"/>
+      <c r="C171" s="18"/>
+      <c r="D171" s="17" t="s">
+        <v>171</v>
+      </c>
       <c r="E171" s="19"/>
       <c r="F171" s="20"/>
       <c r="G171" s="21"/>
@@ -8221,18 +8593,12 @@
     </row>
     <row r="172">
       <c r="A172" s="22"/>
-      <c r="B172" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C172" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D172" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="E172" s="39"/>
-      <c r="F172" s="40"/>
-      <c r="G172" s="41"/>
+      <c r="B172" s="18"/>
+      <c r="C172" s="18"/>
+      <c r="D172" s="20"/>
+      <c r="E172" s="19"/>
+      <c r="F172" s="20"/>
+      <c r="G172" s="21"/>
       <c r="H172" s="4"/>
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
@@ -8257,13 +8623,11 @@
     <row r="173">
       <c r="A173" s="22"/>
       <c r="B173" s="18"/>
-      <c r="C173" s="18"/>
-      <c r="D173" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="E173" s="39"/>
-      <c r="F173" s="40"/>
-      <c r="G173" s="41"/>
+      <c r="C173" s="20"/>
+      <c r="D173" s="20"/>
+      <c r="E173" s="19"/>
+      <c r="F173" s="20"/>
+      <c r="G173" s="21"/>
       <c r="H173" s="4"/>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
@@ -8288,13 +8652,15 @@
     <row r="174">
       <c r="A174" s="22"/>
       <c r="B174" s="18"/>
-      <c r="C174" s="18"/>
+      <c r="C174" s="17" t="s">
+        <v>172</v>
+      </c>
       <c r="D174" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E174" s="39"/>
-      <c r="F174" s="40"/>
-      <c r="G174" s="41"/>
+        <v>173</v>
+      </c>
+      <c r="E174" s="19"/>
+      <c r="F174" s="20"/>
+      <c r="G174" s="21"/>
       <c r="H174" s="4"/>
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
@@ -8321,11 +8687,11 @@
       <c r="B175" s="18"/>
       <c r="C175" s="18"/>
       <c r="D175" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="E175" s="39"/>
-      <c r="F175" s="40"/>
-      <c r="G175" s="41"/>
+        <v>174</v>
+      </c>
+      <c r="E175" s="19"/>
+      <c r="F175" s="20"/>
+      <c r="G175" s="21"/>
       <c r="H175" s="4"/>
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
@@ -8352,11 +8718,11 @@
       <c r="B176" s="18"/>
       <c r="C176" s="18"/>
       <c r="D176" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="E176" s="39"/>
-      <c r="F176" s="40"/>
-      <c r="G176" s="41"/>
+        <v>175</v>
+      </c>
+      <c r="E176" s="19"/>
+      <c r="F176" s="20"/>
+      <c r="G176" s="21"/>
       <c r="H176" s="4"/>
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
@@ -8382,12 +8748,10 @@
       <c r="A177" s="22"/>
       <c r="B177" s="18"/>
       <c r="C177" s="18"/>
-      <c r="D177" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="E177" s="39"/>
-      <c r="F177" s="40"/>
-      <c r="G177" s="41"/>
+      <c r="D177" s="20"/>
+      <c r="E177" s="19"/>
+      <c r="F177" s="20"/>
+      <c r="G177" s="21"/>
       <c r="H177" s="4"/>
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
@@ -8412,13 +8776,15 @@
     <row r="178">
       <c r="A178" s="22"/>
       <c r="B178" s="18"/>
-      <c r="C178" s="18"/>
+      <c r="C178" s="17" t="s">
+        <v>176</v>
+      </c>
       <c r="D178" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E178" s="39"/>
-      <c r="F178" s="40"/>
-      <c r="G178" s="41"/>
+        <v>177</v>
+      </c>
+      <c r="E178" s="19"/>
+      <c r="F178" s="20"/>
+      <c r="G178" s="21"/>
       <c r="H178" s="4"/>
       <c r="I178" s="4"/>
       <c r="J178" s="4"/>
@@ -8445,11 +8811,11 @@
       <c r="B179" s="18"/>
       <c r="C179" s="18"/>
       <c r="D179" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="E179" s="39"/>
-      <c r="F179" s="40"/>
-      <c r="G179" s="41"/>
+        <v>178</v>
+      </c>
+      <c r="E179" s="19"/>
+      <c r="F179" s="20"/>
+      <c r="G179" s="21"/>
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
@@ -8476,11 +8842,11 @@
       <c r="B180" s="18"/>
       <c r="C180" s="18"/>
       <c r="D180" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="E180" s="39"/>
-      <c r="F180" s="40"/>
-      <c r="G180" s="41"/>
+        <v>179</v>
+      </c>
+      <c r="E180" s="19"/>
+      <c r="F180" s="20"/>
+      <c r="G180" s="21"/>
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
       <c r="J180" s="4"/>
@@ -8506,10 +8872,12 @@
       <c r="A181" s="22"/>
       <c r="B181" s="18"/>
       <c r="C181" s="18"/>
-      <c r="D181" s="17"/>
-      <c r="E181" s="39"/>
-      <c r="F181" s="40"/>
-      <c r="G181" s="41"/>
+      <c r="D181" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="E181" s="19"/>
+      <c r="F181" s="20"/>
+      <c r="G181" s="21"/>
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
@@ -8535,10 +8903,12 @@
       <c r="A182" s="22"/>
       <c r="B182" s="18"/>
       <c r="C182" s="18"/>
-      <c r="D182" s="17"/>
-      <c r="E182" s="39"/>
-      <c r="F182" s="40"/>
-      <c r="G182" s="41"/>
+      <c r="D182" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E182" s="19"/>
+      <c r="F182" s="20"/>
+      <c r="G182" s="21"/>
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
       <c r="J182" s="4"/>
@@ -8564,10 +8934,10 @@
       <c r="A183" s="22"/>
       <c r="B183" s="18"/>
       <c r="C183" s="18"/>
-      <c r="D183" s="17"/>
-      <c r="E183" s="39"/>
-      <c r="F183" s="40"/>
-      <c r="G183" s="41"/>
+      <c r="D183" s="20"/>
+      <c r="E183" s="19"/>
+      <c r="F183" s="20"/>
+      <c r="G183" s="21"/>
       <c r="H183" s="4"/>
       <c r="I183" s="4"/>
       <c r="J183" s="4"/>
@@ -8592,11 +8962,11 @@
     <row r="184">
       <c r="A184" s="22"/>
       <c r="B184" s="18"/>
-      <c r="C184" s="18"/>
-      <c r="D184" s="17"/>
-      <c r="E184" s="39"/>
-      <c r="F184" s="40"/>
-      <c r="G184" s="41"/>
+      <c r="C184" s="20"/>
+      <c r="D184" s="20"/>
+      <c r="E184" s="19"/>
+      <c r="F184" s="20"/>
+      <c r="G184" s="21"/>
       <c r="H184" s="4"/>
       <c r="I184" s="4"/>
       <c r="J184" s="4"/>
@@ -8621,15 +8991,11 @@
     <row r="185">
       <c r="A185" s="22"/>
       <c r="B185" s="18"/>
-      <c r="C185" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="D185" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E185" s="39"/>
-      <c r="F185" s="40"/>
-      <c r="G185" s="41"/>
+      <c r="C185" s="20"/>
+      <c r="D185" s="20"/>
+      <c r="E185" s="19"/>
+      <c r="F185" s="20"/>
+      <c r="G185" s="21"/>
       <c r="H185" s="4"/>
       <c r="I185" s="4"/>
       <c r="J185" s="4"/>
@@ -8653,10 +9019,14 @@
     </row>
     <row r="186">
       <c r="A186" s="22"/>
-      <c r="B186" s="18"/>
-      <c r="C186" s="18"/>
+      <c r="B186" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C186" s="17" t="s">
+        <v>141</v>
+      </c>
       <c r="D186" s="17" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E186" s="39"/>
       <c r="F186" s="40"/>
@@ -8686,7 +9056,9 @@
       <c r="A187" s="22"/>
       <c r="B187" s="18"/>
       <c r="C187" s="18"/>
-      <c r="D187" s="17"/>
+      <c r="D187" s="17" t="s">
+        <v>184</v>
+      </c>
       <c r="E187" s="39"/>
       <c r="F187" s="40"/>
       <c r="G187" s="41"/>
@@ -8714,11 +9086,9 @@
     <row r="188">
       <c r="A188" s="22"/>
       <c r="B188" s="18"/>
-      <c r="C188" s="23" t="s">
-        <v>179</v>
-      </c>
+      <c r="C188" s="18"/>
       <c r="D188" s="17" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E188" s="39"/>
       <c r="F188" s="40"/>
@@ -8747,9 +9117,9 @@
     <row r="189">
       <c r="A189" s="22"/>
       <c r="B189" s="18"/>
-      <c r="C189" s="8"/>
+      <c r="C189" s="18"/>
       <c r="D189" s="17" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E189" s="39"/>
       <c r="F189" s="40"/>
@@ -8778,9 +9148,9 @@
     <row r="190">
       <c r="A190" s="22"/>
       <c r="B190" s="18"/>
-      <c r="C190" s="8"/>
+      <c r="C190" s="18"/>
       <c r="D190" s="17" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E190" s="39"/>
       <c r="F190" s="40"/>
@@ -8809,9 +9179,9 @@
     <row r="191">
       <c r="A191" s="22"/>
       <c r="B191" s="18"/>
-      <c r="C191" s="8"/>
+      <c r="C191" s="18"/>
       <c r="D191" s="17" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E191" s="39"/>
       <c r="F191" s="40"/>
@@ -8840,9 +9210,9 @@
     <row r="192">
       <c r="A192" s="22"/>
       <c r="B192" s="18"/>
-      <c r="C192" s="8"/>
+      <c r="C192" s="18"/>
       <c r="D192" s="17" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E192" s="39"/>
       <c r="F192" s="40"/>
@@ -8871,9 +9241,9 @@
     <row r="193">
       <c r="A193" s="22"/>
       <c r="B193" s="18"/>
-      <c r="C193" s="8"/>
+      <c r="C193" s="18"/>
       <c r="D193" s="17" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E193" s="39"/>
       <c r="F193" s="40"/>
@@ -8902,9 +9272,9 @@
     <row r="194">
       <c r="A194" s="22"/>
       <c r="B194" s="18"/>
-      <c r="C194" s="8"/>
+      <c r="C194" s="18"/>
       <c r="D194" s="17" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E194" s="39"/>
       <c r="F194" s="40"/>
@@ -8933,10 +9303,8 @@
     <row r="195">
       <c r="A195" s="22"/>
       <c r="B195" s="18"/>
-      <c r="C195" s="8"/>
-      <c r="D195" s="17" t="s">
-        <v>187</v>
-      </c>
+      <c r="C195" s="18"/>
+      <c r="D195" s="17"/>
       <c r="E195" s="39"/>
       <c r="F195" s="40"/>
       <c r="G195" s="41"/>
@@ -8964,10 +9332,8 @@
     <row r="196">
       <c r="A196" s="22"/>
       <c r="B196" s="18"/>
-      <c r="C196" s="8"/>
-      <c r="D196" s="17" t="s">
-        <v>188</v>
-      </c>
+      <c r="C196" s="18"/>
+      <c r="D196" s="17"/>
       <c r="E196" s="39"/>
       <c r="F196" s="40"/>
       <c r="G196" s="41"/>
@@ -8995,10 +9361,8 @@
     <row r="197">
       <c r="A197" s="22"/>
       <c r="B197" s="18"/>
-      <c r="C197" s="8"/>
-      <c r="D197" s="17" t="s">
-        <v>189</v>
-      </c>
+      <c r="C197" s="18"/>
+      <c r="D197" s="17"/>
       <c r="E197" s="39"/>
       <c r="F197" s="40"/>
       <c r="G197" s="41"/>
@@ -9026,13 +9390,11 @@
     <row r="198">
       <c r="A198" s="22"/>
       <c r="B198" s="18"/>
-      <c r="C198" s="24"/>
-      <c r="D198" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="E198" s="19"/>
-      <c r="F198" s="20"/>
-      <c r="G198" s="21"/>
+      <c r="C198" s="18"/>
+      <c r="D198" s="17"/>
+      <c r="E198" s="39"/>
+      <c r="F198" s="40"/>
+      <c r="G198" s="41"/>
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
       <c r="J198" s="4"/>
@@ -9058,14 +9420,14 @@
       <c r="A199" s="22"/>
       <c r="B199" s="18"/>
       <c r="C199" s="17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E199" s="19"/>
-      <c r="F199" s="20"/>
-      <c r="G199" s="21"/>
+        <v>193</v>
+      </c>
+      <c r="E199" s="39"/>
+      <c r="F199" s="40"/>
+      <c r="G199" s="41"/>
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
       <c r="J199" s="4"/>
@@ -9091,10 +9453,12 @@
       <c r="A200" s="22"/>
       <c r="B200" s="18"/>
       <c r="C200" s="18"/>
-      <c r="D200" s="20"/>
-      <c r="E200" s="19"/>
-      <c r="F200" s="20"/>
-      <c r="G200" s="21"/>
+      <c r="D200" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E200" s="39"/>
+      <c r="F200" s="40"/>
+      <c r="G200" s="41"/>
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
       <c r="J200" s="4"/>
@@ -9120,10 +9484,10 @@
       <c r="A201" s="22"/>
       <c r="B201" s="18"/>
       <c r="C201" s="18"/>
-      <c r="D201" s="20"/>
-      <c r="E201" s="19"/>
-      <c r="F201" s="20"/>
-      <c r="G201" s="21"/>
+      <c r="D201" s="17"/>
+      <c r="E201" s="39"/>
+      <c r="F201" s="40"/>
+      <c r="G201" s="41"/>
       <c r="H201" s="4"/>
       <c r="I201" s="4"/>
       <c r="J201" s="4"/>
@@ -9148,15 +9512,15 @@
     <row r="202">
       <c r="A202" s="22"/>
       <c r="B202" s="18"/>
-      <c r="C202" s="17" t="s">
-        <v>193</v>
+      <c r="C202" s="23" t="s">
+        <v>195</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="E202" s="19"/>
-      <c r="F202" s="20"/>
-      <c r="G202" s="21"/>
+        <v>196</v>
+      </c>
+      <c r="E202" s="39"/>
+      <c r="F202" s="40"/>
+      <c r="G202" s="41"/>
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
       <c r="J202" s="4"/>
@@ -9181,13 +9545,13 @@
     <row r="203">
       <c r="A203" s="22"/>
       <c r="B203" s="18"/>
-      <c r="C203" s="18"/>
+      <c r="C203" s="8"/>
       <c r="D203" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="E203" s="19"/>
-      <c r="F203" s="20"/>
-      <c r="G203" s="21"/>
+        <v>197</v>
+      </c>
+      <c r="E203" s="39"/>
+      <c r="F203" s="40"/>
+      <c r="G203" s="41"/>
       <c r="H203" s="4"/>
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
@@ -9212,11 +9576,13 @@
     <row r="204">
       <c r="A204" s="22"/>
       <c r="B204" s="18"/>
-      <c r="C204" s="18"/>
-      <c r="D204" s="20"/>
-      <c r="E204" s="19"/>
-      <c r="F204" s="20"/>
-      <c r="G204" s="21"/>
+      <c r="C204" s="8"/>
+      <c r="D204" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E204" s="39"/>
+      <c r="F204" s="40"/>
+      <c r="G204" s="41"/>
       <c r="H204" s="4"/>
       <c r="I204" s="4"/>
       <c r="J204" s="4"/>
@@ -9241,15 +9607,13 @@
     <row r="205">
       <c r="A205" s="22"/>
       <c r="B205" s="18"/>
-      <c r="C205" s="17" t="s">
-        <v>196</v>
-      </c>
+      <c r="C205" s="8"/>
       <c r="D205" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E205" s="19"/>
-      <c r="F205" s="20"/>
-      <c r="G205" s="21"/>
+        <v>199</v>
+      </c>
+      <c r="E205" s="39"/>
+      <c r="F205" s="40"/>
+      <c r="G205" s="41"/>
       <c r="H205" s="4"/>
       <c r="I205" s="4"/>
       <c r="J205" s="4"/>
@@ -9274,13 +9638,13 @@
     <row r="206">
       <c r="A206" s="22"/>
       <c r="B206" s="18"/>
-      <c r="C206" s="18"/>
+      <c r="C206" s="8"/>
       <c r="D206" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="E206" s="19"/>
-      <c r="F206" s="20"/>
-      <c r="G206" s="21"/>
+        <v>200</v>
+      </c>
+      <c r="E206" s="39"/>
+      <c r="F206" s="40"/>
+      <c r="G206" s="41"/>
       <c r="H206" s="4"/>
       <c r="I206" s="4"/>
       <c r="J206" s="4"/>
@@ -9305,11 +9669,13 @@
     <row r="207">
       <c r="A207" s="22"/>
       <c r="B207" s="18"/>
-      <c r="C207" s="18"/>
-      <c r="D207" s="20"/>
-      <c r="E207" s="19"/>
-      <c r="F207" s="20"/>
-      <c r="G207" s="21"/>
+      <c r="C207" s="8"/>
+      <c r="D207" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E207" s="39"/>
+      <c r="F207" s="40"/>
+      <c r="G207" s="41"/>
       <c r="H207" s="4"/>
       <c r="I207" s="4"/>
       <c r="J207" s="4"/>
@@ -9334,15 +9700,13 @@
     <row r="208">
       <c r="A208" s="22"/>
       <c r="B208" s="18"/>
-      <c r="C208" s="17" t="s">
-        <v>199</v>
-      </c>
+      <c r="C208" s="8"/>
       <c r="D208" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="E208" s="19"/>
-      <c r="F208" s="20"/>
-      <c r="G208" s="21"/>
+        <v>202</v>
+      </c>
+      <c r="E208" s="39"/>
+      <c r="F208" s="40"/>
+      <c r="G208" s="41"/>
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
       <c r="J208" s="4"/>
@@ -9367,13 +9731,13 @@
     <row r="209">
       <c r="A209" s="22"/>
       <c r="B209" s="18"/>
-      <c r="C209" s="18"/>
+      <c r="C209" s="8"/>
       <c r="D209" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="E209" s="19"/>
-      <c r="F209" s="20"/>
-      <c r="G209" s="21"/>
+        <v>203</v>
+      </c>
+      <c r="E209" s="39"/>
+      <c r="F209" s="40"/>
+      <c r="G209" s="41"/>
       <c r="H209" s="4"/>
       <c r="I209" s="4"/>
       <c r="J209" s="4"/>
@@ -9398,11 +9762,13 @@
     <row r="210">
       <c r="A210" s="22"/>
       <c r="B210" s="18"/>
-      <c r="C210" s="18"/>
-      <c r="D210" s="20"/>
-      <c r="E210" s="19"/>
-      <c r="F210" s="20"/>
-      <c r="G210" s="21"/>
+      <c r="C210" s="8"/>
+      <c r="D210" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E210" s="39"/>
+      <c r="F210" s="40"/>
+      <c r="G210" s="41"/>
       <c r="H210" s="4"/>
       <c r="I210" s="4"/>
       <c r="J210" s="4"/>
@@ -9427,15 +9793,13 @@
     <row r="211">
       <c r="A211" s="22"/>
       <c r="B211" s="18"/>
-      <c r="C211" s="17" t="s">
-        <v>202</v>
-      </c>
+      <c r="C211" s="8"/>
       <c r="D211" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="E211" s="19"/>
-      <c r="F211" s="20"/>
-      <c r="G211" s="21"/>
+        <v>205</v>
+      </c>
+      <c r="E211" s="39"/>
+      <c r="F211" s="40"/>
+      <c r="G211" s="41"/>
       <c r="H211" s="4"/>
       <c r="I211" s="4"/>
       <c r="J211" s="4"/>
@@ -9460,9 +9824,9 @@
     <row r="212">
       <c r="A212" s="22"/>
       <c r="B212" s="18"/>
-      <c r="C212" s="18"/>
+      <c r="C212" s="24"/>
       <c r="D212" s="17" t="s">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="E212" s="19"/>
       <c r="F212" s="20"/>
@@ -9491,9 +9855,11 @@
     <row r="213">
       <c r="A213" s="22"/>
       <c r="B213" s="18"/>
-      <c r="C213" s="18"/>
+      <c r="C213" s="17" t="s">
+        <v>207</v>
+      </c>
       <c r="D213" s="17" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E213" s="19"/>
       <c r="F213" s="20"/>
@@ -9523,9 +9889,7 @@
       <c r="A214" s="22"/>
       <c r="B214" s="18"/>
       <c r="C214" s="18"/>
-      <c r="D214" s="17" t="s">
-        <v>205</v>
-      </c>
+      <c r="D214" s="20"/>
       <c r="E214" s="19"/>
       <c r="F214" s="20"/>
       <c r="G214" s="21"/>
@@ -9554,9 +9918,7 @@
       <c r="A215" s="22"/>
       <c r="B215" s="18"/>
       <c r="C215" s="18"/>
-      <c r="D215" s="17" t="s">
-        <v>206</v>
-      </c>
+      <c r="D215" s="20"/>
       <c r="E215" s="19"/>
       <c r="F215" s="20"/>
       <c r="G215" s="21"/>
@@ -9584,8 +9946,12 @@
     <row r="216">
       <c r="A216" s="22"/>
       <c r="B216" s="18"/>
-      <c r="C216" s="18"/>
-      <c r="D216" s="20"/>
+      <c r="C216" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="D216" s="17" t="s">
+        <v>210</v>
+      </c>
       <c r="E216" s="19"/>
       <c r="F216" s="20"/>
       <c r="G216" s="21"/>
@@ -9614,7 +9980,9 @@
       <c r="A217" s="22"/>
       <c r="B217" s="18"/>
       <c r="C217" s="18"/>
-      <c r="D217" s="20"/>
+      <c r="D217" s="17" t="s">
+        <v>211</v>
+      </c>
       <c r="E217" s="19"/>
       <c r="F217" s="20"/>
       <c r="G217" s="21"/>
@@ -9642,7 +10010,7 @@
     <row r="218">
       <c r="A218" s="22"/>
       <c r="B218" s="18"/>
-      <c r="C218" s="20"/>
+      <c r="C218" s="18"/>
       <c r="D218" s="20"/>
       <c r="E218" s="19"/>
       <c r="F218" s="20"/>
@@ -9671,8 +10039,12 @@
     <row r="219">
       <c r="A219" s="22"/>
       <c r="B219" s="18"/>
-      <c r="C219" s="20"/>
-      <c r="D219" s="20"/>
+      <c r="C219" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="D219" s="17" t="s">
+        <v>213</v>
+      </c>
       <c r="E219" s="19"/>
       <c r="F219" s="20"/>
       <c r="G219" s="21"/>
@@ -9700,8 +10072,10 @@
     <row r="220">
       <c r="A220" s="22"/>
       <c r="B220" s="18"/>
-      <c r="C220" s="20"/>
-      <c r="D220" s="20"/>
+      <c r="C220" s="18"/>
+      <c r="D220" s="17" t="s">
+        <v>214</v>
+      </c>
       <c r="E220" s="19"/>
       <c r="F220" s="20"/>
       <c r="G220" s="21"/>
@@ -9729,7 +10103,7 @@
     <row r="221">
       <c r="A221" s="22"/>
       <c r="B221" s="18"/>
-      <c r="C221" s="20"/>
+      <c r="C221" s="18"/>
       <c r="D221" s="20"/>
       <c r="E221" s="19"/>
       <c r="F221" s="20"/>
@@ -9757,14 +10131,12 @@
     </row>
     <row r="222">
       <c r="A222" s="22"/>
-      <c r="B222" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="C222" s="23" t="s">
-        <v>208</v>
+      <c r="B222" s="18"/>
+      <c r="C222" s="17" t="s">
+        <v>215</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E222" s="19"/>
       <c r="F222" s="20"/>
@@ -9792,10 +10164,10 @@
     </row>
     <row r="223">
       <c r="A223" s="22"/>
-      <c r="B223" s="8"/>
-      <c r="C223" s="8"/>
+      <c r="B223" s="18"/>
+      <c r="C223" s="18"/>
       <c r="D223" s="17" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="E223" s="19"/>
       <c r="F223" s="20"/>
@@ -9823,8 +10195,8 @@
     </row>
     <row r="224">
       <c r="A224" s="22"/>
-      <c r="B224" s="8"/>
-      <c r="C224" s="24"/>
+      <c r="B224" s="18"/>
+      <c r="C224" s="18"/>
       <c r="D224" s="20"/>
       <c r="E224" s="19"/>
       <c r="F224" s="20"/>
@@ -9852,11 +10224,13 @@
     </row>
     <row r="225">
       <c r="A225" s="22"/>
-      <c r="B225" s="8"/>
-      <c r="C225" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="D225" s="20"/>
+      <c r="B225" s="18"/>
+      <c r="C225" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D225" s="17" t="s">
+        <v>219</v>
+      </c>
       <c r="E225" s="19"/>
       <c r="F225" s="20"/>
       <c r="G225" s="21"/>
@@ -9883,9 +10257,11 @@
     </row>
     <row r="226">
       <c r="A226" s="22"/>
-      <c r="B226" s="8"/>
-      <c r="C226" s="24"/>
-      <c r="D226" s="20"/>
+      <c r="B226" s="18"/>
+      <c r="C226" s="18"/>
+      <c r="D226" s="17" t="s">
+        <v>220</v>
+      </c>
       <c r="E226" s="19"/>
       <c r="F226" s="20"/>
       <c r="G226" s="21"/>
@@ -9912,9 +10288,11 @@
     </row>
     <row r="227">
       <c r="A227" s="22"/>
-      <c r="B227" s="24"/>
-      <c r="C227" s="20"/>
-      <c r="D227" s="20"/>
+      <c r="B227" s="18"/>
+      <c r="C227" s="18"/>
+      <c r="D227" s="17" t="s">
+        <v>221</v>
+      </c>
       <c r="E227" s="19"/>
       <c r="F227" s="20"/>
       <c r="G227" s="21"/>
@@ -9941,12 +10319,10 @@
     </row>
     <row r="228">
       <c r="A228" s="22"/>
-      <c r="B228" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="C228" s="43"/>
+      <c r="B228" s="18"/>
+      <c r="C228" s="18"/>
       <c r="D228" s="17" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E228" s="19"/>
       <c r="F228" s="20"/>
@@ -9974,9 +10350,11 @@
     </row>
     <row r="229">
       <c r="A229" s="22"/>
-      <c r="B229" s="44"/>
-      <c r="C229" s="45"/>
-      <c r="D229" s="20"/>
+      <c r="B229" s="18"/>
+      <c r="C229" s="18"/>
+      <c r="D229" s="17" t="s">
+        <v>223</v>
+      </c>
       <c r="E229" s="19"/>
       <c r="F229" s="20"/>
       <c r="G229" s="21"/>
@@ -10003,8 +10381,8 @@
     </row>
     <row r="230">
       <c r="A230" s="22"/>
-      <c r="B230" s="20"/>
-      <c r="C230" s="20"/>
+      <c r="B230" s="18"/>
+      <c r="C230" s="18"/>
       <c r="D230" s="20"/>
       <c r="E230" s="19"/>
       <c r="F230" s="20"/>
@@ -10031,22 +10409,14 @@
       <c r="AA230" s="4"/>
     </row>
     <row r="231">
-      <c r="A231" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="B231" s="14"/>
-      <c r="C231" s="12"/>
-      <c r="D231" s="12"/>
-      <c r="E231" s="13"/>
-      <c r="F231" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="G231" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="H231" s="15" t="s">
-        <v>216</v>
-      </c>
+      <c r="A231" s="22"/>
+      <c r="B231" s="18"/>
+      <c r="C231" s="18"/>
+      <c r="D231" s="20"/>
+      <c r="E231" s="19"/>
+      <c r="F231" s="20"/>
+      <c r="G231" s="21"/>
+      <c r="H231" s="4"/>
       <c r="I231" s="4"/>
       <c r="J231" s="4"/>
       <c r="K231" s="4"/>
@@ -10069,19 +10439,19 @@
     </row>
     <row r="232">
       <c r="A232" s="22"/>
-      <c r="B232" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="C232" s="17" t="s">
-        <v>218</v>
+      <c r="B232" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="C232" s="23" t="s">
+        <v>225</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="E232" s="19"/>
       <c r="F232" s="20"/>
-      <c r="G232" s="20"/>
-      <c r="H232" s="21"/>
+      <c r="G232" s="21"/>
+      <c r="H232" s="4"/>
       <c r="I232" s="4"/>
       <c r="J232" s="4"/>
       <c r="K232" s="4"/>
@@ -10104,15 +10474,15 @@
     </row>
     <row r="233">
       <c r="A233" s="22"/>
-      <c r="B233" s="18"/>
-      <c r="C233" s="18"/>
+      <c r="B233" s="8"/>
+      <c r="C233" s="8"/>
       <c r="D233" s="17" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E233" s="19"/>
       <c r="F233" s="20"/>
-      <c r="G233" s="20"/>
-      <c r="H233" s="21"/>
+      <c r="G233" s="21"/>
+      <c r="H233" s="4"/>
       <c r="I233" s="4"/>
       <c r="J233" s="4"/>
       <c r="K233" s="4"/>
@@ -10135,13 +10505,13 @@
     </row>
     <row r="234">
       <c r="A234" s="22"/>
-      <c r="B234" s="18"/>
-      <c r="C234" s="18"/>
+      <c r="B234" s="8"/>
+      <c r="C234" s="24"/>
       <c r="D234" s="20"/>
       <c r="E234" s="19"/>
       <c r="F234" s="20"/>
-      <c r="G234" s="20"/>
-      <c r="H234" s="21"/>
+      <c r="G234" s="21"/>
+      <c r="H234" s="4"/>
       <c r="I234" s="4"/>
       <c r="J234" s="4"/>
       <c r="K234" s="4"/>
@@ -10164,17 +10534,15 @@
     </row>
     <row r="235">
       <c r="A235" s="22"/>
-      <c r="B235" s="18"/>
-      <c r="C235" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="D235" s="17" t="s">
-        <v>222</v>
-      </c>
+      <c r="B235" s="8"/>
+      <c r="C235" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="D235" s="20"/>
       <c r="E235" s="19"/>
       <c r="F235" s="20"/>
-      <c r="G235" s="20"/>
-      <c r="H235" s="21"/>
+      <c r="G235" s="21"/>
+      <c r="H235" s="4"/>
       <c r="I235" s="4"/>
       <c r="J235" s="4"/>
       <c r="K235" s="4"/>
@@ -10197,15 +10565,13 @@
     </row>
     <row r="236">
       <c r="A236" s="22"/>
-      <c r="B236" s="18"/>
-      <c r="C236" s="18"/>
-      <c r="D236" s="17" t="s">
-        <v>223</v>
-      </c>
+      <c r="B236" s="8"/>
+      <c r="C236" s="24"/>
+      <c r="D236" s="20"/>
       <c r="E236" s="19"/>
       <c r="F236" s="20"/>
-      <c r="G236" s="20"/>
-      <c r="H236" s="21"/>
+      <c r="G236" s="21"/>
+      <c r="H236" s="4"/>
       <c r="I236" s="4"/>
       <c r="J236" s="4"/>
       <c r="K236" s="4"/>
@@ -10228,13 +10594,13 @@
     </row>
     <row r="237">
       <c r="A237" s="22"/>
-      <c r="B237" s="18"/>
-      <c r="C237" s="18"/>
+      <c r="B237" s="24"/>
+      <c r="C237" s="20"/>
       <c r="D237" s="20"/>
       <c r="E237" s="19"/>
       <c r="F237" s="20"/>
-      <c r="G237" s="20"/>
-      <c r="H237" s="21"/>
+      <c r="G237" s="21"/>
+      <c r="H237" s="4"/>
       <c r="I237" s="4"/>
       <c r="J237" s="4"/>
       <c r="K237" s="4"/>
@@ -10257,17 +10623,17 @@
     </row>
     <row r="238">
       <c r="A238" s="22"/>
-      <c r="B238" s="18"/>
-      <c r="C238" s="17" t="s">
-        <v>224</v>
-      </c>
+      <c r="B238" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C238" s="43"/>
       <c r="D238" s="17" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E238" s="19"/>
       <c r="F238" s="20"/>
-      <c r="G238" s="20"/>
-      <c r="H238" s="21"/>
+      <c r="G238" s="21"/>
+      <c r="H238" s="4"/>
       <c r="I238" s="4"/>
       <c r="J238" s="4"/>
       <c r="K238" s="4"/>
@@ -10290,13 +10656,13 @@
     </row>
     <row r="239">
       <c r="A239" s="22"/>
-      <c r="B239" s="18"/>
-      <c r="C239" s="18"/>
+      <c r="B239" s="44"/>
+      <c r="C239" s="45"/>
       <c r="D239" s="20"/>
       <c r="E239" s="19"/>
       <c r="F239" s="20"/>
-      <c r="G239" s="20"/>
-      <c r="H239" s="21"/>
+      <c r="G239" s="21"/>
+      <c r="H239" s="4"/>
       <c r="I239" s="4"/>
       <c r="J239" s="4"/>
       <c r="K239" s="4"/>
@@ -10319,17 +10685,13 @@
     </row>
     <row r="240">
       <c r="A240" s="22"/>
-      <c r="B240" s="18"/>
-      <c r="C240" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="D240" s="17" t="s">
-        <v>227</v>
-      </c>
+      <c r="B240" s="20"/>
+      <c r="C240" s="20"/>
+      <c r="D240" s="20"/>
       <c r="E240" s="19"/>
       <c r="F240" s="20"/>
-      <c r="G240" s="20"/>
-      <c r="H240" s="21"/>
+      <c r="G240" s="21"/>
+      <c r="H240" s="4"/>
       <c r="I240" s="4"/>
       <c r="J240" s="4"/>
       <c r="K240" s="4"/>
@@ -10351,16 +10713,22 @@
       <c r="AA240" s="4"/>
     </row>
     <row r="241">
-      <c r="A241" s="22"/>
-      <c r="B241" s="18"/>
-      <c r="C241" s="18"/>
-      <c r="D241" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="E241" s="19"/>
-      <c r="F241" s="20"/>
-      <c r="G241" s="20"/>
-      <c r="H241" s="21"/>
+      <c r="A241" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="B241" s="14"/>
+      <c r="C241" s="12"/>
+      <c r="D241" s="12"/>
+      <c r="E241" s="13"/>
+      <c r="F241" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="G241" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="H241" s="15" t="s">
+        <v>233</v>
+      </c>
       <c r="I241" s="4"/>
       <c r="J241" s="4"/>
       <c r="K241" s="4"/>
@@ -10383,10 +10751,14 @@
     </row>
     <row r="242">
       <c r="A242" s="22"/>
-      <c r="B242" s="18"/>
-      <c r="C242" s="18"/>
+      <c r="B242" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="C242" s="17" t="s">
+        <v>235</v>
+      </c>
       <c r="D242" s="17" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E242" s="19"/>
       <c r="F242" s="20"/>
@@ -10416,7 +10788,9 @@
       <c r="A243" s="22"/>
       <c r="B243" s="18"/>
       <c r="C243" s="18"/>
-      <c r="D243" s="20"/>
+      <c r="D243" s="17" t="s">
+        <v>237</v>
+      </c>
       <c r="E243" s="19"/>
       <c r="F243" s="20"/>
       <c r="G243" s="20"/>
@@ -10444,12 +10818,8 @@
     <row r="244">
       <c r="A244" s="22"/>
       <c r="B244" s="18"/>
-      <c r="C244" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D244" s="17" t="s">
-        <v>230</v>
-      </c>
+      <c r="C244" s="18"/>
+      <c r="D244" s="20"/>
       <c r="E244" s="19"/>
       <c r="F244" s="20"/>
       <c r="G244" s="20"/>
@@ -10477,9 +10847,11 @@
     <row r="245">
       <c r="A245" s="22"/>
       <c r="B245" s="18"/>
-      <c r="C245" s="18"/>
+      <c r="C245" s="17" t="s">
+        <v>238</v>
+      </c>
       <c r="D245" s="17" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="E245" s="19"/>
       <c r="F245" s="20"/>
@@ -10509,7 +10881,9 @@
       <c r="A246" s="22"/>
       <c r="B246" s="18"/>
       <c r="C246" s="18"/>
-      <c r="D246" s="20"/>
+      <c r="D246" s="17" t="s">
+        <v>240</v>
+      </c>
       <c r="E246" s="19"/>
       <c r="F246" s="20"/>
       <c r="G246" s="20"/>
@@ -10537,12 +10911,8 @@
     <row r="247">
       <c r="A247" s="22"/>
       <c r="B247" s="18"/>
-      <c r="C247" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="D247" s="17" t="s">
-        <v>233</v>
-      </c>
+      <c r="C247" s="18"/>
+      <c r="D247" s="20"/>
       <c r="E247" s="19"/>
       <c r="F247" s="20"/>
       <c r="G247" s="20"/>
@@ -10570,9 +10940,11 @@
     <row r="248">
       <c r="A248" s="22"/>
       <c r="B248" s="18"/>
-      <c r="C248" s="18"/>
+      <c r="C248" s="17" t="s">
+        <v>241</v>
+      </c>
       <c r="D248" s="17" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="E248" s="19"/>
       <c r="F248" s="20"/>
@@ -10602,7 +10974,7 @@
       <c r="A249" s="22"/>
       <c r="B249" s="18"/>
       <c r="C249" s="18"/>
-      <c r="D249" s="17"/>
+      <c r="D249" s="20"/>
       <c r="E249" s="19"/>
       <c r="F249" s="20"/>
       <c r="G249" s="20"/>
@@ -10630,9 +11002,11 @@
     <row r="250">
       <c r="A250" s="22"/>
       <c r="B250" s="18"/>
-      <c r="C250" s="18"/>
+      <c r="C250" s="17" t="s">
+        <v>243</v>
+      </c>
       <c r="D250" s="17" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="E250" s="19"/>
       <c r="F250" s="20"/>
@@ -10663,7 +11037,7 @@
       <c r="B251" s="18"/>
       <c r="C251" s="18"/>
       <c r="D251" s="17" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="E251" s="19"/>
       <c r="F251" s="20"/>
@@ -10694,7 +11068,7 @@
       <c r="B252" s="18"/>
       <c r="C252" s="18"/>
       <c r="D252" s="17" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="E252" s="19"/>
       <c r="F252" s="20"/>
@@ -10724,7 +11098,9 @@
       <c r="A253" s="22"/>
       <c r="B253" s="18"/>
       <c r="C253" s="18"/>
-      <c r="D253" s="20"/>
+      <c r="D253" s="17" t="s">
+        <v>247</v>
+      </c>
       <c r="E253" s="19"/>
       <c r="F253" s="20"/>
       <c r="G253" s="20"/>
@@ -10753,10 +11129,10 @@
       <c r="A254" s="22"/>
       <c r="B254" s="18"/>
       <c r="C254" s="17" t="s">
-        <v>238</v>
+        <v>150</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="E254" s="19"/>
       <c r="F254" s="20"/>
@@ -10787,7 +11163,7 @@
       <c r="B255" s="18"/>
       <c r="C255" s="18"/>
       <c r="D255" s="17" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="E255" s="19"/>
       <c r="F255" s="20"/>
@@ -10818,7 +11194,7 @@
       <c r="B256" s="18"/>
       <c r="C256" s="18"/>
       <c r="D256" s="17" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E256" s="19"/>
       <c r="F256" s="20"/>
@@ -10847,9 +11223,11 @@
     <row r="257">
       <c r="A257" s="22"/>
       <c r="B257" s="18"/>
-      <c r="C257" s="18"/>
+      <c r="C257" s="17" t="s">
+        <v>251</v>
+      </c>
       <c r="D257" s="17" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="E257" s="19"/>
       <c r="F257" s="20"/>
@@ -10880,7 +11258,7 @@
       <c r="B258" s="18"/>
       <c r="C258" s="18"/>
       <c r="D258" s="17" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="E258" s="19"/>
       <c r="F258" s="20"/>
@@ -10910,9 +11288,7 @@
       <c r="A259" s="22"/>
       <c r="B259" s="18"/>
       <c r="C259" s="18"/>
-      <c r="D259" s="17" t="s">
-        <v>237</v>
-      </c>
+      <c r="D259" s="17"/>
       <c r="E259" s="19"/>
       <c r="F259" s="20"/>
       <c r="G259" s="20"/>
@@ -10941,7 +11317,9 @@
       <c r="A260" s="22"/>
       <c r="B260" s="18"/>
       <c r="C260" s="18"/>
-      <c r="D260" s="20"/>
+      <c r="D260" s="17" t="s">
+        <v>254</v>
+      </c>
       <c r="E260" s="19"/>
       <c r="F260" s="20"/>
       <c r="G260" s="20"/>
@@ -10969,10 +11347,10 @@
     <row r="261">
       <c r="A261" s="22"/>
       <c r="B261" s="18"/>
-      <c r="C261" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="D261" s="20"/>
+      <c r="C261" s="18"/>
+      <c r="D261" s="17" t="s">
+        <v>255</v>
+      </c>
       <c r="E261" s="19"/>
       <c r="F261" s="20"/>
       <c r="G261" s="20"/>
@@ -11001,7 +11379,9 @@
       <c r="A262" s="22"/>
       <c r="B262" s="18"/>
       <c r="C262" s="18"/>
-      <c r="D262" s="20"/>
+      <c r="D262" s="17" t="s">
+        <v>256</v>
+      </c>
       <c r="E262" s="19"/>
       <c r="F262" s="20"/>
       <c r="G262" s="20"/>
@@ -11029,12 +11409,8 @@
     <row r="263">
       <c r="A263" s="22"/>
       <c r="B263" s="18"/>
-      <c r="C263" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="D263" s="17" t="s">
-        <v>246</v>
-      </c>
+      <c r="C263" s="18"/>
+      <c r="D263" s="20"/>
       <c r="E263" s="19"/>
       <c r="F263" s="20"/>
       <c r="G263" s="20"/>
@@ -11062,9 +11438,11 @@
     <row r="264">
       <c r="A264" s="22"/>
       <c r="B264" s="18"/>
-      <c r="C264" s="18"/>
+      <c r="C264" s="17" t="s">
+        <v>257</v>
+      </c>
       <c r="D264" s="17" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="E264" s="19"/>
       <c r="F264" s="20"/>
@@ -11095,7 +11473,7 @@
       <c r="B265" s="18"/>
       <c r="C265" s="18"/>
       <c r="D265" s="17" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="E265" s="19"/>
       <c r="F265" s="20"/>
@@ -11126,7 +11504,7 @@
       <c r="B266" s="18"/>
       <c r="C266" s="18"/>
       <c r="D266" s="17" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="E266" s="19"/>
       <c r="F266" s="20"/>
@@ -11157,7 +11535,7 @@
       <c r="B267" s="18"/>
       <c r="C267" s="18"/>
       <c r="D267" s="17" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="E267" s="19"/>
       <c r="F267" s="20"/>
@@ -11188,7 +11566,7 @@
       <c r="B268" s="18"/>
       <c r="C268" s="18"/>
       <c r="D268" s="17" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="E268" s="19"/>
       <c r="F268" s="20"/>
@@ -11218,7 +11596,9 @@
       <c r="A269" s="22"/>
       <c r="B269" s="18"/>
       <c r="C269" s="18"/>
-      <c r="D269" s="20"/>
+      <c r="D269" s="17" t="s">
+        <v>256</v>
+      </c>
       <c r="E269" s="19"/>
       <c r="F269" s="20"/>
       <c r="G269" s="20"/>
@@ -11246,12 +11626,8 @@
     <row r="270">
       <c r="A270" s="22"/>
       <c r="B270" s="18"/>
-      <c r="C270" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="D270" s="17" t="s">
-        <v>250</v>
-      </c>
+      <c r="C270" s="18"/>
+      <c r="D270" s="20"/>
       <c r="E270" s="19"/>
       <c r="F270" s="20"/>
       <c r="G270" s="20"/>
@@ -11279,8 +11655,12 @@
     <row r="271">
       <c r="A271" s="22"/>
       <c r="B271" s="18"/>
-      <c r="C271" s="18"/>
-      <c r="D271" s="20"/>
+      <c r="C271" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="D271" s="17" t="s">
+        <v>264</v>
+      </c>
       <c r="E271" s="19"/>
       <c r="F271" s="20"/>
       <c r="G271" s="20"/>
@@ -11307,12 +11687,10 @@
     </row>
     <row r="272">
       <c r="A272" s="22"/>
-      <c r="B272" s="17" t="s">
-        <v>251</v>
-      </c>
+      <c r="B272" s="18"/>
       <c r="C272" s="18"/>
       <c r="D272" s="17" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E272" s="19"/>
       <c r="F272" s="20"/>
@@ -11342,9 +11720,7 @@
       <c r="A273" s="22"/>
       <c r="B273" s="18"/>
       <c r="C273" s="18"/>
-      <c r="D273" s="17" t="s">
-        <v>253</v>
-      </c>
+      <c r="D273" s="20"/>
       <c r="E273" s="19"/>
       <c r="F273" s="20"/>
       <c r="G273" s="20"/>
@@ -11372,9 +11748,11 @@
     <row r="274">
       <c r="A274" s="22"/>
       <c r="B274" s="18"/>
-      <c r="C274" s="18"/>
+      <c r="C274" s="17" t="s">
+        <v>266</v>
+      </c>
       <c r="D274" s="17" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="E274" s="19"/>
       <c r="F274" s="20"/>
@@ -11405,7 +11783,7 @@
       <c r="B275" s="18"/>
       <c r="C275" s="18"/>
       <c r="D275" s="17" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="E275" s="19"/>
       <c r="F275" s="20"/>
@@ -11436,7 +11814,7 @@
       <c r="B276" s="18"/>
       <c r="C276" s="18"/>
       <c r="D276" s="17" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="E276" s="19"/>
       <c r="F276" s="20"/>
@@ -11467,7 +11845,7 @@
       <c r="B277" s="18"/>
       <c r="C277" s="18"/>
       <c r="D277" s="17" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E277" s="19"/>
       <c r="F277" s="20"/>
@@ -11498,7 +11876,7 @@
       <c r="B278" s="18"/>
       <c r="C278" s="18"/>
       <c r="D278" s="17" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E278" s="19"/>
       <c r="F278" s="20"/>
@@ -11529,7 +11907,7 @@
       <c r="B279" s="18"/>
       <c r="C279" s="18"/>
       <c r="D279" s="17" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E279" s="19"/>
       <c r="F279" s="20"/>
@@ -11559,9 +11937,7 @@
       <c r="A280" s="22"/>
       <c r="B280" s="18"/>
       <c r="C280" s="18"/>
-      <c r="D280" s="17" t="s">
-        <v>260</v>
-      </c>
+      <c r="D280" s="20"/>
       <c r="E280" s="19"/>
       <c r="F280" s="20"/>
       <c r="G280" s="20"/>
@@ -11589,9 +11965,11 @@
     <row r="281">
       <c r="A281" s="22"/>
       <c r="B281" s="18"/>
-      <c r="C281" s="18"/>
+      <c r="C281" s="17" t="s">
+        <v>218</v>
+      </c>
       <c r="D281" s="17" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="E281" s="19"/>
       <c r="F281" s="20"/>
@@ -11621,9 +11999,7 @@
       <c r="A282" s="22"/>
       <c r="B282" s="18"/>
       <c r="C282" s="18"/>
-      <c r="D282" s="17" t="s">
-        <v>262</v>
-      </c>
+      <c r="D282" s="20"/>
       <c r="E282" s="19"/>
       <c r="F282" s="20"/>
       <c r="G282" s="20"/>
@@ -11650,10 +12026,12 @@
     </row>
     <row r="283">
       <c r="A283" s="22"/>
-      <c r="B283" s="18"/>
+      <c r="B283" s="17" t="s">
+        <v>272</v>
+      </c>
       <c r="C283" s="18"/>
       <c r="D283" s="17" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="E283" s="19"/>
       <c r="F283" s="20"/>
@@ -11684,7 +12062,7 @@
       <c r="B284" s="18"/>
       <c r="C284" s="18"/>
       <c r="D284" s="17" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="E284" s="19"/>
       <c r="F284" s="20"/>
@@ -11715,7 +12093,7 @@
       <c r="B285" s="18"/>
       <c r="C285" s="18"/>
       <c r="D285" s="17" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="E285" s="19"/>
       <c r="F285" s="20"/>
@@ -11746,7 +12124,7 @@
       <c r="B286" s="18"/>
       <c r="C286" s="18"/>
       <c r="D286" s="17" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="E286" s="19"/>
       <c r="F286" s="20"/>
@@ -11777,7 +12155,7 @@
       <c r="B287" s="18"/>
       <c r="C287" s="18"/>
       <c r="D287" s="17" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="E287" s="19"/>
       <c r="F287" s="20"/>
@@ -11808,7 +12186,7 @@
       <c r="B288" s="18"/>
       <c r="C288" s="18"/>
       <c r="D288" s="17" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="E288" s="19"/>
       <c r="F288" s="20"/>
@@ -11839,7 +12217,7 @@
       <c r="B289" s="18"/>
       <c r="C289" s="18"/>
       <c r="D289" s="17" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="E289" s="19"/>
       <c r="F289" s="20"/>
@@ -11869,7 +12247,9 @@
       <c r="A290" s="22"/>
       <c r="B290" s="18"/>
       <c r="C290" s="18"/>
-      <c r="D290" s="17"/>
+      <c r="D290" s="17" t="s">
+        <v>280</v>
+      </c>
       <c r="E290" s="19"/>
       <c r="F290" s="20"/>
       <c r="G290" s="20"/>
@@ -11896,14 +12276,10 @@
     </row>
     <row r="291">
       <c r="A291" s="22"/>
-      <c r="B291" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="C291" s="17" t="s">
-        <v>271</v>
-      </c>
+      <c r="B291" s="18"/>
+      <c r="C291" s="18"/>
       <c r="D291" s="17" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="E291" s="19"/>
       <c r="F291" s="20"/>
@@ -11934,7 +12310,7 @@
       <c r="B292" s="18"/>
       <c r="C292" s="18"/>
       <c r="D292" s="17" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="E292" s="19"/>
       <c r="F292" s="20"/>
@@ -11965,7 +12341,7 @@
       <c r="B293" s="18"/>
       <c r="C293" s="18"/>
       <c r="D293" s="17" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="E293" s="19"/>
       <c r="F293" s="20"/>
@@ -11996,7 +12372,7 @@
       <c r="B294" s="18"/>
       <c r="C294" s="18"/>
       <c r="D294" s="17" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="E294" s="19"/>
       <c r="F294" s="20"/>
@@ -12027,7 +12403,7 @@
       <c r="B295" s="18"/>
       <c r="C295" s="18"/>
       <c r="D295" s="17" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="E295" s="19"/>
       <c r="F295" s="20"/>
@@ -12058,7 +12434,7 @@
       <c r="B296" s="18"/>
       <c r="C296" s="18"/>
       <c r="D296" s="17" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="E296" s="19"/>
       <c r="F296" s="20"/>
@@ -12089,7 +12465,7 @@
       <c r="B297" s="18"/>
       <c r="C297" s="18"/>
       <c r="D297" s="17" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="E297" s="19"/>
       <c r="F297" s="20"/>
@@ -12118,11 +12494,9 @@
     <row r="298">
       <c r="A298" s="22"/>
       <c r="B298" s="18"/>
-      <c r="C298" s="17" t="s">
-        <v>278</v>
-      </c>
+      <c r="C298" s="18"/>
       <c r="D298" s="17" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="E298" s="19"/>
       <c r="F298" s="20"/>
@@ -12153,7 +12527,7 @@
       <c r="B299" s="18"/>
       <c r="C299" s="18"/>
       <c r="D299" s="17" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="E299" s="19"/>
       <c r="F299" s="20"/>
@@ -12184,7 +12558,7 @@
       <c r="B300" s="18"/>
       <c r="C300" s="18"/>
       <c r="D300" s="17" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="E300" s="19"/>
       <c r="F300" s="20"/>
@@ -12215,7 +12589,7 @@
       <c r="B301" s="18"/>
       <c r="C301" s="18"/>
       <c r="D301" s="17" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="E301" s="19"/>
       <c r="F301" s="20"/>
@@ -12246,7 +12620,7 @@
       <c r="B302" s="18"/>
       <c r="C302" s="18"/>
       <c r="D302" s="17" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="E302" s="19"/>
       <c r="F302" s="20"/>
@@ -12277,7 +12651,7 @@
       <c r="B303" s="18"/>
       <c r="C303" s="18"/>
       <c r="D303" s="17" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="E303" s="19"/>
       <c r="F303" s="20"/>
@@ -12308,7 +12682,7 @@
       <c r="B304" s="18"/>
       <c r="C304" s="18"/>
       <c r="D304" s="17" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="E304" s="19"/>
       <c r="F304" s="20"/>
@@ -12337,11 +12711,9 @@
     <row r="305">
       <c r="A305" s="22"/>
       <c r="B305" s="18"/>
-      <c r="C305" s="17" t="s">
-        <v>279</v>
-      </c>
+      <c r="C305" s="18"/>
       <c r="D305" s="17" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E305" s="19"/>
       <c r="F305" s="20"/>
@@ -12372,7 +12744,7 @@
       <c r="B306" s="18"/>
       <c r="C306" s="18"/>
       <c r="D306" s="17" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="E306" s="19"/>
       <c r="F306" s="20"/>
@@ -12403,7 +12775,7 @@
       <c r="B307" s="18"/>
       <c r="C307" s="18"/>
       <c r="D307" s="17" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="E307" s="19"/>
       <c r="F307" s="20"/>
@@ -12434,7 +12806,7 @@
       <c r="B308" s="18"/>
       <c r="C308" s="18"/>
       <c r="D308" s="17" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="E308" s="19"/>
       <c r="F308" s="20"/>
@@ -12465,7 +12837,7 @@
       <c r="B309" s="18"/>
       <c r="C309" s="18"/>
       <c r="D309" s="17" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="E309" s="19"/>
       <c r="F309" s="20"/>
@@ -12496,7 +12868,7 @@
       <c r="B310" s="18"/>
       <c r="C310" s="18"/>
       <c r="D310" s="17" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="E310" s="19"/>
       <c r="F310" s="20"/>
@@ -12527,7 +12899,7 @@
       <c r="B311" s="18"/>
       <c r="C311" s="18"/>
       <c r="D311" s="17" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="E311" s="19"/>
       <c r="F311" s="20"/>
@@ -12555,15 +12927,9 @@
     </row>
     <row r="312">
       <c r="A312" s="22"/>
-      <c r="B312" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="C312" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="D312" s="17" t="s">
-        <v>282</v>
-      </c>
+      <c r="B312" s="18"/>
+      <c r="C312" s="18"/>
+      <c r="D312" s="17"/>
       <c r="E312" s="19"/>
       <c r="F312" s="20"/>
       <c r="G312" s="20"/>
@@ -12592,16 +12958,12 @@
       <c r="A313" s="22"/>
       <c r="B313" s="18"/>
       <c r="C313" s="18"/>
-      <c r="D313" s="17" t="s">
-        <v>283</v>
-      </c>
+      <c r="D313" s="17"/>
       <c r="E313" s="19"/>
       <c r="F313" s="20"/>
       <c r="G313" s="20"/>
       <c r="H313" s="21"/>
-      <c r="I313" s="10" t="s">
-        <v>284</v>
-      </c>
+      <c r="I313" s="4"/>
       <c r="J313" s="4"/>
       <c r="K313" s="4"/>
       <c r="L313" s="4"/>
@@ -12623,18 +12985,20 @@
     </row>
     <row r="314">
       <c r="A314" s="22"/>
-      <c r="B314" s="18"/>
-      <c r="C314" s="18"/>
+      <c r="B314" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="C314" s="17" t="s">
+        <v>303</v>
+      </c>
       <c r="D314" s="17" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="E314" s="19"/>
       <c r="F314" s="20"/>
       <c r="G314" s="20"/>
       <c r="H314" s="21"/>
-      <c r="I314" s="10" t="s">
-        <v>286</v>
-      </c>
+      <c r="I314" s="4"/>
       <c r="J314" s="4"/>
       <c r="K314" s="4"/>
       <c r="L314" s="4"/>
@@ -12659,7 +13023,7 @@
       <c r="B315" s="18"/>
       <c r="C315" s="18"/>
       <c r="D315" s="17" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="E315" s="19"/>
       <c r="F315" s="20"/>
@@ -12690,7 +13054,7 @@
       <c r="B316" s="18"/>
       <c r="C316" s="18"/>
       <c r="D316" s="17" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="E316" s="19"/>
       <c r="F316" s="20"/>
@@ -12720,7 +13084,9 @@
       <c r="A317" s="22"/>
       <c r="B317" s="18"/>
       <c r="C317" s="18"/>
-      <c r="D317" s="20"/>
+      <c r="D317" s="17" t="s">
+        <v>307</v>
+      </c>
       <c r="E317" s="19"/>
       <c r="F317" s="20"/>
       <c r="G317" s="20"/>
@@ -12748,11 +13114,9 @@
     <row r="318">
       <c r="A318" s="22"/>
       <c r="B318" s="18"/>
-      <c r="C318" s="17" t="s">
-        <v>289</v>
-      </c>
+      <c r="C318" s="18"/>
       <c r="D318" s="17" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="E318" s="19"/>
       <c r="F318" s="20"/>
@@ -12783,7 +13147,7 @@
       <c r="B319" s="18"/>
       <c r="C319" s="18"/>
       <c r="D319" s="17" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="E319" s="19"/>
       <c r="F319" s="20"/>
@@ -12814,7 +13178,7 @@
       <c r="B320" s="18"/>
       <c r="C320" s="18"/>
       <c r="D320" s="17" t="s">
-        <v>227</v>
+        <v>309</v>
       </c>
       <c r="E320" s="19"/>
       <c r="F320" s="20"/>
@@ -12843,9 +13207,11 @@
     <row r="321">
       <c r="A321" s="22"/>
       <c r="B321" s="18"/>
-      <c r="C321" s="18"/>
+      <c r="C321" s="17" t="s">
+        <v>310</v>
+      </c>
       <c r="D321" s="17" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="E321" s="19"/>
       <c r="F321" s="20"/>
@@ -12876,7 +13242,7 @@
       <c r="B322" s="18"/>
       <c r="C322" s="18"/>
       <c r="D322" s="17" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="E322" s="19"/>
       <c r="F322" s="20"/>
@@ -12907,7 +13273,7 @@
       <c r="B323" s="18"/>
       <c r="C323" s="18"/>
       <c r="D323" s="17" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="E323" s="19"/>
       <c r="F323" s="20"/>
@@ -12937,7 +13303,9 @@
       <c r="A324" s="22"/>
       <c r="B324" s="18"/>
       <c r="C324" s="18"/>
-      <c r="D324" s="20"/>
+      <c r="D324" s="17" t="s">
+        <v>307</v>
+      </c>
       <c r="E324" s="19"/>
       <c r="F324" s="20"/>
       <c r="G324" s="20"/>
@@ -12965,11 +13333,9 @@
     <row r="325">
       <c r="A325" s="22"/>
       <c r="B325" s="18"/>
-      <c r="C325" s="17" t="s">
-        <v>295</v>
-      </c>
+      <c r="C325" s="18"/>
       <c r="D325" s="17" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="E325" s="19"/>
       <c r="F325" s="20"/>
@@ -12998,9 +13364,9 @@
     <row r="326">
       <c r="A326" s="22"/>
       <c r="B326" s="18"/>
-      <c r="C326" s="20"/>
+      <c r="C326" s="18"/>
       <c r="D326" s="17" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="E326" s="19"/>
       <c r="F326" s="20"/>
@@ -13029,8 +13395,10 @@
     <row r="327">
       <c r="A327" s="22"/>
       <c r="B327" s="18"/>
-      <c r="C327" s="20"/>
-      <c r="D327" s="20"/>
+      <c r="C327" s="18"/>
+      <c r="D327" s="17" t="s">
+        <v>309</v>
+      </c>
       <c r="E327" s="19"/>
       <c r="F327" s="20"/>
       <c r="G327" s="20"/>
@@ -13059,10 +13427,10 @@
       <c r="A328" s="22"/>
       <c r="B328" s="18"/>
       <c r="C328" s="17" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E328" s="19"/>
       <c r="F328" s="20"/>
@@ -13093,7 +13461,7 @@
       <c r="B329" s="18"/>
       <c r="C329" s="18"/>
       <c r="D329" s="17" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="E329" s="19"/>
       <c r="F329" s="20"/>
@@ -13124,7 +13492,7 @@
       <c r="B330" s="18"/>
       <c r="C330" s="18"/>
       <c r="D330" s="17" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E330" s="19"/>
       <c r="F330" s="20"/>
@@ -13155,7 +13523,7 @@
       <c r="B331" s="18"/>
       <c r="C331" s="18"/>
       <c r="D331" s="17" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="E331" s="19"/>
       <c r="F331" s="20"/>
@@ -13185,7 +13553,9 @@
       <c r="A332" s="22"/>
       <c r="B332" s="18"/>
       <c r="C332" s="18"/>
-      <c r="D332" s="20"/>
+      <c r="D332" s="17" t="s">
+        <v>281</v>
+      </c>
       <c r="E332" s="19"/>
       <c r="F332" s="20"/>
       <c r="G332" s="20"/>
@@ -13213,10 +13583,10 @@
     <row r="333">
       <c r="A333" s="22"/>
       <c r="B333" s="18"/>
-      <c r="C333" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="D333" s="20"/>
+      <c r="C333" s="18"/>
+      <c r="D333" s="17" t="s">
+        <v>308</v>
+      </c>
       <c r="E333" s="19"/>
       <c r="F333" s="20"/>
       <c r="G333" s="20"/>
@@ -13245,7 +13615,9 @@
       <c r="A334" s="22"/>
       <c r="B334" s="18"/>
       <c r="C334" s="18"/>
-      <c r="D334" s="20"/>
+      <c r="D334" s="17" t="s">
+        <v>309</v>
+      </c>
       <c r="E334" s="19"/>
       <c r="F334" s="20"/>
       <c r="G334" s="20"/>
@@ -13272,12 +13644,14 @@
     </row>
     <row r="335">
       <c r="A335" s="22"/>
-      <c r="B335" s="18"/>
+      <c r="B335" s="17" t="s">
+        <v>312</v>
+      </c>
       <c r="C335" s="17" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="D335" s="17" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="E335" s="19"/>
       <c r="F335" s="20"/>
@@ -13308,13 +13682,15 @@
       <c r="B336" s="18"/>
       <c r="C336" s="18"/>
       <c r="D336" s="17" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="E336" s="19"/>
       <c r="F336" s="20"/>
       <c r="G336" s="20"/>
       <c r="H336" s="21"/>
-      <c r="I336" s="4"/>
+      <c r="I336" s="10" t="s">
+        <v>316</v>
+      </c>
       <c r="J336" s="4"/>
       <c r="K336" s="4"/>
       <c r="L336" s="4"/>
@@ -13338,12 +13714,16 @@
       <c r="A337" s="22"/>
       <c r="B337" s="18"/>
       <c r="C337" s="18"/>
-      <c r="D337" s="20"/>
+      <c r="D337" s="17" t="s">
+        <v>317</v>
+      </c>
       <c r="E337" s="19"/>
       <c r="F337" s="20"/>
       <c r="G337" s="20"/>
       <c r="H337" s="21"/>
-      <c r="I337" s="4"/>
+      <c r="I337" s="10" t="s">
+        <v>318</v>
+      </c>
       <c r="J337" s="4"/>
       <c r="K337" s="4"/>
       <c r="L337" s="4"/>
@@ -13367,7 +13747,9 @@
       <c r="A338" s="22"/>
       <c r="B338" s="18"/>
       <c r="C338" s="18"/>
-      <c r="D338" s="20"/>
+      <c r="D338" s="17" t="s">
+        <v>319</v>
+      </c>
       <c r="E338" s="19"/>
       <c r="F338" s="20"/>
       <c r="G338" s="20"/>
@@ -13395,8 +13777,10 @@
     <row r="339">
       <c r="A339" s="22"/>
       <c r="B339" s="18"/>
-      <c r="C339" s="20"/>
-      <c r="D339" s="20"/>
+      <c r="C339" s="18"/>
+      <c r="D339" s="17" t="s">
+        <v>320</v>
+      </c>
       <c r="E339" s="19"/>
       <c r="F339" s="20"/>
       <c r="G339" s="20"/>
@@ -13424,7 +13808,7 @@
     <row r="340">
       <c r="A340" s="22"/>
       <c r="B340" s="18"/>
-      <c r="C340" s="20"/>
+      <c r="C340" s="18"/>
       <c r="D340" s="20"/>
       <c r="E340" s="19"/>
       <c r="F340" s="20"/>
@@ -13452,12 +13836,12 @@
     </row>
     <row r="341">
       <c r="A341" s="22"/>
-      <c r="B341" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="C341" s="18"/>
+      <c r="B341" s="18"/>
+      <c r="C341" s="17" t="s">
+        <v>321</v>
+      </c>
       <c r="D341" s="17" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="E341" s="19"/>
       <c r="F341" s="20"/>
@@ -13488,7 +13872,7 @@
       <c r="B342" s="18"/>
       <c r="C342" s="18"/>
       <c r="D342" s="17" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="E342" s="19"/>
       <c r="F342" s="20"/>
@@ -13519,7 +13903,7 @@
       <c r="B343" s="18"/>
       <c r="C343" s="18"/>
       <c r="D343" s="17" t="s">
-        <v>310</v>
+        <v>244</v>
       </c>
       <c r="E343" s="19"/>
       <c r="F343" s="20"/>
@@ -13550,7 +13934,7 @@
       <c r="B344" s="18"/>
       <c r="C344" s="18"/>
       <c r="D344" s="17" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="E344" s="19"/>
       <c r="F344" s="20"/>
@@ -13581,7 +13965,7 @@
       <c r="B345" s="18"/>
       <c r="C345" s="18"/>
       <c r="D345" s="17" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="E345" s="19"/>
       <c r="F345" s="20"/>
@@ -13612,7 +13996,7 @@
       <c r="B346" s="18"/>
       <c r="C346" s="18"/>
       <c r="D346" s="17" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="E346" s="19"/>
       <c r="F346" s="20"/>
@@ -13642,9 +14026,7 @@
       <c r="A347" s="22"/>
       <c r="B347" s="18"/>
       <c r="C347" s="18"/>
-      <c r="D347" s="17" t="s">
-        <v>314</v>
-      </c>
+      <c r="D347" s="20"/>
       <c r="E347" s="19"/>
       <c r="F347" s="20"/>
       <c r="G347" s="20"/>
@@ -13672,8 +14054,12 @@
     <row r="348">
       <c r="A348" s="22"/>
       <c r="B348" s="18"/>
-      <c r="C348" s="18"/>
-      <c r="D348" s="20"/>
+      <c r="C348" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="D348" s="17" t="s">
+        <v>328</v>
+      </c>
       <c r="E348" s="19"/>
       <c r="F348" s="20"/>
       <c r="G348" s="20"/>
@@ -13700,12 +14086,10 @@
     </row>
     <row r="349">
       <c r="A349" s="22"/>
-      <c r="B349" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="C349" s="18"/>
+      <c r="B349" s="18"/>
+      <c r="C349" s="20"/>
       <c r="D349" s="17" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="E349" s="19"/>
       <c r="F349" s="20"/>
@@ -13734,10 +14118,8 @@
     <row r="350">
       <c r="A350" s="22"/>
       <c r="B350" s="18"/>
-      <c r="C350" s="18"/>
-      <c r="D350" s="17" t="s">
-        <v>317</v>
-      </c>
+      <c r="C350" s="20"/>
+      <c r="D350" s="20"/>
       <c r="E350" s="19"/>
       <c r="F350" s="20"/>
       <c r="G350" s="20"/>
@@ -13765,9 +14147,11 @@
     <row r="351">
       <c r="A351" s="22"/>
       <c r="B351" s="18"/>
-      <c r="C351" s="18"/>
+      <c r="C351" s="17" t="s">
+        <v>330</v>
+      </c>
       <c r="D351" s="17" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="E351" s="19"/>
       <c r="F351" s="20"/>
@@ -13798,7 +14182,7 @@
       <c r="B352" s="18"/>
       <c r="C352" s="18"/>
       <c r="D352" s="17" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="E352" s="19"/>
       <c r="F352" s="20"/>
@@ -13829,7 +14213,7 @@
       <c r="B353" s="18"/>
       <c r="C353" s="18"/>
       <c r="D353" s="17" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="E353" s="19"/>
       <c r="F353" s="20"/>
@@ -13860,7 +14244,7 @@
       <c r="B354" s="18"/>
       <c r="C354" s="18"/>
       <c r="D354" s="17" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="E354" s="19"/>
       <c r="F354" s="20"/>
@@ -13889,9 +14273,11 @@
     <row r="355">
       <c r="A355" s="22"/>
       <c r="B355" s="18"/>
-      <c r="C355" s="18"/>
+      <c r="C355" s="17" t="s">
+        <v>335</v>
+      </c>
       <c r="D355" s="17" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="E355" s="19"/>
       <c r="F355" s="20"/>
@@ -13922,7 +14308,7 @@
       <c r="B356" s="18"/>
       <c r="C356" s="18"/>
       <c r="D356" s="17" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="E356" s="19"/>
       <c r="F356" s="20"/>
@@ -13953,13 +14339,15 @@
       <c r="B357" s="18"/>
       <c r="C357" s="18"/>
       <c r="D357" s="17" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="E357" s="19"/>
       <c r="F357" s="20"/>
       <c r="G357" s="20"/>
       <c r="H357" s="21"/>
-      <c r="I357" s="4"/>
+      <c r="I357" s="10" t="s">
+        <v>339</v>
+      </c>
       <c r="J357" s="4"/>
       <c r="K357" s="4"/>
       <c r="L357" s="4"/>
@@ -13984,13 +14372,15 @@
       <c r="B358" s="18"/>
       <c r="C358" s="18"/>
       <c r="D358" s="17" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="E358" s="19"/>
       <c r="F358" s="20"/>
       <c r="G358" s="20"/>
       <c r="H358" s="21"/>
-      <c r="I358" s="4"/>
+      <c r="I358" s="10" t="s">
+        <v>341</v>
+      </c>
       <c r="J358" s="4"/>
       <c r="K358" s="4"/>
       <c r="L358" s="4"/>
@@ -14012,10 +14402,12 @@
     </row>
     <row r="359">
       <c r="A359" s="22"/>
-      <c r="B359" s="18"/>
+      <c r="B359" s="17" t="s">
+        <v>342</v>
+      </c>
       <c r="C359" s="18"/>
       <c r="D359" s="17" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="E359" s="19"/>
       <c r="F359" s="20"/>
@@ -14046,7 +14438,7 @@
       <c r="B360" s="18"/>
       <c r="C360" s="18"/>
       <c r="D360" s="17" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="E360" s="19"/>
       <c r="F360" s="20"/>
@@ -14077,7 +14469,7 @@
       <c r="B361" s="18"/>
       <c r="C361" s="18"/>
       <c r="D361" s="17" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="E361" s="19"/>
       <c r="F361" s="20"/>
@@ -14108,7 +14500,7 @@
       <c r="B362" s="18"/>
       <c r="C362" s="18"/>
       <c r="D362" s="17" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="E362" s="19"/>
       <c r="F362" s="20"/>
@@ -14139,7 +14531,7 @@
       <c r="B363" s="18"/>
       <c r="C363" s="18"/>
       <c r="D363" s="17" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="E363" s="19"/>
       <c r="F363" s="20"/>
@@ -14170,7 +14562,7 @@
       <c r="B364" s="18"/>
       <c r="C364" s="18"/>
       <c r="D364" s="17" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="E364" s="19"/>
       <c r="F364" s="20"/>
@@ -14201,7 +14593,7 @@
       <c r="B365" s="18"/>
       <c r="C365" s="18"/>
       <c r="D365" s="17" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="E365" s="19"/>
       <c r="F365" s="20"/>
@@ -14231,9 +14623,7 @@
       <c r="A366" s="22"/>
       <c r="B366" s="18"/>
       <c r="C366" s="18"/>
-      <c r="D366" s="17" t="s">
-        <v>333</v>
-      </c>
+      <c r="D366" s="20"/>
       <c r="E366" s="19"/>
       <c r="F366" s="20"/>
       <c r="G366" s="20"/>
@@ -14260,10 +14650,12 @@
     </row>
     <row r="367">
       <c r="A367" s="22"/>
-      <c r="B367" s="18"/>
+      <c r="B367" s="17" t="s">
+        <v>350</v>
+      </c>
       <c r="C367" s="18"/>
       <c r="D367" s="17" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="E367" s="19"/>
       <c r="F367" s="20"/>
@@ -14294,7 +14686,7 @@
       <c r="B368" s="18"/>
       <c r="C368" s="18"/>
       <c r="D368" s="17" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="E368" s="19"/>
       <c r="F368" s="20"/>
@@ -14325,7 +14717,7 @@
       <c r="B369" s="18"/>
       <c r="C369" s="18"/>
       <c r="D369" s="17" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="E369" s="19"/>
       <c r="F369" s="20"/>
@@ -14355,7 +14747,9 @@
       <c r="A370" s="22"/>
       <c r="B370" s="18"/>
       <c r="C370" s="18"/>
-      <c r="D370" s="20"/>
+      <c r="D370" s="17" t="s">
+        <v>354</v>
+      </c>
       <c r="E370" s="19"/>
       <c r="F370" s="20"/>
       <c r="G370" s="20"/>
@@ -14384,7 +14778,9 @@
       <c r="A371" s="22"/>
       <c r="B371" s="18"/>
       <c r="C371" s="18"/>
-      <c r="D371" s="20"/>
+      <c r="D371" s="17" t="s">
+        <v>355</v>
+      </c>
       <c r="E371" s="19"/>
       <c r="F371" s="20"/>
       <c r="G371" s="20"/>
@@ -14411,11 +14807,11 @@
     </row>
     <row r="372">
       <c r="A372" s="22"/>
-      <c r="B372" s="17" t="s">
-        <v>337</v>
-      </c>
+      <c r="B372" s="18"/>
       <c r="C372" s="18"/>
-      <c r="D372" s="20"/>
+      <c r="D372" s="17" t="s">
+        <v>356</v>
+      </c>
       <c r="E372" s="19"/>
       <c r="F372" s="20"/>
       <c r="G372" s="20"/>
@@ -14444,7 +14840,9 @@
       <c r="A373" s="22"/>
       <c r="B373" s="18"/>
       <c r="C373" s="18"/>
-      <c r="D373" s="20"/>
+      <c r="D373" s="17" t="s">
+        <v>357</v>
+      </c>
       <c r="E373" s="19"/>
       <c r="F373" s="20"/>
       <c r="G373" s="20"/>
@@ -14471,12 +14869,10 @@
     </row>
     <row r="374">
       <c r="A374" s="22"/>
-      <c r="B374" s="17" t="s">
-        <v>338</v>
-      </c>
+      <c r="B374" s="18"/>
       <c r="C374" s="18"/>
       <c r="D374" s="17" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="E374" s="19"/>
       <c r="F374" s="20"/>
@@ -14507,7 +14903,7 @@
       <c r="B375" s="18"/>
       <c r="C375" s="18"/>
       <c r="D375" s="17" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="E375" s="19"/>
       <c r="F375" s="20"/>
@@ -14538,7 +14934,7 @@
       <c r="B376" s="18"/>
       <c r="C376" s="18"/>
       <c r="D376" s="17" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="E376" s="19"/>
       <c r="F376" s="20"/>
@@ -14569,7 +14965,7 @@
       <c r="B377" s="18"/>
       <c r="C377" s="18"/>
       <c r="D377" s="17" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="E377" s="19"/>
       <c r="F377" s="20"/>
@@ -14600,7 +14996,7 @@
       <c r="B378" s="18"/>
       <c r="C378" s="18"/>
       <c r="D378" s="17" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="E378" s="19"/>
       <c r="F378" s="20"/>
@@ -14630,7 +15026,9 @@
       <c r="A379" s="22"/>
       <c r="B379" s="18"/>
       <c r="C379" s="18"/>
-      <c r="D379" s="20"/>
+      <c r="D379" s="17" t="s">
+        <v>363</v>
+      </c>
       <c r="E379" s="19"/>
       <c r="F379" s="20"/>
       <c r="G379" s="20"/>
@@ -14657,12 +15055,10 @@
     </row>
     <row r="380">
       <c r="A380" s="22"/>
-      <c r="B380" s="17" t="s">
-        <v>344</v>
-      </c>
+      <c r="B380" s="18"/>
       <c r="C380" s="18"/>
       <c r="D380" s="17" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="E380" s="19"/>
       <c r="F380" s="20"/>
@@ -14693,7 +15089,7 @@
       <c r="B381" s="18"/>
       <c r="C381" s="18"/>
       <c r="D381" s="17" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="E381" s="19"/>
       <c r="F381" s="20"/>
@@ -14724,7 +15120,7 @@
       <c r="B382" s="18"/>
       <c r="C382" s="18"/>
       <c r="D382" s="17" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="E382" s="19"/>
       <c r="F382" s="20"/>
@@ -14755,7 +15151,7 @@
       <c r="B383" s="18"/>
       <c r="C383" s="18"/>
       <c r="D383" s="17" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="E383" s="19"/>
       <c r="F383" s="20"/>
@@ -14785,7 +15181,9 @@
       <c r="A384" s="22"/>
       <c r="B384" s="18"/>
       <c r="C384" s="18"/>
-      <c r="D384" s="20"/>
+      <c r="D384" s="17" t="s">
+        <v>368</v>
+      </c>
       <c r="E384" s="19"/>
       <c r="F384" s="20"/>
       <c r="G384" s="20"/>
@@ -14814,7 +15212,9 @@
       <c r="A385" s="22"/>
       <c r="B385" s="18"/>
       <c r="C385" s="18"/>
-      <c r="D385" s="20"/>
+      <c r="D385" s="17" t="s">
+        <v>369</v>
+      </c>
       <c r="E385" s="19"/>
       <c r="F385" s="20"/>
       <c r="G385" s="20"/>
@@ -14843,7 +15243,9 @@
       <c r="A386" s="22"/>
       <c r="B386" s="18"/>
       <c r="C386" s="18"/>
-      <c r="D386" s="20"/>
+      <c r="D386" s="17" t="s">
+        <v>370</v>
+      </c>
       <c r="E386" s="19"/>
       <c r="F386" s="20"/>
       <c r="G386" s="20"/>
@@ -14873,7 +15275,7 @@
       <c r="B387" s="18"/>
       <c r="C387" s="18"/>
       <c r="D387" s="17" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="E387" s="19"/>
       <c r="F387" s="20"/>
@@ -14903,7 +15305,9 @@
       <c r="A388" s="22"/>
       <c r="B388" s="18"/>
       <c r="C388" s="18"/>
-      <c r="D388" s="20"/>
+      <c r="D388" s="17" t="s">
+        <v>372</v>
+      </c>
       <c r="E388" s="19"/>
       <c r="F388" s="20"/>
       <c r="G388" s="20"/>
@@ -14959,9 +15363,13 @@
     </row>
     <row r="390">
       <c r="A390" s="22"/>
-      <c r="B390" s="20"/>
-      <c r="C390" s="20"/>
-      <c r="D390" s="20"/>
+      <c r="B390" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="C390" s="18"/>
+      <c r="D390" s="17" t="s">
+        <v>374</v>
+      </c>
       <c r="E390" s="19"/>
       <c r="F390" s="20"/>
       <c r="G390" s="20"/>
@@ -14987,14 +15395,16 @@
       <c r="AA390" s="4"/>
     </row>
     <row r="391">
-      <c r="A391" s="26"/>
-      <c r="B391" s="47"/>
-      <c r="C391" s="47"/>
-      <c r="D391" s="47"/>
-      <c r="E391" s="29"/>
-      <c r="F391" s="47"/>
-      <c r="G391" s="47"/>
-      <c r="H391" s="48"/>
+      <c r="A391" s="22"/>
+      <c r="B391" s="18"/>
+      <c r="C391" s="18"/>
+      <c r="D391" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="E391" s="19"/>
+      <c r="F391" s="20"/>
+      <c r="G391" s="20"/>
+      <c r="H391" s="21"/>
       <c r="I391" s="4"/>
       <c r="J391" s="4"/>
       <c r="K391" s="4"/>
@@ -15016,18 +15426,16 @@
       <c r="AA391" s="4"/>
     </row>
     <row r="392">
-      <c r="A392" s="49" t="s">
-        <v>350</v>
-      </c>
-      <c r="B392" s="50"/>
-      <c r="C392" s="50"/>
-      <c r="D392" s="51" t="s">
-        <v>351</v>
-      </c>
-      <c r="E392" s="52"/>
-      <c r="F392" s="53"/>
-      <c r="G392" s="54"/>
-      <c r="H392" s="4"/>
+      <c r="A392" s="22"/>
+      <c r="B392" s="18"/>
+      <c r="C392" s="18"/>
+      <c r="D392" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="E392" s="19"/>
+      <c r="F392" s="20"/>
+      <c r="G392" s="20"/>
+      <c r="H392" s="21"/>
       <c r="I392" s="4"/>
       <c r="J392" s="4"/>
       <c r="K392" s="4"/>
@@ -15049,16 +15457,16 @@
       <c r="AA392" s="4"/>
     </row>
     <row r="393">
-      <c r="A393" s="55"/>
-      <c r="B393" s="55"/>
-      <c r="C393" s="55"/>
-      <c r="D393" s="51" t="s">
-        <v>352</v>
-      </c>
-      <c r="E393" s="52"/>
-      <c r="F393" s="56"/>
-      <c r="G393" s="57"/>
-      <c r="H393" s="4"/>
+      <c r="A393" s="22"/>
+      <c r="B393" s="18"/>
+      <c r="C393" s="18"/>
+      <c r="D393" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="E393" s="19"/>
+      <c r="F393" s="20"/>
+      <c r="G393" s="20"/>
+      <c r="H393" s="21"/>
       <c r="I393" s="4"/>
       <c r="J393" s="4"/>
       <c r="K393" s="4"/>
@@ -15080,16 +15488,16 @@
       <c r="AA393" s="4"/>
     </row>
     <row r="394">
-      <c r="A394" s="55"/>
-      <c r="B394" s="55"/>
-      <c r="C394" s="55"/>
-      <c r="D394" s="51" t="s">
-        <v>353</v>
-      </c>
-      <c r="E394" s="52"/>
-      <c r="F394" s="56"/>
-      <c r="G394" s="57"/>
-      <c r="H394" s="4"/>
+      <c r="A394" s="22"/>
+      <c r="B394" s="18"/>
+      <c r="C394" s="18"/>
+      <c r="D394" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="E394" s="19"/>
+      <c r="F394" s="20"/>
+      <c r="G394" s="20"/>
+      <c r="H394" s="21"/>
       <c r="I394" s="4"/>
       <c r="J394" s="4"/>
       <c r="K394" s="4"/>
@@ -15111,16 +15519,18 @@
       <c r="AA394" s="4"/>
     </row>
     <row r="395">
-      <c r="A395" s="55"/>
-      <c r="B395" s="55"/>
-      <c r="C395" s="55"/>
-      <c r="D395" s="51" t="s">
-        <v>354</v>
-      </c>
-      <c r="E395" s="52"/>
-      <c r="F395" s="56"/>
-      <c r="G395" s="57"/>
-      <c r="H395" s="4"/>
+      <c r="A395" s="22"/>
+      <c r="B395" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="C395" s="18"/>
+      <c r="D395" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="E395" s="19"/>
+      <c r="F395" s="20"/>
+      <c r="G395" s="20"/>
+      <c r="H395" s="21"/>
       <c r="I395" s="4"/>
       <c r="J395" s="4"/>
       <c r="K395" s="4"/>
@@ -15142,16 +15552,16 @@
       <c r="AA395" s="4"/>
     </row>
     <row r="396">
-      <c r="A396" s="55"/>
-      <c r="B396" s="55"/>
-      <c r="C396" s="55"/>
-      <c r="D396" s="51" t="s">
-        <v>355</v>
-      </c>
-      <c r="E396" s="52"/>
-      <c r="F396" s="56"/>
-      <c r="G396" s="57"/>
-      <c r="H396" s="4"/>
+      <c r="A396" s="22"/>
+      <c r="B396" s="18"/>
+      <c r="C396" s="18"/>
+      <c r="D396" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="E396" s="19"/>
+      <c r="F396" s="20"/>
+      <c r="G396" s="20"/>
+      <c r="H396" s="21"/>
       <c r="I396" s="4"/>
       <c r="J396" s="4"/>
       <c r="K396" s="4"/>
@@ -15173,16 +15583,16 @@
       <c r="AA396" s="4"/>
     </row>
     <row r="397">
-      <c r="A397" s="55"/>
-      <c r="B397" s="55"/>
-      <c r="C397" s="55"/>
-      <c r="D397" s="51" t="s">
-        <v>356</v>
-      </c>
-      <c r="E397" s="52"/>
-      <c r="F397" s="56"/>
-      <c r="G397" s="57"/>
-      <c r="H397" s="4"/>
+      <c r="A397" s="22"/>
+      <c r="B397" s="18"/>
+      <c r="C397" s="18"/>
+      <c r="D397" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="E397" s="19"/>
+      <c r="F397" s="20"/>
+      <c r="G397" s="20"/>
+      <c r="H397" s="21"/>
       <c r="I397" s="4"/>
       <c r="J397" s="4"/>
       <c r="K397" s="4"/>
@@ -15204,14 +15614,16 @@
       <c r="AA397" s="4"/>
     </row>
     <row r="398">
-      <c r="A398" s="58"/>
-      <c r="B398" s="58"/>
-      <c r="C398" s="58"/>
-      <c r="D398" s="59"/>
-      <c r="E398" s="60"/>
-      <c r="F398" s="61"/>
-      <c r="G398" s="62"/>
-      <c r="H398" s="4"/>
+      <c r="A398" s="22"/>
+      <c r="B398" s="18"/>
+      <c r="C398" s="18"/>
+      <c r="D398" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="E398" s="19"/>
+      <c r="F398" s="20"/>
+      <c r="G398" s="20"/>
+      <c r="H398" s="21"/>
       <c r="I398" s="4"/>
       <c r="J398" s="4"/>
       <c r="K398" s="4"/>
@@ -15233,20 +15645,16 @@
       <c r="AA398" s="4"/>
     </row>
     <row r="399">
-      <c r="A399" s="46" t="s">
-        <v>357</v>
-      </c>
-      <c r="B399" s="63"/>
-      <c r="C399" s="12"/>
-      <c r="D399" s="12"/>
-      <c r="E399" s="12"/>
-      <c r="F399" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="G399" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="H399" s="4"/>
+      <c r="A399" s="22"/>
+      <c r="B399" s="18"/>
+      <c r="C399" s="18"/>
+      <c r="D399" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="E399" s="19"/>
+      <c r="F399" s="20"/>
+      <c r="G399" s="20"/>
+      <c r="H399" s="21"/>
       <c r="I399" s="4"/>
       <c r="J399" s="4"/>
       <c r="K399" s="4"/>
@@ -15269,20 +15677,14 @@
     </row>
     <row r="400">
       <c r="A400" s="22"/>
-      <c r="B400" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="C400" s="64" t="s">
-        <v>361</v>
-      </c>
-      <c r="D400" s="65"/>
+      <c r="B400" s="18"/>
+      <c r="C400" s="18"/>
+      <c r="D400" s="20"/>
       <c r="E400" s="19"/>
       <c r="F400" s="20"/>
-      <c r="G400" s="21"/>
-      <c r="H400" s="4"/>
-      <c r="I400" s="10" t="s">
-        <v>362</v>
-      </c>
+      <c r="G400" s="20"/>
+      <c r="H400" s="21"/>
+      <c r="I400" s="4"/>
       <c r="J400" s="4"/>
       <c r="K400" s="4"/>
       <c r="L400" s="4"/>
@@ -15304,18 +15706,18 @@
     </row>
     <row r="401">
       <c r="A401" s="22"/>
-      <c r="B401" s="18"/>
-      <c r="C401" s="64" t="s">
-        <v>363</v>
-      </c>
-      <c r="D401" s="65"/>
+      <c r="B401" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="C401" s="18"/>
+      <c r="D401" s="17" t="s">
+        <v>386</v>
+      </c>
       <c r="E401" s="19"/>
       <c r="F401" s="20"/>
-      <c r="G401" s="21"/>
-      <c r="H401" s="4"/>
-      <c r="I401" s="10" t="s">
-        <v>362</v>
-      </c>
+      <c r="G401" s="20"/>
+      <c r="H401" s="21"/>
+      <c r="I401" s="4"/>
       <c r="J401" s="4"/>
       <c r="K401" s="4"/>
       <c r="L401" s="4"/>
@@ -15338,12 +15740,14 @@
     <row r="402">
       <c r="A402" s="22"/>
       <c r="B402" s="18"/>
-      <c r="C402" s="20"/>
-      <c r="D402" s="20"/>
+      <c r="C402" s="18"/>
+      <c r="D402" s="17" t="s">
+        <v>387</v>
+      </c>
       <c r="E402" s="19"/>
       <c r="F402" s="20"/>
-      <c r="G402" s="21"/>
-      <c r="H402" s="4"/>
+      <c r="G402" s="20"/>
+      <c r="H402" s="21"/>
       <c r="I402" s="4"/>
       <c r="J402" s="4"/>
       <c r="K402" s="4"/>
@@ -15367,12 +15771,14 @@
     <row r="403">
       <c r="A403" s="22"/>
       <c r="B403" s="18"/>
-      <c r="C403" s="20"/>
-      <c r="D403" s="20"/>
+      <c r="C403" s="18"/>
+      <c r="D403" s="17" t="s">
+        <v>388</v>
+      </c>
       <c r="E403" s="19"/>
       <c r="F403" s="20"/>
-      <c r="G403" s="21"/>
-      <c r="H403" s="4"/>
+      <c r="G403" s="20"/>
+      <c r="H403" s="21"/>
       <c r="I403" s="4"/>
       <c r="J403" s="4"/>
       <c r="K403" s="4"/>
@@ -15396,12 +15802,14 @@
     <row r="404">
       <c r="A404" s="22"/>
       <c r="B404" s="18"/>
-      <c r="C404" s="20"/>
-      <c r="D404" s="20"/>
+      <c r="C404" s="18"/>
+      <c r="D404" s="17" t="s">
+        <v>389</v>
+      </c>
       <c r="E404" s="19"/>
       <c r="F404" s="20"/>
-      <c r="G404" s="21"/>
-      <c r="H404" s="4"/>
+      <c r="G404" s="20"/>
+      <c r="H404" s="21"/>
       <c r="I404" s="4"/>
       <c r="J404" s="4"/>
       <c r="K404" s="4"/>
@@ -15425,12 +15833,12 @@
     <row r="405">
       <c r="A405" s="22"/>
       <c r="B405" s="18"/>
-      <c r="C405" s="20"/>
+      <c r="C405" s="18"/>
       <c r="D405" s="20"/>
       <c r="E405" s="19"/>
       <c r="F405" s="20"/>
-      <c r="G405" s="21"/>
-      <c r="H405" s="4"/>
+      <c r="G405" s="20"/>
+      <c r="H405" s="21"/>
       <c r="I405" s="4"/>
       <c r="J405" s="4"/>
       <c r="K405" s="4"/>
@@ -15454,12 +15862,12 @@
     <row r="406">
       <c r="A406" s="22"/>
       <c r="B406" s="18"/>
-      <c r="C406" s="20"/>
+      <c r="C406" s="18"/>
       <c r="D406" s="20"/>
       <c r="E406" s="19"/>
       <c r="F406" s="20"/>
-      <c r="G406" s="21"/>
-      <c r="H406" s="4"/>
+      <c r="G406" s="20"/>
+      <c r="H406" s="21"/>
       <c r="I406" s="4"/>
       <c r="J406" s="4"/>
       <c r="K406" s="4"/>
@@ -15482,18 +15890,14 @@
     </row>
     <row r="407">
       <c r="A407" s="22"/>
-      <c r="B407" s="17" t="s">
-        <v>364</v>
-      </c>
+      <c r="B407" s="18"/>
       <c r="C407" s="18"/>
-      <c r="D407" s="18"/>
+      <c r="D407" s="20"/>
       <c r="E407" s="19"/>
       <c r="F407" s="20"/>
-      <c r="G407" s="21"/>
-      <c r="H407" s="10"/>
-      <c r="I407" s="10" t="s">
-        <v>362</v>
-      </c>
+      <c r="G407" s="20"/>
+      <c r="H407" s="21"/>
+      <c r="I407" s="4"/>
       <c r="J407" s="4"/>
       <c r="K407" s="4"/>
       <c r="L407" s="4"/>
@@ -15515,15 +15919,15 @@
     </row>
     <row r="408">
       <c r="A408" s="22"/>
-      <c r="B408" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="C408" s="20"/>
-      <c r="D408" s="20"/>
+      <c r="B408" s="18"/>
+      <c r="C408" s="18"/>
+      <c r="D408" s="17" t="s">
+        <v>390</v>
+      </c>
       <c r="E408" s="19"/>
       <c r="F408" s="20"/>
-      <c r="G408" s="21"/>
-      <c r="H408" s="4"/>
+      <c r="G408" s="20"/>
+      <c r="H408" s="21"/>
       <c r="I408" s="4"/>
       <c r="J408" s="4"/>
       <c r="K408" s="4"/>
@@ -15547,12 +15951,12 @@
     <row r="409">
       <c r="A409" s="22"/>
       <c r="B409" s="18"/>
-      <c r="C409" s="20"/>
+      <c r="C409" s="18"/>
       <c r="D409" s="20"/>
       <c r="E409" s="19"/>
       <c r="F409" s="20"/>
-      <c r="G409" s="21"/>
-      <c r="H409" s="4"/>
+      <c r="G409" s="20"/>
+      <c r="H409" s="21"/>
       <c r="I409" s="4"/>
       <c r="J409" s="4"/>
       <c r="K409" s="4"/>
@@ -15575,17 +15979,13 @@
     </row>
     <row r="410">
       <c r="A410" s="22"/>
-      <c r="B410" s="17" t="s">
-        <v>366</v>
-      </c>
+      <c r="B410" s="18"/>
       <c r="C410" s="18"/>
-      <c r="D410" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="D410" s="20"/>
       <c r="E410" s="19"/>
       <c r="F410" s="20"/>
-      <c r="G410" s="21"/>
-      <c r="H410" s="4"/>
+      <c r="G410" s="20"/>
+      <c r="H410" s="21"/>
       <c r="I410" s="4"/>
       <c r="J410" s="4"/>
       <c r="K410" s="4"/>
@@ -15608,15 +16008,17 @@
     </row>
     <row r="411">
       <c r="A411" s="22"/>
-      <c r="B411" s="18"/>
-      <c r="C411" s="18"/>
+      <c r="B411" s="42" t="s">
+        <v>391</v>
+      </c>
+      <c r="C411" s="43"/>
       <c r="D411" s="17" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="E411" s="19"/>
       <c r="F411" s="20"/>
-      <c r="G411" s="21"/>
-      <c r="H411" s="4"/>
+      <c r="G411" s="20"/>
+      <c r="H411" s="21"/>
       <c r="I411" s="4"/>
       <c r="J411" s="4"/>
       <c r="K411" s="4"/>
@@ -15639,15 +16041,15 @@
     </row>
     <row r="412">
       <c r="A412" s="22"/>
-      <c r="B412" s="18"/>
-      <c r="C412" s="18"/>
+      <c r="B412" s="47"/>
+      <c r="C412" s="48"/>
       <c r="D412" s="17" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="E412" s="19"/>
       <c r="F412" s="20"/>
-      <c r="G412" s="21"/>
-      <c r="H412" s="4"/>
+      <c r="G412" s="20"/>
+      <c r="H412" s="21"/>
       <c r="I412" s="4"/>
       <c r="J412" s="4"/>
       <c r="K412" s="4"/>
@@ -15670,15 +16072,15 @@
     </row>
     <row r="413">
       <c r="A413" s="22"/>
-      <c r="B413" s="18"/>
-      <c r="C413" s="18"/>
+      <c r="B413" s="47"/>
+      <c r="C413" s="48"/>
       <c r="D413" s="17" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="E413" s="19"/>
       <c r="F413" s="20"/>
-      <c r="G413" s="21"/>
-      <c r="H413" s="4"/>
+      <c r="G413" s="20"/>
+      <c r="H413" s="21"/>
       <c r="I413" s="4"/>
       <c r="J413" s="4"/>
       <c r="K413" s="4"/>
@@ -15701,15 +16103,15 @@
     </row>
     <row r="414">
       <c r="A414" s="22"/>
-      <c r="B414" s="18"/>
-      <c r="C414" s="18"/>
+      <c r="B414" s="47"/>
+      <c r="C414" s="48"/>
       <c r="D414" s="17" t="s">
-        <v>19</v>
+        <v>395</v>
       </c>
       <c r="E414" s="19"/>
       <c r="F414" s="20"/>
-      <c r="G414" s="21"/>
-      <c r="H414" s="4"/>
+      <c r="G414" s="20"/>
+      <c r="H414" s="21"/>
       <c r="I414" s="4"/>
       <c r="J414" s="4"/>
       <c r="K414" s="4"/>
@@ -15732,15 +16134,15 @@
     </row>
     <row r="415">
       <c r="A415" s="22"/>
-      <c r="B415" s="18"/>
-      <c r="C415" s="18"/>
+      <c r="B415" s="47"/>
+      <c r="C415" s="48"/>
       <c r="D415" s="17" t="s">
-        <v>20</v>
+        <v>396</v>
       </c>
       <c r="E415" s="19"/>
       <c r="F415" s="20"/>
-      <c r="G415" s="21"/>
-      <c r="H415" s="4"/>
+      <c r="G415" s="20"/>
+      <c r="H415" s="21"/>
       <c r="I415" s="4"/>
       <c r="J415" s="4"/>
       <c r="K415" s="4"/>
@@ -15763,15 +16165,15 @@
     </row>
     <row r="416">
       <c r="A416" s="22"/>
-      <c r="B416" s="18"/>
-      <c r="C416" s="18"/>
+      <c r="B416" s="47"/>
+      <c r="C416" s="48"/>
       <c r="D416" s="17" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="E416" s="19"/>
       <c r="F416" s="20"/>
-      <c r="G416" s="21"/>
-      <c r="H416" s="4"/>
+      <c r="G416" s="20"/>
+      <c r="H416" s="21"/>
       <c r="I416" s="4"/>
       <c r="J416" s="4"/>
       <c r="K416" s="4"/>
@@ -15794,15 +16196,15 @@
     </row>
     <row r="417">
       <c r="A417" s="22"/>
-      <c r="B417" s="18"/>
-      <c r="C417" s="18"/>
+      <c r="B417" s="47"/>
+      <c r="C417" s="48"/>
       <c r="D417" s="17" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="E417" s="19"/>
       <c r="F417" s="20"/>
-      <c r="G417" s="21"/>
-      <c r="H417" s="4"/>
+      <c r="G417" s="20"/>
+      <c r="H417" s="21"/>
       <c r="I417" s="4"/>
       <c r="J417" s="4"/>
       <c r="K417" s="4"/>
@@ -15825,15 +16227,15 @@
     </row>
     <row r="418">
       <c r="A418" s="22"/>
-      <c r="B418" s="18"/>
-      <c r="C418" s="18"/>
+      <c r="B418" s="47"/>
+      <c r="C418" s="48"/>
       <c r="D418" s="17" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="E418" s="19"/>
       <c r="F418" s="20"/>
-      <c r="G418" s="21"/>
-      <c r="H418" s="4"/>
+      <c r="G418" s="20"/>
+      <c r="H418" s="21"/>
       <c r="I418" s="4"/>
       <c r="J418" s="4"/>
       <c r="K418" s="4"/>
@@ -15856,15 +16258,15 @@
     </row>
     <row r="419">
       <c r="A419" s="22"/>
-      <c r="B419" s="18"/>
-      <c r="C419" s="18"/>
+      <c r="B419" s="47"/>
+      <c r="C419" s="48"/>
       <c r="D419" s="17" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="E419" s="19"/>
       <c r="F419" s="20"/>
-      <c r="G419" s="21"/>
-      <c r="H419" s="4"/>
+      <c r="G419" s="20"/>
+      <c r="H419" s="21"/>
       <c r="I419" s="4"/>
       <c r="J419" s="4"/>
       <c r="K419" s="4"/>
@@ -15887,13 +16289,15 @@
     </row>
     <row r="420">
       <c r="A420" s="22"/>
-      <c r="B420" s="18"/>
-      <c r="C420" s="18"/>
-      <c r="D420" s="20"/>
+      <c r="B420" s="47"/>
+      <c r="C420" s="48"/>
+      <c r="D420" s="17" t="s">
+        <v>401</v>
+      </c>
       <c r="E420" s="19"/>
       <c r="F420" s="20"/>
-      <c r="G420" s="21"/>
-      <c r="H420" s="4"/>
+      <c r="G420" s="20"/>
+      <c r="H420" s="21"/>
       <c r="I420" s="4"/>
       <c r="J420" s="4"/>
       <c r="K420" s="4"/>
@@ -15915,14 +16319,16 @@
       <c r="AA420" s="4"/>
     </row>
     <row r="421">
-      <c r="A421" s="26"/>
+      <c r="A421" s="22"/>
       <c r="B421" s="47"/>
-      <c r="C421" s="47"/>
-      <c r="D421" s="47"/>
-      <c r="E421" s="29"/>
-      <c r="F421" s="47"/>
-      <c r="G421" s="48"/>
-      <c r="H421" s="4"/>
+      <c r="C421" s="48"/>
+      <c r="D421" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E421" s="19"/>
+      <c r="F421" s="20"/>
+      <c r="G421" s="20"/>
+      <c r="H421" s="21"/>
       <c r="I421" s="4"/>
       <c r="J421" s="4"/>
       <c r="K421" s="4"/>
@@ -15944,16 +16350,16 @@
       <c r="AA421" s="4"/>
     </row>
     <row r="422">
-      <c r="A422" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="B422" s="4"/>
-      <c r="C422" s="4"/>
-      <c r="D422" s="4"/>
-      <c r="E422" s="66"/>
-      <c r="F422" s="4"/>
-      <c r="G422" s="4"/>
-      <c r="H422" s="4"/>
+      <c r="A422" s="22"/>
+      <c r="B422" s="47"/>
+      <c r="C422" s="48"/>
+      <c r="D422" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="E422" s="19"/>
+      <c r="F422" s="20"/>
+      <c r="G422" s="20"/>
+      <c r="H422" s="21"/>
       <c r="I422" s="4"/>
       <c r="J422" s="4"/>
       <c r="K422" s="4"/>
@@ -15975,14 +16381,16 @@
       <c r="AA422" s="4"/>
     </row>
     <row r="423">
-      <c r="A423" s="67"/>
-      <c r="B423" s="4"/>
-      <c r="C423" s="4"/>
-      <c r="D423" s="4"/>
-      <c r="E423" s="66"/>
-      <c r="F423" s="4"/>
-      <c r="G423" s="4"/>
-      <c r="H423" s="4"/>
+      <c r="A423" s="22"/>
+      <c r="B423" s="47"/>
+      <c r="C423" s="48"/>
+      <c r="D423" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="E423" s="19"/>
+      <c r="F423" s="20"/>
+      <c r="G423" s="20"/>
+      <c r="H423" s="21"/>
       <c r="I423" s="4"/>
       <c r="J423" s="4"/>
       <c r="K423" s="4"/>
@@ -16004,16 +16412,16 @@
       <c r="AA423" s="4"/>
     </row>
     <row r="424">
-      <c r="A424" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="B424" s="4"/>
-      <c r="C424" s="4"/>
-      <c r="D424" s="4"/>
-      <c r="E424" s="66"/>
-      <c r="F424" s="4"/>
-      <c r="G424" s="4"/>
-      <c r="H424" s="4"/>
+      <c r="A424" s="22"/>
+      <c r="B424" s="47"/>
+      <c r="C424" s="48"/>
+      <c r="D424" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="E424" s="19"/>
+      <c r="F424" s="20"/>
+      <c r="G424" s="20"/>
+      <c r="H424" s="21"/>
       <c r="I424" s="4"/>
       <c r="J424" s="4"/>
       <c r="K424" s="4"/>
@@ -16035,14 +16443,16 @@
       <c r="AA424" s="4"/>
     </row>
     <row r="425">
-      <c r="A425" s="67"/>
-      <c r="B425" s="4"/>
-      <c r="C425" s="4"/>
-      <c r="D425" s="4"/>
-      <c r="E425" s="66"/>
-      <c r="F425" s="4"/>
-      <c r="G425" s="4"/>
-      <c r="H425" s="4"/>
+      <c r="A425" s="22"/>
+      <c r="B425" s="47"/>
+      <c r="C425" s="48"/>
+      <c r="D425" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="E425" s="19"/>
+      <c r="F425" s="20"/>
+      <c r="G425" s="20"/>
+      <c r="H425" s="21"/>
       <c r="I425" s="4"/>
       <c r="J425" s="4"/>
       <c r="K425" s="4"/>
@@ -16064,16 +16474,14 @@
       <c r="AA425" s="4"/>
     </row>
     <row r="426">
-      <c r="A426" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="B426" s="4"/>
-      <c r="C426" s="4"/>
-      <c r="D426" s="4"/>
-      <c r="E426" s="66"/>
-      <c r="F426" s="4"/>
-      <c r="G426" s="4"/>
-      <c r="H426" s="4"/>
+      <c r="A426" s="22"/>
+      <c r="B426" s="20"/>
+      <c r="C426" s="20"/>
+      <c r="D426" s="20"/>
+      <c r="E426" s="19"/>
+      <c r="F426" s="20"/>
+      <c r="G426" s="20"/>
+      <c r="H426" s="21"/>
       <c r="I426" s="4"/>
       <c r="J426" s="4"/>
       <c r="K426" s="4"/>
@@ -16095,14 +16503,14 @@
       <c r="AA426" s="4"/>
     </row>
     <row r="427">
-      <c r="A427" s="67"/>
-      <c r="B427" s="4"/>
-      <c r="C427" s="4"/>
-      <c r="D427" s="4"/>
-      <c r="E427" s="66"/>
-      <c r="F427" s="4"/>
-      <c r="G427" s="4"/>
-      <c r="H427" s="4"/>
+      <c r="A427" s="26"/>
+      <c r="B427" s="49"/>
+      <c r="C427" s="49"/>
+      <c r="D427" s="49"/>
+      <c r="E427" s="29"/>
+      <c r="F427" s="49"/>
+      <c r="G427" s="49"/>
+      <c r="H427" s="50"/>
       <c r="I427" s="4"/>
       <c r="J427" s="4"/>
       <c r="K427" s="4"/>
@@ -16124,15 +16532,17 @@
       <c r="AA427" s="4"/>
     </row>
     <row r="428">
-      <c r="A428" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="B428" s="4"/>
-      <c r="C428" s="4"/>
-      <c r="D428" s="4"/>
-      <c r="E428" s="66"/>
-      <c r="F428" s="4"/>
-      <c r="G428" s="4"/>
+      <c r="A428" s="51" t="s">
+        <v>407</v>
+      </c>
+      <c r="B428" s="52"/>
+      <c r="C428" s="52"/>
+      <c r="D428" s="53" t="s">
+        <v>408</v>
+      </c>
+      <c r="E428" s="54"/>
+      <c r="F428" s="55"/>
+      <c r="G428" s="56"/>
       <c r="H428" s="4"/>
       <c r="I428" s="4"/>
       <c r="J428" s="4"/>
@@ -16155,13 +16565,15 @@
       <c r="AA428" s="4"/>
     </row>
     <row r="429">
-      <c r="A429" s="67"/>
-      <c r="B429" s="4"/>
-      <c r="C429" s="4"/>
-      <c r="D429" s="4"/>
-      <c r="E429" s="66"/>
-      <c r="F429" s="4"/>
-      <c r="G429" s="4"/>
+      <c r="A429" s="57"/>
+      <c r="B429" s="57"/>
+      <c r="C429" s="57"/>
+      <c r="D429" s="53" t="s">
+        <v>409</v>
+      </c>
+      <c r="E429" s="54"/>
+      <c r="F429" s="58"/>
+      <c r="G429" s="59"/>
       <c r="H429" s="4"/>
       <c r="I429" s="4"/>
       <c r="J429" s="4"/>
@@ -16184,15 +16596,15 @@
       <c r="AA429" s="4"/>
     </row>
     <row r="430">
-      <c r="A430" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="B430" s="4"/>
-      <c r="C430" s="4"/>
-      <c r="D430" s="4"/>
-      <c r="E430" s="66"/>
-      <c r="F430" s="4"/>
-      <c r="G430" s="4"/>
+      <c r="A430" s="57"/>
+      <c r="B430" s="57"/>
+      <c r="C430" s="57"/>
+      <c r="D430" s="53" t="s">
+        <v>410</v>
+      </c>
+      <c r="E430" s="54"/>
+      <c r="F430" s="58"/>
+      <c r="G430" s="59"/>
       <c r="H430" s="4"/>
       <c r="I430" s="4"/>
       <c r="J430" s="4"/>
@@ -16215,13 +16627,15 @@
       <c r="AA430" s="4"/>
     </row>
     <row r="431">
-      <c r="A431" s="68"/>
-      <c r="B431" s="4"/>
-      <c r="C431" s="4"/>
-      <c r="D431" s="4"/>
-      <c r="E431" s="66"/>
-      <c r="F431" s="4"/>
-      <c r="G431" s="4"/>
+      <c r="A431" s="57"/>
+      <c r="B431" s="57"/>
+      <c r="C431" s="57"/>
+      <c r="D431" s="53" t="s">
+        <v>411</v>
+      </c>
+      <c r="E431" s="54"/>
+      <c r="F431" s="58"/>
+      <c r="G431" s="59"/>
       <c r="H431" s="4"/>
       <c r="I431" s="4"/>
       <c r="J431" s="4"/>
@@ -16244,13 +16658,15 @@
       <c r="AA431" s="4"/>
     </row>
     <row r="432">
-      <c r="A432" s="4"/>
-      <c r="B432" s="4"/>
-      <c r="C432" s="4"/>
-      <c r="D432" s="4"/>
-      <c r="E432" s="66"/>
-      <c r="F432" s="4"/>
-      <c r="G432" s="4"/>
+      <c r="A432" s="57"/>
+      <c r="B432" s="57"/>
+      <c r="C432" s="57"/>
+      <c r="D432" s="53" t="s">
+        <v>412</v>
+      </c>
+      <c r="E432" s="54"/>
+      <c r="F432" s="58"/>
+      <c r="G432" s="59"/>
       <c r="H432" s="4"/>
       <c r="I432" s="4"/>
       <c r="J432" s="4"/>
@@ -16273,13 +16689,15 @@
       <c r="AA432" s="4"/>
     </row>
     <row r="433">
-      <c r="A433" s="4"/>
-      <c r="B433" s="4"/>
-      <c r="C433" s="4"/>
-      <c r="D433" s="4"/>
-      <c r="E433" s="66"/>
-      <c r="F433" s="4"/>
-      <c r="G433" s="4"/>
+      <c r="A433" s="57"/>
+      <c r="B433" s="57"/>
+      <c r="C433" s="57"/>
+      <c r="D433" s="53" t="s">
+        <v>413</v>
+      </c>
+      <c r="E433" s="54"/>
+      <c r="F433" s="58"/>
+      <c r="G433" s="59"/>
       <c r="H433" s="4"/>
       <c r="I433" s="4"/>
       <c r="J433" s="4"/>
@@ -16302,13 +16720,13 @@
       <c r="AA433" s="4"/>
     </row>
     <row r="434">
-      <c r="A434" s="4"/>
-      <c r="B434" s="4"/>
-      <c r="C434" s="4"/>
-      <c r="D434" s="4"/>
-      <c r="E434" s="66"/>
-      <c r="F434" s="4"/>
-      <c r="G434" s="4"/>
+      <c r="A434" s="60"/>
+      <c r="B434" s="60"/>
+      <c r="C434" s="60"/>
+      <c r="D434" s="61"/>
+      <c r="E434" s="62"/>
+      <c r="F434" s="63"/>
+      <c r="G434" s="64"/>
       <c r="H434" s="4"/>
       <c r="I434" s="4"/>
       <c r="J434" s="4"/>
@@ -16331,13 +16749,19 @@
       <c r="AA434" s="4"/>
     </row>
     <row r="435">
-      <c r="A435" s="4"/>
-      <c r="B435" s="4"/>
-      <c r="C435" s="4"/>
-      <c r="D435" s="4"/>
-      <c r="E435" s="66"/>
-      <c r="F435" s="4"/>
-      <c r="G435" s="4"/>
+      <c r="A435" s="46" t="s">
+        <v>414</v>
+      </c>
+      <c r="B435" s="65"/>
+      <c r="C435" s="12"/>
+      <c r="D435" s="12"/>
+      <c r="E435" s="12"/>
+      <c r="F435" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="G435" s="15" t="s">
+        <v>416</v>
+      </c>
       <c r="H435" s="4"/>
       <c r="I435" s="4"/>
       <c r="J435" s="4"/>
@@ -16360,15 +16784,21 @@
       <c r="AA435" s="4"/>
     </row>
     <row r="436">
-      <c r="A436" s="4"/>
-      <c r="B436" s="4"/>
-      <c r="C436" s="4"/>
-      <c r="D436" s="4"/>
-      <c r="E436" s="66"/>
-      <c r="F436" s="4"/>
-      <c r="G436" s="4"/>
+      <c r="A436" s="22"/>
+      <c r="B436" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C436" s="66" t="s">
+        <v>418</v>
+      </c>
+      <c r="D436" s="67"/>
+      <c r="E436" s="19"/>
+      <c r="F436" s="20"/>
+      <c r="G436" s="21"/>
       <c r="H436" s="4"/>
-      <c r="I436" s="4"/>
+      <c r="I436" s="10" t="s">
+        <v>419</v>
+      </c>
       <c r="J436" s="4"/>
       <c r="K436" s="4"/>
       <c r="L436" s="4"/>
@@ -16389,15 +16819,19 @@
       <c r="AA436" s="4"/>
     </row>
     <row r="437">
-      <c r="A437" s="4"/>
-      <c r="B437" s="4"/>
-      <c r="C437" s="4"/>
-      <c r="D437" s="4"/>
-      <c r="E437" s="66"/>
-      <c r="F437" s="4"/>
-      <c r="G437" s="4"/>
+      <c r="A437" s="22"/>
+      <c r="B437" s="18"/>
+      <c r="C437" s="66" t="s">
+        <v>420</v>
+      </c>
+      <c r="D437" s="67"/>
+      <c r="E437" s="19"/>
+      <c r="F437" s="20"/>
+      <c r="G437" s="21"/>
       <c r="H437" s="4"/>
-      <c r="I437" s="4"/>
+      <c r="I437" s="10" t="s">
+        <v>419</v>
+      </c>
       <c r="J437" s="4"/>
       <c r="K437" s="4"/>
       <c r="L437" s="4"/>
@@ -16418,13 +16852,13 @@
       <c r="AA437" s="4"/>
     </row>
     <row r="438">
-      <c r="A438" s="4"/>
-      <c r="B438" s="4"/>
-      <c r="C438" s="4"/>
-      <c r="D438" s="4"/>
-      <c r="E438" s="66"/>
-      <c r="F438" s="4"/>
-      <c r="G438" s="4"/>
+      <c r="A438" s="22"/>
+      <c r="B438" s="18"/>
+      <c r="C438" s="20"/>
+      <c r="D438" s="20"/>
+      <c r="E438" s="19"/>
+      <c r="F438" s="20"/>
+      <c r="G438" s="21"/>
       <c r="H438" s="4"/>
       <c r="I438" s="4"/>
       <c r="J438" s="4"/>
@@ -16447,13 +16881,13 @@
       <c r="AA438" s="4"/>
     </row>
     <row r="439">
-      <c r="A439" s="4"/>
-      <c r="B439" s="4"/>
-      <c r="C439" s="4"/>
-      <c r="D439" s="4"/>
-      <c r="E439" s="66"/>
-      <c r="F439" s="4"/>
-      <c r="G439" s="4"/>
+      <c r="A439" s="22"/>
+      <c r="B439" s="18"/>
+      <c r="C439" s="20"/>
+      <c r="D439" s="20"/>
+      <c r="E439" s="19"/>
+      <c r="F439" s="20"/>
+      <c r="G439" s="21"/>
       <c r="H439" s="4"/>
       <c r="I439" s="4"/>
       <c r="J439" s="4"/>
@@ -16476,13 +16910,13 @@
       <c r="AA439" s="4"/>
     </row>
     <row r="440">
-      <c r="A440" s="4"/>
-      <c r="B440" s="4"/>
-      <c r="C440" s="4"/>
-      <c r="D440" s="4"/>
-      <c r="E440" s="66"/>
-      <c r="F440" s="4"/>
-      <c r="G440" s="4"/>
+      <c r="A440" s="22"/>
+      <c r="B440" s="18"/>
+      <c r="C440" s="20"/>
+      <c r="D440" s="20"/>
+      <c r="E440" s="19"/>
+      <c r="F440" s="20"/>
+      <c r="G440" s="21"/>
       <c r="H440" s="4"/>
       <c r="I440" s="4"/>
       <c r="J440" s="4"/>
@@ -16505,13 +16939,13 @@
       <c r="AA440" s="4"/>
     </row>
     <row r="441">
-      <c r="A441" s="4"/>
-      <c r="B441" s="4"/>
-      <c r="C441" s="4"/>
-      <c r="D441" s="4"/>
-      <c r="E441" s="66"/>
-      <c r="F441" s="4"/>
-      <c r="G441" s="4"/>
+      <c r="A441" s="22"/>
+      <c r="B441" s="18"/>
+      <c r="C441" s="20"/>
+      <c r="D441" s="20"/>
+      <c r="E441" s="19"/>
+      <c r="F441" s="20"/>
+      <c r="G441" s="21"/>
       <c r="H441" s="4"/>
       <c r="I441" s="4"/>
       <c r="J441" s="4"/>
@@ -16534,13 +16968,13 @@
       <c r="AA441" s="4"/>
     </row>
     <row r="442">
-      <c r="A442" s="4"/>
-      <c r="B442" s="4"/>
-      <c r="C442" s="4"/>
-      <c r="D442" s="4"/>
-      <c r="E442" s="66"/>
-      <c r="F442" s="4"/>
-      <c r="G442" s="4"/>
+      <c r="A442" s="22"/>
+      <c r="B442" s="18"/>
+      <c r="C442" s="20"/>
+      <c r="D442" s="20"/>
+      <c r="E442" s="19"/>
+      <c r="F442" s="20"/>
+      <c r="G442" s="21"/>
       <c r="H442" s="4"/>
       <c r="I442" s="4"/>
       <c r="J442" s="4"/>
@@ -16563,15 +16997,19 @@
       <c r="AA442" s="4"/>
     </row>
     <row r="443">
-      <c r="A443" s="4"/>
-      <c r="B443" s="4"/>
-      <c r="C443" s="4"/>
-      <c r="D443" s="4"/>
-      <c r="E443" s="66"/>
-      <c r="F443" s="4"/>
-      <c r="G443" s="4"/>
-      <c r="H443" s="4"/>
-      <c r="I443" s="4"/>
+      <c r="A443" s="22"/>
+      <c r="B443" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="C443" s="18"/>
+      <c r="D443" s="18"/>
+      <c r="E443" s="19"/>
+      <c r="F443" s="20"/>
+      <c r="G443" s="21"/>
+      <c r="H443" s="10"/>
+      <c r="I443" s="10" t="s">
+        <v>419</v>
+      </c>
       <c r="J443" s="4"/>
       <c r="K443" s="4"/>
       <c r="L443" s="4"/>
@@ -16592,13 +17030,19 @@
       <c r="AA443" s="4"/>
     </row>
     <row r="444">
-      <c r="A444" s="4"/>
-      <c r="B444" s="4"/>
-      <c r="C444" s="4"/>
-      <c r="D444" s="4"/>
-      <c r="E444" s="66"/>
-      <c r="F444" s="4"/>
-      <c r="G444" s="4"/>
+      <c r="A444" s="22"/>
+      <c r="B444" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="C444" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="D444" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="E444" s="19"/>
+      <c r="F444" s="20"/>
+      <c r="G444" s="21"/>
       <c r="H444" s="4"/>
       <c r="I444" s="4"/>
       <c r="J444" s="4"/>
@@ -16621,13 +17065,15 @@
       <c r="AA444" s="4"/>
     </row>
     <row r="445">
-      <c r="A445" s="4"/>
-      <c r="B445" s="4"/>
-      <c r="C445" s="4"/>
-      <c r="D445" s="4"/>
-      <c r="E445" s="66"/>
-      <c r="F445" s="4"/>
-      <c r="G445" s="4"/>
+      <c r="A445" s="22"/>
+      <c r="B445" s="18"/>
+      <c r="C445" s="8"/>
+      <c r="D445" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="E445" s="19"/>
+      <c r="F445" s="20"/>
+      <c r="G445" s="21"/>
       <c r="H445" s="4"/>
       <c r="I445" s="4"/>
       <c r="J445" s="4"/>
@@ -16650,13 +17096,15 @@
       <c r="AA445" s="4"/>
     </row>
     <row r="446">
-      <c r="A446" s="4"/>
-      <c r="B446" s="4"/>
-      <c r="C446" s="4"/>
-      <c r="D446" s="4"/>
-      <c r="E446" s="66"/>
-      <c r="F446" s="4"/>
-      <c r="G446" s="4"/>
+      <c r="A446" s="22"/>
+      <c r="B446" s="18"/>
+      <c r="C446" s="8"/>
+      <c r="D446" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="E446" s="19"/>
+      <c r="F446" s="20"/>
+      <c r="G446" s="21"/>
       <c r="H446" s="4"/>
       <c r="I446" s="4"/>
       <c r="J446" s="4"/>
@@ -16679,13 +17127,15 @@
       <c r="AA446" s="4"/>
     </row>
     <row r="447">
-      <c r="A447" s="4"/>
-      <c r="B447" s="4"/>
-      <c r="C447" s="4"/>
-      <c r="D447" s="4"/>
-      <c r="E447" s="66"/>
-      <c r="F447" s="4"/>
-      <c r="G447" s="4"/>
+      <c r="A447" s="22"/>
+      <c r="B447" s="18"/>
+      <c r="C447" s="8"/>
+      <c r="D447" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="E447" s="19"/>
+      <c r="F447" s="20"/>
+      <c r="G447" s="21"/>
       <c r="H447" s="4"/>
       <c r="I447" s="4"/>
       <c r="J447" s="4"/>
@@ -16708,13 +17158,15 @@
       <c r="AA447" s="4"/>
     </row>
     <row r="448">
-      <c r="A448" s="4"/>
-      <c r="B448" s="4"/>
-      <c r="C448" s="4"/>
-      <c r="D448" s="4"/>
-      <c r="E448" s="66"/>
-      <c r="F448" s="4"/>
-      <c r="G448" s="4"/>
+      <c r="A448" s="22"/>
+      <c r="B448" s="18"/>
+      <c r="C448" s="8"/>
+      <c r="D448" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="E448" s="19"/>
+      <c r="F448" s="20"/>
+      <c r="G448" s="21"/>
       <c r="H448" s="4"/>
       <c r="I448" s="4"/>
       <c r="J448" s="4"/>
@@ -16737,13 +17189,15 @@
       <c r="AA448" s="4"/>
     </row>
     <row r="449">
-      <c r="A449" s="4"/>
-      <c r="B449" s="4"/>
-      <c r="C449" s="4"/>
-      <c r="D449" s="4"/>
-      <c r="E449" s="66"/>
-      <c r="F449" s="4"/>
-      <c r="G449" s="4"/>
+      <c r="A449" s="22"/>
+      <c r="B449" s="18"/>
+      <c r="C449" s="8"/>
+      <c r="D449" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="E449" s="19"/>
+      <c r="F449" s="20"/>
+      <c r="G449" s="21"/>
       <c r="H449" s="4"/>
       <c r="I449" s="4"/>
       <c r="J449" s="4"/>
@@ -16766,13 +17220,15 @@
       <c r="AA449" s="4"/>
     </row>
     <row r="450">
-      <c r="A450" s="4"/>
-      <c r="B450" s="4"/>
-      <c r="C450" s="4"/>
-      <c r="D450" s="4"/>
-      <c r="E450" s="66"/>
-      <c r="F450" s="4"/>
-      <c r="G450" s="4"/>
+      <c r="A450" s="22"/>
+      <c r="B450" s="18"/>
+      <c r="C450" s="8"/>
+      <c r="D450" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="E450" s="19"/>
+      <c r="F450" s="20"/>
+      <c r="G450" s="21"/>
       <c r="H450" s="4"/>
       <c r="I450" s="4"/>
       <c r="J450" s="4"/>
@@ -16795,13 +17251,15 @@
       <c r="AA450" s="4"/>
     </row>
     <row r="451">
-      <c r="A451" s="4"/>
-      <c r="B451" s="4"/>
-      <c r="C451" s="4"/>
-      <c r="D451" s="4"/>
-      <c r="E451" s="66"/>
-      <c r="F451" s="4"/>
-      <c r="G451" s="4"/>
+      <c r="A451" s="22"/>
+      <c r="B451" s="18"/>
+      <c r="C451" s="8"/>
+      <c r="D451" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="E451" s="19"/>
+      <c r="F451" s="20"/>
+      <c r="G451" s="21"/>
       <c r="H451" s="4"/>
       <c r="I451" s="4"/>
       <c r="J451" s="4"/>
@@ -16824,13 +17282,15 @@
       <c r="AA451" s="4"/>
     </row>
     <row r="452">
-      <c r="A452" s="4"/>
-      <c r="B452" s="4"/>
-      <c r="C452" s="4"/>
-      <c r="D452" s="4"/>
-      <c r="E452" s="66"/>
-      <c r="F452" s="4"/>
-      <c r="G452" s="4"/>
+      <c r="A452" s="22"/>
+      <c r="B452" s="18"/>
+      <c r="C452" s="8"/>
+      <c r="D452" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="E452" s="19"/>
+      <c r="F452" s="20"/>
+      <c r="G452" s="21"/>
       <c r="H452" s="4"/>
       <c r="I452" s="4"/>
       <c r="J452" s="4"/>
@@ -16853,13 +17313,15 @@
       <c r="AA452" s="4"/>
     </row>
     <row r="453">
-      <c r="A453" s="4"/>
-      <c r="B453" s="4"/>
-      <c r="C453" s="4"/>
-      <c r="D453" s="4"/>
-      <c r="E453" s="66"/>
-      <c r="F453" s="4"/>
-      <c r="G453" s="4"/>
+      <c r="A453" s="22"/>
+      <c r="B453" s="18"/>
+      <c r="C453" s="8"/>
+      <c r="D453" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="E453" s="19"/>
+      <c r="F453" s="20"/>
+      <c r="G453" s="21"/>
       <c r="H453" s="4"/>
       <c r="I453" s="4"/>
       <c r="J453" s="4"/>
@@ -16882,13 +17344,15 @@
       <c r="AA453" s="4"/>
     </row>
     <row r="454">
-      <c r="A454" s="4"/>
-      <c r="B454" s="4"/>
-      <c r="C454" s="4"/>
-      <c r="D454" s="4"/>
-      <c r="E454" s="66"/>
-      <c r="F454" s="4"/>
-      <c r="G454" s="4"/>
+      <c r="A454" s="22"/>
+      <c r="B454" s="18"/>
+      <c r="C454" s="8"/>
+      <c r="D454" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="E454" s="19"/>
+      <c r="F454" s="20"/>
+      <c r="G454" s="21"/>
       <c r="H454" s="4"/>
       <c r="I454" s="4"/>
       <c r="J454" s="4"/>
@@ -16911,13 +17375,15 @@
       <c r="AA454" s="4"/>
     </row>
     <row r="455">
-      <c r="A455" s="4"/>
-      <c r="B455" s="4"/>
-      <c r="C455" s="4"/>
-      <c r="D455" s="4"/>
-      <c r="E455" s="66"/>
-      <c r="F455" s="4"/>
-      <c r="G455" s="4"/>
+      <c r="A455" s="22"/>
+      <c r="B455" s="18"/>
+      <c r="C455" s="8"/>
+      <c r="D455" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="E455" s="19"/>
+      <c r="F455" s="20"/>
+      <c r="G455" s="21"/>
       <c r="H455" s="4"/>
       <c r="I455" s="4"/>
       <c r="J455" s="4"/>
@@ -16940,13 +17406,15 @@
       <c r="AA455" s="4"/>
     </row>
     <row r="456">
-      <c r="A456" s="4"/>
-      <c r="B456" s="4"/>
-      <c r="C456" s="4"/>
-      <c r="D456" s="4"/>
-      <c r="E456" s="66"/>
-      <c r="F456" s="4"/>
-      <c r="G456" s="4"/>
+      <c r="A456" s="22"/>
+      <c r="B456" s="18"/>
+      <c r="C456" s="8"/>
+      <c r="D456" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="E456" s="19"/>
+      <c r="F456" s="20"/>
+      <c r="G456" s="21"/>
       <c r="H456" s="4"/>
       <c r="I456" s="4"/>
       <c r="J456" s="4"/>
@@ -16969,13 +17437,15 @@
       <c r="AA456" s="4"/>
     </row>
     <row r="457">
-      <c r="A457" s="4"/>
-      <c r="B457" s="4"/>
-      <c r="C457" s="4"/>
-      <c r="D457" s="4"/>
-      <c r="E457" s="66"/>
-      <c r="F457" s="4"/>
-      <c r="G457" s="4"/>
+      <c r="A457" s="22"/>
+      <c r="B457" s="18"/>
+      <c r="C457" s="8"/>
+      <c r="D457" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="E457" s="19"/>
+      <c r="F457" s="20"/>
+      <c r="G457" s="21"/>
       <c r="H457" s="4"/>
       <c r="I457" s="4"/>
       <c r="J457" s="4"/>
@@ -16998,13 +17468,17 @@
       <c r="AA457" s="4"/>
     </row>
     <row r="458">
-      <c r="A458" s="4"/>
-      <c r="B458" s="4"/>
-      <c r="C458" s="4"/>
-      <c r="D458" s="4"/>
-      <c r="E458" s="66"/>
-      <c r="F458" s="4"/>
-      <c r="G458" s="4"/>
+      <c r="A458" s="22"/>
+      <c r="B458" s="18"/>
+      <c r="C458" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="D458" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="E458" s="19"/>
+      <c r="F458" s="20"/>
+      <c r="G458" s="21"/>
       <c r="H458" s="4"/>
       <c r="I458" s="4"/>
       <c r="J458" s="4"/>
@@ -17027,13 +17501,15 @@
       <c r="AA458" s="4"/>
     </row>
     <row r="459">
-      <c r="A459" s="4"/>
-      <c r="B459" s="4"/>
-      <c r="C459" s="4"/>
-      <c r="D459" s="4"/>
-      <c r="E459" s="66"/>
-      <c r="F459" s="4"/>
-      <c r="G459" s="4"/>
+      <c r="A459" s="22"/>
+      <c r="B459" s="18"/>
+      <c r="C459" s="8"/>
+      <c r="D459" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="E459" s="19"/>
+      <c r="F459" s="20"/>
+      <c r="G459" s="21"/>
       <c r="H459" s="4"/>
       <c r="I459" s="4"/>
       <c r="J459" s="4"/>
@@ -17056,13 +17532,15 @@
       <c r="AA459" s="4"/>
     </row>
     <row r="460">
-      <c r="A460" s="4"/>
-      <c r="B460" s="4"/>
-      <c r="C460" s="4"/>
-      <c r="D460" s="4"/>
-      <c r="E460" s="66"/>
-      <c r="F460" s="4"/>
-      <c r="G460" s="4"/>
+      <c r="A460" s="22"/>
+      <c r="B460" s="18"/>
+      <c r="C460" s="8"/>
+      <c r="D460" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="E460" s="19"/>
+      <c r="F460" s="20"/>
+      <c r="G460" s="21"/>
       <c r="H460" s="4"/>
       <c r="I460" s="4"/>
       <c r="J460" s="4"/>
@@ -17085,13 +17563,15 @@
       <c r="AA460" s="4"/>
     </row>
     <row r="461">
-      <c r="A461" s="4"/>
-      <c r="B461" s="4"/>
-      <c r="C461" s="4"/>
-      <c r="D461" s="4"/>
-      <c r="E461" s="66"/>
-      <c r="F461" s="4"/>
-      <c r="G461" s="4"/>
+      <c r="A461" s="22"/>
+      <c r="B461" s="18"/>
+      <c r="C461" s="8"/>
+      <c r="D461" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="E461" s="19"/>
+      <c r="F461" s="20"/>
+      <c r="G461" s="21"/>
       <c r="H461" s="4"/>
       <c r="I461" s="4"/>
       <c r="J461" s="4"/>
@@ -17114,13 +17594,15 @@
       <c r="AA461" s="4"/>
     </row>
     <row r="462">
-      <c r="A462" s="4"/>
-      <c r="B462" s="4"/>
-      <c r="C462" s="4"/>
-      <c r="D462" s="4"/>
-      <c r="E462" s="66"/>
-      <c r="F462" s="4"/>
-      <c r="G462" s="4"/>
+      <c r="A462" s="22"/>
+      <c r="B462" s="18"/>
+      <c r="C462" s="8"/>
+      <c r="D462" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="E462" s="19"/>
+      <c r="F462" s="20"/>
+      <c r="G462" s="21"/>
       <c r="H462" s="4"/>
       <c r="I462" s="4"/>
       <c r="J462" s="4"/>
@@ -17143,13 +17625,15 @@
       <c r="AA462" s="4"/>
     </row>
     <row r="463">
-      <c r="A463" s="4"/>
-      <c r="B463" s="4"/>
-      <c r="C463" s="4"/>
-      <c r="D463" s="4"/>
-      <c r="E463" s="66"/>
-      <c r="F463" s="4"/>
-      <c r="G463" s="4"/>
+      <c r="A463" s="22"/>
+      <c r="B463" s="18"/>
+      <c r="C463" s="8"/>
+      <c r="D463" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="E463" s="19"/>
+      <c r="F463" s="20"/>
+      <c r="G463" s="21"/>
       <c r="H463" s="4"/>
       <c r="I463" s="4"/>
       <c r="J463" s="4"/>
@@ -17172,13 +17656,17 @@
       <c r="AA463" s="4"/>
     </row>
     <row r="464">
-      <c r="A464" s="4"/>
-      <c r="B464" s="4"/>
-      <c r="C464" s="4"/>
-      <c r="D464" s="4"/>
-      <c r="E464" s="66"/>
-      <c r="F464" s="4"/>
-      <c r="G464" s="4"/>
+      <c r="A464" s="22"/>
+      <c r="B464" s="18"/>
+      <c r="C464" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="D464" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="E464" s="19"/>
+      <c r="F464" s="20"/>
+      <c r="G464" s="21"/>
       <c r="H464" s="4"/>
       <c r="I464" s="4"/>
       <c r="J464" s="4"/>
@@ -17201,13 +17689,15 @@
       <c r="AA464" s="4"/>
     </row>
     <row r="465">
-      <c r="A465" s="4"/>
-      <c r="B465" s="4"/>
-      <c r="C465" s="4"/>
-      <c r="D465" s="4"/>
-      <c r="E465" s="66"/>
-      <c r="F465" s="4"/>
-      <c r="G465" s="4"/>
+      <c r="A465" s="22"/>
+      <c r="B465" s="18"/>
+      <c r="C465" s="8"/>
+      <c r="D465" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="E465" s="19"/>
+      <c r="F465" s="20"/>
+      <c r="G465" s="21"/>
       <c r="H465" s="4"/>
       <c r="I465" s="4"/>
       <c r="J465" s="4"/>
@@ -17230,13 +17720,15 @@
       <c r="AA465" s="4"/>
     </row>
     <row r="466">
-      <c r="A466" s="4"/>
-      <c r="B466" s="4"/>
-      <c r="C466" s="4"/>
-      <c r="D466" s="4"/>
-      <c r="E466" s="66"/>
-      <c r="F466" s="4"/>
-      <c r="G466" s="4"/>
+      <c r="A466" s="22"/>
+      <c r="B466" s="18"/>
+      <c r="C466" s="8"/>
+      <c r="D466" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="E466" s="19"/>
+      <c r="F466" s="20"/>
+      <c r="G466" s="21"/>
       <c r="H466" s="4"/>
       <c r="I466" s="4"/>
       <c r="J466" s="4"/>
@@ -17259,13 +17751,15 @@
       <c r="AA466" s="4"/>
     </row>
     <row r="467">
-      <c r="A467" s="4"/>
-      <c r="B467" s="4"/>
-      <c r="C467" s="4"/>
-      <c r="D467" s="4"/>
-      <c r="E467" s="66"/>
-      <c r="F467" s="4"/>
-      <c r="G467" s="4"/>
+      <c r="A467" s="22"/>
+      <c r="B467" s="18"/>
+      <c r="C467" s="8"/>
+      <c r="D467" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="E467" s="19"/>
+      <c r="F467" s="20"/>
+      <c r="G467" s="21"/>
       <c r="H467" s="4"/>
       <c r="I467" s="4"/>
       <c r="J467" s="4"/>
@@ -17288,13 +17782,15 @@
       <c r="AA467" s="4"/>
     </row>
     <row r="468">
-      <c r="A468" s="4"/>
-      <c r="B468" s="4"/>
-      <c r="C468" s="4"/>
-      <c r="D468" s="4"/>
-      <c r="E468" s="66"/>
-      <c r="F468" s="4"/>
-      <c r="G468" s="4"/>
+      <c r="A468" s="22"/>
+      <c r="B468" s="18"/>
+      <c r="C468" s="8"/>
+      <c r="D468" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="E468" s="19"/>
+      <c r="F468" s="20"/>
+      <c r="G468" s="21"/>
       <c r="H468" s="4"/>
       <c r="I468" s="4"/>
       <c r="J468" s="4"/>
@@ -17317,13 +17813,15 @@
       <c r="AA468" s="4"/>
     </row>
     <row r="469">
-      <c r="A469" s="4"/>
-      <c r="B469" s="4"/>
-      <c r="C469" s="4"/>
-      <c r="D469" s="4"/>
-      <c r="E469" s="66"/>
-      <c r="F469" s="4"/>
-      <c r="G469" s="4"/>
+      <c r="A469" s="22"/>
+      <c r="B469" s="18"/>
+      <c r="C469" s="8"/>
+      <c r="D469" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="E469" s="19"/>
+      <c r="F469" s="20"/>
+      <c r="G469" s="21"/>
       <c r="H469" s="4"/>
       <c r="I469" s="4"/>
       <c r="J469" s="4"/>
@@ -17346,13 +17844,15 @@
       <c r="AA469" s="4"/>
     </row>
     <row r="470">
-      <c r="A470" s="4"/>
-      <c r="B470" s="4"/>
-      <c r="C470" s="4"/>
-      <c r="D470" s="4"/>
-      <c r="E470" s="66"/>
-      <c r="F470" s="4"/>
-      <c r="G470" s="4"/>
+      <c r="A470" s="22"/>
+      <c r="B470" s="18"/>
+      <c r="C470" s="8"/>
+      <c r="D470" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="E470" s="19"/>
+      <c r="F470" s="20"/>
+      <c r="G470" s="21"/>
       <c r="H470" s="4"/>
       <c r="I470" s="4"/>
       <c r="J470" s="4"/>
@@ -17375,13 +17875,15 @@
       <c r="AA470" s="4"/>
     </row>
     <row r="471">
-      <c r="A471" s="4"/>
-      <c r="B471" s="4"/>
-      <c r="C471" s="4"/>
-      <c r="D471" s="4"/>
-      <c r="E471" s="66"/>
-      <c r="F471" s="4"/>
-      <c r="G471" s="4"/>
+      <c r="A471" s="22"/>
+      <c r="B471" s="18"/>
+      <c r="C471" s="8"/>
+      <c r="D471" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="E471" s="19"/>
+      <c r="F471" s="20"/>
+      <c r="G471" s="21"/>
       <c r="H471" s="4"/>
       <c r="I471" s="4"/>
       <c r="J471" s="4"/>
@@ -17404,13 +17906,15 @@
       <c r="AA471" s="4"/>
     </row>
     <row r="472">
-      <c r="A472" s="4"/>
-      <c r="B472" s="4"/>
-      <c r="C472" s="4"/>
-      <c r="D472" s="4"/>
-      <c r="E472" s="66"/>
-      <c r="F472" s="4"/>
-      <c r="G472" s="4"/>
+      <c r="A472" s="22"/>
+      <c r="B472" s="18"/>
+      <c r="C472" s="8"/>
+      <c r="D472" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="E472" s="19"/>
+      <c r="F472" s="20"/>
+      <c r="G472" s="21"/>
       <c r="H472" s="4"/>
       <c r="I472" s="4"/>
       <c r="J472" s="4"/>
@@ -17433,13 +17937,17 @@
       <c r="AA472" s="4"/>
     </row>
     <row r="473">
-      <c r="A473" s="4"/>
-      <c r="B473" s="4"/>
-      <c r="C473" s="4"/>
-      <c r="D473" s="4"/>
-      <c r="E473" s="66"/>
-      <c r="F473" s="4"/>
-      <c r="G473" s="4"/>
+      <c r="A473" s="22"/>
+      <c r="B473" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="C473" s="18"/>
+      <c r="D473" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E473" s="19"/>
+      <c r="F473" s="20"/>
+      <c r="G473" s="21"/>
       <c r="H473" s="4"/>
       <c r="I473" s="4"/>
       <c r="J473" s="4"/>
@@ -17462,13 +17970,15 @@
       <c r="AA473" s="4"/>
     </row>
     <row r="474">
-      <c r="A474" s="4"/>
-      <c r="B474" s="4"/>
-      <c r="C474" s="4"/>
-      <c r="D474" s="4"/>
-      <c r="E474" s="66"/>
-      <c r="F474" s="4"/>
-      <c r="G474" s="4"/>
+      <c r="A474" s="22"/>
+      <c r="B474" s="18"/>
+      <c r="C474" s="18"/>
+      <c r="D474" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="E474" s="19"/>
+      <c r="F474" s="20"/>
+      <c r="G474" s="21"/>
       <c r="H474" s="4"/>
       <c r="I474" s="4"/>
       <c r="J474" s="4"/>
@@ -17491,13 +18001,15 @@
       <c r="AA474" s="4"/>
     </row>
     <row r="475">
-      <c r="A475" s="4"/>
-      <c r="B475" s="4"/>
-      <c r="C475" s="4"/>
-      <c r="D475" s="4"/>
-      <c r="E475" s="66"/>
-      <c r="F475" s="4"/>
-      <c r="G475" s="4"/>
+      <c r="A475" s="22"/>
+      <c r="B475" s="18"/>
+      <c r="C475" s="18"/>
+      <c r="D475" s="17" t="s">
+        <v>457</v>
+      </c>
+      <c r="E475" s="19"/>
+      <c r="F475" s="20"/>
+      <c r="G475" s="21"/>
       <c r="H475" s="4"/>
       <c r="I475" s="4"/>
       <c r="J475" s="4"/>
@@ -17520,13 +18032,15 @@
       <c r="AA475" s="4"/>
     </row>
     <row r="476">
-      <c r="A476" s="4"/>
-      <c r="B476" s="4"/>
-      <c r="C476" s="4"/>
-      <c r="D476" s="4"/>
-      <c r="E476" s="66"/>
-      <c r="F476" s="4"/>
-      <c r="G476" s="4"/>
+      <c r="A476" s="22"/>
+      <c r="B476" s="18"/>
+      <c r="C476" s="18"/>
+      <c r="D476" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="E476" s="19"/>
+      <c r="F476" s="20"/>
+      <c r="G476" s="21"/>
       <c r="H476" s="4"/>
       <c r="I476" s="4"/>
       <c r="J476" s="4"/>
@@ -17549,13 +18063,15 @@
       <c r="AA476" s="4"/>
     </row>
     <row r="477">
-      <c r="A477" s="4"/>
-      <c r="B477" s="4"/>
-      <c r="C477" s="4"/>
-      <c r="D477" s="4"/>
-      <c r="E477" s="66"/>
-      <c r="F477" s="4"/>
-      <c r="G477" s="4"/>
+      <c r="A477" s="22"/>
+      <c r="B477" s="18"/>
+      <c r="C477" s="18"/>
+      <c r="D477" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E477" s="19"/>
+      <c r="F477" s="20"/>
+      <c r="G477" s="21"/>
       <c r="H477" s="4"/>
       <c r="I477" s="4"/>
       <c r="J477" s="4"/>
@@ -17578,13 +18094,15 @@
       <c r="AA477" s="4"/>
     </row>
     <row r="478">
-      <c r="A478" s="4"/>
-      <c r="B478" s="4"/>
-      <c r="C478" s="4"/>
-      <c r="D478" s="4"/>
-      <c r="E478" s="66"/>
-      <c r="F478" s="4"/>
-      <c r="G478" s="4"/>
+      <c r="A478" s="22"/>
+      <c r="B478" s="18"/>
+      <c r="C478" s="18"/>
+      <c r="D478" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E478" s="19"/>
+      <c r="F478" s="20"/>
+      <c r="G478" s="21"/>
       <c r="H478" s="4"/>
       <c r="I478" s="4"/>
       <c r="J478" s="4"/>
@@ -17607,13 +18125,15 @@
       <c r="AA478" s="4"/>
     </row>
     <row r="479">
-      <c r="A479" s="4"/>
-      <c r="B479" s="4"/>
-      <c r="C479" s="4"/>
-      <c r="D479" s="4"/>
-      <c r="E479" s="66"/>
-      <c r="F479" s="4"/>
-      <c r="G479" s="4"/>
+      <c r="A479" s="22"/>
+      <c r="B479" s="18"/>
+      <c r="C479" s="18"/>
+      <c r="D479" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="E479" s="19"/>
+      <c r="F479" s="20"/>
+      <c r="G479" s="21"/>
       <c r="H479" s="4"/>
       <c r="I479" s="4"/>
       <c r="J479" s="4"/>
@@ -17636,13 +18156,15 @@
       <c r="AA479" s="4"/>
     </row>
     <row r="480">
-      <c r="A480" s="4"/>
-      <c r="B480" s="4"/>
-      <c r="C480" s="4"/>
-      <c r="D480" s="4"/>
-      <c r="E480" s="66"/>
-      <c r="F480" s="4"/>
-      <c r="G480" s="4"/>
+      <c r="A480" s="22"/>
+      <c r="B480" s="18"/>
+      <c r="C480" s="18"/>
+      <c r="D480" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="E480" s="19"/>
+      <c r="F480" s="20"/>
+      <c r="G480" s="21"/>
       <c r="H480" s="4"/>
       <c r="I480" s="4"/>
       <c r="J480" s="4"/>
@@ -17665,13 +18187,15 @@
       <c r="AA480" s="4"/>
     </row>
     <row r="481">
-      <c r="A481" s="4"/>
-      <c r="B481" s="4"/>
-      <c r="C481" s="4"/>
-      <c r="D481" s="4"/>
-      <c r="E481" s="66"/>
-      <c r="F481" s="4"/>
-      <c r="G481" s="4"/>
+      <c r="A481" s="22"/>
+      <c r="B481" s="18"/>
+      <c r="C481" s="18"/>
+      <c r="D481" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="E481" s="19"/>
+      <c r="F481" s="20"/>
+      <c r="G481" s="21"/>
       <c r="H481" s="4"/>
       <c r="I481" s="4"/>
       <c r="J481" s="4"/>
@@ -17694,13 +18218,15 @@
       <c r="AA481" s="4"/>
     </row>
     <row r="482">
-      <c r="A482" s="4"/>
-      <c r="B482" s="4"/>
-      <c r="C482" s="4"/>
-      <c r="D482" s="4"/>
-      <c r="E482" s="66"/>
-      <c r="F482" s="4"/>
-      <c r="G482" s="4"/>
+      <c r="A482" s="22"/>
+      <c r="B482" s="18"/>
+      <c r="C482" s="18"/>
+      <c r="D482" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="E482" s="19"/>
+      <c r="F482" s="20"/>
+      <c r="G482" s="21"/>
       <c r="H482" s="4"/>
       <c r="I482" s="4"/>
       <c r="J482" s="4"/>
@@ -17723,13 +18249,15 @@
       <c r="AA482" s="4"/>
     </row>
     <row r="483">
-      <c r="A483" s="4"/>
-      <c r="B483" s="4"/>
-      <c r="C483" s="4"/>
-      <c r="D483" s="4"/>
-      <c r="E483" s="66"/>
-      <c r="F483" s="4"/>
-      <c r="G483" s="4"/>
+      <c r="A483" s="22"/>
+      <c r="B483" s="18"/>
+      <c r="C483" s="18"/>
+      <c r="D483" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E483" s="19"/>
+      <c r="F483" s="20"/>
+      <c r="G483" s="21"/>
       <c r="H483" s="4"/>
       <c r="I483" s="4"/>
       <c r="J483" s="4"/>
@@ -17752,13 +18280,13 @@
       <c r="AA483" s="4"/>
     </row>
     <row r="484">
-      <c r="A484" s="4"/>
-      <c r="B484" s="4"/>
-      <c r="C484" s="4"/>
-      <c r="D484" s="4"/>
-      <c r="E484" s="66"/>
-      <c r="F484" s="4"/>
-      <c r="G484" s="4"/>
+      <c r="A484" s="68"/>
+      <c r="B484" s="69"/>
+      <c r="C484" s="69"/>
+      <c r="D484" s="69"/>
+      <c r="E484" s="70"/>
+      <c r="F484" s="69"/>
+      <c r="G484" s="71"/>
       <c r="H484" s="4"/>
       <c r="I484" s="4"/>
       <c r="J484" s="4"/>
@@ -17781,13 +18309,13 @@
       <c r="AA484" s="4"/>
     </row>
     <row r="485">
-      <c r="A485" s="4"/>
-      <c r="B485" s="4"/>
-      <c r="C485" s="4"/>
-      <c r="D485" s="4"/>
-      <c r="E485" s="66"/>
-      <c r="F485" s="4"/>
-      <c r="G485" s="4"/>
+      <c r="A485" s="68"/>
+      <c r="B485" s="69"/>
+      <c r="C485" s="69"/>
+      <c r="D485" s="69"/>
+      <c r="E485" s="70"/>
+      <c r="F485" s="69"/>
+      <c r="G485" s="71"/>
       <c r="H485" s="4"/>
       <c r="I485" s="4"/>
       <c r="J485" s="4"/>
@@ -17810,13 +18338,13 @@
       <c r="AA485" s="4"/>
     </row>
     <row r="486">
-      <c r="A486" s="4"/>
-      <c r="B486" s="4"/>
-      <c r="C486" s="4"/>
-      <c r="D486" s="4"/>
-      <c r="E486" s="66"/>
-      <c r="F486" s="4"/>
-      <c r="G486" s="4"/>
+      <c r="A486" s="68"/>
+      <c r="B486" s="69"/>
+      <c r="C486" s="69"/>
+      <c r="D486" s="69"/>
+      <c r="E486" s="70"/>
+      <c r="F486" s="69"/>
+      <c r="G486" s="71"/>
       <c r="H486" s="4"/>
       <c r="I486" s="4"/>
       <c r="J486" s="4"/>
@@ -17839,13 +18367,13 @@
       <c r="AA486" s="4"/>
     </row>
     <row r="487">
-      <c r="A487" s="4"/>
-      <c r="B487" s="4"/>
-      <c r="C487" s="4"/>
-      <c r="D487" s="4"/>
-      <c r="E487" s="66"/>
-      <c r="F487" s="4"/>
-      <c r="G487" s="4"/>
+      <c r="A487" s="68"/>
+      <c r="B487" s="69"/>
+      <c r="C487" s="69"/>
+      <c r="D487" s="69"/>
+      <c r="E487" s="70"/>
+      <c r="F487" s="69"/>
+      <c r="G487" s="71"/>
       <c r="H487" s="4"/>
       <c r="I487" s="4"/>
       <c r="J487" s="4"/>
@@ -17868,13 +18396,13 @@
       <c r="AA487" s="4"/>
     </row>
     <row r="488">
-      <c r="A488" s="4"/>
-      <c r="B488" s="4"/>
-      <c r="C488" s="4"/>
-      <c r="D488" s="4"/>
-      <c r="E488" s="66"/>
-      <c r="F488" s="4"/>
-      <c r="G488" s="4"/>
+      <c r="A488" s="68"/>
+      <c r="B488" s="69"/>
+      <c r="C488" s="69"/>
+      <c r="D488" s="69"/>
+      <c r="E488" s="70"/>
+      <c r="F488" s="69"/>
+      <c r="G488" s="71"/>
       <c r="H488" s="4"/>
       <c r="I488" s="4"/>
       <c r="J488" s="4"/>
@@ -17897,13 +18425,13 @@
       <c r="AA488" s="4"/>
     </row>
     <row r="489">
-      <c r="A489" s="4"/>
-      <c r="B489" s="4"/>
-      <c r="C489" s="4"/>
-      <c r="D489" s="4"/>
-      <c r="E489" s="66"/>
-      <c r="F489" s="4"/>
-      <c r="G489" s="4"/>
+      <c r="A489" s="68"/>
+      <c r="B489" s="69"/>
+      <c r="C489" s="69"/>
+      <c r="D489" s="69"/>
+      <c r="E489" s="70"/>
+      <c r="F489" s="69"/>
+      <c r="G489" s="71"/>
       <c r="H489" s="4"/>
       <c r="I489" s="4"/>
       <c r="J489" s="4"/>
@@ -17926,13 +18454,13 @@
       <c r="AA489" s="4"/>
     </row>
     <row r="490">
-      <c r="A490" s="4"/>
-      <c r="B490" s="4"/>
-      <c r="C490" s="4"/>
-      <c r="D490" s="4"/>
-      <c r="E490" s="66"/>
-      <c r="F490" s="4"/>
-      <c r="G490" s="4"/>
+      <c r="A490" s="68"/>
+      <c r="B490" s="69"/>
+      <c r="C490" s="69"/>
+      <c r="D490" s="69"/>
+      <c r="E490" s="70"/>
+      <c r="F490" s="69"/>
+      <c r="G490" s="71"/>
       <c r="H490" s="4"/>
       <c r="I490" s="4"/>
       <c r="J490" s="4"/>
@@ -17955,13 +18483,13 @@
       <c r="AA490" s="4"/>
     </row>
     <row r="491">
-      <c r="A491" s="4"/>
-      <c r="B491" s="4"/>
-      <c r="C491" s="4"/>
-      <c r="D491" s="4"/>
-      <c r="E491" s="66"/>
-      <c r="F491" s="4"/>
-      <c r="G491" s="4"/>
+      <c r="A491" s="68"/>
+      <c r="B491" s="69"/>
+      <c r="C491" s="69"/>
+      <c r="D491" s="69"/>
+      <c r="E491" s="70"/>
+      <c r="F491" s="69"/>
+      <c r="G491" s="71"/>
       <c r="H491" s="4"/>
       <c r="I491" s="4"/>
       <c r="J491" s="4"/>
@@ -17984,13 +18512,13 @@
       <c r="AA491" s="4"/>
     </row>
     <row r="492">
-      <c r="A492" s="4"/>
-      <c r="B492" s="4"/>
-      <c r="C492" s="4"/>
-      <c r="D492" s="4"/>
-      <c r="E492" s="66"/>
-      <c r="F492" s="4"/>
-      <c r="G492" s="4"/>
+      <c r="A492" s="68"/>
+      <c r="B492" s="69"/>
+      <c r="C492" s="69"/>
+      <c r="D492" s="69"/>
+      <c r="E492" s="70"/>
+      <c r="F492" s="69"/>
+      <c r="G492" s="71"/>
       <c r="H492" s="4"/>
       <c r="I492" s="4"/>
       <c r="J492" s="4"/>
@@ -18013,13 +18541,13 @@
       <c r="AA492" s="4"/>
     </row>
     <row r="493">
-      <c r="A493" s="4"/>
-      <c r="B493" s="4"/>
-      <c r="C493" s="4"/>
-      <c r="D493" s="4"/>
-      <c r="E493" s="66"/>
-      <c r="F493" s="4"/>
-      <c r="G493" s="4"/>
+      <c r="A493" s="68"/>
+      <c r="B493" s="69"/>
+      <c r="C493" s="69"/>
+      <c r="D493" s="69"/>
+      <c r="E493" s="70"/>
+      <c r="F493" s="69"/>
+      <c r="G493" s="71"/>
       <c r="H493" s="4"/>
       <c r="I493" s="4"/>
       <c r="J493" s="4"/>
@@ -18042,13 +18570,13 @@
       <c r="AA493" s="4"/>
     </row>
     <row r="494">
-      <c r="A494" s="4"/>
-      <c r="B494" s="4"/>
-      <c r="C494" s="4"/>
-      <c r="D494" s="4"/>
-      <c r="E494" s="66"/>
-      <c r="F494" s="4"/>
-      <c r="G494" s="4"/>
+      <c r="A494" s="26"/>
+      <c r="B494" s="49"/>
+      <c r="C494" s="49"/>
+      <c r="D494" s="49"/>
+      <c r="E494" s="29"/>
+      <c r="F494" s="49"/>
+      <c r="G494" s="50"/>
       <c r="H494" s="4"/>
       <c r="I494" s="4"/>
       <c r="J494" s="4"/>
@@ -18071,11 +18599,13 @@
       <c r="AA494" s="4"/>
     </row>
     <row r="495">
-      <c r="A495" s="4"/>
+      <c r="A495" s="10" t="s">
+        <v>463</v>
+      </c>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
       <c r="D495" s="4"/>
-      <c r="E495" s="66"/>
+      <c r="E495" s="72"/>
       <c r="F495" s="4"/>
       <c r="G495" s="4"/>
       <c r="H495" s="4"/>
@@ -18100,11 +18630,11 @@
       <c r="AA495" s="4"/>
     </row>
     <row r="496">
-      <c r="A496" s="4"/>
+      <c r="A496" s="73"/>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
       <c r="D496" s="4"/>
-      <c r="E496" s="66"/>
+      <c r="E496" s="72"/>
       <c r="F496" s="4"/>
       <c r="G496" s="4"/>
       <c r="H496" s="4"/>
@@ -18129,11 +18659,13 @@
       <c r="AA496" s="4"/>
     </row>
     <row r="497">
-      <c r="A497" s="4"/>
+      <c r="A497" s="10" t="s">
+        <v>464</v>
+      </c>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
       <c r="D497" s="4"/>
-      <c r="E497" s="66"/>
+      <c r="E497" s="72"/>
       <c r="F497" s="4"/>
       <c r="G497" s="4"/>
       <c r="H497" s="4"/>
@@ -18158,11 +18690,11 @@
       <c r="AA497" s="4"/>
     </row>
     <row r="498">
-      <c r="A498" s="4"/>
+      <c r="A498" s="73"/>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
       <c r="D498" s="4"/>
-      <c r="E498" s="66"/>
+      <c r="E498" s="72"/>
       <c r="F498" s="4"/>
       <c r="G498" s="4"/>
       <c r="H498" s="4"/>
@@ -18187,11 +18719,13 @@
       <c r="AA498" s="4"/>
     </row>
     <row r="499">
-      <c r="A499" s="4"/>
+      <c r="A499" s="10" t="s">
+        <v>465</v>
+      </c>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
       <c r="D499" s="4"/>
-      <c r="E499" s="66"/>
+      <c r="E499" s="72"/>
       <c r="F499" s="4"/>
       <c r="G499" s="4"/>
       <c r="H499" s="4"/>
@@ -18216,11 +18750,11 @@
       <c r="AA499" s="4"/>
     </row>
     <row r="500">
-      <c r="A500" s="4"/>
+      <c r="A500" s="73"/>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
       <c r="D500" s="4"/>
-      <c r="E500" s="66"/>
+      <c r="E500" s="72"/>
       <c r="F500" s="4"/>
       <c r="G500" s="4"/>
       <c r="H500" s="4"/>
@@ -18245,11 +18779,13 @@
       <c r="AA500" s="4"/>
     </row>
     <row r="501">
-      <c r="A501" s="4"/>
+      <c r="A501" s="10" t="s">
+        <v>466</v>
+      </c>
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
       <c r="D501" s="4"/>
-      <c r="E501" s="66"/>
+      <c r="E501" s="72"/>
       <c r="F501" s="4"/>
       <c r="G501" s="4"/>
       <c r="H501" s="4"/>
@@ -18274,11 +18810,11 @@
       <c r="AA501" s="4"/>
     </row>
     <row r="502">
-      <c r="A502" s="4"/>
+      <c r="A502" s="73"/>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
       <c r="D502" s="4"/>
-      <c r="E502" s="66"/>
+      <c r="E502" s="72"/>
       <c r="F502" s="4"/>
       <c r="G502" s="4"/>
       <c r="H502" s="4"/>
@@ -18303,11 +18839,13 @@
       <c r="AA502" s="4"/>
     </row>
     <row r="503">
-      <c r="A503" s="4"/>
+      <c r="A503" s="10" t="s">
+        <v>467</v>
+      </c>
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
       <c r="D503" s="4"/>
-      <c r="E503" s="66"/>
+      <c r="E503" s="72"/>
       <c r="F503" s="4"/>
       <c r="G503" s="4"/>
       <c r="H503" s="4"/>
@@ -18332,11 +18870,11 @@
       <c r="AA503" s="4"/>
     </row>
     <row r="504">
-      <c r="A504" s="4"/>
+      <c r="A504" s="74"/>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
       <c r="D504" s="4"/>
-      <c r="E504" s="66"/>
+      <c r="E504" s="72"/>
       <c r="F504" s="4"/>
       <c r="G504" s="4"/>
       <c r="H504" s="4"/>
@@ -18365,7 +18903,7 @@
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
       <c r="D505" s="4"/>
-      <c r="E505" s="66"/>
+      <c r="E505" s="72"/>
       <c r="F505" s="4"/>
       <c r="G505" s="4"/>
       <c r="H505" s="4"/>
@@ -18394,7 +18932,7 @@
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
       <c r="D506" s="4"/>
-      <c r="E506" s="66"/>
+      <c r="E506" s="72"/>
       <c r="F506" s="4"/>
       <c r="G506" s="4"/>
       <c r="H506" s="4"/>
@@ -18423,7 +18961,7 @@
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
       <c r="D507" s="4"/>
-      <c r="E507" s="66"/>
+      <c r="E507" s="72"/>
       <c r="F507" s="4"/>
       <c r="G507" s="4"/>
       <c r="H507" s="4"/>
@@ -18452,7 +18990,7 @@
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
       <c r="D508" s="4"/>
-      <c r="E508" s="66"/>
+      <c r="E508" s="72"/>
       <c r="F508" s="4"/>
       <c r="G508" s="4"/>
       <c r="H508" s="4"/>
@@ -18481,7 +19019,7 @@
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
       <c r="D509" s="4"/>
-      <c r="E509" s="66"/>
+      <c r="E509" s="72"/>
       <c r="F509" s="4"/>
       <c r="G509" s="4"/>
       <c r="H509" s="4"/>
@@ -18510,7 +19048,7 @@
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
       <c r="D510" s="4"/>
-      <c r="E510" s="66"/>
+      <c r="E510" s="72"/>
       <c r="F510" s="4"/>
       <c r="G510" s="4"/>
       <c r="H510" s="4"/>
@@ -18539,7 +19077,7 @@
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
       <c r="D511" s="4"/>
-      <c r="E511" s="66"/>
+      <c r="E511" s="72"/>
       <c r="F511" s="4"/>
       <c r="G511" s="4"/>
       <c r="H511" s="4"/>
@@ -18568,7 +19106,7 @@
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
       <c r="D512" s="4"/>
-      <c r="E512" s="66"/>
+      <c r="E512" s="72"/>
       <c r="F512" s="4"/>
       <c r="G512" s="4"/>
       <c r="H512" s="4"/>
@@ -18597,7 +19135,7 @@
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
       <c r="D513" s="4"/>
-      <c r="E513" s="66"/>
+      <c r="E513" s="72"/>
       <c r="F513" s="4"/>
       <c r="G513" s="4"/>
       <c r="H513" s="4"/>
@@ -18626,7 +19164,7 @@
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
       <c r="D514" s="4"/>
-      <c r="E514" s="66"/>
+      <c r="E514" s="72"/>
       <c r="F514" s="4"/>
       <c r="G514" s="4"/>
       <c r="H514" s="4"/>
@@ -18655,7 +19193,7 @@
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
       <c r="D515" s="4"/>
-      <c r="E515" s="66"/>
+      <c r="E515" s="72"/>
       <c r="F515" s="4"/>
       <c r="G515" s="4"/>
       <c r="H515" s="4"/>
@@ -18684,7 +19222,7 @@
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
       <c r="D516" s="4"/>
-      <c r="E516" s="66"/>
+      <c r="E516" s="72"/>
       <c r="F516" s="4"/>
       <c r="G516" s="4"/>
       <c r="H516" s="4"/>
@@ -18713,7 +19251,7 @@
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
       <c r="D517" s="4"/>
-      <c r="E517" s="66"/>
+      <c r="E517" s="72"/>
       <c r="F517" s="4"/>
       <c r="G517" s="4"/>
       <c r="H517" s="4"/>
@@ -18742,7 +19280,7 @@
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
       <c r="D518" s="4"/>
-      <c r="E518" s="66"/>
+      <c r="E518" s="72"/>
       <c r="F518" s="4"/>
       <c r="G518" s="4"/>
       <c r="H518" s="4"/>
@@ -18771,7 +19309,7 @@
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
       <c r="D519" s="4"/>
-      <c r="E519" s="66"/>
+      <c r="E519" s="72"/>
       <c r="F519" s="4"/>
       <c r="G519" s="4"/>
       <c r="H519" s="4"/>
@@ -18800,7 +19338,7 @@
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
       <c r="D520" s="4"/>
-      <c r="E520" s="66"/>
+      <c r="E520" s="72"/>
       <c r="F520" s="4"/>
       <c r="G520" s="4"/>
       <c r="H520" s="4"/>
@@ -18829,7 +19367,7 @@
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
       <c r="D521" s="4"/>
-      <c r="E521" s="66"/>
+      <c r="E521" s="72"/>
       <c r="F521" s="4"/>
       <c r="G521" s="4"/>
       <c r="H521" s="4"/>
@@ -18853,106 +19391,2226 @@
       <c r="Z521" s="4"/>
       <c r="AA521" s="4"/>
     </row>
+    <row r="522">
+      <c r="A522" s="4"/>
+      <c r="B522" s="4"/>
+      <c r="C522" s="4"/>
+      <c r="D522" s="4"/>
+      <c r="E522" s="72"/>
+      <c r="F522" s="4"/>
+      <c r="G522" s="4"/>
+      <c r="H522" s="4"/>
+      <c r="I522" s="4"/>
+      <c r="J522" s="4"/>
+      <c r="K522" s="4"/>
+      <c r="L522" s="4"/>
+      <c r="M522" s="4"/>
+      <c r="N522" s="4"/>
+      <c r="O522" s="4"/>
+      <c r="P522" s="4"/>
+      <c r="Q522" s="4"/>
+      <c r="R522" s="4"/>
+      <c r="S522" s="4"/>
+      <c r="T522" s="4"/>
+      <c r="U522" s="4"/>
+      <c r="V522" s="4"/>
+      <c r="W522" s="4"/>
+      <c r="X522" s="4"/>
+      <c r="Y522" s="4"/>
+      <c r="Z522" s="4"/>
+      <c r="AA522" s="4"/>
+    </row>
+    <row r="523">
+      <c r="A523" s="4"/>
+      <c r="B523" s="4"/>
+      <c r="C523" s="4"/>
+      <c r="D523" s="4"/>
+      <c r="E523" s="72"/>
+      <c r="F523" s="4"/>
+      <c r="G523" s="4"/>
+      <c r="H523" s="4"/>
+      <c r="I523" s="4"/>
+      <c r="J523" s="4"/>
+      <c r="K523" s="4"/>
+      <c r="L523" s="4"/>
+      <c r="M523" s="4"/>
+      <c r="N523" s="4"/>
+      <c r="O523" s="4"/>
+      <c r="P523" s="4"/>
+      <c r="Q523" s="4"/>
+      <c r="R523" s="4"/>
+      <c r="S523" s="4"/>
+      <c r="T523" s="4"/>
+      <c r="U523" s="4"/>
+      <c r="V523" s="4"/>
+      <c r="W523" s="4"/>
+      <c r="X523" s="4"/>
+      <c r="Y523" s="4"/>
+      <c r="Z523" s="4"/>
+      <c r="AA523" s="4"/>
+    </row>
+    <row r="524">
+      <c r="A524" s="4"/>
+      <c r="B524" s="4"/>
+      <c r="C524" s="4"/>
+      <c r="D524" s="4"/>
+      <c r="E524" s="72"/>
+      <c r="F524" s="4"/>
+      <c r="G524" s="4"/>
+      <c r="H524" s="4"/>
+      <c r="I524" s="4"/>
+      <c r="J524" s="4"/>
+      <c r="K524" s="4"/>
+      <c r="L524" s="4"/>
+      <c r="M524" s="4"/>
+      <c r="N524" s="4"/>
+      <c r="O524" s="4"/>
+      <c r="P524" s="4"/>
+      <c r="Q524" s="4"/>
+      <c r="R524" s="4"/>
+      <c r="S524" s="4"/>
+      <c r="T524" s="4"/>
+      <c r="U524" s="4"/>
+      <c r="V524" s="4"/>
+      <c r="W524" s="4"/>
+      <c r="X524" s="4"/>
+      <c r="Y524" s="4"/>
+      <c r="Z524" s="4"/>
+      <c r="AA524" s="4"/>
+    </row>
+    <row r="525">
+      <c r="A525" s="4"/>
+      <c r="B525" s="4"/>
+      <c r="C525" s="4"/>
+      <c r="D525" s="4"/>
+      <c r="E525" s="72"/>
+      <c r="F525" s="4"/>
+      <c r="G525" s="4"/>
+      <c r="H525" s="4"/>
+      <c r="I525" s="4"/>
+      <c r="J525" s="4"/>
+      <c r="K525" s="4"/>
+      <c r="L525" s="4"/>
+      <c r="M525" s="4"/>
+      <c r="N525" s="4"/>
+      <c r="O525" s="4"/>
+      <c r="P525" s="4"/>
+      <c r="Q525" s="4"/>
+      <c r="R525" s="4"/>
+      <c r="S525" s="4"/>
+      <c r="T525" s="4"/>
+      <c r="U525" s="4"/>
+      <c r="V525" s="4"/>
+      <c r="W525" s="4"/>
+      <c r="X525" s="4"/>
+      <c r="Y525" s="4"/>
+      <c r="Z525" s="4"/>
+      <c r="AA525" s="4"/>
+    </row>
+    <row r="526">
+      <c r="A526" s="4"/>
+      <c r="B526" s="4"/>
+      <c r="C526" s="4"/>
+      <c r="D526" s="4"/>
+      <c r="E526" s="72"/>
+      <c r="F526" s="4"/>
+      <c r="G526" s="4"/>
+      <c r="H526" s="4"/>
+      <c r="I526" s="4"/>
+      <c r="J526" s="4"/>
+      <c r="K526" s="4"/>
+      <c r="L526" s="4"/>
+      <c r="M526" s="4"/>
+      <c r="N526" s="4"/>
+      <c r="O526" s="4"/>
+      <c r="P526" s="4"/>
+      <c r="Q526" s="4"/>
+      <c r="R526" s="4"/>
+      <c r="S526" s="4"/>
+      <c r="T526" s="4"/>
+      <c r="U526" s="4"/>
+      <c r="V526" s="4"/>
+      <c r="W526" s="4"/>
+      <c r="X526" s="4"/>
+      <c r="Y526" s="4"/>
+      <c r="Z526" s="4"/>
+      <c r="AA526" s="4"/>
+    </row>
+    <row r="527">
+      <c r="A527" s="4"/>
+      <c r="B527" s="4"/>
+      <c r="C527" s="4"/>
+      <c r="D527" s="4"/>
+      <c r="E527" s="72"/>
+      <c r="F527" s="4"/>
+      <c r="G527" s="4"/>
+      <c r="H527" s="4"/>
+      <c r="I527" s="4"/>
+      <c r="J527" s="4"/>
+      <c r="K527" s="4"/>
+      <c r="L527" s="4"/>
+      <c r="M527" s="4"/>
+      <c r="N527" s="4"/>
+      <c r="O527" s="4"/>
+      <c r="P527" s="4"/>
+      <c r="Q527" s="4"/>
+      <c r="R527" s="4"/>
+      <c r="S527" s="4"/>
+      <c r="T527" s="4"/>
+      <c r="U527" s="4"/>
+      <c r="V527" s="4"/>
+      <c r="W527" s="4"/>
+      <c r="X527" s="4"/>
+      <c r="Y527" s="4"/>
+      <c r="Z527" s="4"/>
+      <c r="AA527" s="4"/>
+    </row>
+    <row r="528">
+      <c r="A528" s="4"/>
+      <c r="B528" s="4"/>
+      <c r="C528" s="4"/>
+      <c r="D528" s="4"/>
+      <c r="E528" s="72"/>
+      <c r="F528" s="4"/>
+      <c r="G528" s="4"/>
+      <c r="H528" s="4"/>
+      <c r="I528" s="4"/>
+      <c r="J528" s="4"/>
+      <c r="K528" s="4"/>
+      <c r="L528" s="4"/>
+      <c r="M528" s="4"/>
+      <c r="N528" s="4"/>
+      <c r="O528" s="4"/>
+      <c r="P528" s="4"/>
+      <c r="Q528" s="4"/>
+      <c r="R528" s="4"/>
+      <c r="S528" s="4"/>
+      <c r="T528" s="4"/>
+      <c r="U528" s="4"/>
+      <c r="V528" s="4"/>
+      <c r="W528" s="4"/>
+      <c r="X528" s="4"/>
+      <c r="Y528" s="4"/>
+      <c r="Z528" s="4"/>
+      <c r="AA528" s="4"/>
+    </row>
+    <row r="529">
+      <c r="A529" s="4"/>
+      <c r="B529" s="4"/>
+      <c r="C529" s="4"/>
+      <c r="D529" s="4"/>
+      <c r="E529" s="72"/>
+      <c r="F529" s="4"/>
+      <c r="G529" s="4"/>
+      <c r="H529" s="4"/>
+      <c r="I529" s="4"/>
+      <c r="J529" s="4"/>
+      <c r="K529" s="4"/>
+      <c r="L529" s="4"/>
+      <c r="M529" s="4"/>
+      <c r="N529" s="4"/>
+      <c r="O529" s="4"/>
+      <c r="P529" s="4"/>
+      <c r="Q529" s="4"/>
+      <c r="R529" s="4"/>
+      <c r="S529" s="4"/>
+      <c r="T529" s="4"/>
+      <c r="U529" s="4"/>
+      <c r="V529" s="4"/>
+      <c r="W529" s="4"/>
+      <c r="X529" s="4"/>
+      <c r="Y529" s="4"/>
+      <c r="Z529" s="4"/>
+      <c r="AA529" s="4"/>
+    </row>
+    <row r="530">
+      <c r="A530" s="4"/>
+      <c r="B530" s="4"/>
+      <c r="C530" s="4"/>
+      <c r="D530" s="4"/>
+      <c r="E530" s="72"/>
+      <c r="F530" s="4"/>
+      <c r="G530" s="4"/>
+      <c r="H530" s="4"/>
+      <c r="I530" s="4"/>
+      <c r="J530" s="4"/>
+      <c r="K530" s="4"/>
+      <c r="L530" s="4"/>
+      <c r="M530" s="4"/>
+      <c r="N530" s="4"/>
+      <c r="O530" s="4"/>
+      <c r="P530" s="4"/>
+      <c r="Q530" s="4"/>
+      <c r="R530" s="4"/>
+      <c r="S530" s="4"/>
+      <c r="T530" s="4"/>
+      <c r="U530" s="4"/>
+      <c r="V530" s="4"/>
+      <c r="W530" s="4"/>
+      <c r="X530" s="4"/>
+      <c r="Y530" s="4"/>
+      <c r="Z530" s="4"/>
+      <c r="AA530" s="4"/>
+    </row>
+    <row r="531">
+      <c r="A531" s="4"/>
+      <c r="B531" s="4"/>
+      <c r="C531" s="4"/>
+      <c r="D531" s="4"/>
+      <c r="E531" s="72"/>
+      <c r="F531" s="4"/>
+      <c r="G531" s="4"/>
+      <c r="H531" s="4"/>
+      <c r="I531" s="4"/>
+      <c r="J531" s="4"/>
+      <c r="K531" s="4"/>
+      <c r="L531" s="4"/>
+      <c r="M531" s="4"/>
+      <c r="N531" s="4"/>
+      <c r="O531" s="4"/>
+      <c r="P531" s="4"/>
+      <c r="Q531" s="4"/>
+      <c r="R531" s="4"/>
+      <c r="S531" s="4"/>
+      <c r="T531" s="4"/>
+      <c r="U531" s="4"/>
+      <c r="V531" s="4"/>
+      <c r="W531" s="4"/>
+      <c r="X531" s="4"/>
+      <c r="Y531" s="4"/>
+      <c r="Z531" s="4"/>
+      <c r="AA531" s="4"/>
+    </row>
+    <row r="532">
+      <c r="A532" s="4"/>
+      <c r="B532" s="4"/>
+      <c r="C532" s="4"/>
+      <c r="D532" s="4"/>
+      <c r="E532" s="72"/>
+      <c r="F532" s="4"/>
+      <c r="G532" s="4"/>
+      <c r="H532" s="4"/>
+      <c r="I532" s="4"/>
+      <c r="J532" s="4"/>
+      <c r="K532" s="4"/>
+      <c r="L532" s="4"/>
+      <c r="M532" s="4"/>
+      <c r="N532" s="4"/>
+      <c r="O532" s="4"/>
+      <c r="P532" s="4"/>
+      <c r="Q532" s="4"/>
+      <c r="R532" s="4"/>
+      <c r="S532" s="4"/>
+      <c r="T532" s="4"/>
+      <c r="U532" s="4"/>
+      <c r="V532" s="4"/>
+      <c r="W532" s="4"/>
+      <c r="X532" s="4"/>
+      <c r="Y532" s="4"/>
+      <c r="Z532" s="4"/>
+      <c r="AA532" s="4"/>
+    </row>
+    <row r="533">
+      <c r="A533" s="4"/>
+      <c r="B533" s="4"/>
+      <c r="C533" s="4"/>
+      <c r="D533" s="4"/>
+      <c r="E533" s="72"/>
+      <c r="F533" s="4"/>
+      <c r="G533" s="4"/>
+      <c r="H533" s="4"/>
+      <c r="I533" s="4"/>
+      <c r="J533" s="4"/>
+      <c r="K533" s="4"/>
+      <c r="L533" s="4"/>
+      <c r="M533" s="4"/>
+      <c r="N533" s="4"/>
+      <c r="O533" s="4"/>
+      <c r="P533" s="4"/>
+      <c r="Q533" s="4"/>
+      <c r="R533" s="4"/>
+      <c r="S533" s="4"/>
+      <c r="T533" s="4"/>
+      <c r="U533" s="4"/>
+      <c r="V533" s="4"/>
+      <c r="W533" s="4"/>
+      <c r="X533" s="4"/>
+      <c r="Y533" s="4"/>
+      <c r="Z533" s="4"/>
+      <c r="AA533" s="4"/>
+    </row>
+    <row r="534">
+      <c r="A534" s="4"/>
+      <c r="B534" s="4"/>
+      <c r="C534" s="4"/>
+      <c r="D534" s="4"/>
+      <c r="E534" s="72"/>
+      <c r="F534" s="4"/>
+      <c r="G534" s="4"/>
+      <c r="H534" s="4"/>
+      <c r="I534" s="4"/>
+      <c r="J534" s="4"/>
+      <c r="K534" s="4"/>
+      <c r="L534" s="4"/>
+      <c r="M534" s="4"/>
+      <c r="N534" s="4"/>
+      <c r="O534" s="4"/>
+      <c r="P534" s="4"/>
+      <c r="Q534" s="4"/>
+      <c r="R534" s="4"/>
+      <c r="S534" s="4"/>
+      <c r="T534" s="4"/>
+      <c r="U534" s="4"/>
+      <c r="V534" s="4"/>
+      <c r="W534" s="4"/>
+      <c r="X534" s="4"/>
+      <c r="Y534" s="4"/>
+      <c r="Z534" s="4"/>
+      <c r="AA534" s="4"/>
+    </row>
+    <row r="535">
+      <c r="A535" s="4"/>
+      <c r="B535" s="4"/>
+      <c r="C535" s="4"/>
+      <c r="D535" s="4"/>
+      <c r="E535" s="72"/>
+      <c r="F535" s="4"/>
+      <c r="G535" s="4"/>
+      <c r="H535" s="4"/>
+      <c r="I535" s="4"/>
+      <c r="J535" s="4"/>
+      <c r="K535" s="4"/>
+      <c r="L535" s="4"/>
+      <c r="M535" s="4"/>
+      <c r="N535" s="4"/>
+      <c r="O535" s="4"/>
+      <c r="P535" s="4"/>
+      <c r="Q535" s="4"/>
+      <c r="R535" s="4"/>
+      <c r="S535" s="4"/>
+      <c r="T535" s="4"/>
+      <c r="U535" s="4"/>
+      <c r="V535" s="4"/>
+      <c r="W535" s="4"/>
+      <c r="X535" s="4"/>
+      <c r="Y535" s="4"/>
+      <c r="Z535" s="4"/>
+      <c r="AA535" s="4"/>
+    </row>
+    <row r="536">
+      <c r="A536" s="4"/>
+      <c r="B536" s="4"/>
+      <c r="C536" s="4"/>
+      <c r="D536" s="4"/>
+      <c r="E536" s="72"/>
+      <c r="F536" s="4"/>
+      <c r="G536" s="4"/>
+      <c r="H536" s="4"/>
+      <c r="I536" s="4"/>
+      <c r="J536" s="4"/>
+      <c r="K536" s="4"/>
+      <c r="L536" s="4"/>
+      <c r="M536" s="4"/>
+      <c r="N536" s="4"/>
+      <c r="O536" s="4"/>
+      <c r="P536" s="4"/>
+      <c r="Q536" s="4"/>
+      <c r="R536" s="4"/>
+      <c r="S536" s="4"/>
+      <c r="T536" s="4"/>
+      <c r="U536" s="4"/>
+      <c r="V536" s="4"/>
+      <c r="W536" s="4"/>
+      <c r="X536" s="4"/>
+      <c r="Y536" s="4"/>
+      <c r="Z536" s="4"/>
+      <c r="AA536" s="4"/>
+    </row>
+    <row r="537">
+      <c r="A537" s="4"/>
+      <c r="B537" s="4"/>
+      <c r="C537" s="4"/>
+      <c r="D537" s="4"/>
+      <c r="E537" s="72"/>
+      <c r="F537" s="4"/>
+      <c r="G537" s="4"/>
+      <c r="H537" s="4"/>
+      <c r="I537" s="4"/>
+      <c r="J537" s="4"/>
+      <c r="K537" s="4"/>
+      <c r="L537" s="4"/>
+      <c r="M537" s="4"/>
+      <c r="N537" s="4"/>
+      <c r="O537" s="4"/>
+      <c r="P537" s="4"/>
+      <c r="Q537" s="4"/>
+      <c r="R537" s="4"/>
+      <c r="S537" s="4"/>
+      <c r="T537" s="4"/>
+      <c r="U537" s="4"/>
+      <c r="V537" s="4"/>
+      <c r="W537" s="4"/>
+      <c r="X537" s="4"/>
+      <c r="Y537" s="4"/>
+      <c r="Z537" s="4"/>
+      <c r="AA537" s="4"/>
+    </row>
+    <row r="538">
+      <c r="A538" s="4"/>
+      <c r="B538" s="4"/>
+      <c r="C538" s="4"/>
+      <c r="D538" s="4"/>
+      <c r="E538" s="72"/>
+      <c r="F538" s="4"/>
+      <c r="G538" s="4"/>
+      <c r="H538" s="4"/>
+      <c r="I538" s="4"/>
+      <c r="J538" s="4"/>
+      <c r="K538" s="4"/>
+      <c r="L538" s="4"/>
+      <c r="M538" s="4"/>
+      <c r="N538" s="4"/>
+      <c r="O538" s="4"/>
+      <c r="P538" s="4"/>
+      <c r="Q538" s="4"/>
+      <c r="R538" s="4"/>
+      <c r="S538" s="4"/>
+      <c r="T538" s="4"/>
+      <c r="U538" s="4"/>
+      <c r="V538" s="4"/>
+      <c r="W538" s="4"/>
+      <c r="X538" s="4"/>
+      <c r="Y538" s="4"/>
+      <c r="Z538" s="4"/>
+      <c r="AA538" s="4"/>
+    </row>
+    <row r="539">
+      <c r="A539" s="4"/>
+      <c r="B539" s="4"/>
+      <c r="C539" s="4"/>
+      <c r="D539" s="4"/>
+      <c r="E539" s="72"/>
+      <c r="F539" s="4"/>
+      <c r="G539" s="4"/>
+      <c r="H539" s="4"/>
+      <c r="I539" s="4"/>
+      <c r="J539" s="4"/>
+      <c r="K539" s="4"/>
+      <c r="L539" s="4"/>
+      <c r="M539" s="4"/>
+      <c r="N539" s="4"/>
+      <c r="O539" s="4"/>
+      <c r="P539" s="4"/>
+      <c r="Q539" s="4"/>
+      <c r="R539" s="4"/>
+      <c r="S539" s="4"/>
+      <c r="T539" s="4"/>
+      <c r="U539" s="4"/>
+      <c r="V539" s="4"/>
+      <c r="W539" s="4"/>
+      <c r="X539" s="4"/>
+      <c r="Y539" s="4"/>
+      <c r="Z539" s="4"/>
+      <c r="AA539" s="4"/>
+    </row>
+    <row r="540">
+      <c r="A540" s="4"/>
+      <c r="B540" s="4"/>
+      <c r="C540" s="4"/>
+      <c r="D540" s="4"/>
+      <c r="E540" s="72"/>
+      <c r="F540" s="4"/>
+      <c r="G540" s="4"/>
+      <c r="H540" s="4"/>
+      <c r="I540" s="4"/>
+      <c r="J540" s="4"/>
+      <c r="K540" s="4"/>
+      <c r="L540" s="4"/>
+      <c r="M540" s="4"/>
+      <c r="N540" s="4"/>
+      <c r="O540" s="4"/>
+      <c r="P540" s="4"/>
+      <c r="Q540" s="4"/>
+      <c r="R540" s="4"/>
+      <c r="S540" s="4"/>
+      <c r="T540" s="4"/>
+      <c r="U540" s="4"/>
+      <c r="V540" s="4"/>
+      <c r="W540" s="4"/>
+      <c r="X540" s="4"/>
+      <c r="Y540" s="4"/>
+      <c r="Z540" s="4"/>
+      <c r="AA540" s="4"/>
+    </row>
+    <row r="541">
+      <c r="A541" s="4"/>
+      <c r="B541" s="4"/>
+      <c r="C541" s="4"/>
+      <c r="D541" s="4"/>
+      <c r="E541" s="72"/>
+      <c r="F541" s="4"/>
+      <c r="G541" s="4"/>
+      <c r="H541" s="4"/>
+      <c r="I541" s="4"/>
+      <c r="J541" s="4"/>
+      <c r="K541" s="4"/>
+      <c r="L541" s="4"/>
+      <c r="M541" s="4"/>
+      <c r="N541" s="4"/>
+      <c r="O541" s="4"/>
+      <c r="P541" s="4"/>
+      <c r="Q541" s="4"/>
+      <c r="R541" s="4"/>
+      <c r="S541" s="4"/>
+      <c r="T541" s="4"/>
+      <c r="U541" s="4"/>
+      <c r="V541" s="4"/>
+      <c r="W541" s="4"/>
+      <c r="X541" s="4"/>
+      <c r="Y541" s="4"/>
+      <c r="Z541" s="4"/>
+      <c r="AA541" s="4"/>
+    </row>
+    <row r="542">
+      <c r="A542" s="4"/>
+      <c r="B542" s="4"/>
+      <c r="C542" s="4"/>
+      <c r="D542" s="4"/>
+      <c r="E542" s="72"/>
+      <c r="F542" s="4"/>
+      <c r="G542" s="4"/>
+      <c r="H542" s="4"/>
+      <c r="I542" s="4"/>
+      <c r="J542" s="4"/>
+      <c r="K542" s="4"/>
+      <c r="L542" s="4"/>
+      <c r="M542" s="4"/>
+      <c r="N542" s="4"/>
+      <c r="O542" s="4"/>
+      <c r="P542" s="4"/>
+      <c r="Q542" s="4"/>
+      <c r="R542" s="4"/>
+      <c r="S542" s="4"/>
+      <c r="T542" s="4"/>
+      <c r="U542" s="4"/>
+      <c r="V542" s="4"/>
+      <c r="W542" s="4"/>
+      <c r="X542" s="4"/>
+      <c r="Y542" s="4"/>
+      <c r="Z542" s="4"/>
+      <c r="AA542" s="4"/>
+    </row>
+    <row r="543">
+      <c r="A543" s="4"/>
+      <c r="B543" s="4"/>
+      <c r="C543" s="4"/>
+      <c r="D543" s="4"/>
+      <c r="E543" s="72"/>
+      <c r="F543" s="4"/>
+      <c r="G543" s="4"/>
+      <c r="H543" s="4"/>
+      <c r="I543" s="4"/>
+      <c r="J543" s="4"/>
+      <c r="K543" s="4"/>
+      <c r="L543" s="4"/>
+      <c r="M543" s="4"/>
+      <c r="N543" s="4"/>
+      <c r="O543" s="4"/>
+      <c r="P543" s="4"/>
+      <c r="Q543" s="4"/>
+      <c r="R543" s="4"/>
+      <c r="S543" s="4"/>
+      <c r="T543" s="4"/>
+      <c r="U543" s="4"/>
+      <c r="V543" s="4"/>
+      <c r="W543" s="4"/>
+      <c r="X543" s="4"/>
+      <c r="Y543" s="4"/>
+      <c r="Z543" s="4"/>
+      <c r="AA543" s="4"/>
+    </row>
+    <row r="544">
+      <c r="A544" s="4"/>
+      <c r="B544" s="4"/>
+      <c r="C544" s="4"/>
+      <c r="D544" s="4"/>
+      <c r="E544" s="72"/>
+      <c r="F544" s="4"/>
+      <c r="G544" s="4"/>
+      <c r="H544" s="4"/>
+      <c r="I544" s="4"/>
+      <c r="J544" s="4"/>
+      <c r="K544" s="4"/>
+      <c r="L544" s="4"/>
+      <c r="M544" s="4"/>
+      <c r="N544" s="4"/>
+      <c r="O544" s="4"/>
+      <c r="P544" s="4"/>
+      <c r="Q544" s="4"/>
+      <c r="R544" s="4"/>
+      <c r="S544" s="4"/>
+      <c r="T544" s="4"/>
+      <c r="U544" s="4"/>
+      <c r="V544" s="4"/>
+      <c r="W544" s="4"/>
+      <c r="X544" s="4"/>
+      <c r="Y544" s="4"/>
+      <c r="Z544" s="4"/>
+      <c r="AA544" s="4"/>
+    </row>
+    <row r="545">
+      <c r="A545" s="4"/>
+      <c r="B545" s="4"/>
+      <c r="C545" s="4"/>
+      <c r="D545" s="4"/>
+      <c r="E545" s="72"/>
+      <c r="F545" s="4"/>
+      <c r="G545" s="4"/>
+      <c r="H545" s="4"/>
+      <c r="I545" s="4"/>
+      <c r="J545" s="4"/>
+      <c r="K545" s="4"/>
+      <c r="L545" s="4"/>
+      <c r="M545" s="4"/>
+      <c r="N545" s="4"/>
+      <c r="O545" s="4"/>
+      <c r="P545" s="4"/>
+      <c r="Q545" s="4"/>
+      <c r="R545" s="4"/>
+      <c r="S545" s="4"/>
+      <c r="T545" s="4"/>
+      <c r="U545" s="4"/>
+      <c r="V545" s="4"/>
+      <c r="W545" s="4"/>
+      <c r="X545" s="4"/>
+      <c r="Y545" s="4"/>
+      <c r="Z545" s="4"/>
+      <c r="AA545" s="4"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="4"/>
+      <c r="B546" s="4"/>
+      <c r="C546" s="4"/>
+      <c r="D546" s="4"/>
+      <c r="E546" s="72"/>
+      <c r="F546" s="4"/>
+      <c r="G546" s="4"/>
+      <c r="H546" s="4"/>
+      <c r="I546" s="4"/>
+      <c r="J546" s="4"/>
+      <c r="K546" s="4"/>
+      <c r="L546" s="4"/>
+      <c r="M546" s="4"/>
+      <c r="N546" s="4"/>
+      <c r="O546" s="4"/>
+      <c r="P546" s="4"/>
+      <c r="Q546" s="4"/>
+      <c r="R546" s="4"/>
+      <c r="S546" s="4"/>
+      <c r="T546" s="4"/>
+      <c r="U546" s="4"/>
+      <c r="V546" s="4"/>
+      <c r="W546" s="4"/>
+      <c r="X546" s="4"/>
+      <c r="Y546" s="4"/>
+      <c r="Z546" s="4"/>
+      <c r="AA546" s="4"/>
+    </row>
+    <row r="547">
+      <c r="A547" s="4"/>
+      <c r="B547" s="4"/>
+      <c r="C547" s="4"/>
+      <c r="D547" s="4"/>
+      <c r="E547" s="72"/>
+      <c r="F547" s="4"/>
+      <c r="G547" s="4"/>
+      <c r="H547" s="4"/>
+      <c r="I547" s="4"/>
+      <c r="J547" s="4"/>
+      <c r="K547" s="4"/>
+      <c r="L547" s="4"/>
+      <c r="M547" s="4"/>
+      <c r="N547" s="4"/>
+      <c r="O547" s="4"/>
+      <c r="P547" s="4"/>
+      <c r="Q547" s="4"/>
+      <c r="R547" s="4"/>
+      <c r="S547" s="4"/>
+      <c r="T547" s="4"/>
+      <c r="U547" s="4"/>
+      <c r="V547" s="4"/>
+      <c r="W547" s="4"/>
+      <c r="X547" s="4"/>
+      <c r="Y547" s="4"/>
+      <c r="Z547" s="4"/>
+      <c r="AA547" s="4"/>
+    </row>
+    <row r="548">
+      <c r="A548" s="4"/>
+      <c r="B548" s="4"/>
+      <c r="C548" s="4"/>
+      <c r="D548" s="4"/>
+      <c r="E548" s="72"/>
+      <c r="F548" s="4"/>
+      <c r="G548" s="4"/>
+      <c r="H548" s="4"/>
+      <c r="I548" s="4"/>
+      <c r="J548" s="4"/>
+      <c r="K548" s="4"/>
+      <c r="L548" s="4"/>
+      <c r="M548" s="4"/>
+      <c r="N548" s="4"/>
+      <c r="O548" s="4"/>
+      <c r="P548" s="4"/>
+      <c r="Q548" s="4"/>
+      <c r="R548" s="4"/>
+      <c r="S548" s="4"/>
+      <c r="T548" s="4"/>
+      <c r="U548" s="4"/>
+      <c r="V548" s="4"/>
+      <c r="W548" s="4"/>
+      <c r="X548" s="4"/>
+      <c r="Y548" s="4"/>
+      <c r="Z548" s="4"/>
+      <c r="AA548" s="4"/>
+    </row>
+    <row r="549">
+      <c r="A549" s="4"/>
+      <c r="B549" s="4"/>
+      <c r="C549" s="4"/>
+      <c r="D549" s="4"/>
+      <c r="E549" s="72"/>
+      <c r="F549" s="4"/>
+      <c r="G549" s="4"/>
+      <c r="H549" s="4"/>
+      <c r="I549" s="4"/>
+      <c r="J549" s="4"/>
+      <c r="K549" s="4"/>
+      <c r="L549" s="4"/>
+      <c r="M549" s="4"/>
+      <c r="N549" s="4"/>
+      <c r="O549" s="4"/>
+      <c r="P549" s="4"/>
+      <c r="Q549" s="4"/>
+      <c r="R549" s="4"/>
+      <c r="S549" s="4"/>
+      <c r="T549" s="4"/>
+      <c r="U549" s="4"/>
+      <c r="V549" s="4"/>
+      <c r="W549" s="4"/>
+      <c r="X549" s="4"/>
+      <c r="Y549" s="4"/>
+      <c r="Z549" s="4"/>
+      <c r="AA549" s="4"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="4"/>
+      <c r="B550" s="4"/>
+      <c r="C550" s="4"/>
+      <c r="D550" s="4"/>
+      <c r="E550" s="72"/>
+      <c r="F550" s="4"/>
+      <c r="G550" s="4"/>
+      <c r="H550" s="4"/>
+      <c r="I550" s="4"/>
+      <c r="J550" s="4"/>
+      <c r="K550" s="4"/>
+      <c r="L550" s="4"/>
+      <c r="M550" s="4"/>
+      <c r="N550" s="4"/>
+      <c r="O550" s="4"/>
+      <c r="P550" s="4"/>
+      <c r="Q550" s="4"/>
+      <c r="R550" s="4"/>
+      <c r="S550" s="4"/>
+      <c r="T550" s="4"/>
+      <c r="U550" s="4"/>
+      <c r="V550" s="4"/>
+      <c r="W550" s="4"/>
+      <c r="X550" s="4"/>
+      <c r="Y550" s="4"/>
+      <c r="Z550" s="4"/>
+      <c r="AA550" s="4"/>
+    </row>
+    <row r="551">
+      <c r="A551" s="4"/>
+      <c r="B551" s="4"/>
+      <c r="C551" s="4"/>
+      <c r="D551" s="4"/>
+      <c r="E551" s="72"/>
+      <c r="F551" s="4"/>
+      <c r="G551" s="4"/>
+      <c r="H551" s="4"/>
+      <c r="I551" s="4"/>
+      <c r="J551" s="4"/>
+      <c r="K551" s="4"/>
+      <c r="L551" s="4"/>
+      <c r="M551" s="4"/>
+      <c r="N551" s="4"/>
+      <c r="O551" s="4"/>
+      <c r="P551" s="4"/>
+      <c r="Q551" s="4"/>
+      <c r="R551" s="4"/>
+      <c r="S551" s="4"/>
+      <c r="T551" s="4"/>
+      <c r="U551" s="4"/>
+      <c r="V551" s="4"/>
+      <c r="W551" s="4"/>
+      <c r="X551" s="4"/>
+      <c r="Y551" s="4"/>
+      <c r="Z551" s="4"/>
+      <c r="AA551" s="4"/>
+    </row>
+    <row r="552">
+      <c r="A552" s="4"/>
+      <c r="B552" s="4"/>
+      <c r="C552" s="4"/>
+      <c r="D552" s="4"/>
+      <c r="E552" s="72"/>
+      <c r="F552" s="4"/>
+      <c r="G552" s="4"/>
+      <c r="H552" s="4"/>
+      <c r="I552" s="4"/>
+      <c r="J552" s="4"/>
+      <c r="K552" s="4"/>
+      <c r="L552" s="4"/>
+      <c r="M552" s="4"/>
+      <c r="N552" s="4"/>
+      <c r="O552" s="4"/>
+      <c r="P552" s="4"/>
+      <c r="Q552" s="4"/>
+      <c r="R552" s="4"/>
+      <c r="S552" s="4"/>
+      <c r="T552" s="4"/>
+      <c r="U552" s="4"/>
+      <c r="V552" s="4"/>
+      <c r="W552" s="4"/>
+      <c r="X552" s="4"/>
+      <c r="Y552" s="4"/>
+      <c r="Z552" s="4"/>
+      <c r="AA552" s="4"/>
+    </row>
+    <row r="553">
+      <c r="A553" s="4"/>
+      <c r="B553" s="4"/>
+      <c r="C553" s="4"/>
+      <c r="D553" s="4"/>
+      <c r="E553" s="72"/>
+      <c r="F553" s="4"/>
+      <c r="G553" s="4"/>
+      <c r="H553" s="4"/>
+      <c r="I553" s="4"/>
+      <c r="J553" s="4"/>
+      <c r="K553" s="4"/>
+      <c r="L553" s="4"/>
+      <c r="M553" s="4"/>
+      <c r="N553" s="4"/>
+      <c r="O553" s="4"/>
+      <c r="P553" s="4"/>
+      <c r="Q553" s="4"/>
+      <c r="R553" s="4"/>
+      <c r="S553" s="4"/>
+      <c r="T553" s="4"/>
+      <c r="U553" s="4"/>
+      <c r="V553" s="4"/>
+      <c r="W553" s="4"/>
+      <c r="X553" s="4"/>
+      <c r="Y553" s="4"/>
+      <c r="Z553" s="4"/>
+      <c r="AA553" s="4"/>
+    </row>
+    <row r="554">
+      <c r="A554" s="4"/>
+      <c r="B554" s="4"/>
+      <c r="C554" s="4"/>
+      <c r="D554" s="4"/>
+      <c r="E554" s="72"/>
+      <c r="F554" s="4"/>
+      <c r="G554" s="4"/>
+      <c r="H554" s="4"/>
+      <c r="I554" s="4"/>
+      <c r="J554" s="4"/>
+      <c r="K554" s="4"/>
+      <c r="L554" s="4"/>
+      <c r="M554" s="4"/>
+      <c r="N554" s="4"/>
+      <c r="O554" s="4"/>
+      <c r="P554" s="4"/>
+      <c r="Q554" s="4"/>
+      <c r="R554" s="4"/>
+      <c r="S554" s="4"/>
+      <c r="T554" s="4"/>
+      <c r="U554" s="4"/>
+      <c r="V554" s="4"/>
+      <c r="W554" s="4"/>
+      <c r="X554" s="4"/>
+      <c r="Y554" s="4"/>
+      <c r="Z554" s="4"/>
+      <c r="AA554" s="4"/>
+    </row>
+    <row r="555">
+      <c r="A555" s="4"/>
+      <c r="B555" s="4"/>
+      <c r="C555" s="4"/>
+      <c r="D555" s="4"/>
+      <c r="E555" s="72"/>
+      <c r="F555" s="4"/>
+      <c r="G555" s="4"/>
+      <c r="H555" s="4"/>
+      <c r="I555" s="4"/>
+      <c r="J555" s="4"/>
+      <c r="K555" s="4"/>
+      <c r="L555" s="4"/>
+      <c r="M555" s="4"/>
+      <c r="N555" s="4"/>
+      <c r="O555" s="4"/>
+      <c r="P555" s="4"/>
+      <c r="Q555" s="4"/>
+      <c r="R555" s="4"/>
+      <c r="S555" s="4"/>
+      <c r="T555" s="4"/>
+      <c r="U555" s="4"/>
+      <c r="V555" s="4"/>
+      <c r="W555" s="4"/>
+      <c r="X555" s="4"/>
+      <c r="Y555" s="4"/>
+      <c r="Z555" s="4"/>
+      <c r="AA555" s="4"/>
+    </row>
+    <row r="556">
+      <c r="A556" s="4"/>
+      <c r="B556" s="4"/>
+      <c r="C556" s="4"/>
+      <c r="D556" s="4"/>
+      <c r="E556" s="72"/>
+      <c r="F556" s="4"/>
+      <c r="G556" s="4"/>
+      <c r="H556" s="4"/>
+      <c r="I556" s="4"/>
+      <c r="J556" s="4"/>
+      <c r="K556" s="4"/>
+      <c r="L556" s="4"/>
+      <c r="M556" s="4"/>
+      <c r="N556" s="4"/>
+      <c r="O556" s="4"/>
+      <c r="P556" s="4"/>
+      <c r="Q556" s="4"/>
+      <c r="R556" s="4"/>
+      <c r="S556" s="4"/>
+      <c r="T556" s="4"/>
+      <c r="U556" s="4"/>
+      <c r="V556" s="4"/>
+      <c r="W556" s="4"/>
+      <c r="X556" s="4"/>
+      <c r="Y556" s="4"/>
+      <c r="Z556" s="4"/>
+      <c r="AA556" s="4"/>
+    </row>
+    <row r="557">
+      <c r="A557" s="4"/>
+      <c r="B557" s="4"/>
+      <c r="C557" s="4"/>
+      <c r="D557" s="4"/>
+      <c r="E557" s="72"/>
+      <c r="F557" s="4"/>
+      <c r="G557" s="4"/>
+      <c r="H557" s="4"/>
+      <c r="I557" s="4"/>
+      <c r="J557" s="4"/>
+      <c r="K557" s="4"/>
+      <c r="L557" s="4"/>
+      <c r="M557" s="4"/>
+      <c r="N557" s="4"/>
+      <c r="O557" s="4"/>
+      <c r="P557" s="4"/>
+      <c r="Q557" s="4"/>
+      <c r="R557" s="4"/>
+      <c r="S557" s="4"/>
+      <c r="T557" s="4"/>
+      <c r="U557" s="4"/>
+      <c r="V557" s="4"/>
+      <c r="W557" s="4"/>
+      <c r="X557" s="4"/>
+      <c r="Y557" s="4"/>
+      <c r="Z557" s="4"/>
+      <c r="AA557" s="4"/>
+    </row>
+    <row r="558">
+      <c r="A558" s="4"/>
+      <c r="B558" s="4"/>
+      <c r="C558" s="4"/>
+      <c r="D558" s="4"/>
+      <c r="E558" s="72"/>
+      <c r="F558" s="4"/>
+      <c r="G558" s="4"/>
+      <c r="H558" s="4"/>
+      <c r="I558" s="4"/>
+      <c r="J558" s="4"/>
+      <c r="K558" s="4"/>
+      <c r="L558" s="4"/>
+      <c r="M558" s="4"/>
+      <c r="N558" s="4"/>
+      <c r="O558" s="4"/>
+      <c r="P558" s="4"/>
+      <c r="Q558" s="4"/>
+      <c r="R558" s="4"/>
+      <c r="S558" s="4"/>
+      <c r="T558" s="4"/>
+      <c r="U558" s="4"/>
+      <c r="V558" s="4"/>
+      <c r="W558" s="4"/>
+      <c r="X558" s="4"/>
+      <c r="Y558" s="4"/>
+      <c r="Z558" s="4"/>
+      <c r="AA558" s="4"/>
+    </row>
+    <row r="559">
+      <c r="A559" s="4"/>
+      <c r="B559" s="4"/>
+      <c r="C559" s="4"/>
+      <c r="D559" s="4"/>
+      <c r="E559" s="72"/>
+      <c r="F559" s="4"/>
+      <c r="G559" s="4"/>
+      <c r="H559" s="4"/>
+      <c r="I559" s="4"/>
+      <c r="J559" s="4"/>
+      <c r="K559" s="4"/>
+      <c r="L559" s="4"/>
+      <c r="M559" s="4"/>
+      <c r="N559" s="4"/>
+      <c r="O559" s="4"/>
+      <c r="P559" s="4"/>
+      <c r="Q559" s="4"/>
+      <c r="R559" s="4"/>
+      <c r="S559" s="4"/>
+      <c r="T559" s="4"/>
+      <c r="U559" s="4"/>
+      <c r="V559" s="4"/>
+      <c r="W559" s="4"/>
+      <c r="X559" s="4"/>
+      <c r="Y559" s="4"/>
+      <c r="Z559" s="4"/>
+      <c r="AA559" s="4"/>
+    </row>
+    <row r="560">
+      <c r="A560" s="4"/>
+      <c r="B560" s="4"/>
+      <c r="C560" s="4"/>
+      <c r="D560" s="4"/>
+      <c r="E560" s="72"/>
+      <c r="F560" s="4"/>
+      <c r="G560" s="4"/>
+      <c r="H560" s="4"/>
+      <c r="I560" s="4"/>
+      <c r="J560" s="4"/>
+      <c r="K560" s="4"/>
+      <c r="L560" s="4"/>
+      <c r="M560" s="4"/>
+      <c r="N560" s="4"/>
+      <c r="O560" s="4"/>
+      <c r="P560" s="4"/>
+      <c r="Q560" s="4"/>
+      <c r="R560" s="4"/>
+      <c r="S560" s="4"/>
+      <c r="T560" s="4"/>
+      <c r="U560" s="4"/>
+      <c r="V560" s="4"/>
+      <c r="W560" s="4"/>
+      <c r="X560" s="4"/>
+      <c r="Y560" s="4"/>
+      <c r="Z560" s="4"/>
+      <c r="AA560" s="4"/>
+    </row>
+    <row r="561">
+      <c r="A561" s="4"/>
+      <c r="B561" s="4"/>
+      <c r="C561" s="4"/>
+      <c r="D561" s="4"/>
+      <c r="E561" s="72"/>
+      <c r="F561" s="4"/>
+      <c r="G561" s="4"/>
+      <c r="H561" s="4"/>
+      <c r="I561" s="4"/>
+      <c r="J561" s="4"/>
+      <c r="K561" s="4"/>
+      <c r="L561" s="4"/>
+      <c r="M561" s="4"/>
+      <c r="N561" s="4"/>
+      <c r="O561" s="4"/>
+      <c r="P561" s="4"/>
+      <c r="Q561" s="4"/>
+      <c r="R561" s="4"/>
+      <c r="S561" s="4"/>
+      <c r="T561" s="4"/>
+      <c r="U561" s="4"/>
+      <c r="V561" s="4"/>
+      <c r="W561" s="4"/>
+      <c r="X561" s="4"/>
+      <c r="Y561" s="4"/>
+      <c r="Z561" s="4"/>
+      <c r="AA561" s="4"/>
+    </row>
+    <row r="562">
+      <c r="A562" s="4"/>
+      <c r="B562" s="4"/>
+      <c r="C562" s="4"/>
+      <c r="D562" s="4"/>
+      <c r="E562" s="72"/>
+      <c r="F562" s="4"/>
+      <c r="G562" s="4"/>
+      <c r="H562" s="4"/>
+      <c r="I562" s="4"/>
+      <c r="J562" s="4"/>
+      <c r="K562" s="4"/>
+      <c r="L562" s="4"/>
+      <c r="M562" s="4"/>
+      <c r="N562" s="4"/>
+      <c r="O562" s="4"/>
+      <c r="P562" s="4"/>
+      <c r="Q562" s="4"/>
+      <c r="R562" s="4"/>
+      <c r="S562" s="4"/>
+      <c r="T562" s="4"/>
+      <c r="U562" s="4"/>
+      <c r="V562" s="4"/>
+      <c r="W562" s="4"/>
+      <c r="X562" s="4"/>
+      <c r="Y562" s="4"/>
+      <c r="Z562" s="4"/>
+      <c r="AA562" s="4"/>
+    </row>
+    <row r="563">
+      <c r="A563" s="4"/>
+      <c r="B563" s="4"/>
+      <c r="C563" s="4"/>
+      <c r="D563" s="4"/>
+      <c r="E563" s="72"/>
+      <c r="F563" s="4"/>
+      <c r="G563" s="4"/>
+      <c r="H563" s="4"/>
+      <c r="I563" s="4"/>
+      <c r="J563" s="4"/>
+      <c r="K563" s="4"/>
+      <c r="L563" s="4"/>
+      <c r="M563" s="4"/>
+      <c r="N563" s="4"/>
+      <c r="O563" s="4"/>
+      <c r="P563" s="4"/>
+      <c r="Q563" s="4"/>
+      <c r="R563" s="4"/>
+      <c r="S563" s="4"/>
+      <c r="T563" s="4"/>
+      <c r="U563" s="4"/>
+      <c r="V563" s="4"/>
+      <c r="W563" s="4"/>
+      <c r="X563" s="4"/>
+      <c r="Y563" s="4"/>
+      <c r="Z563" s="4"/>
+      <c r="AA563" s="4"/>
+    </row>
+    <row r="564">
+      <c r="A564" s="4"/>
+      <c r="B564" s="4"/>
+      <c r="C564" s="4"/>
+      <c r="D564" s="4"/>
+      <c r="E564" s="72"/>
+      <c r="F564" s="4"/>
+      <c r="G564" s="4"/>
+      <c r="H564" s="4"/>
+      <c r="I564" s="4"/>
+      <c r="J564" s="4"/>
+      <c r="K564" s="4"/>
+      <c r="L564" s="4"/>
+      <c r="M564" s="4"/>
+      <c r="N564" s="4"/>
+      <c r="O564" s="4"/>
+      <c r="P564" s="4"/>
+      <c r="Q564" s="4"/>
+      <c r="R564" s="4"/>
+      <c r="S564" s="4"/>
+      <c r="T564" s="4"/>
+      <c r="U564" s="4"/>
+      <c r="V564" s="4"/>
+      <c r="W564" s="4"/>
+      <c r="X564" s="4"/>
+      <c r="Y564" s="4"/>
+      <c r="Z564" s="4"/>
+      <c r="AA564" s="4"/>
+    </row>
+    <row r="565">
+      <c r="A565" s="4"/>
+      <c r="B565" s="4"/>
+      <c r="C565" s="4"/>
+      <c r="D565" s="4"/>
+      <c r="E565" s="72"/>
+      <c r="F565" s="4"/>
+      <c r="G565" s="4"/>
+      <c r="H565" s="4"/>
+      <c r="I565" s="4"/>
+      <c r="J565" s="4"/>
+      <c r="K565" s="4"/>
+      <c r="L565" s="4"/>
+      <c r="M565" s="4"/>
+      <c r="N565" s="4"/>
+      <c r="O565" s="4"/>
+      <c r="P565" s="4"/>
+      <c r="Q565" s="4"/>
+      <c r="R565" s="4"/>
+      <c r="S565" s="4"/>
+      <c r="T565" s="4"/>
+      <c r="U565" s="4"/>
+      <c r="V565" s="4"/>
+      <c r="W565" s="4"/>
+      <c r="X565" s="4"/>
+      <c r="Y565" s="4"/>
+      <c r="Z565" s="4"/>
+      <c r="AA565" s="4"/>
+    </row>
+    <row r="566">
+      <c r="A566" s="4"/>
+      <c r="B566" s="4"/>
+      <c r="C566" s="4"/>
+      <c r="D566" s="4"/>
+      <c r="E566" s="72"/>
+      <c r="F566" s="4"/>
+      <c r="G566" s="4"/>
+      <c r="H566" s="4"/>
+      <c r="I566" s="4"/>
+      <c r="J566" s="4"/>
+      <c r="K566" s="4"/>
+      <c r="L566" s="4"/>
+      <c r="M566" s="4"/>
+      <c r="N566" s="4"/>
+      <c r="O566" s="4"/>
+      <c r="P566" s="4"/>
+      <c r="Q566" s="4"/>
+      <c r="R566" s="4"/>
+      <c r="S566" s="4"/>
+      <c r="T566" s="4"/>
+      <c r="U566" s="4"/>
+      <c r="V566" s="4"/>
+      <c r="W566" s="4"/>
+      <c r="X566" s="4"/>
+      <c r="Y566" s="4"/>
+      <c r="Z566" s="4"/>
+      <c r="AA566" s="4"/>
+    </row>
+    <row r="567">
+      <c r="A567" s="4"/>
+      <c r="B567" s="4"/>
+      <c r="C567" s="4"/>
+      <c r="D567" s="4"/>
+      <c r="E567" s="72"/>
+      <c r="F567" s="4"/>
+      <c r="G567" s="4"/>
+      <c r="H567" s="4"/>
+      <c r="I567" s="4"/>
+      <c r="J567" s="4"/>
+      <c r="K567" s="4"/>
+      <c r="L567" s="4"/>
+      <c r="M567" s="4"/>
+      <c r="N567" s="4"/>
+      <c r="O567" s="4"/>
+      <c r="P567" s="4"/>
+      <c r="Q567" s="4"/>
+      <c r="R567" s="4"/>
+      <c r="S567" s="4"/>
+      <c r="T567" s="4"/>
+      <c r="U567" s="4"/>
+      <c r="V567" s="4"/>
+      <c r="W567" s="4"/>
+      <c r="X567" s="4"/>
+      <c r="Y567" s="4"/>
+      <c r="Z567" s="4"/>
+      <c r="AA567" s="4"/>
+    </row>
+    <row r="568">
+      <c r="A568" s="4"/>
+      <c r="B568" s="4"/>
+      <c r="C568" s="4"/>
+      <c r="D568" s="4"/>
+      <c r="E568" s="72"/>
+      <c r="F568" s="4"/>
+      <c r="G568" s="4"/>
+      <c r="H568" s="4"/>
+      <c r="I568" s="4"/>
+      <c r="J568" s="4"/>
+      <c r="K568" s="4"/>
+      <c r="L568" s="4"/>
+      <c r="M568" s="4"/>
+      <c r="N568" s="4"/>
+      <c r="O568" s="4"/>
+      <c r="P568" s="4"/>
+      <c r="Q568" s="4"/>
+      <c r="R568" s="4"/>
+      <c r="S568" s="4"/>
+      <c r="T568" s="4"/>
+      <c r="U568" s="4"/>
+      <c r="V568" s="4"/>
+      <c r="W568" s="4"/>
+      <c r="X568" s="4"/>
+      <c r="Y568" s="4"/>
+      <c r="Z568" s="4"/>
+      <c r="AA568" s="4"/>
+    </row>
+    <row r="569">
+      <c r="A569" s="4"/>
+      <c r="B569" s="4"/>
+      <c r="C569" s="4"/>
+      <c r="D569" s="4"/>
+      <c r="E569" s="72"/>
+      <c r="F569" s="4"/>
+      <c r="G569" s="4"/>
+      <c r="H569" s="4"/>
+      <c r="I569" s="4"/>
+      <c r="J569" s="4"/>
+      <c r="K569" s="4"/>
+      <c r="L569" s="4"/>
+      <c r="M569" s="4"/>
+      <c r="N569" s="4"/>
+      <c r="O569" s="4"/>
+      <c r="P569" s="4"/>
+      <c r="Q569" s="4"/>
+      <c r="R569" s="4"/>
+      <c r="S569" s="4"/>
+      <c r="T569" s="4"/>
+      <c r="U569" s="4"/>
+      <c r="V569" s="4"/>
+      <c r="W569" s="4"/>
+      <c r="X569" s="4"/>
+      <c r="Y569" s="4"/>
+      <c r="Z569" s="4"/>
+      <c r="AA569" s="4"/>
+    </row>
+    <row r="570">
+      <c r="A570" s="4"/>
+      <c r="B570" s="4"/>
+      <c r="C570" s="4"/>
+      <c r="D570" s="4"/>
+      <c r="E570" s="72"/>
+      <c r="F570" s="4"/>
+      <c r="G570" s="4"/>
+      <c r="H570" s="4"/>
+      <c r="I570" s="4"/>
+      <c r="J570" s="4"/>
+      <c r="K570" s="4"/>
+      <c r="L570" s="4"/>
+      <c r="M570" s="4"/>
+      <c r="N570" s="4"/>
+      <c r="O570" s="4"/>
+      <c r="P570" s="4"/>
+      <c r="Q570" s="4"/>
+      <c r="R570" s="4"/>
+      <c r="S570" s="4"/>
+      <c r="T570" s="4"/>
+      <c r="U570" s="4"/>
+      <c r="V570" s="4"/>
+      <c r="W570" s="4"/>
+      <c r="X570" s="4"/>
+      <c r="Y570" s="4"/>
+      <c r="Z570" s="4"/>
+      <c r="AA570" s="4"/>
+    </row>
+    <row r="571">
+      <c r="A571" s="4"/>
+      <c r="B571" s="4"/>
+      <c r="C571" s="4"/>
+      <c r="D571" s="4"/>
+      <c r="E571" s="72"/>
+      <c r="F571" s="4"/>
+      <c r="G571" s="4"/>
+      <c r="H571" s="4"/>
+      <c r="I571" s="4"/>
+      <c r="J571" s="4"/>
+      <c r="K571" s="4"/>
+      <c r="L571" s="4"/>
+      <c r="M571" s="4"/>
+      <c r="N571" s="4"/>
+      <c r="O571" s="4"/>
+      <c r="P571" s="4"/>
+      <c r="Q571" s="4"/>
+      <c r="R571" s="4"/>
+      <c r="S571" s="4"/>
+      <c r="T571" s="4"/>
+      <c r="U571" s="4"/>
+      <c r="V571" s="4"/>
+      <c r="W571" s="4"/>
+      <c r="X571" s="4"/>
+      <c r="Y571" s="4"/>
+      <c r="Z571" s="4"/>
+      <c r="AA571" s="4"/>
+    </row>
+    <row r="572">
+      <c r="A572" s="4"/>
+      <c r="B572" s="4"/>
+      <c r="C572" s="4"/>
+      <c r="D572" s="4"/>
+      <c r="E572" s="72"/>
+      <c r="F572" s="4"/>
+      <c r="G572" s="4"/>
+      <c r="H572" s="4"/>
+      <c r="I572" s="4"/>
+      <c r="J572" s="4"/>
+      <c r="K572" s="4"/>
+      <c r="L572" s="4"/>
+      <c r="M572" s="4"/>
+      <c r="N572" s="4"/>
+      <c r="O572" s="4"/>
+      <c r="P572" s="4"/>
+      <c r="Q572" s="4"/>
+      <c r="R572" s="4"/>
+      <c r="S572" s="4"/>
+      <c r="T572" s="4"/>
+      <c r="U572" s="4"/>
+      <c r="V572" s="4"/>
+      <c r="W572" s="4"/>
+      <c r="X572" s="4"/>
+      <c r="Y572" s="4"/>
+      <c r="Z572" s="4"/>
+      <c r="AA572" s="4"/>
+    </row>
+    <row r="573">
+      <c r="A573" s="4"/>
+      <c r="B573" s="4"/>
+      <c r="C573" s="4"/>
+      <c r="D573" s="4"/>
+      <c r="E573" s="72"/>
+      <c r="F573" s="4"/>
+      <c r="G573" s="4"/>
+      <c r="H573" s="4"/>
+      <c r="I573" s="4"/>
+      <c r="J573" s="4"/>
+      <c r="K573" s="4"/>
+      <c r="L573" s="4"/>
+      <c r="M573" s="4"/>
+      <c r="N573" s="4"/>
+      <c r="O573" s="4"/>
+      <c r="P573" s="4"/>
+      <c r="Q573" s="4"/>
+      <c r="R573" s="4"/>
+      <c r="S573" s="4"/>
+      <c r="T573" s="4"/>
+      <c r="U573" s="4"/>
+      <c r="V573" s="4"/>
+      <c r="W573" s="4"/>
+      <c r="X573" s="4"/>
+      <c r="Y573" s="4"/>
+      <c r="Z573" s="4"/>
+      <c r="AA573" s="4"/>
+    </row>
+    <row r="574">
+      <c r="A574" s="4"/>
+      <c r="B574" s="4"/>
+      <c r="C574" s="4"/>
+      <c r="D574" s="4"/>
+      <c r="E574" s="72"/>
+      <c r="F574" s="4"/>
+      <c r="G574" s="4"/>
+      <c r="H574" s="4"/>
+      <c r="I574" s="4"/>
+      <c r="J574" s="4"/>
+      <c r="K574" s="4"/>
+      <c r="L574" s="4"/>
+      <c r="M574" s="4"/>
+      <c r="N574" s="4"/>
+      <c r="O574" s="4"/>
+      <c r="P574" s="4"/>
+      <c r="Q574" s="4"/>
+      <c r="R574" s="4"/>
+      <c r="S574" s="4"/>
+      <c r="T574" s="4"/>
+      <c r="U574" s="4"/>
+      <c r="V574" s="4"/>
+      <c r="W574" s="4"/>
+      <c r="X574" s="4"/>
+      <c r="Y574" s="4"/>
+      <c r="Z574" s="4"/>
+      <c r="AA574" s="4"/>
+    </row>
+    <row r="575">
+      <c r="A575" s="4"/>
+      <c r="B575" s="4"/>
+      <c r="C575" s="4"/>
+      <c r="D575" s="4"/>
+      <c r="E575" s="72"/>
+      <c r="F575" s="4"/>
+      <c r="G575" s="4"/>
+      <c r="H575" s="4"/>
+      <c r="I575" s="4"/>
+      <c r="J575" s="4"/>
+      <c r="K575" s="4"/>
+      <c r="L575" s="4"/>
+      <c r="M575" s="4"/>
+      <c r="N575" s="4"/>
+      <c r="O575" s="4"/>
+      <c r="P575" s="4"/>
+      <c r="Q575" s="4"/>
+      <c r="R575" s="4"/>
+      <c r="S575" s="4"/>
+      <c r="T575" s="4"/>
+      <c r="U575" s="4"/>
+      <c r="V575" s="4"/>
+      <c r="W575" s="4"/>
+      <c r="X575" s="4"/>
+      <c r="Y575" s="4"/>
+      <c r="Z575" s="4"/>
+      <c r="AA575" s="4"/>
+    </row>
+    <row r="576">
+      <c r="A576" s="4"/>
+      <c r="B576" s="4"/>
+      <c r="C576" s="4"/>
+      <c r="D576" s="4"/>
+      <c r="E576" s="72"/>
+      <c r="F576" s="4"/>
+      <c r="G576" s="4"/>
+      <c r="H576" s="4"/>
+      <c r="I576" s="4"/>
+      <c r="J576" s="4"/>
+      <c r="K576" s="4"/>
+      <c r="L576" s="4"/>
+      <c r="M576" s="4"/>
+      <c r="N576" s="4"/>
+      <c r="O576" s="4"/>
+      <c r="P576" s="4"/>
+      <c r="Q576" s="4"/>
+      <c r="R576" s="4"/>
+      <c r="S576" s="4"/>
+      <c r="T576" s="4"/>
+      <c r="U576" s="4"/>
+      <c r="V576" s="4"/>
+      <c r="W576" s="4"/>
+      <c r="X576" s="4"/>
+      <c r="Y576" s="4"/>
+      <c r="Z576" s="4"/>
+      <c r="AA576" s="4"/>
+    </row>
+    <row r="577">
+      <c r="A577" s="4"/>
+      <c r="B577" s="4"/>
+      <c r="C577" s="4"/>
+      <c r="D577" s="4"/>
+      <c r="E577" s="72"/>
+      <c r="F577" s="4"/>
+      <c r="G577" s="4"/>
+      <c r="H577" s="4"/>
+      <c r="I577" s="4"/>
+      <c r="J577" s="4"/>
+      <c r="K577" s="4"/>
+      <c r="L577" s="4"/>
+      <c r="M577" s="4"/>
+      <c r="N577" s="4"/>
+      <c r="O577" s="4"/>
+      <c r="P577" s="4"/>
+      <c r="Q577" s="4"/>
+      <c r="R577" s="4"/>
+      <c r="S577" s="4"/>
+      <c r="T577" s="4"/>
+      <c r="U577" s="4"/>
+      <c r="V577" s="4"/>
+      <c r="W577" s="4"/>
+      <c r="X577" s="4"/>
+      <c r="Y577" s="4"/>
+      <c r="Z577" s="4"/>
+      <c r="AA577" s="4"/>
+    </row>
+    <row r="578">
+      <c r="A578" s="4"/>
+      <c r="B578" s="4"/>
+      <c r="C578" s="4"/>
+      <c r="D578" s="4"/>
+      <c r="E578" s="72"/>
+      <c r="F578" s="4"/>
+      <c r="G578" s="4"/>
+      <c r="H578" s="4"/>
+      <c r="I578" s="4"/>
+      <c r="J578" s="4"/>
+      <c r="K578" s="4"/>
+      <c r="L578" s="4"/>
+      <c r="M578" s="4"/>
+      <c r="N578" s="4"/>
+      <c r="O578" s="4"/>
+      <c r="P578" s="4"/>
+      <c r="Q578" s="4"/>
+      <c r="R578" s="4"/>
+      <c r="S578" s="4"/>
+      <c r="T578" s="4"/>
+      <c r="U578" s="4"/>
+      <c r="V578" s="4"/>
+      <c r="W578" s="4"/>
+      <c r="X578" s="4"/>
+      <c r="Y578" s="4"/>
+      <c r="Z578" s="4"/>
+      <c r="AA578" s="4"/>
+    </row>
+    <row r="579">
+      <c r="A579" s="4"/>
+      <c r="B579" s="4"/>
+      <c r="C579" s="4"/>
+      <c r="D579" s="4"/>
+      <c r="E579" s="72"/>
+      <c r="F579" s="4"/>
+      <c r="G579" s="4"/>
+      <c r="H579" s="4"/>
+      <c r="I579" s="4"/>
+      <c r="J579" s="4"/>
+      <c r="K579" s="4"/>
+      <c r="L579" s="4"/>
+      <c r="M579" s="4"/>
+      <c r="N579" s="4"/>
+      <c r="O579" s="4"/>
+      <c r="P579" s="4"/>
+      <c r="Q579" s="4"/>
+      <c r="R579" s="4"/>
+      <c r="S579" s="4"/>
+      <c r="T579" s="4"/>
+      <c r="U579" s="4"/>
+      <c r="V579" s="4"/>
+      <c r="W579" s="4"/>
+      <c r="X579" s="4"/>
+      <c r="Y579" s="4"/>
+      <c r="Z579" s="4"/>
+      <c r="AA579" s="4"/>
+    </row>
+    <row r="580">
+      <c r="A580" s="4"/>
+      <c r="B580" s="4"/>
+      <c r="C580" s="4"/>
+      <c r="D580" s="4"/>
+      <c r="E580" s="72"/>
+      <c r="F580" s="4"/>
+      <c r="G580" s="4"/>
+      <c r="H580" s="4"/>
+      <c r="I580" s="4"/>
+      <c r="J580" s="4"/>
+      <c r="K580" s="4"/>
+      <c r="L580" s="4"/>
+      <c r="M580" s="4"/>
+      <c r="N580" s="4"/>
+      <c r="O580" s="4"/>
+      <c r="P580" s="4"/>
+      <c r="Q580" s="4"/>
+      <c r="R580" s="4"/>
+      <c r="S580" s="4"/>
+      <c r="T580" s="4"/>
+      <c r="U580" s="4"/>
+      <c r="V580" s="4"/>
+      <c r="W580" s="4"/>
+      <c r="X580" s="4"/>
+      <c r="Y580" s="4"/>
+      <c r="Z580" s="4"/>
+      <c r="AA580" s="4"/>
+    </row>
+    <row r="581">
+      <c r="A581" s="4"/>
+      <c r="B581" s="4"/>
+      <c r="C581" s="4"/>
+      <c r="D581" s="4"/>
+      <c r="E581" s="72"/>
+      <c r="F581" s="4"/>
+      <c r="G581" s="4"/>
+      <c r="H581" s="4"/>
+      <c r="I581" s="4"/>
+      <c r="J581" s="4"/>
+      <c r="K581" s="4"/>
+      <c r="L581" s="4"/>
+      <c r="M581" s="4"/>
+      <c r="N581" s="4"/>
+      <c r="O581" s="4"/>
+      <c r="P581" s="4"/>
+      <c r="Q581" s="4"/>
+      <c r="R581" s="4"/>
+      <c r="S581" s="4"/>
+      <c r="T581" s="4"/>
+      <c r="U581" s="4"/>
+      <c r="V581" s="4"/>
+      <c r="W581" s="4"/>
+      <c r="X581" s="4"/>
+      <c r="Y581" s="4"/>
+      <c r="Z581" s="4"/>
+      <c r="AA581" s="4"/>
+    </row>
+    <row r="582">
+      <c r="A582" s="4"/>
+      <c r="B582" s="4"/>
+      <c r="C582" s="4"/>
+      <c r="D582" s="4"/>
+      <c r="E582" s="72"/>
+      <c r="F582" s="4"/>
+      <c r="G582" s="4"/>
+      <c r="H582" s="4"/>
+      <c r="I582" s="4"/>
+      <c r="J582" s="4"/>
+      <c r="K582" s="4"/>
+      <c r="L582" s="4"/>
+      <c r="M582" s="4"/>
+      <c r="N582" s="4"/>
+      <c r="O582" s="4"/>
+      <c r="P582" s="4"/>
+      <c r="Q582" s="4"/>
+      <c r="R582" s="4"/>
+      <c r="S582" s="4"/>
+      <c r="T582" s="4"/>
+      <c r="U582" s="4"/>
+      <c r="V582" s="4"/>
+      <c r="W582" s="4"/>
+      <c r="X582" s="4"/>
+      <c r="Y582" s="4"/>
+      <c r="Z582" s="4"/>
+      <c r="AA582" s="4"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="4"/>
+      <c r="B583" s="4"/>
+      <c r="C583" s="4"/>
+      <c r="D583" s="4"/>
+      <c r="E583" s="72"/>
+      <c r="F583" s="4"/>
+      <c r="G583" s="4"/>
+      <c r="H583" s="4"/>
+      <c r="I583" s="4"/>
+      <c r="J583" s="4"/>
+      <c r="K583" s="4"/>
+      <c r="L583" s="4"/>
+      <c r="M583" s="4"/>
+      <c r="N583" s="4"/>
+      <c r="O583" s="4"/>
+      <c r="P583" s="4"/>
+      <c r="Q583" s="4"/>
+      <c r="R583" s="4"/>
+      <c r="S583" s="4"/>
+      <c r="T583" s="4"/>
+      <c r="U583" s="4"/>
+      <c r="V583" s="4"/>
+      <c r="W583" s="4"/>
+      <c r="X583" s="4"/>
+      <c r="Y583" s="4"/>
+      <c r="Z583" s="4"/>
+      <c r="AA583" s="4"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="4"/>
+      <c r="B584" s="4"/>
+      <c r="C584" s="4"/>
+      <c r="D584" s="4"/>
+      <c r="E584" s="72"/>
+      <c r="F584" s="4"/>
+      <c r="G584" s="4"/>
+      <c r="H584" s="4"/>
+      <c r="I584" s="4"/>
+      <c r="J584" s="4"/>
+      <c r="K584" s="4"/>
+      <c r="L584" s="4"/>
+      <c r="M584" s="4"/>
+      <c r="N584" s="4"/>
+      <c r="O584" s="4"/>
+      <c r="P584" s="4"/>
+      <c r="Q584" s="4"/>
+      <c r="R584" s="4"/>
+      <c r="S584" s="4"/>
+      <c r="T584" s="4"/>
+      <c r="U584" s="4"/>
+      <c r="V584" s="4"/>
+      <c r="W584" s="4"/>
+      <c r="X584" s="4"/>
+      <c r="Y584" s="4"/>
+      <c r="Z584" s="4"/>
+      <c r="AA584" s="4"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="4"/>
+      <c r="B585" s="4"/>
+      <c r="C585" s="4"/>
+      <c r="D585" s="4"/>
+      <c r="E585" s="72"/>
+      <c r="F585" s="4"/>
+      <c r="G585" s="4"/>
+      <c r="H585" s="4"/>
+      <c r="I585" s="4"/>
+      <c r="J585" s="4"/>
+      <c r="K585" s="4"/>
+      <c r="L585" s="4"/>
+      <c r="M585" s="4"/>
+      <c r="N585" s="4"/>
+      <c r="O585" s="4"/>
+      <c r="P585" s="4"/>
+      <c r="Q585" s="4"/>
+      <c r="R585" s="4"/>
+      <c r="S585" s="4"/>
+      <c r="T585" s="4"/>
+      <c r="U585" s="4"/>
+      <c r="V585" s="4"/>
+      <c r="W585" s="4"/>
+      <c r="X585" s="4"/>
+      <c r="Y585" s="4"/>
+      <c r="Z585" s="4"/>
+      <c r="AA585" s="4"/>
+    </row>
+    <row r="586">
+      <c r="A586" s="4"/>
+      <c r="B586" s="4"/>
+      <c r="C586" s="4"/>
+      <c r="D586" s="4"/>
+      <c r="E586" s="72"/>
+      <c r="F586" s="4"/>
+      <c r="G586" s="4"/>
+      <c r="H586" s="4"/>
+      <c r="I586" s="4"/>
+      <c r="J586" s="4"/>
+      <c r="K586" s="4"/>
+      <c r="L586" s="4"/>
+      <c r="M586" s="4"/>
+      <c r="N586" s="4"/>
+      <c r="O586" s="4"/>
+      <c r="P586" s="4"/>
+      <c r="Q586" s="4"/>
+      <c r="R586" s="4"/>
+      <c r="S586" s="4"/>
+      <c r="T586" s="4"/>
+      <c r="U586" s="4"/>
+      <c r="V586" s="4"/>
+      <c r="W586" s="4"/>
+      <c r="X586" s="4"/>
+      <c r="Y586" s="4"/>
+      <c r="Z586" s="4"/>
+      <c r="AA586" s="4"/>
+    </row>
+    <row r="587">
+      <c r="A587" s="4"/>
+      <c r="B587" s="4"/>
+      <c r="C587" s="4"/>
+      <c r="D587" s="4"/>
+      <c r="E587" s="72"/>
+      <c r="F587" s="4"/>
+      <c r="G587" s="4"/>
+      <c r="H587" s="4"/>
+      <c r="I587" s="4"/>
+      <c r="J587" s="4"/>
+      <c r="K587" s="4"/>
+      <c r="L587" s="4"/>
+      <c r="M587" s="4"/>
+      <c r="N587" s="4"/>
+      <c r="O587" s="4"/>
+      <c r="P587" s="4"/>
+      <c r="Q587" s="4"/>
+      <c r="R587" s="4"/>
+      <c r="S587" s="4"/>
+      <c r="T587" s="4"/>
+      <c r="U587" s="4"/>
+      <c r="V587" s="4"/>
+      <c r="W587" s="4"/>
+      <c r="X587" s="4"/>
+      <c r="Y587" s="4"/>
+      <c r="Z587" s="4"/>
+      <c r="AA587" s="4"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="4"/>
+      <c r="B588" s="4"/>
+      <c r="C588" s="4"/>
+      <c r="D588" s="4"/>
+      <c r="E588" s="72"/>
+      <c r="F588" s="4"/>
+      <c r="G588" s="4"/>
+      <c r="H588" s="4"/>
+      <c r="I588" s="4"/>
+      <c r="J588" s="4"/>
+      <c r="K588" s="4"/>
+      <c r="L588" s="4"/>
+      <c r="M588" s="4"/>
+      <c r="N588" s="4"/>
+      <c r="O588" s="4"/>
+      <c r="P588" s="4"/>
+      <c r="Q588" s="4"/>
+      <c r="R588" s="4"/>
+      <c r="S588" s="4"/>
+      <c r="T588" s="4"/>
+      <c r="U588" s="4"/>
+      <c r="V588" s="4"/>
+      <c r="W588" s="4"/>
+      <c r="X588" s="4"/>
+      <c r="Y588" s="4"/>
+      <c r="Z588" s="4"/>
+      <c r="AA588" s="4"/>
+    </row>
+    <row r="589">
+      <c r="A589" s="4"/>
+      <c r="B589" s="4"/>
+      <c r="C589" s="4"/>
+      <c r="D589" s="4"/>
+      <c r="E589" s="72"/>
+      <c r="F589" s="4"/>
+      <c r="G589" s="4"/>
+      <c r="H589" s="4"/>
+      <c r="I589" s="4"/>
+      <c r="J589" s="4"/>
+      <c r="K589" s="4"/>
+      <c r="L589" s="4"/>
+      <c r="M589" s="4"/>
+      <c r="N589" s="4"/>
+      <c r="O589" s="4"/>
+      <c r="P589" s="4"/>
+      <c r="Q589" s="4"/>
+      <c r="R589" s="4"/>
+      <c r="S589" s="4"/>
+      <c r="T589" s="4"/>
+      <c r="U589" s="4"/>
+      <c r="V589" s="4"/>
+      <c r="W589" s="4"/>
+      <c r="X589" s="4"/>
+      <c r="Y589" s="4"/>
+      <c r="Z589" s="4"/>
+      <c r="AA589" s="4"/>
+    </row>
+    <row r="590">
+      <c r="A590" s="4"/>
+      <c r="B590" s="4"/>
+      <c r="C590" s="4"/>
+      <c r="D590" s="4"/>
+      <c r="E590" s="72"/>
+      <c r="F590" s="4"/>
+      <c r="G590" s="4"/>
+      <c r="H590" s="4"/>
+      <c r="I590" s="4"/>
+      <c r="J590" s="4"/>
+      <c r="K590" s="4"/>
+      <c r="L590" s="4"/>
+      <c r="M590" s="4"/>
+      <c r="N590" s="4"/>
+      <c r="O590" s="4"/>
+      <c r="P590" s="4"/>
+      <c r="Q590" s="4"/>
+      <c r="R590" s="4"/>
+      <c r="S590" s="4"/>
+      <c r="T590" s="4"/>
+      <c r="U590" s="4"/>
+      <c r="V590" s="4"/>
+      <c r="W590" s="4"/>
+      <c r="X590" s="4"/>
+      <c r="Y590" s="4"/>
+      <c r="Z590" s="4"/>
+      <c r="AA590" s="4"/>
+    </row>
+    <row r="591">
+      <c r="A591" s="4"/>
+      <c r="B591" s="4"/>
+      <c r="C591" s="4"/>
+      <c r="D591" s="4"/>
+      <c r="E591" s="72"/>
+      <c r="F591" s="4"/>
+      <c r="G591" s="4"/>
+      <c r="H591" s="4"/>
+      <c r="I591" s="4"/>
+      <c r="J591" s="4"/>
+      <c r="K591" s="4"/>
+      <c r="L591" s="4"/>
+      <c r="M591" s="4"/>
+      <c r="N591" s="4"/>
+      <c r="O591" s="4"/>
+      <c r="P591" s="4"/>
+      <c r="Q591" s="4"/>
+      <c r="R591" s="4"/>
+      <c r="S591" s="4"/>
+      <c r="T591" s="4"/>
+      <c r="U591" s="4"/>
+      <c r="V591" s="4"/>
+      <c r="W591" s="4"/>
+      <c r="X591" s="4"/>
+      <c r="Y591" s="4"/>
+      <c r="Z591" s="4"/>
+      <c r="AA591" s="4"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="4"/>
+      <c r="B592" s="4"/>
+      <c r="C592" s="4"/>
+      <c r="D592" s="4"/>
+      <c r="E592" s="72"/>
+      <c r="F592" s="4"/>
+      <c r="G592" s="4"/>
+      <c r="H592" s="4"/>
+      <c r="I592" s="4"/>
+      <c r="J592" s="4"/>
+      <c r="K592" s="4"/>
+      <c r="L592" s="4"/>
+      <c r="M592" s="4"/>
+      <c r="N592" s="4"/>
+      <c r="O592" s="4"/>
+      <c r="P592" s="4"/>
+      <c r="Q592" s="4"/>
+      <c r="R592" s="4"/>
+      <c r="S592" s="4"/>
+      <c r="T592" s="4"/>
+      <c r="U592" s="4"/>
+      <c r="V592" s="4"/>
+      <c r="W592" s="4"/>
+      <c r="X592" s="4"/>
+      <c r="Y592" s="4"/>
+      <c r="Z592" s="4"/>
+      <c r="AA592" s="4"/>
+    </row>
+    <row r="593">
+      <c r="A593" s="4"/>
+      <c r="B593" s="4"/>
+      <c r="C593" s="4"/>
+      <c r="D593" s="4"/>
+      <c r="E593" s="72"/>
+      <c r="F593" s="4"/>
+      <c r="G593" s="4"/>
+      <c r="H593" s="4"/>
+      <c r="I593" s="4"/>
+      <c r="J593" s="4"/>
+      <c r="K593" s="4"/>
+      <c r="L593" s="4"/>
+      <c r="M593" s="4"/>
+      <c r="N593" s="4"/>
+      <c r="O593" s="4"/>
+      <c r="P593" s="4"/>
+      <c r="Q593" s="4"/>
+      <c r="R593" s="4"/>
+      <c r="S593" s="4"/>
+      <c r="T593" s="4"/>
+      <c r="U593" s="4"/>
+      <c r="V593" s="4"/>
+      <c r="W593" s="4"/>
+      <c r="X593" s="4"/>
+      <c r="Y593" s="4"/>
+      <c r="Z593" s="4"/>
+      <c r="AA593" s="4"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="4"/>
+      <c r="B594" s="4"/>
+      <c r="C594" s="4"/>
+      <c r="D594" s="4"/>
+      <c r="E594" s="72"/>
+      <c r="F594" s="4"/>
+      <c r="G594" s="4"/>
+      <c r="H594" s="4"/>
+      <c r="I594" s="4"/>
+      <c r="J594" s="4"/>
+      <c r="K594" s="4"/>
+      <c r="L594" s="4"/>
+      <c r="M594" s="4"/>
+      <c r="N594" s="4"/>
+      <c r="O594" s="4"/>
+      <c r="P594" s="4"/>
+      <c r="Q594" s="4"/>
+      <c r="R594" s="4"/>
+      <c r="S594" s="4"/>
+      <c r="T594" s="4"/>
+      <c r="U594" s="4"/>
+      <c r="V594" s="4"/>
+      <c r="W594" s="4"/>
+      <c r="X594" s="4"/>
+      <c r="Y594" s="4"/>
+      <c r="Z594" s="4"/>
+      <c r="AA594" s="4"/>
+    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="97">
+  <mergeCells count="100">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="B4:C10"/>
-    <mergeCell ref="A4:A117"/>
-    <mergeCell ref="C263:C269"/>
+    <mergeCell ref="C257:C263"/>
+    <mergeCell ref="A4:A115"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="C261:C262"/>
+    <mergeCell ref="C264:C270"/>
     <mergeCell ref="C11:C15"/>
     <mergeCell ref="B11:B21"/>
+    <mergeCell ref="C271:C273"/>
     <mergeCell ref="C16:C21"/>
-    <mergeCell ref="B272:C290"/>
-    <mergeCell ref="C270:C271"/>
+    <mergeCell ref="C274:C280"/>
     <mergeCell ref="B22:B35"/>
     <mergeCell ref="C22:C26"/>
     <mergeCell ref="C27:C35"/>
-    <mergeCell ref="C291:C297"/>
+    <mergeCell ref="C281:C282"/>
+    <mergeCell ref="B283:C313"/>
     <mergeCell ref="B36:C44"/>
-    <mergeCell ref="B291:B311"/>
-    <mergeCell ref="C298:C304"/>
     <mergeCell ref="B45:C52"/>
-    <mergeCell ref="C305:C311"/>
     <mergeCell ref="B53:B70"/>
-    <mergeCell ref="C312:C317"/>
     <mergeCell ref="C53:C59"/>
-    <mergeCell ref="B312:B340"/>
+    <mergeCell ref="B314:B334"/>
     <mergeCell ref="C60:C69"/>
-    <mergeCell ref="C318:C324"/>
-    <mergeCell ref="C328:C332"/>
-    <mergeCell ref="C325:C327"/>
+    <mergeCell ref="C314:C320"/>
+    <mergeCell ref="C321:C327"/>
+    <mergeCell ref="C328:C334"/>
     <mergeCell ref="B71:C83"/>
-    <mergeCell ref="C335:C338"/>
-    <mergeCell ref="C333:C334"/>
+    <mergeCell ref="C335:C340"/>
+    <mergeCell ref="B335:B358"/>
     <mergeCell ref="C84:C91"/>
     <mergeCell ref="B84:B96"/>
-    <mergeCell ref="B341:C348"/>
-    <mergeCell ref="B349:C371"/>
-    <mergeCell ref="B97:C114"/>
-    <mergeCell ref="B372:C373"/>
-    <mergeCell ref="B115:C117"/>
-    <mergeCell ref="B374:C379"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="A118:A230"/>
-    <mergeCell ref="B119:C126"/>
-    <mergeCell ref="B380:C389"/>
-    <mergeCell ref="C127:C132"/>
-    <mergeCell ref="B127:B171"/>
-    <mergeCell ref="F392:G392"/>
-    <mergeCell ref="C133:C138"/>
-    <mergeCell ref="A392:C398"/>
-    <mergeCell ref="F398:G398"/>
-    <mergeCell ref="C139:C142"/>
-    <mergeCell ref="F397:G397"/>
-    <mergeCell ref="F394:G394"/>
-    <mergeCell ref="C143:C145"/>
-    <mergeCell ref="F393:G393"/>
-    <mergeCell ref="C400:D400"/>
-    <mergeCell ref="F396:G396"/>
-    <mergeCell ref="A399:A421"/>
-    <mergeCell ref="B400:B406"/>
-    <mergeCell ref="F395:G395"/>
-    <mergeCell ref="B399:E399"/>
-    <mergeCell ref="C401:D401"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="B408:B409"/>
-    <mergeCell ref="B407:D407"/>
-    <mergeCell ref="C150:C158"/>
-    <mergeCell ref="B410:C420"/>
+    <mergeCell ref="C341:C347"/>
+    <mergeCell ref="C348:C350"/>
+    <mergeCell ref="C351:C354"/>
+    <mergeCell ref="C355:C358"/>
+    <mergeCell ref="B97:C112"/>
+    <mergeCell ref="B359:C366"/>
+    <mergeCell ref="B367:C389"/>
+    <mergeCell ref="B113:C115"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="A116:A240"/>
+    <mergeCell ref="B117:C140"/>
+    <mergeCell ref="B390:C394"/>
+    <mergeCell ref="B395:C400"/>
+    <mergeCell ref="B141:B185"/>
+    <mergeCell ref="C141:C146"/>
+    <mergeCell ref="C147:C152"/>
+    <mergeCell ref="B401:C410"/>
+    <mergeCell ref="C153:C156"/>
+    <mergeCell ref="B411:C425"/>
     <mergeCell ref="C160:C163"/>
-    <mergeCell ref="C164:C169"/>
-    <mergeCell ref="A422:A423"/>
-    <mergeCell ref="A424:A425"/>
-    <mergeCell ref="A426:A427"/>
-    <mergeCell ref="C172:C184"/>
-    <mergeCell ref="B172:B221"/>
-    <mergeCell ref="A428:A429"/>
-    <mergeCell ref="A430:A431"/>
-    <mergeCell ref="C188:C198"/>
-    <mergeCell ref="C185:C187"/>
+    <mergeCell ref="C157:C159"/>
+    <mergeCell ref="C164:C172"/>
+    <mergeCell ref="F430:G430"/>
+    <mergeCell ref="F429:G429"/>
+    <mergeCell ref="F432:G432"/>
+    <mergeCell ref="F431:G431"/>
+    <mergeCell ref="A428:C434"/>
+    <mergeCell ref="F428:G428"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="C436:D436"/>
+    <mergeCell ref="B436:B442"/>
+    <mergeCell ref="A435:A494"/>
+    <mergeCell ref="B435:E435"/>
+    <mergeCell ref="C178:C183"/>
+    <mergeCell ref="F434:G434"/>
+    <mergeCell ref="F433:G433"/>
+    <mergeCell ref="C437:D437"/>
+    <mergeCell ref="B186:B231"/>
+    <mergeCell ref="C444:C457"/>
+    <mergeCell ref="B444:B472"/>
+    <mergeCell ref="B443:D443"/>
+    <mergeCell ref="C186:C198"/>
     <mergeCell ref="C199:C201"/>
-    <mergeCell ref="C202:C204"/>
-    <mergeCell ref="C208:C210"/>
-    <mergeCell ref="C205:C207"/>
-    <mergeCell ref="C211:C217"/>
-    <mergeCell ref="B222:B227"/>
+    <mergeCell ref="C202:C212"/>
+    <mergeCell ref="C458:C463"/>
+    <mergeCell ref="C464:C472"/>
+    <mergeCell ref="C216:C218"/>
+    <mergeCell ref="C213:C215"/>
+    <mergeCell ref="C219:C221"/>
+    <mergeCell ref="B473:C483"/>
     <mergeCell ref="C222:C224"/>
-    <mergeCell ref="C225:C226"/>
-    <mergeCell ref="B228:C229"/>
+    <mergeCell ref="C225:C231"/>
     <mergeCell ref="C232:C234"/>
-    <mergeCell ref="B232:B271"/>
-    <mergeCell ref="A231:A391"/>
-    <mergeCell ref="B231:D231"/>
-    <mergeCell ref="C235:C237"/>
-    <mergeCell ref="C240:C243"/>
-    <mergeCell ref="C238:C239"/>
-    <mergeCell ref="C244:C246"/>
-    <mergeCell ref="C247:C253"/>
-    <mergeCell ref="C254:C260"/>
+    <mergeCell ref="B232:B237"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="B238:C239"/>
+    <mergeCell ref="A495:A496"/>
+    <mergeCell ref="A497:A498"/>
+    <mergeCell ref="B242:B282"/>
+    <mergeCell ref="A241:A427"/>
+    <mergeCell ref="B241:D241"/>
+    <mergeCell ref="A499:A500"/>
+    <mergeCell ref="C242:C244"/>
+    <mergeCell ref="A501:A502"/>
+    <mergeCell ref="C248:C249"/>
+    <mergeCell ref="A503:A504"/>
+    <mergeCell ref="C245:C247"/>
+    <mergeCell ref="C250:C253"/>
+    <mergeCell ref="C254:C256"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MainSheet.xlsx
+++ b/MainSheet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="469" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="452" uniqueCount="452">
   <si>
     <t>分类1</t>
   </si>
@@ -362,7 +362,8 @@
     <t>喜好程度</t>
   </si>
   <si>
-    <t>古代刑具</t>
+    <t>古代刑具
+（此处指仿制且不会对人造成严重伤害的刑具）</t>
   </si>
   <si>
     <t>木枷</t>
@@ -542,6 +543,9 @@
     <t>棍棒</t>
   </si>
   <si>
+    <t>竹板</t>
+  </si>
+  <si>
     <t>电击道具</t>
   </si>
   <si>
@@ -701,6 +705,21 @@
     <t>性激素类</t>
   </si>
   <si>
+    <t>雌激素类</t>
+  </si>
+  <si>
+    <t>孕激素类</t>
+  </si>
+  <si>
+    <t>睾酮类</t>
+  </si>
+  <si>
+    <t>西地那非</t>
+  </si>
+  <si>
+    <t>空孕催乳剂</t>
+  </si>
+  <si>
     <t>酒类</t>
   </si>
   <si>
@@ -920,6 +939,12 @@
     <t>桌下交</t>
   </si>
   <si>
+    <t>木乃伊</t>
+  </si>
+  <si>
+    <t>援交</t>
+  </si>
+  <si>
     <t>场景行为</t>
   </si>
   <si>
@@ -941,6 +966,18 @@
     <t>排泄</t>
   </si>
   <si>
+    <t>在纸尿裤里排泄</t>
+  </si>
+  <si>
+    <t>佩戴情趣饰品</t>
+  </si>
+  <si>
+    <t>服装内器具</t>
+  </si>
+  <si>
+    <t>裸露时器具</t>
+  </si>
+  <si>
     <t>自慰</t>
   </si>
   <si>
@@ -956,7 +993,7 @@
     <t>尿液</t>
   </si>
   <si>
-    <t>放尿</t>
+    <t>在他人面前放尿</t>
   </si>
   <si>
     <t>饮尿（M对S）</t>
@@ -1007,7 +1044,7 @@
     <t>粪便</t>
   </si>
   <si>
-    <t>脱粪</t>
+    <t>在他人面前脱粪</t>
   </si>
   <si>
     <t>粪浴</t>
@@ -1064,75 +1101,6 @@
     <t>禁言</t>
   </si>
   <si>
-    <t>捆绑或束缚方式</t>
-  </si>
-  <si>
-    <t>龟甲缚</t>
-  </si>
-  <si>
-    <t>丁字裤缚</t>
-  </si>
-  <si>
-    <t>乳缚</t>
-  </si>
-  <si>
-    <t>球形捆绑</t>
-  </si>
-  <si>
-    <t>后手缚</t>
-  </si>
-  <si>
-    <t>合掌缚</t>
-  </si>
-  <si>
-    <t>后头双手缚</t>
-  </si>
-  <si>
-    <t>肘部捆绑</t>
-  </si>
-  <si>
-    <t>铁炮缚</t>
-  </si>
-  <si>
-    <t>吊缚</t>
-  </si>
-  <si>
-    <t>海老缚</t>
-  </si>
-  <si>
-    <t>驷马缚</t>
-  </si>
-  <si>
-    <t>狸缚</t>
-  </si>
-  <si>
-    <t>猪缚</t>
-  </si>
-  <si>
-    <t>股绳</t>
-  </si>
-  <si>
-    <t>M字开腿缚</t>
-  </si>
-  <si>
-    <t>困境束缚</t>
-  </si>
-  <si>
-    <t>大字绑</t>
-  </si>
-  <si>
-    <t>自缚</t>
-  </si>
-  <si>
-    <t>头发束缚</t>
-  </si>
-  <si>
-    <t>椅子束缚</t>
-  </si>
-  <si>
-    <t>木乃伊</t>
-  </si>
-  <si>
     <t>舔舐行为</t>
   </si>
   <si>
@@ -1187,7 +1155,8 @@
     <t>昆虫爬身</t>
   </si>
   <si>
-    <t>刑罚</t>
+    <t>刑罚
+（此处指模仿但不对人造成严重伤害的行为）</t>
   </si>
   <si>
     <t>水刑</t>
@@ -1202,28 +1171,10 @@
     <t>吊刑</t>
   </si>
   <si>
-    <t>宫刑</t>
-  </si>
-  <si>
     <t>笑刑</t>
   </si>
   <si>
-    <t>腰斩</t>
-  </si>
-  <si>
-    <t>车裂</t>
-  </si>
-  <si>
-    <t>剥皮</t>
-  </si>
-  <si>
-    <t>凌迟</t>
-  </si>
-  <si>
     <t>绞刑</t>
-  </si>
-  <si>
-    <t>枭首</t>
   </si>
   <si>
     <t>烹煮</t>
@@ -1486,7 +1437,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="156">
+  <borders count="148">
     <border>
       <left/>
       <right/>
@@ -2303,65 +2254,6 @@
       <top style="thin">
         <color rgb="000000"/>
       </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin">
-        <color rgb="000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="000000"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin">
-        <color rgb="000000"/>
-      </top>
     </border>
     <border>
       <left style="thin">
@@ -2571,58 +2463,63 @@
       </bottom>
     </border>
     <border>
-      <left style="medium"/>
-      <top style="medium"/>
+      <left style="thin"/>
+      <top style="thin">
+        <color rgb="000000"/>
+      </top>
+      <bottom style="thin"/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
+      <left style="thin"/>
+      <top style="thin">
+        <color rgb="000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium">
+      <left style="thin">
+        <color rgb="000000"/>
+      </left>
+      <top style="thin">
         <color rgb="000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="000000"/>
-      </left>
       <right style="thin"/>
-      <top style="medium">
-        <color rgb="000000"/>
-      </top>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="000000"/>
-      </right>
-      <top style="medium">
+      <right style="thin"/>
+      <top style="thin">
         <color rgb="000000"/>
       </top>
+      <bottom style="thin"/>
     </border>
     <border>
-      <right style="medium"/>
-      <top style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
     </border>
     <border>
-      <right style="medium"/>
-      <top style="thin">
-        <color rgb="000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="medium">
+      <right style="thin">
         <color rgb="000000"/>
       </right>
       <top style="thin">
         <color rgb="000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
     </border>
     <border>
       <left style="medium"/>
@@ -2696,7 +2593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" horizontal="center" vertical="center"/>
@@ -2803,15 +2700,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="58" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="104" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment wrapText="false" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="108" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment wrapText="false" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="74" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment wrapText="false" horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="58" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" horizontal="center" vertical="center"/>
     </xf>
@@ -2821,25 +2709,28 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="63" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="110" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="103" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="113" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="106" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="115" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="108" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="118" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="111" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="119" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="103" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="112" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="121" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="114" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="87" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
@@ -2848,28 +2739,37 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="92" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="126" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="119" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="126" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="119" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="118" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="111" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="118" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="111" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="129" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="122" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="129" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="122" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="134" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="127" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="138" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="131" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="false" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="131" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="false" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="false" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="134" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="138" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
@@ -2878,37 +2778,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="143" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="121" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment wrapText="false" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="121" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment wrapText="false" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="146" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment wrapText="false" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="146" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment wrapText="false" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment wrapText="false" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="104" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment wrapText="false" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="108" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment wrapText="false" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="151" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment wrapText="false" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="68" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="68" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="155" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="147" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
@@ -2925,7 +2801,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3260,7 +3136,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -6884,7 +6760,7 @@
     </row>
     <row r="117">
       <c r="A117" s="22"/>
-      <c r="B117" s="17" t="s">
+      <c r="B117" s="35" t="s">
         <v>116</v>
       </c>
       <c r="C117" s="18"/>
@@ -7571,7 +7447,7 @@
       <c r="B139" s="18"/>
       <c r="C139" s="18"/>
       <c r="D139" s="17" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E139" s="19"/>
       <c r="F139" s="20"/>
@@ -7599,10 +7475,14 @@
     </row>
     <row r="140">
       <c r="A140" s="22"/>
-      <c r="B140" s="18"/>
-      <c r="C140" s="18"/>
+      <c r="B140" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C140" s="17" t="s">
+        <v>141</v>
+      </c>
       <c r="D140" s="17" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E140" s="19"/>
       <c r="F140" s="20"/>
@@ -7630,14 +7510,10 @@
     </row>
     <row r="141">
       <c r="A141" s="22"/>
-      <c r="B141" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="C141" s="17" t="s">
-        <v>141</v>
-      </c>
+      <c r="B141" s="18"/>
+      <c r="C141" s="18"/>
       <c r="D141" s="17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E141" s="19"/>
       <c r="F141" s="20"/>
@@ -7668,7 +7544,7 @@
       <c r="B142" s="18"/>
       <c r="C142" s="18"/>
       <c r="D142" s="17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E142" s="19"/>
       <c r="F142" s="20"/>
@@ -7699,7 +7575,7 @@
       <c r="B143" s="18"/>
       <c r="C143" s="18"/>
       <c r="D143" s="17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E143" s="19"/>
       <c r="F143" s="20"/>
@@ -7728,9 +7604,11 @@
     <row r="144">
       <c r="A144" s="22"/>
       <c r="B144" s="18"/>
-      <c r="C144" s="18"/>
+      <c r="C144" s="17" t="s">
+        <v>146</v>
+      </c>
       <c r="D144" s="17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E144" s="19"/>
       <c r="F144" s="20"/>
@@ -7760,7 +7638,9 @@
       <c r="A145" s="22"/>
       <c r="B145" s="18"/>
       <c r="C145" s="18"/>
-      <c r="D145" s="20"/>
+      <c r="D145" s="17" t="s">
+        <v>148</v>
+      </c>
       <c r="E145" s="19"/>
       <c r="F145" s="20"/>
       <c r="G145" s="21"/>
@@ -7789,7 +7669,9 @@
       <c r="A146" s="22"/>
       <c r="B146" s="18"/>
       <c r="C146" s="18"/>
-      <c r="D146" s="17"/>
+      <c r="D146" s="23" t="s">
+        <v>149</v>
+      </c>
       <c r="E146" s="19"/>
       <c r="F146" s="20"/>
       <c r="G146" s="21"/>
@@ -7818,10 +7700,10 @@
       <c r="A147" s="22"/>
       <c r="B147" s="18"/>
       <c r="C147" s="17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E147" s="19"/>
       <c r="F147" s="20"/>
@@ -7852,7 +7734,7 @@
       <c r="B148" s="18"/>
       <c r="C148" s="18"/>
       <c r="D148" s="17" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E148" s="19"/>
       <c r="F148" s="20"/>
@@ -7882,8 +7764,8 @@
       <c r="A149" s="22"/>
       <c r="B149" s="18"/>
       <c r="C149" s="18"/>
-      <c r="D149" s="23" t="s">
-        <v>149</v>
+      <c r="D149" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="E149" s="19"/>
       <c r="F149" s="20"/>
@@ -7912,9 +7794,11 @@
     <row r="150">
       <c r="A150" s="22"/>
       <c r="B150" s="18"/>
-      <c r="C150" s="36"/>
-      <c r="D150" s="18"/>
-      <c r="E150" s="37"/>
+      <c r="C150" s="18"/>
+      <c r="D150" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="E150" s="19"/>
       <c r="F150" s="20"/>
       <c r="G150" s="21"/>
       <c r="H150" s="4"/>
@@ -7941,9 +7825,13 @@
     <row r="151">
       <c r="A151" s="22"/>
       <c r="B151" s="18"/>
-      <c r="C151" s="36"/>
-      <c r="D151" s="18"/>
-      <c r="E151" s="37"/>
+      <c r="C151" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D151" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E151" s="19"/>
       <c r="F151" s="20"/>
       <c r="G151" s="21"/>
       <c r="H151" s="4"/>
@@ -7971,7 +7859,9 @@
       <c r="A152" s="22"/>
       <c r="B152" s="18"/>
       <c r="C152" s="18"/>
-      <c r="D152" s="38"/>
+      <c r="D152" s="17" t="s">
+        <v>157</v>
+      </c>
       <c r="E152" s="19"/>
       <c r="F152" s="20"/>
       <c r="G152" s="21"/>
@@ -7999,11 +7889,9 @@
     <row r="153">
       <c r="A153" s="22"/>
       <c r="B153" s="18"/>
-      <c r="C153" s="17" t="s">
-        <v>150</v>
-      </c>
+      <c r="C153" s="18"/>
       <c r="D153" s="17" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E153" s="19"/>
       <c r="F153" s="20"/>
@@ -8032,9 +7920,11 @@
     <row r="154">
       <c r="A154" s="22"/>
       <c r="B154" s="18"/>
-      <c r="C154" s="18"/>
+      <c r="C154" s="17" t="s">
+        <v>159</v>
+      </c>
       <c r="D154" s="17" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E154" s="19"/>
       <c r="F154" s="20"/>
@@ -8065,7 +7955,7 @@
       <c r="B155" s="18"/>
       <c r="C155" s="18"/>
       <c r="D155" s="17" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E155" s="19"/>
       <c r="F155" s="20"/>
@@ -8096,7 +7986,7 @@
       <c r="B156" s="18"/>
       <c r="C156" s="18"/>
       <c r="D156" s="17" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E156" s="19"/>
       <c r="F156" s="20"/>
@@ -8126,10 +8016,10 @@
       <c r="A157" s="22"/>
       <c r="B157" s="18"/>
       <c r="C157" s="17" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E157" s="19"/>
       <c r="F157" s="20"/>
@@ -8160,7 +8050,7 @@
       <c r="B158" s="18"/>
       <c r="C158" s="18"/>
       <c r="D158" s="17" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E158" s="19"/>
       <c r="F158" s="20"/>
@@ -8191,7 +8081,7 @@
       <c r="B159" s="18"/>
       <c r="C159" s="18"/>
       <c r="D159" s="17" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E159" s="19"/>
       <c r="F159" s="20"/>
@@ -8220,11 +8110,9 @@
     <row r="160">
       <c r="A160" s="22"/>
       <c r="B160" s="18"/>
-      <c r="C160" s="17" t="s">
-        <v>159</v>
-      </c>
+      <c r="C160" s="18"/>
       <c r="D160" s="17" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E160" s="19"/>
       <c r="F160" s="20"/>
@@ -8255,7 +8143,7 @@
       <c r="B161" s="18"/>
       <c r="C161" s="18"/>
       <c r="D161" s="17" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="E161" s="19"/>
       <c r="F161" s="20"/>
@@ -8286,7 +8174,7 @@
       <c r="B162" s="18"/>
       <c r="C162" s="18"/>
       <c r="D162" s="17" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E162" s="19"/>
       <c r="F162" s="20"/>
@@ -8316,7 +8204,9 @@
       <c r="A163" s="22"/>
       <c r="B163" s="18"/>
       <c r="C163" s="18"/>
-      <c r="D163" s="20"/>
+      <c r="D163" s="17" t="s">
+        <v>170</v>
+      </c>
       <c r="E163" s="19"/>
       <c r="F163" s="20"/>
       <c r="G163" s="21"/>
@@ -8344,11 +8234,9 @@
     <row r="164">
       <c r="A164" s="22"/>
       <c r="B164" s="18"/>
-      <c r="C164" s="17" t="s">
-        <v>163</v>
-      </c>
+      <c r="C164" s="18"/>
       <c r="D164" s="17" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E164" s="19"/>
       <c r="F164" s="20"/>
@@ -8377,9 +8265,11 @@
     <row r="165">
       <c r="A165" s="22"/>
       <c r="B165" s="18"/>
-      <c r="C165" s="18"/>
+      <c r="C165" s="17" t="s">
+        <v>172</v>
+      </c>
       <c r="D165" s="17" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E165" s="19"/>
       <c r="F165" s="20"/>
@@ -8410,7 +8300,7 @@
       <c r="B166" s="18"/>
       <c r="C166" s="18"/>
       <c r="D166" s="17" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E166" s="19"/>
       <c r="F166" s="20"/>
@@ -8441,7 +8331,7 @@
       <c r="B167" s="18"/>
       <c r="C167" s="18"/>
       <c r="D167" s="17" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E167" s="19"/>
       <c r="F167" s="20"/>
@@ -8472,7 +8362,7 @@
       <c r="B168" s="18"/>
       <c r="C168" s="18"/>
       <c r="D168" s="17" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E168" s="19"/>
       <c r="F168" s="20"/>
@@ -8501,9 +8391,11 @@
     <row r="169">
       <c r="A169" s="22"/>
       <c r="B169" s="18"/>
-      <c r="C169" s="18"/>
+      <c r="C169" s="17" t="s">
+        <v>177</v>
+      </c>
       <c r="D169" s="17" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E169" s="19"/>
       <c r="F169" s="20"/>
@@ -8534,7 +8426,7 @@
       <c r="B170" s="18"/>
       <c r="C170" s="18"/>
       <c r="D170" s="17" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E170" s="19"/>
       <c r="F170" s="20"/>
@@ -8565,7 +8457,7 @@
       <c r="B171" s="18"/>
       <c r="C171" s="18"/>
       <c r="D171" s="17" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E171" s="19"/>
       <c r="F171" s="20"/>
@@ -8595,7 +8487,9 @@
       <c r="A172" s="22"/>
       <c r="B172" s="18"/>
       <c r="C172" s="18"/>
-      <c r="D172" s="20"/>
+      <c r="D172" s="17" t="s">
+        <v>181</v>
+      </c>
       <c r="E172" s="19"/>
       <c r="F172" s="20"/>
       <c r="G172" s="21"/>
@@ -8623,8 +8517,10 @@
     <row r="173">
       <c r="A173" s="22"/>
       <c r="B173" s="18"/>
-      <c r="C173" s="20"/>
-      <c r="D173" s="20"/>
+      <c r="C173" s="18"/>
+      <c r="D173" s="17" t="s">
+        <v>182</v>
+      </c>
       <c r="E173" s="19"/>
       <c r="F173" s="20"/>
       <c r="G173" s="21"/>
@@ -8651,16 +8547,18 @@
     </row>
     <row r="174">
       <c r="A174" s="22"/>
-      <c r="B174" s="18"/>
+      <c r="B174" s="17" t="s">
+        <v>183</v>
+      </c>
       <c r="C174" s="17" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E174" s="19"/>
-      <c r="F174" s="20"/>
-      <c r="G174" s="21"/>
+        <v>184</v>
+      </c>
+      <c r="E174" s="36"/>
+      <c r="F174" s="37"/>
+      <c r="G174" s="38"/>
       <c r="H174" s="4"/>
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
@@ -8687,11 +8585,11 @@
       <c r="B175" s="18"/>
       <c r="C175" s="18"/>
       <c r="D175" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="E175" s="19"/>
-      <c r="F175" s="20"/>
-      <c r="G175" s="21"/>
+        <v>185</v>
+      </c>
+      <c r="E175" s="36"/>
+      <c r="F175" s="37"/>
+      <c r="G175" s="38"/>
       <c r="H175" s="4"/>
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
@@ -8718,11 +8616,11 @@
       <c r="B176" s="18"/>
       <c r="C176" s="18"/>
       <c r="D176" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="E176" s="19"/>
-      <c r="F176" s="20"/>
-      <c r="G176" s="21"/>
+        <v>186</v>
+      </c>
+      <c r="E176" s="36"/>
+      <c r="F176" s="37"/>
+      <c r="G176" s="38"/>
       <c r="H176" s="4"/>
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
@@ -8748,10 +8646,12 @@
       <c r="A177" s="22"/>
       <c r="B177" s="18"/>
       <c r="C177" s="18"/>
-      <c r="D177" s="20"/>
-      <c r="E177" s="19"/>
-      <c r="F177" s="20"/>
-      <c r="G177" s="21"/>
+      <c r="D177" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E177" s="36"/>
+      <c r="F177" s="37"/>
+      <c r="G177" s="38"/>
       <c r="H177" s="4"/>
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
@@ -8776,15 +8676,13 @@
     <row r="178">
       <c r="A178" s="22"/>
       <c r="B178" s="18"/>
-      <c r="C178" s="17" t="s">
-        <v>176</v>
-      </c>
+      <c r="C178" s="18"/>
       <c r="D178" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E178" s="19"/>
-      <c r="F178" s="20"/>
-      <c r="G178" s="21"/>
+        <v>188</v>
+      </c>
+      <c r="E178" s="36"/>
+      <c r="F178" s="37"/>
+      <c r="G178" s="38"/>
       <c r="H178" s="4"/>
       <c r="I178" s="4"/>
       <c r="J178" s="4"/>
@@ -8811,11 +8709,11 @@
       <c r="B179" s="18"/>
       <c r="C179" s="18"/>
       <c r="D179" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="E179" s="19"/>
-      <c r="F179" s="20"/>
-      <c r="G179" s="21"/>
+        <v>189</v>
+      </c>
+      <c r="E179" s="36"/>
+      <c r="F179" s="37"/>
+      <c r="G179" s="38"/>
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
@@ -8842,11 +8740,11 @@
       <c r="B180" s="18"/>
       <c r="C180" s="18"/>
       <c r="D180" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="E180" s="19"/>
-      <c r="F180" s="20"/>
-      <c r="G180" s="21"/>
+        <v>190</v>
+      </c>
+      <c r="E180" s="36"/>
+      <c r="F180" s="37"/>
+      <c r="G180" s="38"/>
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
       <c r="J180" s="4"/>
@@ -8873,11 +8771,11 @@
       <c r="B181" s="18"/>
       <c r="C181" s="18"/>
       <c r="D181" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="E181" s="19"/>
-      <c r="F181" s="20"/>
-      <c r="G181" s="21"/>
+        <v>191</v>
+      </c>
+      <c r="E181" s="36"/>
+      <c r="F181" s="37"/>
+      <c r="G181" s="38"/>
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
@@ -8904,11 +8802,11 @@
       <c r="B182" s="18"/>
       <c r="C182" s="18"/>
       <c r="D182" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E182" s="19"/>
-      <c r="F182" s="20"/>
-      <c r="G182" s="21"/>
+        <v>192</v>
+      </c>
+      <c r="E182" s="36"/>
+      <c r="F182" s="37"/>
+      <c r="G182" s="38"/>
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
       <c r="J182" s="4"/>
@@ -8933,11 +8831,15 @@
     <row r="183">
       <c r="A183" s="22"/>
       <c r="B183" s="18"/>
-      <c r="C183" s="18"/>
-      <c r="D183" s="20"/>
-      <c r="E183" s="19"/>
-      <c r="F183" s="20"/>
-      <c r="G183" s="21"/>
+      <c r="C183" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D183" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E183" s="36"/>
+      <c r="F183" s="37"/>
+      <c r="G183" s="38"/>
       <c r="H183" s="4"/>
       <c r="I183" s="4"/>
       <c r="J183" s="4"/>
@@ -8962,11 +8864,13 @@
     <row r="184">
       <c r="A184" s="22"/>
       <c r="B184" s="18"/>
-      <c r="C184" s="20"/>
-      <c r="D184" s="20"/>
-      <c r="E184" s="19"/>
-      <c r="F184" s="20"/>
-      <c r="G184" s="21"/>
+      <c r="C184" s="18"/>
+      <c r="D184" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="E184" s="36"/>
+      <c r="F184" s="37"/>
+      <c r="G184" s="38"/>
       <c r="H184" s="4"/>
       <c r="I184" s="4"/>
       <c r="J184" s="4"/>
@@ -8991,11 +8895,15 @@
     <row r="185">
       <c r="A185" s="22"/>
       <c r="B185" s="18"/>
-      <c r="C185" s="20"/>
-      <c r="D185" s="20"/>
-      <c r="E185" s="19"/>
-      <c r="F185" s="20"/>
-      <c r="G185" s="21"/>
+      <c r="C185" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D185" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E185" s="36"/>
+      <c r="F185" s="37"/>
+      <c r="G185" s="38"/>
       <c r="H185" s="4"/>
       <c r="I185" s="4"/>
       <c r="J185" s="4"/>
@@ -9019,18 +8927,14 @@
     </row>
     <row r="186">
       <c r="A186" s="22"/>
-      <c r="B186" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="C186" s="17" t="s">
-        <v>141</v>
-      </c>
+      <c r="B186" s="18"/>
+      <c r="C186" s="8"/>
       <c r="D186" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="E186" s="39"/>
-      <c r="F186" s="40"/>
-      <c r="G186" s="41"/>
+        <v>198</v>
+      </c>
+      <c r="E186" s="36"/>
+      <c r="F186" s="37"/>
+      <c r="G186" s="38"/>
       <c r="H186" s="4"/>
       <c r="I186" s="4"/>
       <c r="J186" s="4"/>
@@ -9055,13 +8959,13 @@
     <row r="187">
       <c r="A187" s="22"/>
       <c r="B187" s="18"/>
-      <c r="C187" s="18"/>
+      <c r="C187" s="8"/>
       <c r="D187" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="E187" s="39"/>
-      <c r="F187" s="40"/>
-      <c r="G187" s="41"/>
+        <v>199</v>
+      </c>
+      <c r="E187" s="36"/>
+      <c r="F187" s="37"/>
+      <c r="G187" s="38"/>
       <c r="H187" s="4"/>
       <c r="I187" s="4"/>
       <c r="J187" s="4"/>
@@ -9086,13 +8990,13 @@
     <row r="188">
       <c r="A188" s="22"/>
       <c r="B188" s="18"/>
-      <c r="C188" s="18"/>
+      <c r="C188" s="8"/>
       <c r="D188" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="E188" s="39"/>
-      <c r="F188" s="40"/>
-      <c r="G188" s="41"/>
+        <v>200</v>
+      </c>
+      <c r="E188" s="36"/>
+      <c r="F188" s="37"/>
+      <c r="G188" s="38"/>
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
       <c r="J188" s="4"/>
@@ -9117,13 +9021,13 @@
     <row r="189">
       <c r="A189" s="22"/>
       <c r="B189" s="18"/>
-      <c r="C189" s="18"/>
+      <c r="C189" s="8"/>
       <c r="D189" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="E189" s="39"/>
-      <c r="F189" s="40"/>
-      <c r="G189" s="41"/>
+        <v>201</v>
+      </c>
+      <c r="E189" s="36"/>
+      <c r="F189" s="37"/>
+      <c r="G189" s="38"/>
       <c r="H189" s="4"/>
       <c r="I189" s="4"/>
       <c r="J189" s="4"/>
@@ -9148,13 +9052,13 @@
     <row r="190">
       <c r="A190" s="22"/>
       <c r="B190" s="18"/>
-      <c r="C190" s="18"/>
+      <c r="C190" s="8"/>
       <c r="D190" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="E190" s="39"/>
-      <c r="F190" s="40"/>
-      <c r="G190" s="41"/>
+        <v>202</v>
+      </c>
+      <c r="E190" s="36"/>
+      <c r="F190" s="37"/>
+      <c r="G190" s="38"/>
       <c r="H190" s="4"/>
       <c r="I190" s="4"/>
       <c r="J190" s="4"/>
@@ -9179,13 +9083,13 @@
     <row r="191">
       <c r="A191" s="22"/>
       <c r="B191" s="18"/>
-      <c r="C191" s="18"/>
+      <c r="C191" s="8"/>
       <c r="D191" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="E191" s="39"/>
-      <c r="F191" s="40"/>
-      <c r="G191" s="41"/>
+        <v>203</v>
+      </c>
+      <c r="E191" s="36"/>
+      <c r="F191" s="37"/>
+      <c r="G191" s="38"/>
       <c r="H191" s="4"/>
       <c r="I191" s="4"/>
       <c r="J191" s="4"/>
@@ -9210,13 +9114,13 @@
     <row r="192">
       <c r="A192" s="22"/>
       <c r="B192" s="18"/>
-      <c r="C192" s="18"/>
+      <c r="C192" s="8"/>
       <c r="D192" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="E192" s="39"/>
-      <c r="F192" s="40"/>
-      <c r="G192" s="41"/>
+        <v>204</v>
+      </c>
+      <c r="E192" s="36"/>
+      <c r="F192" s="37"/>
+      <c r="G192" s="38"/>
       <c r="H192" s="4"/>
       <c r="I192" s="4"/>
       <c r="J192" s="4"/>
@@ -9241,13 +9145,13 @@
     <row r="193">
       <c r="A193" s="22"/>
       <c r="B193" s="18"/>
-      <c r="C193" s="18"/>
+      <c r="C193" s="8"/>
       <c r="D193" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="E193" s="39"/>
-      <c r="F193" s="40"/>
-      <c r="G193" s="41"/>
+        <v>205</v>
+      </c>
+      <c r="E193" s="36"/>
+      <c r="F193" s="37"/>
+      <c r="G193" s="38"/>
       <c r="H193" s="4"/>
       <c r="I193" s="4"/>
       <c r="J193" s="4"/>
@@ -9272,13 +9176,13 @@
     <row r="194">
       <c r="A194" s="22"/>
       <c r="B194" s="18"/>
-      <c r="C194" s="18"/>
+      <c r="C194" s="8"/>
       <c r="D194" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="E194" s="39"/>
-      <c r="F194" s="40"/>
-      <c r="G194" s="41"/>
+        <v>206</v>
+      </c>
+      <c r="E194" s="36"/>
+      <c r="F194" s="37"/>
+      <c r="G194" s="38"/>
       <c r="H194" s="4"/>
       <c r="I194" s="4"/>
       <c r="J194" s="4"/>
@@ -9303,11 +9207,13 @@
     <row r="195">
       <c r="A195" s="22"/>
       <c r="B195" s="18"/>
-      <c r="C195" s="18"/>
-      <c r="D195" s="17"/>
-      <c r="E195" s="39"/>
-      <c r="F195" s="40"/>
-      <c r="G195" s="41"/>
+      <c r="C195" s="24"/>
+      <c r="D195" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E195" s="19"/>
+      <c r="F195" s="20"/>
+      <c r="G195" s="21"/>
       <c r="H195" s="4"/>
       <c r="I195" s="4"/>
       <c r="J195" s="4"/>
@@ -9332,11 +9238,15 @@
     <row r="196">
       <c r="A196" s="22"/>
       <c r="B196" s="18"/>
-      <c r="C196" s="18"/>
-      <c r="D196" s="17"/>
-      <c r="E196" s="39"/>
-      <c r="F196" s="40"/>
-      <c r="G196" s="41"/>
+      <c r="C196" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="D196" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="E196" s="19"/>
+      <c r="F196" s="20"/>
+      <c r="G196" s="21"/>
       <c r="H196" s="4"/>
       <c r="I196" s="4"/>
       <c r="J196" s="4"/>
@@ -9362,10 +9272,10 @@
       <c r="A197" s="22"/>
       <c r="B197" s="18"/>
       <c r="C197" s="18"/>
-      <c r="D197" s="17"/>
-      <c r="E197" s="39"/>
-      <c r="F197" s="40"/>
-      <c r="G197" s="41"/>
+      <c r="D197" s="20"/>
+      <c r="E197" s="19"/>
+      <c r="F197" s="20"/>
+      <c r="G197" s="21"/>
       <c r="H197" s="4"/>
       <c r="I197" s="4"/>
       <c r="J197" s="4"/>
@@ -9390,11 +9300,15 @@
     <row r="198">
       <c r="A198" s="22"/>
       <c r="B198" s="18"/>
-      <c r="C198" s="18"/>
-      <c r="D198" s="17"/>
-      <c r="E198" s="39"/>
-      <c r="F198" s="40"/>
-      <c r="G198" s="41"/>
+      <c r="C198" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D198" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E198" s="19"/>
+      <c r="F198" s="20"/>
+      <c r="G198" s="21"/>
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
       <c r="J198" s="4"/>
@@ -9419,15 +9333,13 @@
     <row r="199">
       <c r="A199" s="22"/>
       <c r="B199" s="18"/>
-      <c r="C199" s="17" t="s">
-        <v>192</v>
-      </c>
+      <c r="C199" s="18"/>
       <c r="D199" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E199" s="39"/>
-      <c r="F199" s="40"/>
-      <c r="G199" s="41"/>
+        <v>212</v>
+      </c>
+      <c r="E199" s="19"/>
+      <c r="F199" s="20"/>
+      <c r="G199" s="21"/>
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
       <c r="J199" s="4"/>
@@ -9452,13 +9364,15 @@
     <row r="200">
       <c r="A200" s="22"/>
       <c r="B200" s="18"/>
-      <c r="C200" s="18"/>
+      <c r="C200" s="17" t="s">
+        <v>213</v>
+      </c>
       <c r="D200" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="E200" s="39"/>
-      <c r="F200" s="40"/>
-      <c r="G200" s="41"/>
+        <v>214</v>
+      </c>
+      <c r="E200" s="19"/>
+      <c r="F200" s="20"/>
+      <c r="G200" s="21"/>
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
       <c r="J200" s="4"/>
@@ -9484,10 +9398,12 @@
       <c r="A201" s="22"/>
       <c r="B201" s="18"/>
       <c r="C201" s="18"/>
-      <c r="D201" s="17"/>
-      <c r="E201" s="39"/>
-      <c r="F201" s="40"/>
-      <c r="G201" s="41"/>
+      <c r="D201" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E201" s="19"/>
+      <c r="F201" s="20"/>
+      <c r="G201" s="21"/>
       <c r="H201" s="4"/>
       <c r="I201" s="4"/>
       <c r="J201" s="4"/>
@@ -9512,15 +9428,15 @@
     <row r="202">
       <c r="A202" s="22"/>
       <c r="B202" s="18"/>
-      <c r="C202" s="23" t="s">
-        <v>195</v>
+      <c r="C202" s="17" t="s">
+        <v>216</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E202" s="39"/>
-      <c r="F202" s="40"/>
-      <c r="G202" s="41"/>
+        <v>217</v>
+      </c>
+      <c r="E202" s="19"/>
+      <c r="F202" s="20"/>
+      <c r="G202" s="21"/>
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
       <c r="J202" s="4"/>
@@ -9545,13 +9461,13 @@
     <row r="203">
       <c r="A203" s="22"/>
       <c r="B203" s="18"/>
-      <c r="C203" s="8"/>
+      <c r="C203" s="18"/>
       <c r="D203" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E203" s="39"/>
-      <c r="F203" s="40"/>
-      <c r="G203" s="41"/>
+        <v>218</v>
+      </c>
+      <c r="E203" s="19"/>
+      <c r="F203" s="20"/>
+      <c r="G203" s="21"/>
       <c r="H203" s="4"/>
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
@@ -9576,13 +9492,15 @@
     <row r="204">
       <c r="A204" s="22"/>
       <c r="B204" s="18"/>
-      <c r="C204" s="8"/>
+      <c r="C204" s="17" t="s">
+        <v>219</v>
+      </c>
       <c r="D204" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="E204" s="39"/>
-      <c r="F204" s="40"/>
-      <c r="G204" s="41"/>
+        <v>220</v>
+      </c>
+      <c r="E204" s="19"/>
+      <c r="F204" s="20"/>
+      <c r="G204" s="21"/>
       <c r="H204" s="4"/>
       <c r="I204" s="4"/>
       <c r="J204" s="4"/>
@@ -9607,13 +9525,13 @@
     <row r="205">
       <c r="A205" s="22"/>
       <c r="B205" s="18"/>
-      <c r="C205" s="8"/>
+      <c r="C205" s="18"/>
       <c r="D205" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="E205" s="39"/>
-      <c r="F205" s="40"/>
-      <c r="G205" s="41"/>
+        <v>221</v>
+      </c>
+      <c r="E205" s="19"/>
+      <c r="F205" s="20"/>
+      <c r="G205" s="21"/>
       <c r="H205" s="4"/>
       <c r="I205" s="4"/>
       <c r="J205" s="4"/>
@@ -9638,13 +9556,13 @@
     <row r="206">
       <c r="A206" s="22"/>
       <c r="B206" s="18"/>
-      <c r="C206" s="8"/>
+      <c r="C206" s="18"/>
       <c r="D206" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="E206" s="39"/>
-      <c r="F206" s="40"/>
-      <c r="G206" s="41"/>
+        <v>222</v>
+      </c>
+      <c r="E206" s="19"/>
+      <c r="F206" s="20"/>
+      <c r="G206" s="21"/>
       <c r="H206" s="4"/>
       <c r="I206" s="4"/>
       <c r="J206" s="4"/>
@@ -9669,13 +9587,13 @@
     <row r="207">
       <c r="A207" s="22"/>
       <c r="B207" s="18"/>
-      <c r="C207" s="8"/>
+      <c r="C207" s="18"/>
       <c r="D207" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="E207" s="39"/>
-      <c r="F207" s="40"/>
-      <c r="G207" s="41"/>
+        <v>223</v>
+      </c>
+      <c r="E207" s="19"/>
+      <c r="F207" s="20"/>
+      <c r="G207" s="21"/>
       <c r="H207" s="4"/>
       <c r="I207" s="4"/>
       <c r="J207" s="4"/>
@@ -9700,13 +9618,13 @@
     <row r="208">
       <c r="A208" s="22"/>
       <c r="B208" s="18"/>
-      <c r="C208" s="8"/>
+      <c r="C208" s="18"/>
       <c r="D208" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="E208" s="39"/>
-      <c r="F208" s="40"/>
-      <c r="G208" s="41"/>
+        <v>224</v>
+      </c>
+      <c r="E208" s="19"/>
+      <c r="F208" s="20"/>
+      <c r="G208" s="21"/>
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
       <c r="J208" s="4"/>
@@ -9730,14 +9648,18 @@
     </row>
     <row r="209">
       <c r="A209" s="22"/>
-      <c r="B209" s="18"/>
-      <c r="C209" s="8"/>
+      <c r="B209" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C209" s="23" t="s">
+        <v>226</v>
+      </c>
       <c r="D209" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="E209" s="39"/>
-      <c r="F209" s="40"/>
-      <c r="G209" s="41"/>
+        <v>227</v>
+      </c>
+      <c r="E209" s="19"/>
+      <c r="F209" s="20"/>
+      <c r="G209" s="21"/>
       <c r="H209" s="4"/>
       <c r="I209" s="4"/>
       <c r="J209" s="4"/>
@@ -9761,14 +9683,14 @@
     </row>
     <row r="210">
       <c r="A210" s="22"/>
-      <c r="B210" s="18"/>
+      <c r="B210" s="8"/>
       <c r="C210" s="8"/>
       <c r="D210" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="E210" s="39"/>
-      <c r="F210" s="40"/>
-      <c r="G210" s="41"/>
+        <v>228</v>
+      </c>
+      <c r="E210" s="19"/>
+      <c r="F210" s="20"/>
+      <c r="G210" s="21"/>
       <c r="H210" s="4"/>
       <c r="I210" s="4"/>
       <c r="J210" s="4"/>
@@ -9792,14 +9714,16 @@
     </row>
     <row r="211">
       <c r="A211" s="22"/>
-      <c r="B211" s="18"/>
-      <c r="C211" s="8"/>
+      <c r="B211" s="8"/>
+      <c r="C211" s="23" t="s">
+        <v>229</v>
+      </c>
       <c r="D211" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E211" s="39"/>
-      <c r="F211" s="40"/>
-      <c r="G211" s="41"/>
+        <v>230</v>
+      </c>
+      <c r="E211" s="19"/>
+      <c r="F211" s="20"/>
+      <c r="G211" s="21"/>
       <c r="H211" s="4"/>
       <c r="I211" s="4"/>
       <c r="J211" s="4"/>
@@ -9823,10 +9747,10 @@
     </row>
     <row r="212">
       <c r="A212" s="22"/>
-      <c r="B212" s="18"/>
-      <c r="C212" s="24"/>
+      <c r="B212" s="8"/>
+      <c r="C212" s="8"/>
       <c r="D212" s="17" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="E212" s="19"/>
       <c r="F212" s="20"/>
@@ -9854,12 +9778,10 @@
     </row>
     <row r="213">
       <c r="A213" s="22"/>
-      <c r="B213" s="18"/>
-      <c r="C213" s="17" t="s">
-        <v>207</v>
-      </c>
+      <c r="B213" s="8"/>
+      <c r="C213" s="8"/>
       <c r="D213" s="17" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="E213" s="19"/>
       <c r="F213" s="20"/>
@@ -9887,9 +9809,13 @@
     </row>
     <row r="214">
       <c r="A214" s="22"/>
-      <c r="B214" s="18"/>
-      <c r="C214" s="18"/>
-      <c r="D214" s="20"/>
+      <c r="B214" s="8"/>
+      <c r="C214" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D214" s="17" t="s">
+        <v>233</v>
+      </c>
       <c r="E214" s="19"/>
       <c r="F214" s="20"/>
       <c r="G214" s="21"/>
@@ -9916,9 +9842,11 @@
     </row>
     <row r="215">
       <c r="A215" s="22"/>
-      <c r="B215" s="18"/>
-      <c r="C215" s="18"/>
-      <c r="D215" s="20"/>
+      <c r="B215" s="8"/>
+      <c r="C215" s="8"/>
+      <c r="D215" s="17" t="s">
+        <v>234</v>
+      </c>
       <c r="E215" s="19"/>
       <c r="F215" s="20"/>
       <c r="G215" s="21"/>
@@ -9945,12 +9873,12 @@
     </row>
     <row r="216">
       <c r="A216" s="22"/>
-      <c r="B216" s="18"/>
-      <c r="C216" s="17" t="s">
-        <v>209</v>
-      </c>
+      <c r="B216" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C216" s="40"/>
       <c r="D216" s="17" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="E216" s="19"/>
       <c r="F216" s="20"/>
@@ -9978,11 +9906,9 @@
     </row>
     <row r="217">
       <c r="A217" s="22"/>
-      <c r="B217" s="18"/>
-      <c r="C217" s="18"/>
-      <c r="D217" s="17" t="s">
-        <v>211</v>
-      </c>
+      <c r="B217" s="41"/>
+      <c r="C217" s="42"/>
+      <c r="D217" s="20"/>
       <c r="E217" s="19"/>
       <c r="F217" s="20"/>
       <c r="G217" s="21"/>
@@ -10008,14 +9934,22 @@
       <c r="AA217" s="4"/>
     </row>
     <row r="218">
-      <c r="A218" s="22"/>
-      <c r="B218" s="18"/>
-      <c r="C218" s="18"/>
-      <c r="D218" s="20"/>
-      <c r="E218" s="19"/>
-      <c r="F218" s="20"/>
-      <c r="G218" s="21"/>
-      <c r="H218" s="4"/>
+      <c r="A218" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="B218" s="14"/>
+      <c r="C218" s="12"/>
+      <c r="D218" s="12"/>
+      <c r="E218" s="13"/>
+      <c r="F218" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="G218" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="H218" s="15" t="s">
+        <v>239</v>
+      </c>
       <c r="I218" s="4"/>
       <c r="J218" s="4"/>
       <c r="K218" s="4"/>
@@ -10038,17 +9972,19 @@
     </row>
     <row r="219">
       <c r="A219" s="22"/>
-      <c r="B219" s="18"/>
+      <c r="B219" s="17" t="s">
+        <v>240</v>
+      </c>
       <c r="C219" s="17" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="E219" s="19"/>
       <c r="F219" s="20"/>
-      <c r="G219" s="21"/>
-      <c r="H219" s="4"/>
+      <c r="G219" s="20"/>
+      <c r="H219" s="21"/>
       <c r="I219" s="4"/>
       <c r="J219" s="4"/>
       <c r="K219" s="4"/>
@@ -10074,12 +10010,12 @@
       <c r="B220" s="18"/>
       <c r="C220" s="18"/>
       <c r="D220" s="17" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="E220" s="19"/>
       <c r="F220" s="20"/>
-      <c r="G220" s="21"/>
-      <c r="H220" s="4"/>
+      <c r="G220" s="20"/>
+      <c r="H220" s="21"/>
       <c r="I220" s="4"/>
       <c r="J220" s="4"/>
       <c r="K220" s="4"/>
@@ -10107,8 +10043,8 @@
       <c r="D221" s="20"/>
       <c r="E221" s="19"/>
       <c r="F221" s="20"/>
-      <c r="G221" s="21"/>
-      <c r="H221" s="4"/>
+      <c r="G221" s="20"/>
+      <c r="H221" s="21"/>
       <c r="I221" s="4"/>
       <c r="J221" s="4"/>
       <c r="K221" s="4"/>
@@ -10133,15 +10069,15 @@
       <c r="A222" s="22"/>
       <c r="B222" s="18"/>
       <c r="C222" s="17" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="E222" s="19"/>
       <c r="F222" s="20"/>
-      <c r="G222" s="21"/>
-      <c r="H222" s="4"/>
+      <c r="G222" s="20"/>
+      <c r="H222" s="21"/>
       <c r="I222" s="4"/>
       <c r="J222" s="4"/>
       <c r="K222" s="4"/>
@@ -10167,12 +10103,12 @@
       <c r="B223" s="18"/>
       <c r="C223" s="18"/>
       <c r="D223" s="17" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="E223" s="19"/>
       <c r="F223" s="20"/>
-      <c r="G223" s="21"/>
-      <c r="H223" s="4"/>
+      <c r="G223" s="20"/>
+      <c r="H223" s="21"/>
       <c r="I223" s="4"/>
       <c r="J223" s="4"/>
       <c r="K223" s="4"/>
@@ -10196,12 +10132,16 @@
     <row r="224">
       <c r="A224" s="22"/>
       <c r="B224" s="18"/>
-      <c r="C224" s="18"/>
-      <c r="D224" s="20"/>
+      <c r="C224" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="D224" s="17" t="s">
+        <v>248</v>
+      </c>
       <c r="E224" s="19"/>
       <c r="F224" s="20"/>
-      <c r="G224" s="21"/>
-      <c r="H224" s="4"/>
+      <c r="G224" s="20"/>
+      <c r="H224" s="21"/>
       <c r="I224" s="4"/>
       <c r="J224" s="4"/>
       <c r="K224" s="4"/>
@@ -10225,16 +10165,12 @@
     <row r="225">
       <c r="A225" s="22"/>
       <c r="B225" s="18"/>
-      <c r="C225" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="D225" s="17" t="s">
-        <v>219</v>
-      </c>
+      <c r="C225" s="18"/>
+      <c r="D225" s="20"/>
       <c r="E225" s="19"/>
       <c r="F225" s="20"/>
-      <c r="G225" s="21"/>
-      <c r="H225" s="4"/>
+      <c r="G225" s="20"/>
+      <c r="H225" s="21"/>
       <c r="I225" s="4"/>
       <c r="J225" s="4"/>
       <c r="K225" s="4"/>
@@ -10258,14 +10194,16 @@
     <row r="226">
       <c r="A226" s="22"/>
       <c r="B226" s="18"/>
-      <c r="C226" s="18"/>
+      <c r="C226" s="17" t="s">
+        <v>249</v>
+      </c>
       <c r="D226" s="17" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="E226" s="19"/>
       <c r="F226" s="20"/>
-      <c r="G226" s="21"/>
-      <c r="H226" s="4"/>
+      <c r="G226" s="20"/>
+      <c r="H226" s="21"/>
       <c r="I226" s="4"/>
       <c r="J226" s="4"/>
       <c r="K226" s="4"/>
@@ -10291,12 +10229,12 @@
       <c r="B227" s="18"/>
       <c r="C227" s="18"/>
       <c r="D227" s="17" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="E227" s="19"/>
       <c r="F227" s="20"/>
-      <c r="G227" s="21"/>
-      <c r="H227" s="4"/>
+      <c r="G227" s="20"/>
+      <c r="H227" s="21"/>
       <c r="I227" s="4"/>
       <c r="J227" s="4"/>
       <c r="K227" s="4"/>
@@ -10322,12 +10260,12 @@
       <c r="B228" s="18"/>
       <c r="C228" s="18"/>
       <c r="D228" s="17" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="E228" s="19"/>
       <c r="F228" s="20"/>
-      <c r="G228" s="21"/>
-      <c r="H228" s="4"/>
+      <c r="G228" s="20"/>
+      <c r="H228" s="21"/>
       <c r="I228" s="4"/>
       <c r="J228" s="4"/>
       <c r="K228" s="4"/>
@@ -10353,12 +10291,12 @@
       <c r="B229" s="18"/>
       <c r="C229" s="18"/>
       <c r="D229" s="17" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="E229" s="19"/>
       <c r="F229" s="20"/>
-      <c r="G229" s="21"/>
-      <c r="H229" s="4"/>
+      <c r="G229" s="20"/>
+      <c r="H229" s="21"/>
       <c r="I229" s="4"/>
       <c r="J229" s="4"/>
       <c r="K229" s="4"/>
@@ -10382,12 +10320,16 @@
     <row r="230">
       <c r="A230" s="22"/>
       <c r="B230" s="18"/>
-      <c r="C230" s="18"/>
-      <c r="D230" s="20"/>
+      <c r="C230" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D230" s="17" t="s">
+        <v>254</v>
+      </c>
       <c r="E230" s="19"/>
       <c r="F230" s="20"/>
-      <c r="G230" s="21"/>
-      <c r="H230" s="4"/>
+      <c r="G230" s="20"/>
+      <c r="H230" s="21"/>
       <c r="I230" s="4"/>
       <c r="J230" s="4"/>
       <c r="K230" s="4"/>
@@ -10412,11 +10354,13 @@
       <c r="A231" s="22"/>
       <c r="B231" s="18"/>
       <c r="C231" s="18"/>
-      <c r="D231" s="20"/>
+      <c r="D231" s="17" t="s">
+        <v>255</v>
+      </c>
       <c r="E231" s="19"/>
       <c r="F231" s="20"/>
-      <c r="G231" s="21"/>
-      <c r="H231" s="4"/>
+      <c r="G231" s="20"/>
+      <c r="H231" s="21"/>
       <c r="I231" s="4"/>
       <c r="J231" s="4"/>
       <c r="K231" s="4"/>
@@ -10439,19 +10383,15 @@
     </row>
     <row r="232">
       <c r="A232" s="22"/>
-      <c r="B232" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="C232" s="23" t="s">
-        <v>225</v>
-      </c>
+      <c r="B232" s="18"/>
+      <c r="C232" s="18"/>
       <c r="D232" s="17" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="E232" s="19"/>
       <c r="F232" s="20"/>
-      <c r="G232" s="21"/>
-      <c r="H232" s="4"/>
+      <c r="G232" s="20"/>
+      <c r="H232" s="21"/>
       <c r="I232" s="4"/>
       <c r="J232" s="4"/>
       <c r="K232" s="4"/>
@@ -10474,15 +10414,17 @@
     </row>
     <row r="233">
       <c r="A233" s="22"/>
-      <c r="B233" s="8"/>
-      <c r="C233" s="8"/>
+      <c r="B233" s="18"/>
+      <c r="C233" s="17" t="s">
+        <v>257</v>
+      </c>
       <c r="D233" s="17" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="E233" s="19"/>
       <c r="F233" s="20"/>
-      <c r="G233" s="21"/>
-      <c r="H233" s="4"/>
+      <c r="G233" s="20"/>
+      <c r="H233" s="21"/>
       <c r="I233" s="4"/>
       <c r="J233" s="4"/>
       <c r="K233" s="4"/>
@@ -10505,13 +10447,15 @@
     </row>
     <row r="234">
       <c r="A234" s="22"/>
-      <c r="B234" s="8"/>
-      <c r="C234" s="24"/>
-      <c r="D234" s="20"/>
+      <c r="B234" s="18"/>
+      <c r="C234" s="18"/>
+      <c r="D234" s="17" t="s">
+        <v>259</v>
+      </c>
       <c r="E234" s="19"/>
       <c r="F234" s="20"/>
-      <c r="G234" s="21"/>
-      <c r="H234" s="4"/>
+      <c r="G234" s="20"/>
+      <c r="H234" s="21"/>
       <c r="I234" s="4"/>
       <c r="J234" s="4"/>
       <c r="K234" s="4"/>
@@ -10534,15 +10478,13 @@
     </row>
     <row r="235">
       <c r="A235" s="22"/>
-      <c r="B235" s="8"/>
-      <c r="C235" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="D235" s="20"/>
+      <c r="B235" s="18"/>
+      <c r="C235" s="18"/>
+      <c r="D235" s="17"/>
       <c r="E235" s="19"/>
       <c r="F235" s="20"/>
-      <c r="G235" s="21"/>
-      <c r="H235" s="4"/>
+      <c r="G235" s="20"/>
+      <c r="H235" s="21"/>
       <c r="I235" s="4"/>
       <c r="J235" s="4"/>
       <c r="K235" s="4"/>
@@ -10565,13 +10507,15 @@
     </row>
     <row r="236">
       <c r="A236" s="22"/>
-      <c r="B236" s="8"/>
-      <c r="C236" s="24"/>
-      <c r="D236" s="20"/>
+      <c r="B236" s="18"/>
+      <c r="C236" s="18"/>
+      <c r="D236" s="17" t="s">
+        <v>260</v>
+      </c>
       <c r="E236" s="19"/>
       <c r="F236" s="20"/>
-      <c r="G236" s="21"/>
-      <c r="H236" s="4"/>
+      <c r="G236" s="20"/>
+      <c r="H236" s="21"/>
       <c r="I236" s="4"/>
       <c r="J236" s="4"/>
       <c r="K236" s="4"/>
@@ -10594,13 +10538,15 @@
     </row>
     <row r="237">
       <c r="A237" s="22"/>
-      <c r="B237" s="24"/>
-      <c r="C237" s="20"/>
-      <c r="D237" s="20"/>
+      <c r="B237" s="18"/>
+      <c r="C237" s="18"/>
+      <c r="D237" s="17" t="s">
+        <v>261</v>
+      </c>
       <c r="E237" s="19"/>
       <c r="F237" s="20"/>
-      <c r="G237" s="21"/>
-      <c r="H237" s="4"/>
+      <c r="G237" s="20"/>
+      <c r="H237" s="21"/>
       <c r="I237" s="4"/>
       <c r="J237" s="4"/>
       <c r="K237" s="4"/>
@@ -10623,17 +10569,15 @@
     </row>
     <row r="238">
       <c r="A238" s="22"/>
-      <c r="B238" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="C238" s="43"/>
+      <c r="B238" s="18"/>
+      <c r="C238" s="18"/>
       <c r="D238" s="17" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="E238" s="19"/>
       <c r="F238" s="20"/>
-      <c r="G238" s="21"/>
-      <c r="H238" s="4"/>
+      <c r="G238" s="20"/>
+      <c r="H238" s="21"/>
       <c r="I238" s="4"/>
       <c r="J238" s="4"/>
       <c r="K238" s="4"/>
@@ -10656,13 +10600,13 @@
     </row>
     <row r="239">
       <c r="A239" s="22"/>
-      <c r="B239" s="44"/>
-      <c r="C239" s="45"/>
+      <c r="B239" s="18"/>
+      <c r="C239" s="18"/>
       <c r="D239" s="20"/>
       <c r="E239" s="19"/>
       <c r="F239" s="20"/>
-      <c r="G239" s="21"/>
-      <c r="H239" s="4"/>
+      <c r="G239" s="20"/>
+      <c r="H239" s="21"/>
       <c r="I239" s="4"/>
       <c r="J239" s="4"/>
       <c r="K239" s="4"/>
@@ -10685,13 +10629,17 @@
     </row>
     <row r="240">
       <c r="A240" s="22"/>
-      <c r="B240" s="20"/>
-      <c r="C240" s="20"/>
-      <c r="D240" s="20"/>
+      <c r="B240" s="18"/>
+      <c r="C240" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="D240" s="17" t="s">
+        <v>264</v>
+      </c>
       <c r="E240" s="19"/>
       <c r="F240" s="20"/>
-      <c r="G240" s="21"/>
-      <c r="H240" s="4"/>
+      <c r="G240" s="20"/>
+      <c r="H240" s="21"/>
       <c r="I240" s="4"/>
       <c r="J240" s="4"/>
       <c r="K240" s="4"/>
@@ -10713,22 +10661,16 @@
       <c r="AA240" s="4"/>
     </row>
     <row r="241">
-      <c r="A241" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="B241" s="14"/>
-      <c r="C241" s="12"/>
-      <c r="D241" s="12"/>
-      <c r="E241" s="13"/>
-      <c r="F241" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="G241" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="H241" s="15" t="s">
-        <v>233</v>
-      </c>
+      <c r="A241" s="22"/>
+      <c r="B241" s="18"/>
+      <c r="C241" s="18"/>
+      <c r="D241" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="E241" s="19"/>
+      <c r="F241" s="20"/>
+      <c r="G241" s="20"/>
+      <c r="H241" s="21"/>
       <c r="I241" s="4"/>
       <c r="J241" s="4"/>
       <c r="K241" s="4"/>
@@ -10751,14 +10693,10 @@
     </row>
     <row r="242">
       <c r="A242" s="22"/>
-      <c r="B242" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="C242" s="17" t="s">
-        <v>235</v>
-      </c>
+      <c r="B242" s="18"/>
+      <c r="C242" s="18"/>
       <c r="D242" s="17" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="E242" s="19"/>
       <c r="F242" s="20"/>
@@ -10789,7 +10727,7 @@
       <c r="B243" s="18"/>
       <c r="C243" s="18"/>
       <c r="D243" s="17" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="E243" s="19"/>
       <c r="F243" s="20"/>
@@ -10819,7 +10757,9 @@
       <c r="A244" s="22"/>
       <c r="B244" s="18"/>
       <c r="C244" s="18"/>
-      <c r="D244" s="20"/>
+      <c r="D244" s="17" t="s">
+        <v>268</v>
+      </c>
       <c r="E244" s="19"/>
       <c r="F244" s="20"/>
       <c r="G244" s="20"/>
@@ -10847,11 +10787,9 @@
     <row r="245">
       <c r="A245" s="22"/>
       <c r="B245" s="18"/>
-      <c r="C245" s="17" t="s">
-        <v>238</v>
-      </c>
+      <c r="C245" s="18"/>
       <c r="D245" s="17" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="E245" s="19"/>
       <c r="F245" s="20"/>
@@ -10880,9 +10818,11 @@
     <row r="246">
       <c r="A246" s="22"/>
       <c r="B246" s="18"/>
-      <c r="C246" s="18"/>
+      <c r="C246" s="17" t="s">
+        <v>269</v>
+      </c>
       <c r="D246" s="17" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="E246" s="19"/>
       <c r="F246" s="20"/>
@@ -10912,7 +10852,9 @@
       <c r="A247" s="22"/>
       <c r="B247" s="18"/>
       <c r="C247" s="18"/>
-      <c r="D247" s="20"/>
+      <c r="D247" s="17" t="s">
+        <v>271</v>
+      </c>
       <c r="E247" s="19"/>
       <c r="F247" s="20"/>
       <c r="G247" s="20"/>
@@ -10941,10 +10883,10 @@
       <c r="A248" s="22"/>
       <c r="B248" s="18"/>
       <c r="C248" s="17" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="E248" s="19"/>
       <c r="F248" s="20"/>
@@ -10974,7 +10916,9 @@
       <c r="A249" s="22"/>
       <c r="B249" s="18"/>
       <c r="C249" s="18"/>
-      <c r="D249" s="20"/>
+      <c r="D249" s="17" t="s">
+        <v>274</v>
+      </c>
       <c r="E249" s="19"/>
       <c r="F249" s="20"/>
       <c r="G249" s="20"/>
@@ -11002,11 +10946,9 @@
     <row r="250">
       <c r="A250" s="22"/>
       <c r="B250" s="18"/>
-      <c r="C250" s="17" t="s">
-        <v>243</v>
-      </c>
+      <c r="C250" s="18"/>
       <c r="D250" s="17" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="E250" s="19"/>
       <c r="F250" s="20"/>
@@ -11037,7 +10979,7 @@
       <c r="B251" s="18"/>
       <c r="C251" s="18"/>
       <c r="D251" s="17" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="E251" s="19"/>
       <c r="F251" s="20"/>
@@ -11068,7 +11010,7 @@
       <c r="B252" s="18"/>
       <c r="C252" s="18"/>
       <c r="D252" s="17" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="E252" s="19"/>
       <c r="F252" s="20"/>
@@ -11099,7 +11041,7 @@
       <c r="B253" s="18"/>
       <c r="C253" s="18"/>
       <c r="D253" s="17" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="E253" s="19"/>
       <c r="F253" s="20"/>
@@ -11129,10 +11071,10 @@
       <c r="A254" s="22"/>
       <c r="B254" s="18"/>
       <c r="C254" s="17" t="s">
-        <v>150</v>
+        <v>219</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="E254" s="19"/>
       <c r="F254" s="20"/>
@@ -11162,9 +11104,7 @@
       <c r="A255" s="22"/>
       <c r="B255" s="18"/>
       <c r="C255" s="18"/>
-      <c r="D255" s="17" t="s">
-        <v>249</v>
-      </c>
+      <c r="D255" s="20"/>
       <c r="E255" s="19"/>
       <c r="F255" s="20"/>
       <c r="G255" s="20"/>
@@ -11191,10 +11131,12 @@
     </row>
     <row r="256">
       <c r="A256" s="22"/>
-      <c r="B256" s="18"/>
+      <c r="B256" s="17" t="s">
+        <v>278</v>
+      </c>
       <c r="C256" s="18"/>
       <c r="D256" s="17" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="E256" s="19"/>
       <c r="F256" s="20"/>
@@ -11223,11 +11165,9 @@
     <row r="257">
       <c r="A257" s="22"/>
       <c r="B257" s="18"/>
-      <c r="C257" s="17" t="s">
-        <v>251</v>
-      </c>
+      <c r="C257" s="18"/>
       <c r="D257" s="17" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="E257" s="19"/>
       <c r="F257" s="20"/>
@@ -11258,7 +11198,7 @@
       <c r="B258" s="18"/>
       <c r="C258" s="18"/>
       <c r="D258" s="17" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="E258" s="19"/>
       <c r="F258" s="20"/>
@@ -11288,7 +11228,9 @@
       <c r="A259" s="22"/>
       <c r="B259" s="18"/>
       <c r="C259" s="18"/>
-      <c r="D259" s="17"/>
+      <c r="D259" s="17" t="s">
+        <v>282</v>
+      </c>
       <c r="E259" s="19"/>
       <c r="F259" s="20"/>
       <c r="G259" s="20"/>
@@ -11318,7 +11260,7 @@
       <c r="B260" s="18"/>
       <c r="C260" s="18"/>
       <c r="D260" s="17" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="E260" s="19"/>
       <c r="F260" s="20"/>
@@ -11349,7 +11291,7 @@
       <c r="B261" s="18"/>
       <c r="C261" s="18"/>
       <c r="D261" s="17" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="E261" s="19"/>
       <c r="F261" s="20"/>
@@ -11380,7 +11322,7 @@
       <c r="B262" s="18"/>
       <c r="C262" s="18"/>
       <c r="D262" s="17" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="E262" s="19"/>
       <c r="F262" s="20"/>
@@ -11410,7 +11352,9 @@
       <c r="A263" s="22"/>
       <c r="B263" s="18"/>
       <c r="C263" s="18"/>
-      <c r="D263" s="20"/>
+      <c r="D263" s="17" t="s">
+        <v>286</v>
+      </c>
       <c r="E263" s="19"/>
       <c r="F263" s="20"/>
       <c r="G263" s="20"/>
@@ -11438,11 +11382,9 @@
     <row r="264">
       <c r="A264" s="22"/>
       <c r="B264" s="18"/>
-      <c r="C264" s="17" t="s">
-        <v>257</v>
-      </c>
+      <c r="C264" s="18"/>
       <c r="D264" s="17" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="E264" s="19"/>
       <c r="F264" s="20"/>
@@ -11473,7 +11415,7 @@
       <c r="B265" s="18"/>
       <c r="C265" s="18"/>
       <c r="D265" s="17" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="E265" s="19"/>
       <c r="F265" s="20"/>
@@ -11504,7 +11446,7 @@
       <c r="B266" s="18"/>
       <c r="C266" s="18"/>
       <c r="D266" s="17" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="E266" s="19"/>
       <c r="F266" s="20"/>
@@ -11535,7 +11477,7 @@
       <c r="B267" s="18"/>
       <c r="C267" s="18"/>
       <c r="D267" s="17" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="E267" s="19"/>
       <c r="F267" s="20"/>
@@ -11566,7 +11508,7 @@
       <c r="B268" s="18"/>
       <c r="C268" s="18"/>
       <c r="D268" s="17" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="E268" s="19"/>
       <c r="F268" s="20"/>
@@ -11597,7 +11539,7 @@
       <c r="B269" s="18"/>
       <c r="C269" s="18"/>
       <c r="D269" s="17" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="E269" s="19"/>
       <c r="F269" s="20"/>
@@ -11627,7 +11569,9 @@
       <c r="A270" s="22"/>
       <c r="B270" s="18"/>
       <c r="C270" s="18"/>
-      <c r="D270" s="20"/>
+      <c r="D270" s="17" t="s">
+        <v>293</v>
+      </c>
       <c r="E270" s="19"/>
       <c r="F270" s="20"/>
       <c r="G270" s="20"/>
@@ -11655,11 +11599,9 @@
     <row r="271">
       <c r="A271" s="22"/>
       <c r="B271" s="18"/>
-      <c r="C271" s="17" t="s">
-        <v>263</v>
-      </c>
+      <c r="C271" s="18"/>
       <c r="D271" s="17" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="E271" s="19"/>
       <c r="F271" s="20"/>
@@ -11690,7 +11632,7 @@
       <c r="B272" s="18"/>
       <c r="C272" s="18"/>
       <c r="D272" s="17" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="E272" s="19"/>
       <c r="F272" s="20"/>
@@ -11720,7 +11662,9 @@
       <c r="A273" s="22"/>
       <c r="B273" s="18"/>
       <c r="C273" s="18"/>
-      <c r="D273" s="20"/>
+      <c r="D273" s="17" t="s">
+        <v>296</v>
+      </c>
       <c r="E273" s="19"/>
       <c r="F273" s="20"/>
       <c r="G273" s="20"/>
@@ -11748,11 +11692,9 @@
     <row r="274">
       <c r="A274" s="22"/>
       <c r="B274" s="18"/>
-      <c r="C274" s="17" t="s">
-        <v>266</v>
-      </c>
+      <c r="C274" s="18"/>
       <c r="D274" s="17" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="E274" s="19"/>
       <c r="F274" s="20"/>
@@ -11783,7 +11725,7 @@
       <c r="B275" s="18"/>
       <c r="C275" s="18"/>
       <c r="D275" s="17" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="E275" s="19"/>
       <c r="F275" s="20"/>
@@ -11814,7 +11756,7 @@
       <c r="B276" s="18"/>
       <c r="C276" s="18"/>
       <c r="D276" s="17" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="E276" s="19"/>
       <c r="F276" s="20"/>
@@ -11845,7 +11787,7 @@
       <c r="B277" s="18"/>
       <c r="C277" s="18"/>
       <c r="D277" s="17" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="E277" s="19"/>
       <c r="F277" s="20"/>
@@ -11876,7 +11818,7 @@
       <c r="B278" s="18"/>
       <c r="C278" s="18"/>
       <c r="D278" s="17" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="E278" s="19"/>
       <c r="F278" s="20"/>
@@ -11907,7 +11849,7 @@
       <c r="B279" s="18"/>
       <c r="C279" s="18"/>
       <c r="D279" s="17" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="E279" s="19"/>
       <c r="F279" s="20"/>
@@ -11937,7 +11879,9 @@
       <c r="A280" s="22"/>
       <c r="B280" s="18"/>
       <c r="C280" s="18"/>
-      <c r="D280" s="20"/>
+      <c r="D280" s="17" t="s">
+        <v>303</v>
+      </c>
       <c r="E280" s="19"/>
       <c r="F280" s="20"/>
       <c r="G280" s="20"/>
@@ -11965,11 +11909,9 @@
     <row r="281">
       <c r="A281" s="22"/>
       <c r="B281" s="18"/>
-      <c r="C281" s="17" t="s">
-        <v>218</v>
-      </c>
+      <c r="C281" s="18"/>
       <c r="D281" s="17" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="E281" s="19"/>
       <c r="F281" s="20"/>
@@ -11999,7 +11941,9 @@
       <c r="A282" s="22"/>
       <c r="B282" s="18"/>
       <c r="C282" s="18"/>
-      <c r="D282" s="20"/>
+      <c r="D282" s="17" t="s">
+        <v>305</v>
+      </c>
       <c r="E282" s="19"/>
       <c r="F282" s="20"/>
       <c r="G282" s="20"/>
@@ -12026,12 +11970,10 @@
     </row>
     <row r="283">
       <c r="A283" s="22"/>
-      <c r="B283" s="17" t="s">
-        <v>272</v>
-      </c>
+      <c r="B283" s="18"/>
       <c r="C283" s="18"/>
       <c r="D283" s="17" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="E283" s="19"/>
       <c r="F283" s="20"/>
@@ -12062,7 +12004,7 @@
       <c r="B284" s="18"/>
       <c r="C284" s="18"/>
       <c r="D284" s="17" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="E284" s="19"/>
       <c r="F284" s="20"/>
@@ -12093,7 +12035,7 @@
       <c r="B285" s="18"/>
       <c r="C285" s="18"/>
       <c r="D285" s="17" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="E285" s="19"/>
       <c r="F285" s="20"/>
@@ -12124,7 +12066,7 @@
       <c r="B286" s="18"/>
       <c r="C286" s="18"/>
       <c r="D286" s="17" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="E286" s="19"/>
       <c r="F286" s="20"/>
@@ -12152,10 +12094,14 @@
     </row>
     <row r="287">
       <c r="A287" s="22"/>
-      <c r="B287" s="18"/>
-      <c r="C287" s="18"/>
+      <c r="B287" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="C287" s="17" t="s">
+        <v>311</v>
+      </c>
       <c r="D287" s="17" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="E287" s="19"/>
       <c r="F287" s="20"/>
@@ -12186,7 +12132,7 @@
       <c r="B288" s="18"/>
       <c r="C288" s="18"/>
       <c r="D288" s="17" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="E288" s="19"/>
       <c r="F288" s="20"/>
@@ -12217,7 +12163,7 @@
       <c r="B289" s="18"/>
       <c r="C289" s="18"/>
       <c r="D289" s="17" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="E289" s="19"/>
       <c r="F289" s="20"/>
@@ -12248,7 +12194,7 @@
       <c r="B290" s="18"/>
       <c r="C290" s="18"/>
       <c r="D290" s="17" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="E290" s="19"/>
       <c r="F290" s="20"/>
@@ -12279,7 +12225,7 @@
       <c r="B291" s="18"/>
       <c r="C291" s="18"/>
       <c r="D291" s="17" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="E291" s="19"/>
       <c r="F291" s="20"/>
@@ -12310,7 +12256,7 @@
       <c r="B292" s="18"/>
       <c r="C292" s="18"/>
       <c r="D292" s="17" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="E292" s="19"/>
       <c r="F292" s="20"/>
@@ -12341,7 +12287,7 @@
       <c r="B293" s="18"/>
       <c r="C293" s="18"/>
       <c r="D293" s="17" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="E293" s="19"/>
       <c r="F293" s="20"/>
@@ -12372,7 +12318,7 @@
       <c r="B294" s="18"/>
       <c r="C294" s="18"/>
       <c r="D294" s="17" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="E294" s="19"/>
       <c r="F294" s="20"/>
@@ -12403,7 +12349,7 @@
       <c r="B295" s="18"/>
       <c r="C295" s="18"/>
       <c r="D295" s="17" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="E295" s="19"/>
       <c r="F295" s="20"/>
@@ -12434,7 +12380,7 @@
       <c r="B296" s="18"/>
       <c r="C296" s="18"/>
       <c r="D296" s="17" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="E296" s="19"/>
       <c r="F296" s="20"/>
@@ -12465,7 +12411,7 @@
       <c r="B297" s="18"/>
       <c r="C297" s="18"/>
       <c r="D297" s="17" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="E297" s="19"/>
       <c r="F297" s="20"/>
@@ -12494,9 +12440,11 @@
     <row r="298">
       <c r="A298" s="22"/>
       <c r="B298" s="18"/>
-      <c r="C298" s="18"/>
+      <c r="C298" s="17" t="s">
+        <v>322</v>
+      </c>
       <c r="D298" s="17" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="E298" s="19"/>
       <c r="F298" s="20"/>
@@ -12527,7 +12475,7 @@
       <c r="B299" s="18"/>
       <c r="C299" s="18"/>
       <c r="D299" s="17" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="E299" s="19"/>
       <c r="F299" s="20"/>
@@ -12558,7 +12506,7 @@
       <c r="B300" s="18"/>
       <c r="C300" s="18"/>
       <c r="D300" s="17" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="E300" s="19"/>
       <c r="F300" s="20"/>
@@ -12589,7 +12537,7 @@
       <c r="B301" s="18"/>
       <c r="C301" s="18"/>
       <c r="D301" s="17" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="E301" s="19"/>
       <c r="F301" s="20"/>
@@ -12620,7 +12568,7 @@
       <c r="B302" s="18"/>
       <c r="C302" s="18"/>
       <c r="D302" s="17" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E302" s="19"/>
       <c r="F302" s="20"/>
@@ -12651,7 +12599,7 @@
       <c r="B303" s="18"/>
       <c r="C303" s="18"/>
       <c r="D303" s="17" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="E303" s="19"/>
       <c r="F303" s="20"/>
@@ -12682,7 +12630,7 @@
       <c r="B304" s="18"/>
       <c r="C304" s="18"/>
       <c r="D304" s="17" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="E304" s="19"/>
       <c r="F304" s="20"/>
@@ -12713,7 +12661,7 @@
       <c r="B305" s="18"/>
       <c r="C305" s="18"/>
       <c r="D305" s="17" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="E305" s="19"/>
       <c r="F305" s="20"/>
@@ -12744,7 +12692,7 @@
       <c r="B306" s="18"/>
       <c r="C306" s="18"/>
       <c r="D306" s="17" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="E306" s="19"/>
       <c r="F306" s="20"/>
@@ -12775,7 +12723,7 @@
       <c r="B307" s="18"/>
       <c r="C307" s="18"/>
       <c r="D307" s="17" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="E307" s="19"/>
       <c r="F307" s="20"/>
@@ -12806,7 +12754,7 @@
       <c r="B308" s="18"/>
       <c r="C308" s="18"/>
       <c r="D308" s="17" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="E308" s="19"/>
       <c r="F308" s="20"/>
@@ -12835,9 +12783,11 @@
     <row r="309">
       <c r="A309" s="22"/>
       <c r="B309" s="18"/>
-      <c r="C309" s="18"/>
+      <c r="C309" s="17" t="s">
+        <v>323</v>
+      </c>
       <c r="D309" s="17" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="E309" s="19"/>
       <c r="F309" s="20"/>
@@ -12868,7 +12818,7 @@
       <c r="B310" s="18"/>
       <c r="C310" s="18"/>
       <c r="D310" s="17" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="E310" s="19"/>
       <c r="F310" s="20"/>
@@ -12899,7 +12849,7 @@
       <c r="B311" s="18"/>
       <c r="C311" s="18"/>
       <c r="D311" s="17" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="E311" s="19"/>
       <c r="F311" s="20"/>
@@ -12929,7 +12879,9 @@
       <c r="A312" s="22"/>
       <c r="B312" s="18"/>
       <c r="C312" s="18"/>
-      <c r="D312" s="17"/>
+      <c r="D312" s="17" t="s">
+        <v>315</v>
+      </c>
       <c r="E312" s="19"/>
       <c r="F312" s="20"/>
       <c r="G312" s="20"/>
@@ -12958,7 +12910,9 @@
       <c r="A313" s="22"/>
       <c r="B313" s="18"/>
       <c r="C313" s="18"/>
-      <c r="D313" s="17"/>
+      <c r="D313" s="17" t="s">
+        <v>287</v>
+      </c>
       <c r="E313" s="19"/>
       <c r="F313" s="20"/>
       <c r="G313" s="20"/>
@@ -12985,14 +12939,10 @@
     </row>
     <row r="314">
       <c r="A314" s="22"/>
-      <c r="B314" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="C314" s="17" t="s">
-        <v>303</v>
-      </c>
+      <c r="B314" s="18"/>
+      <c r="C314" s="18"/>
       <c r="D314" s="17" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="E314" s="19"/>
       <c r="F314" s="20"/>
@@ -13023,7 +12973,7 @@
       <c r="B315" s="18"/>
       <c r="C315" s="18"/>
       <c r="D315" s="17" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="E315" s="19"/>
       <c r="F315" s="20"/>
@@ -13054,7 +13004,7 @@
       <c r="B316" s="18"/>
       <c r="C316" s="18"/>
       <c r="D316" s="17" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="E316" s="19"/>
       <c r="F316" s="20"/>
@@ -13085,7 +13035,7 @@
       <c r="B317" s="18"/>
       <c r="C317" s="18"/>
       <c r="D317" s="17" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="E317" s="19"/>
       <c r="F317" s="20"/>
@@ -13116,7 +13066,7 @@
       <c r="B318" s="18"/>
       <c r="C318" s="18"/>
       <c r="D318" s="17" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="E318" s="19"/>
       <c r="F318" s="20"/>
@@ -13147,7 +13097,7 @@
       <c r="B319" s="18"/>
       <c r="C319" s="18"/>
       <c r="D319" s="17" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="E319" s="19"/>
       <c r="F319" s="20"/>
@@ -13175,10 +13125,14 @@
     </row>
     <row r="320">
       <c r="A320" s="22"/>
-      <c r="B320" s="18"/>
-      <c r="C320" s="18"/>
+      <c r="B320" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="C320" s="17" t="s">
+        <v>325</v>
+      </c>
       <c r="D320" s="17" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="E320" s="19"/>
       <c r="F320" s="20"/>
@@ -13207,17 +13161,17 @@
     <row r="321">
       <c r="A321" s="22"/>
       <c r="B321" s="18"/>
-      <c r="C321" s="17" t="s">
-        <v>310</v>
-      </c>
+      <c r="C321" s="18"/>
       <c r="D321" s="17" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="E321" s="19"/>
       <c r="F321" s="20"/>
       <c r="G321" s="20"/>
       <c r="H321" s="21"/>
-      <c r="I321" s="4"/>
+      <c r="I321" s="10" t="s">
+        <v>328</v>
+      </c>
       <c r="J321" s="4"/>
       <c r="K321" s="4"/>
       <c r="L321" s="4"/>
@@ -13242,13 +13196,15 @@
       <c r="B322" s="18"/>
       <c r="C322" s="18"/>
       <c r="D322" s="17" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="E322" s="19"/>
       <c r="F322" s="20"/>
       <c r="G322" s="20"/>
       <c r="H322" s="21"/>
-      <c r="I322" s="4"/>
+      <c r="I322" s="10" t="s">
+        <v>330</v>
+      </c>
       <c r="J322" s="4"/>
       <c r="K322" s="4"/>
       <c r="L322" s="4"/>
@@ -13273,7 +13229,7 @@
       <c r="B323" s="18"/>
       <c r="C323" s="18"/>
       <c r="D323" s="17" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="E323" s="19"/>
       <c r="F323" s="20"/>
@@ -13304,7 +13260,7 @@
       <c r="B324" s="18"/>
       <c r="C324" s="18"/>
       <c r="D324" s="17" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="E324" s="19"/>
       <c r="F324" s="20"/>
@@ -13333,9 +13289,11 @@
     <row r="325">
       <c r="A325" s="22"/>
       <c r="B325" s="18"/>
-      <c r="C325" s="18"/>
+      <c r="C325" s="17" t="s">
+        <v>333</v>
+      </c>
       <c r="D325" s="17" t="s">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="E325" s="19"/>
       <c r="F325" s="20"/>
@@ -13366,7 +13324,7 @@
       <c r="B326" s="18"/>
       <c r="C326" s="18"/>
       <c r="D326" s="17" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="E326" s="19"/>
       <c r="F326" s="20"/>
@@ -13397,7 +13355,7 @@
       <c r="B327" s="18"/>
       <c r="C327" s="18"/>
       <c r="D327" s="17" t="s">
-        <v>309</v>
+        <v>250</v>
       </c>
       <c r="E327" s="19"/>
       <c r="F327" s="20"/>
@@ -13426,11 +13384,9 @@
     <row r="328">
       <c r="A328" s="22"/>
       <c r="B328" s="18"/>
-      <c r="C328" s="17" t="s">
-        <v>311</v>
-      </c>
+      <c r="C328" s="18"/>
       <c r="D328" s="17" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="E328" s="19"/>
       <c r="F328" s="20"/>
@@ -13461,7 +13417,7 @@
       <c r="B329" s="18"/>
       <c r="C329" s="18"/>
       <c r="D329" s="17" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="E329" s="19"/>
       <c r="F329" s="20"/>
@@ -13492,7 +13448,7 @@
       <c r="B330" s="18"/>
       <c r="C330" s="18"/>
       <c r="D330" s="17" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="E330" s="19"/>
       <c r="F330" s="20"/>
@@ -13521,9 +13477,11 @@
     <row r="331">
       <c r="A331" s="22"/>
       <c r="B331" s="18"/>
-      <c r="C331" s="18"/>
+      <c r="C331" s="17" t="s">
+        <v>339</v>
+      </c>
       <c r="D331" s="17" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="E331" s="19"/>
       <c r="F331" s="20"/>
@@ -13552,9 +13510,9 @@
     <row r="332">
       <c r="A332" s="22"/>
       <c r="B332" s="18"/>
-      <c r="C332" s="18"/>
+      <c r="C332" s="20"/>
       <c r="D332" s="17" t="s">
-        <v>281</v>
+        <v>341</v>
       </c>
       <c r="E332" s="19"/>
       <c r="F332" s="20"/>
@@ -13583,9 +13541,11 @@
     <row r="333">
       <c r="A333" s="22"/>
       <c r="B333" s="18"/>
-      <c r="C333" s="18"/>
+      <c r="C333" s="17" t="s">
+        <v>342</v>
+      </c>
       <c r="D333" s="17" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="E333" s="19"/>
       <c r="F333" s="20"/>
@@ -13616,7 +13576,7 @@
       <c r="B334" s="18"/>
       <c r="C334" s="18"/>
       <c r="D334" s="17" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="E334" s="19"/>
       <c r="F334" s="20"/>
@@ -13644,14 +13604,10 @@
     </row>
     <row r="335">
       <c r="A335" s="22"/>
-      <c r="B335" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="C335" s="17" t="s">
-        <v>313</v>
-      </c>
+      <c r="B335" s="18"/>
+      <c r="C335" s="18"/>
       <c r="D335" s="17" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="E335" s="19"/>
       <c r="F335" s="20"/>
@@ -13682,15 +13638,13 @@
       <c r="B336" s="18"/>
       <c r="C336" s="18"/>
       <c r="D336" s="17" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="E336" s="19"/>
       <c r="F336" s="20"/>
       <c r="G336" s="20"/>
       <c r="H336" s="21"/>
-      <c r="I336" s="10" t="s">
-        <v>316</v>
-      </c>
+      <c r="I336" s="4"/>
       <c r="J336" s="4"/>
       <c r="K336" s="4"/>
       <c r="L336" s="4"/>
@@ -13713,17 +13667,17 @@
     <row r="337">
       <c r="A337" s="22"/>
       <c r="B337" s="18"/>
-      <c r="C337" s="18"/>
+      <c r="C337" s="17" t="s">
+        <v>347</v>
+      </c>
       <c r="D337" s="17" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="E337" s="19"/>
       <c r="F337" s="20"/>
       <c r="G337" s="20"/>
       <c r="H337" s="21"/>
-      <c r="I337" s="10" t="s">
-        <v>318</v>
-      </c>
+      <c r="I337" s="4"/>
       <c r="J337" s="4"/>
       <c r="K337" s="4"/>
       <c r="L337" s="4"/>
@@ -13748,7 +13702,7 @@
       <c r="B338" s="18"/>
       <c r="C338" s="18"/>
       <c r="D338" s="17" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="E338" s="19"/>
       <c r="F338" s="20"/>
@@ -13779,13 +13733,15 @@
       <c r="B339" s="18"/>
       <c r="C339" s="18"/>
       <c r="D339" s="17" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="E339" s="19"/>
       <c r="F339" s="20"/>
       <c r="G339" s="20"/>
       <c r="H339" s="21"/>
-      <c r="I339" s="4"/>
+      <c r="I339" s="10" t="s">
+        <v>351</v>
+      </c>
       <c r="J339" s="4"/>
       <c r="K339" s="4"/>
       <c r="L339" s="4"/>
@@ -13809,12 +13765,16 @@
       <c r="A340" s="22"/>
       <c r="B340" s="18"/>
       <c r="C340" s="18"/>
-      <c r="D340" s="20"/>
+      <c r="D340" s="17" t="s">
+        <v>352</v>
+      </c>
       <c r="E340" s="19"/>
       <c r="F340" s="20"/>
       <c r="G340" s="20"/>
       <c r="H340" s="21"/>
-      <c r="I340" s="4"/>
+      <c r="I340" s="10" t="s">
+        <v>353</v>
+      </c>
       <c r="J340" s="4"/>
       <c r="K340" s="4"/>
       <c r="L340" s="4"/>
@@ -13836,12 +13796,12 @@
     </row>
     <row r="341">
       <c r="A341" s="22"/>
-      <c r="B341" s="18"/>
-      <c r="C341" s="17" t="s">
-        <v>321</v>
-      </c>
+      <c r="B341" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="C341" s="18"/>
       <c r="D341" s="17" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="E341" s="19"/>
       <c r="F341" s="20"/>
@@ -13872,7 +13832,7 @@
       <c r="B342" s="18"/>
       <c r="C342" s="18"/>
       <c r="D342" s="17" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="E342" s="19"/>
       <c r="F342" s="20"/>
@@ -13903,7 +13863,7 @@
       <c r="B343" s="18"/>
       <c r="C343" s="18"/>
       <c r="D343" s="17" t="s">
-        <v>244</v>
+        <v>357</v>
       </c>
       <c r="E343" s="19"/>
       <c r="F343" s="20"/>
@@ -13934,7 +13894,7 @@
       <c r="B344" s="18"/>
       <c r="C344" s="18"/>
       <c r="D344" s="17" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="E344" s="19"/>
       <c r="F344" s="20"/>
@@ -13965,7 +13925,7 @@
       <c r="B345" s="18"/>
       <c r="C345" s="18"/>
       <c r="D345" s="17" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="E345" s="19"/>
       <c r="F345" s="20"/>
@@ -13996,7 +13956,7 @@
       <c r="B346" s="18"/>
       <c r="C346" s="18"/>
       <c r="D346" s="17" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="E346" s="19"/>
       <c r="F346" s="20"/>
@@ -14026,7 +13986,9 @@
       <c r="A347" s="22"/>
       <c r="B347" s="18"/>
       <c r="C347" s="18"/>
-      <c r="D347" s="20"/>
+      <c r="D347" s="17" t="s">
+        <v>361</v>
+      </c>
       <c r="E347" s="19"/>
       <c r="F347" s="20"/>
       <c r="G347" s="20"/>
@@ -14053,12 +14015,12 @@
     </row>
     <row r="348">
       <c r="A348" s="22"/>
-      <c r="B348" s="18"/>
-      <c r="C348" s="17" t="s">
-        <v>327</v>
-      </c>
+      <c r="B348" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="C348" s="18"/>
       <c r="D348" s="17" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="E348" s="19"/>
       <c r="F348" s="20"/>
@@ -14087,9 +14049,9 @@
     <row r="349">
       <c r="A349" s="22"/>
       <c r="B349" s="18"/>
-      <c r="C349" s="20"/>
+      <c r="C349" s="18"/>
       <c r="D349" s="17" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="E349" s="19"/>
       <c r="F349" s="20"/>
@@ -14118,8 +14080,10 @@
     <row r="350">
       <c r="A350" s="22"/>
       <c r="B350" s="18"/>
-      <c r="C350" s="20"/>
-      <c r="D350" s="20"/>
+      <c r="C350" s="18"/>
+      <c r="D350" s="17" t="s">
+        <v>365</v>
+      </c>
       <c r="E350" s="19"/>
       <c r="F350" s="20"/>
       <c r="G350" s="20"/>
@@ -14147,11 +14111,9 @@
     <row r="351">
       <c r="A351" s="22"/>
       <c r="B351" s="18"/>
-      <c r="C351" s="17" t="s">
-        <v>330</v>
-      </c>
+      <c r="C351" s="18"/>
       <c r="D351" s="17" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="E351" s="19"/>
       <c r="F351" s="20"/>
@@ -14182,7 +14144,7 @@
       <c r="B352" s="18"/>
       <c r="C352" s="18"/>
       <c r="D352" s="17" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="E352" s="19"/>
       <c r="F352" s="20"/>
@@ -14210,10 +14172,12 @@
     </row>
     <row r="353">
       <c r="A353" s="22"/>
-      <c r="B353" s="18"/>
+      <c r="B353" s="17" t="s">
+        <v>368</v>
+      </c>
       <c r="C353" s="18"/>
       <c r="D353" s="17" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="E353" s="19"/>
       <c r="F353" s="20"/>
@@ -14244,7 +14208,7 @@
       <c r="B354" s="18"/>
       <c r="C354" s="18"/>
       <c r="D354" s="17" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="E354" s="19"/>
       <c r="F354" s="20"/>
@@ -14273,11 +14237,9 @@
     <row r="355">
       <c r="A355" s="22"/>
       <c r="B355" s="18"/>
-      <c r="C355" s="17" t="s">
-        <v>335</v>
-      </c>
+      <c r="C355" s="18"/>
       <c r="D355" s="17" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="E355" s="19"/>
       <c r="F355" s="20"/>
@@ -14308,7 +14270,7 @@
       <c r="B356" s="18"/>
       <c r="C356" s="18"/>
       <c r="D356" s="17" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="E356" s="19"/>
       <c r="F356" s="20"/>
@@ -14339,15 +14301,13 @@
       <c r="B357" s="18"/>
       <c r="C357" s="18"/>
       <c r="D357" s="17" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="E357" s="19"/>
       <c r="F357" s="20"/>
       <c r="G357" s="20"/>
       <c r="H357" s="21"/>
-      <c r="I357" s="10" t="s">
-        <v>339</v>
-      </c>
+      <c r="I357" s="4"/>
       <c r="J357" s="4"/>
       <c r="K357" s="4"/>
       <c r="L357" s="4"/>
@@ -14369,18 +14329,18 @@
     </row>
     <row r="358">
       <c r="A358" s="22"/>
-      <c r="B358" s="18"/>
+      <c r="B358" s="17" t="s">
+        <v>374</v>
+      </c>
       <c r="C358" s="18"/>
       <c r="D358" s="17" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="E358" s="19"/>
       <c r="F358" s="20"/>
       <c r="G358" s="20"/>
       <c r="H358" s="21"/>
-      <c r="I358" s="10" t="s">
-        <v>341</v>
-      </c>
+      <c r="I358" s="4"/>
       <c r="J358" s="4"/>
       <c r="K358" s="4"/>
       <c r="L358" s="4"/>
@@ -14402,12 +14362,10 @@
     </row>
     <row r="359">
       <c r="A359" s="22"/>
-      <c r="B359" s="17" t="s">
-        <v>342</v>
-      </c>
+      <c r="B359" s="18"/>
       <c r="C359" s="18"/>
       <c r="D359" s="17" t="s">
-        <v>343</v>
+        <v>376</v>
       </c>
       <c r="E359" s="19"/>
       <c r="F359" s="20"/>
@@ -14438,7 +14396,7 @@
       <c r="B360" s="18"/>
       <c r="C360" s="18"/>
       <c r="D360" s="17" t="s">
-        <v>344</v>
+        <v>377</v>
       </c>
       <c r="E360" s="19"/>
       <c r="F360" s="20"/>
@@ -14469,7 +14427,7 @@
       <c r="B361" s="18"/>
       <c r="C361" s="18"/>
       <c r="D361" s="17" t="s">
-        <v>345</v>
+        <v>378</v>
       </c>
       <c r="E361" s="19"/>
       <c r="F361" s="20"/>
@@ -14500,7 +14458,7 @@
       <c r="B362" s="18"/>
       <c r="C362" s="18"/>
       <c r="D362" s="17" t="s">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="E362" s="19"/>
       <c r="F362" s="20"/>
@@ -14528,10 +14486,12 @@
     </row>
     <row r="363">
       <c r="A363" s="22"/>
-      <c r="B363" s="18"/>
-      <c r="C363" s="18"/>
+      <c r="B363" s="44" t="s">
+        <v>380</v>
+      </c>
+      <c r="C363" s="40"/>
       <c r="D363" s="17" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="E363" s="19"/>
       <c r="F363" s="20"/>
@@ -14559,10 +14519,10 @@
     </row>
     <row r="364">
       <c r="A364" s="22"/>
-      <c r="B364" s="18"/>
-      <c r="C364" s="18"/>
+      <c r="B364" s="45"/>
+      <c r="C364" s="46"/>
       <c r="D364" s="17" t="s">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="E364" s="19"/>
       <c r="F364" s="20"/>
@@ -14590,10 +14550,10 @@
     </row>
     <row r="365">
       <c r="A365" s="22"/>
-      <c r="B365" s="18"/>
-      <c r="C365" s="18"/>
+      <c r="B365" s="45"/>
+      <c r="C365" s="46"/>
       <c r="D365" s="17" t="s">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="E365" s="19"/>
       <c r="F365" s="20"/>
@@ -14621,9 +14581,11 @@
     </row>
     <row r="366">
       <c r="A366" s="22"/>
-      <c r="B366" s="18"/>
-      <c r="C366" s="18"/>
-      <c r="D366" s="20"/>
+      <c r="B366" s="45"/>
+      <c r="C366" s="46"/>
+      <c r="D366" s="17" t="s">
+        <v>384</v>
+      </c>
       <c r="E366" s="19"/>
       <c r="F366" s="20"/>
       <c r="G366" s="20"/>
@@ -14650,12 +14612,10 @@
     </row>
     <row r="367">
       <c r="A367" s="22"/>
-      <c r="B367" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="C367" s="18"/>
+      <c r="B367" s="45"/>
+      <c r="C367" s="46"/>
       <c r="D367" s="17" t="s">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="E367" s="19"/>
       <c r="F367" s="20"/>
@@ -14683,10 +14643,10 @@
     </row>
     <row r="368">
       <c r="A368" s="22"/>
-      <c r="B368" s="18"/>
-      <c r="C368" s="18"/>
+      <c r="B368" s="45"/>
+      <c r="C368" s="46"/>
       <c r="D368" s="17" t="s">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="E368" s="19"/>
       <c r="F368" s="20"/>
@@ -14714,10 +14674,10 @@
     </row>
     <row r="369">
       <c r="A369" s="22"/>
-      <c r="B369" s="18"/>
-      <c r="C369" s="18"/>
+      <c r="B369" s="45"/>
+      <c r="C369" s="46"/>
       <c r="D369" s="17" t="s">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="E369" s="19"/>
       <c r="F369" s="20"/>
@@ -14745,10 +14705,10 @@
     </row>
     <row r="370">
       <c r="A370" s="22"/>
-      <c r="B370" s="18"/>
-      <c r="C370" s="18"/>
+      <c r="B370" s="45"/>
+      <c r="C370" s="46"/>
       <c r="D370" s="17" t="s">
-        <v>354</v>
+        <v>388</v>
       </c>
       <c r="E370" s="19"/>
       <c r="F370" s="20"/>
@@ -14776,10 +14736,10 @@
     </row>
     <row r="371">
       <c r="A371" s="22"/>
-      <c r="B371" s="18"/>
-      <c r="C371" s="18"/>
+      <c r="B371" s="45"/>
+      <c r="C371" s="46"/>
       <c r="D371" s="17" t="s">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="E371" s="19"/>
       <c r="F371" s="20"/>
@@ -14807,11 +14767,9 @@
     </row>
     <row r="372">
       <c r="A372" s="22"/>
-      <c r="B372" s="18"/>
-      <c r="C372" s="18"/>
-      <c r="D372" s="17" t="s">
-        <v>356</v>
-      </c>
+      <c r="B372" s="20"/>
+      <c r="C372" s="20"/>
+      <c r="D372" s="20"/>
       <c r="E372" s="19"/>
       <c r="F372" s="20"/>
       <c r="G372" s="20"/>
@@ -14837,16 +14795,14 @@
       <c r="AA372" s="4"/>
     </row>
     <row r="373">
-      <c r="A373" s="22"/>
-      <c r="B373" s="18"/>
-      <c r="C373" s="18"/>
-      <c r="D373" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="E373" s="19"/>
-      <c r="F373" s="20"/>
-      <c r="G373" s="20"/>
-      <c r="H373" s="21"/>
+      <c r="A373" s="26"/>
+      <c r="B373" s="47"/>
+      <c r="C373" s="47"/>
+      <c r="D373" s="47"/>
+      <c r="E373" s="29"/>
+      <c r="F373" s="47"/>
+      <c r="G373" s="47"/>
+      <c r="H373" s="48"/>
       <c r="I373" s="4"/>
       <c r="J373" s="4"/>
       <c r="K373" s="4"/>
@@ -14868,16 +14824,18 @@
       <c r="AA373" s="4"/>
     </row>
     <row r="374">
-      <c r="A374" s="22"/>
-      <c r="B374" s="18"/>
-      <c r="C374" s="18"/>
-      <c r="D374" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="E374" s="19"/>
-      <c r="F374" s="20"/>
-      <c r="G374" s="20"/>
-      <c r="H374" s="21"/>
+      <c r="A374" s="49" t="s">
+        <v>390</v>
+      </c>
+      <c r="B374" s="50"/>
+      <c r="C374" s="50"/>
+      <c r="D374" s="51" t="s">
+        <v>391</v>
+      </c>
+      <c r="E374" s="52"/>
+      <c r="F374" s="53"/>
+      <c r="G374" s="54"/>
+      <c r="H374" s="4"/>
       <c r="I374" s="4"/>
       <c r="J374" s="4"/>
       <c r="K374" s="4"/>
@@ -14899,16 +14857,16 @@
       <c r="AA374" s="4"/>
     </row>
     <row r="375">
-      <c r="A375" s="22"/>
-      <c r="B375" s="18"/>
-      <c r="C375" s="18"/>
-      <c r="D375" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="E375" s="19"/>
-      <c r="F375" s="20"/>
-      <c r="G375" s="20"/>
-      <c r="H375" s="21"/>
+      <c r="A375" s="55"/>
+      <c r="B375" s="55"/>
+      <c r="C375" s="55"/>
+      <c r="D375" s="51" t="s">
+        <v>392</v>
+      </c>
+      <c r="E375" s="52"/>
+      <c r="F375" s="56"/>
+      <c r="G375" s="57"/>
+      <c r="H375" s="4"/>
       <c r="I375" s="4"/>
       <c r="J375" s="4"/>
       <c r="K375" s="4"/>
@@ -14930,16 +14888,16 @@
       <c r="AA375" s="4"/>
     </row>
     <row r="376">
-      <c r="A376" s="22"/>
-      <c r="B376" s="18"/>
-      <c r="C376" s="18"/>
-      <c r="D376" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="E376" s="19"/>
-      <c r="F376" s="20"/>
-      <c r="G376" s="20"/>
-      <c r="H376" s="21"/>
+      <c r="A376" s="55"/>
+      <c r="B376" s="55"/>
+      <c r="C376" s="55"/>
+      <c r="D376" s="51" t="s">
+        <v>393</v>
+      </c>
+      <c r="E376" s="52"/>
+      <c r="F376" s="56"/>
+      <c r="G376" s="57"/>
+      <c r="H376" s="4"/>
       <c r="I376" s="4"/>
       <c r="J376" s="4"/>
       <c r="K376" s="4"/>
@@ -14961,16 +14919,16 @@
       <c r="AA376" s="4"/>
     </row>
     <row r="377">
-      <c r="A377" s="22"/>
-      <c r="B377" s="18"/>
-      <c r="C377" s="18"/>
-      <c r="D377" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="E377" s="19"/>
-      <c r="F377" s="20"/>
-      <c r="G377" s="20"/>
-      <c r="H377" s="21"/>
+      <c r="A377" s="55"/>
+      <c r="B377" s="55"/>
+      <c r="C377" s="55"/>
+      <c r="D377" s="51" t="s">
+        <v>394</v>
+      </c>
+      <c r="E377" s="52"/>
+      <c r="F377" s="56"/>
+      <c r="G377" s="57"/>
+      <c r="H377" s="4"/>
       <c r="I377" s="4"/>
       <c r="J377" s="4"/>
       <c r="K377" s="4"/>
@@ -14992,16 +14950,16 @@
       <c r="AA377" s="4"/>
     </row>
     <row r="378">
-      <c r="A378" s="22"/>
-      <c r="B378" s="18"/>
-      <c r="C378" s="18"/>
-      <c r="D378" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="E378" s="19"/>
-      <c r="F378" s="20"/>
-      <c r="G378" s="20"/>
-      <c r="H378" s="21"/>
+      <c r="A378" s="55"/>
+      <c r="B378" s="55"/>
+      <c r="C378" s="55"/>
+      <c r="D378" s="51" t="s">
+        <v>395</v>
+      </c>
+      <c r="E378" s="52"/>
+      <c r="F378" s="56"/>
+      <c r="G378" s="57"/>
+      <c r="H378" s="4"/>
       <c r="I378" s="4"/>
       <c r="J378" s="4"/>
       <c r="K378" s="4"/>
@@ -15023,16 +14981,16 @@
       <c r="AA378" s="4"/>
     </row>
     <row r="379">
-      <c r="A379" s="22"/>
-      <c r="B379" s="18"/>
-      <c r="C379" s="18"/>
-      <c r="D379" s="17" t="s">
-        <v>363</v>
-      </c>
-      <c r="E379" s="19"/>
-      <c r="F379" s="20"/>
-      <c r="G379" s="20"/>
-      <c r="H379" s="21"/>
+      <c r="A379" s="55"/>
+      <c r="B379" s="55"/>
+      <c r="C379" s="55"/>
+      <c r="D379" s="51" t="s">
+        <v>396</v>
+      </c>
+      <c r="E379" s="52"/>
+      <c r="F379" s="56"/>
+      <c r="G379" s="57"/>
+      <c r="H379" s="4"/>
       <c r="I379" s="4"/>
       <c r="J379" s="4"/>
       <c r="K379" s="4"/>
@@ -15054,16 +15012,20 @@
       <c r="AA379" s="4"/>
     </row>
     <row r="380">
-      <c r="A380" s="22"/>
-      <c r="B380" s="18"/>
-      <c r="C380" s="18"/>
-      <c r="D380" s="17" t="s">
-        <v>364</v>
-      </c>
-      <c r="E380" s="19"/>
-      <c r="F380" s="20"/>
-      <c r="G380" s="20"/>
-      <c r="H380" s="21"/>
+      <c r="A380" s="43" t="s">
+        <v>397</v>
+      </c>
+      <c r="B380" s="58"/>
+      <c r="C380" s="12"/>
+      <c r="D380" s="12"/>
+      <c r="E380" s="12"/>
+      <c r="F380" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="G380" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="H380" s="4"/>
       <c r="I380" s="4"/>
       <c r="J380" s="4"/>
       <c r="K380" s="4"/>
@@ -15086,16 +15048,20 @@
     </row>
     <row r="381">
       <c r="A381" s="22"/>
-      <c r="B381" s="18"/>
-      <c r="C381" s="18"/>
-      <c r="D381" s="17" t="s">
-        <v>365</v>
-      </c>
+      <c r="B381" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="C381" s="59" t="s">
+        <v>401</v>
+      </c>
+      <c r="D381" s="60"/>
       <c r="E381" s="19"/>
       <c r="F381" s="20"/>
-      <c r="G381" s="20"/>
-      <c r="H381" s="21"/>
-      <c r="I381" s="4"/>
+      <c r="G381" s="21"/>
+      <c r="H381" s="4"/>
+      <c r="I381" s="10" t="s">
+        <v>402</v>
+      </c>
       <c r="J381" s="4"/>
       <c r="K381" s="4"/>
       <c r="L381" s="4"/>
@@ -15118,15 +15084,17 @@
     <row r="382">
       <c r="A382" s="22"/>
       <c r="B382" s="18"/>
-      <c r="C382" s="18"/>
-      <c r="D382" s="17" t="s">
-        <v>366</v>
-      </c>
+      <c r="C382" s="59" t="s">
+        <v>403</v>
+      </c>
+      <c r="D382" s="60"/>
       <c r="E382" s="19"/>
       <c r="F382" s="20"/>
-      <c r="G382" s="20"/>
-      <c r="H382" s="21"/>
-      <c r="I382" s="4"/>
+      <c r="G382" s="21"/>
+      <c r="H382" s="4"/>
+      <c r="I382" s="10" t="s">
+        <v>402</v>
+      </c>
       <c r="J382" s="4"/>
       <c r="K382" s="4"/>
       <c r="L382" s="4"/>
@@ -15149,14 +15117,12 @@
     <row r="383">
       <c r="A383" s="22"/>
       <c r="B383" s="18"/>
-      <c r="C383" s="18"/>
-      <c r="D383" s="17" t="s">
-        <v>367</v>
-      </c>
+      <c r="C383" s="20"/>
+      <c r="D383" s="20"/>
       <c r="E383" s="19"/>
       <c r="F383" s="20"/>
-      <c r="G383" s="20"/>
-      <c r="H383" s="21"/>
+      <c r="G383" s="21"/>
+      <c r="H383" s="4"/>
       <c r="I383" s="4"/>
       <c r="J383" s="4"/>
       <c r="K383" s="4"/>
@@ -15180,14 +15146,12 @@
     <row r="384">
       <c r="A384" s="22"/>
       <c r="B384" s="18"/>
-      <c r="C384" s="18"/>
-      <c r="D384" s="17" t="s">
-        <v>368</v>
-      </c>
+      <c r="C384" s="20"/>
+      <c r="D384" s="20"/>
       <c r="E384" s="19"/>
       <c r="F384" s="20"/>
-      <c r="G384" s="20"/>
-      <c r="H384" s="21"/>
+      <c r="G384" s="21"/>
+      <c r="H384" s="4"/>
       <c r="I384" s="4"/>
       <c r="J384" s="4"/>
       <c r="K384" s="4"/>
@@ -15211,14 +15175,12 @@
     <row r="385">
       <c r="A385" s="22"/>
       <c r="B385" s="18"/>
-      <c r="C385" s="18"/>
-      <c r="D385" s="17" t="s">
-        <v>369</v>
-      </c>
+      <c r="C385" s="20"/>
+      <c r="D385" s="20"/>
       <c r="E385" s="19"/>
       <c r="F385" s="20"/>
-      <c r="G385" s="20"/>
-      <c r="H385" s="21"/>
+      <c r="G385" s="21"/>
+      <c r="H385" s="4"/>
       <c r="I385" s="4"/>
       <c r="J385" s="4"/>
       <c r="K385" s="4"/>
@@ -15242,14 +15204,12 @@
     <row r="386">
       <c r="A386" s="22"/>
       <c r="B386" s="18"/>
-      <c r="C386" s="18"/>
-      <c r="D386" s="17" t="s">
-        <v>370</v>
-      </c>
+      <c r="C386" s="20"/>
+      <c r="D386" s="20"/>
       <c r="E386" s="19"/>
       <c r="F386" s="20"/>
-      <c r="G386" s="20"/>
-      <c r="H386" s="21"/>
+      <c r="G386" s="21"/>
+      <c r="H386" s="4"/>
       <c r="I386" s="4"/>
       <c r="J386" s="4"/>
       <c r="K386" s="4"/>
@@ -15273,14 +15233,12 @@
     <row r="387">
       <c r="A387" s="22"/>
       <c r="B387" s="18"/>
-      <c r="C387" s="18"/>
-      <c r="D387" s="17" t="s">
-        <v>371</v>
-      </c>
+      <c r="C387" s="20"/>
+      <c r="D387" s="20"/>
       <c r="E387" s="19"/>
       <c r="F387" s="20"/>
-      <c r="G387" s="20"/>
-      <c r="H387" s="21"/>
+      <c r="G387" s="21"/>
+      <c r="H387" s="4"/>
       <c r="I387" s="4"/>
       <c r="J387" s="4"/>
       <c r="K387" s="4"/>
@@ -15303,16 +15261,18 @@
     </row>
     <row r="388">
       <c r="A388" s="22"/>
-      <c r="B388" s="18"/>
+      <c r="B388" s="17" t="s">
+        <v>404</v>
+      </c>
       <c r="C388" s="18"/>
-      <c r="D388" s="17" t="s">
-        <v>372</v>
-      </c>
+      <c r="D388" s="18"/>
       <c r="E388" s="19"/>
       <c r="F388" s="20"/>
-      <c r="G388" s="20"/>
-      <c r="H388" s="21"/>
-      <c r="I388" s="4"/>
+      <c r="G388" s="21"/>
+      <c r="H388" s="10"/>
+      <c r="I388" s="10" t="s">
+        <v>402</v>
+      </c>
       <c r="J388" s="4"/>
       <c r="K388" s="4"/>
       <c r="L388" s="4"/>
@@ -15334,13 +15294,19 @@
     </row>
     <row r="389">
       <c r="A389" s="22"/>
-      <c r="B389" s="18"/>
-      <c r="C389" s="18"/>
-      <c r="D389" s="20"/>
+      <c r="B389" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="C389" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="D389" s="17" t="s">
+        <v>407</v>
+      </c>
       <c r="E389" s="19"/>
       <c r="F389" s="20"/>
-      <c r="G389" s="20"/>
-      <c r="H389" s="21"/>
+      <c r="G389" s="21"/>
+      <c r="H389" s="4"/>
       <c r="I389" s="4"/>
       <c r="J389" s="4"/>
       <c r="K389" s="4"/>
@@ -15363,17 +15329,15 @@
     </row>
     <row r="390">
       <c r="A390" s="22"/>
-      <c r="B390" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="C390" s="18"/>
+      <c r="B390" s="18"/>
+      <c r="C390" s="8"/>
       <c r="D390" s="17" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="E390" s="19"/>
       <c r="F390" s="20"/>
-      <c r="G390" s="20"/>
-      <c r="H390" s="21"/>
+      <c r="G390" s="21"/>
+      <c r="H390" s="4"/>
       <c r="I390" s="4"/>
       <c r="J390" s="4"/>
       <c r="K390" s="4"/>
@@ -15397,14 +15361,14 @@
     <row r="391">
       <c r="A391" s="22"/>
       <c r="B391" s="18"/>
-      <c r="C391" s="18"/>
+      <c r="C391" s="8"/>
       <c r="D391" s="17" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="E391" s="19"/>
       <c r="F391" s="20"/>
-      <c r="G391" s="20"/>
-      <c r="H391" s="21"/>
+      <c r="G391" s="21"/>
+      <c r="H391" s="4"/>
       <c r="I391" s="4"/>
       <c r="J391" s="4"/>
       <c r="K391" s="4"/>
@@ -15428,14 +15392,14 @@
     <row r="392">
       <c r="A392" s="22"/>
       <c r="B392" s="18"/>
-      <c r="C392" s="18"/>
+      <c r="C392" s="8"/>
       <c r="D392" s="17" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="E392" s="19"/>
       <c r="F392" s="20"/>
-      <c r="G392" s="20"/>
-      <c r="H392" s="21"/>
+      <c r="G392" s="21"/>
+      <c r="H392" s="4"/>
       <c r="I392" s="4"/>
       <c r="J392" s="4"/>
       <c r="K392" s="4"/>
@@ -15459,14 +15423,14 @@
     <row r="393">
       <c r="A393" s="22"/>
       <c r="B393" s="18"/>
-      <c r="C393" s="18"/>
+      <c r="C393" s="8"/>
       <c r="D393" s="17" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="E393" s="19"/>
       <c r="F393" s="20"/>
-      <c r="G393" s="20"/>
-      <c r="H393" s="21"/>
+      <c r="G393" s="21"/>
+      <c r="H393" s="4"/>
       <c r="I393" s="4"/>
       <c r="J393" s="4"/>
       <c r="K393" s="4"/>
@@ -15490,14 +15454,14 @@
     <row r="394">
       <c r="A394" s="22"/>
       <c r="B394" s="18"/>
-      <c r="C394" s="18"/>
+      <c r="C394" s="8"/>
       <c r="D394" s="17" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="E394" s="19"/>
       <c r="F394" s="20"/>
-      <c r="G394" s="20"/>
-      <c r="H394" s="21"/>
+      <c r="G394" s="21"/>
+      <c r="H394" s="4"/>
       <c r="I394" s="4"/>
       <c r="J394" s="4"/>
       <c r="K394" s="4"/>
@@ -15520,17 +15484,15 @@
     </row>
     <row r="395">
       <c r="A395" s="22"/>
-      <c r="B395" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="C395" s="18"/>
+      <c r="B395" s="18"/>
+      <c r="C395" s="8"/>
       <c r="D395" s="17" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
       <c r="E395" s="19"/>
       <c r="F395" s="20"/>
-      <c r="G395" s="20"/>
-      <c r="H395" s="21"/>
+      <c r="G395" s="21"/>
+      <c r="H395" s="4"/>
       <c r="I395" s="4"/>
       <c r="J395" s="4"/>
       <c r="K395" s="4"/>
@@ -15554,14 +15516,14 @@
     <row r="396">
       <c r="A396" s="22"/>
       <c r="B396" s="18"/>
-      <c r="C396" s="18"/>
+      <c r="C396" s="8"/>
       <c r="D396" s="17" t="s">
-        <v>381</v>
+        <v>414</v>
       </c>
       <c r="E396" s="19"/>
       <c r="F396" s="20"/>
-      <c r="G396" s="20"/>
-      <c r="H396" s="21"/>
+      <c r="G396" s="21"/>
+      <c r="H396" s="4"/>
       <c r="I396" s="4"/>
       <c r="J396" s="4"/>
       <c r="K396" s="4"/>
@@ -15585,14 +15547,14 @@
     <row r="397">
       <c r="A397" s="22"/>
       <c r="B397" s="18"/>
-      <c r="C397" s="18"/>
+      <c r="C397" s="8"/>
       <c r="D397" s="17" t="s">
-        <v>382</v>
+        <v>415</v>
       </c>
       <c r="E397" s="19"/>
       <c r="F397" s="20"/>
-      <c r="G397" s="20"/>
-      <c r="H397" s="21"/>
+      <c r="G397" s="21"/>
+      <c r="H397" s="4"/>
       <c r="I397" s="4"/>
       <c r="J397" s="4"/>
       <c r="K397" s="4"/>
@@ -15616,14 +15578,14 @@
     <row r="398">
       <c r="A398" s="22"/>
       <c r="B398" s="18"/>
-      <c r="C398" s="18"/>
+      <c r="C398" s="8"/>
       <c r="D398" s="17" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="E398" s="19"/>
       <c r="F398" s="20"/>
-      <c r="G398" s="20"/>
-      <c r="H398" s="21"/>
+      <c r="G398" s="21"/>
+      <c r="H398" s="4"/>
       <c r="I398" s="4"/>
       <c r="J398" s="4"/>
       <c r="K398" s="4"/>
@@ -15647,14 +15609,14 @@
     <row r="399">
       <c r="A399" s="22"/>
       <c r="B399" s="18"/>
-      <c r="C399" s="18"/>
+      <c r="C399" s="8"/>
       <c r="D399" s="17" t="s">
-        <v>384</v>
+        <v>417</v>
       </c>
       <c r="E399" s="19"/>
       <c r="F399" s="20"/>
-      <c r="G399" s="20"/>
-      <c r="H399" s="21"/>
+      <c r="G399" s="21"/>
+      <c r="H399" s="4"/>
       <c r="I399" s="4"/>
       <c r="J399" s="4"/>
       <c r="K399" s="4"/>
@@ -15678,12 +15640,14 @@
     <row r="400">
       <c r="A400" s="22"/>
       <c r="B400" s="18"/>
-      <c r="C400" s="18"/>
-      <c r="D400" s="20"/>
+      <c r="C400" s="8"/>
+      <c r="D400" s="17" t="s">
+        <v>418</v>
+      </c>
       <c r="E400" s="19"/>
       <c r="F400" s="20"/>
-      <c r="G400" s="20"/>
-      <c r="H400" s="21"/>
+      <c r="G400" s="21"/>
+      <c r="H400" s="4"/>
       <c r="I400" s="4"/>
       <c r="J400" s="4"/>
       <c r="K400" s="4"/>
@@ -15706,17 +15670,15 @@
     </row>
     <row r="401">
       <c r="A401" s="22"/>
-      <c r="B401" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="C401" s="18"/>
+      <c r="B401" s="18"/>
+      <c r="C401" s="8"/>
       <c r="D401" s="17" t="s">
-        <v>386</v>
+        <v>419</v>
       </c>
       <c r="E401" s="19"/>
       <c r="F401" s="20"/>
-      <c r="G401" s="20"/>
-      <c r="H401" s="21"/>
+      <c r="G401" s="21"/>
+      <c r="H401" s="4"/>
       <c r="I401" s="4"/>
       <c r="J401" s="4"/>
       <c r="K401" s="4"/>
@@ -15740,14 +15702,14 @@
     <row r="402">
       <c r="A402" s="22"/>
       <c r="B402" s="18"/>
-      <c r="C402" s="18"/>
+      <c r="C402" s="8"/>
       <c r="D402" s="17" t="s">
-        <v>387</v>
+        <v>420</v>
       </c>
       <c r="E402" s="19"/>
       <c r="F402" s="20"/>
-      <c r="G402" s="20"/>
-      <c r="H402" s="21"/>
+      <c r="G402" s="21"/>
+      <c r="H402" s="4"/>
       <c r="I402" s="4"/>
       <c r="J402" s="4"/>
       <c r="K402" s="4"/>
@@ -15771,14 +15733,16 @@
     <row r="403">
       <c r="A403" s="22"/>
       <c r="B403" s="18"/>
-      <c r="C403" s="18"/>
+      <c r="C403" s="23" t="s">
+        <v>421</v>
+      </c>
       <c r="D403" s="17" t="s">
-        <v>388</v>
+        <v>422</v>
       </c>
       <c r="E403" s="19"/>
       <c r="F403" s="20"/>
-      <c r="G403" s="20"/>
-      <c r="H403" s="21"/>
+      <c r="G403" s="21"/>
+      <c r="H403" s="4"/>
       <c r="I403" s="4"/>
       <c r="J403" s="4"/>
       <c r="K403" s="4"/>
@@ -15802,14 +15766,14 @@
     <row r="404">
       <c r="A404" s="22"/>
       <c r="B404" s="18"/>
-      <c r="C404" s="18"/>
+      <c r="C404" s="8"/>
       <c r="D404" s="17" t="s">
-        <v>389</v>
+        <v>423</v>
       </c>
       <c r="E404" s="19"/>
       <c r="F404" s="20"/>
-      <c r="G404" s="20"/>
-      <c r="H404" s="21"/>
+      <c r="G404" s="21"/>
+      <c r="H404" s="4"/>
       <c r="I404" s="4"/>
       <c r="J404" s="4"/>
       <c r="K404" s="4"/>
@@ -15833,12 +15797,14 @@
     <row r="405">
       <c r="A405" s="22"/>
       <c r="B405" s="18"/>
-      <c r="C405" s="18"/>
-      <c r="D405" s="20"/>
+      <c r="C405" s="8"/>
+      <c r="D405" s="17" t="s">
+        <v>424</v>
+      </c>
       <c r="E405" s="19"/>
       <c r="F405" s="20"/>
-      <c r="G405" s="20"/>
-      <c r="H405" s="21"/>
+      <c r="G405" s="21"/>
+      <c r="H405" s="4"/>
       <c r="I405" s="4"/>
       <c r="J405" s="4"/>
       <c r="K405" s="4"/>
@@ -15862,12 +15828,14 @@
     <row r="406">
       <c r="A406" s="22"/>
       <c r="B406" s="18"/>
-      <c r="C406" s="18"/>
-      <c r="D406" s="20"/>
+      <c r="C406" s="8"/>
+      <c r="D406" s="17" t="s">
+        <v>425</v>
+      </c>
       <c r="E406" s="19"/>
       <c r="F406" s="20"/>
-      <c r="G406" s="20"/>
-      <c r="H406" s="21"/>
+      <c r="G406" s="21"/>
+      <c r="H406" s="4"/>
       <c r="I406" s="4"/>
       <c r="J406" s="4"/>
       <c r="K406" s="4"/>
@@ -15891,12 +15859,14 @@
     <row r="407">
       <c r="A407" s="22"/>
       <c r="B407" s="18"/>
-      <c r="C407" s="18"/>
-      <c r="D407" s="20"/>
+      <c r="C407" s="8"/>
+      <c r="D407" s="17" t="s">
+        <v>426</v>
+      </c>
       <c r="E407" s="19"/>
       <c r="F407" s="20"/>
-      <c r="G407" s="20"/>
-      <c r="H407" s="21"/>
+      <c r="G407" s="21"/>
+      <c r="H407" s="4"/>
       <c r="I407" s="4"/>
       <c r="J407" s="4"/>
       <c r="K407" s="4"/>
@@ -15920,14 +15890,14 @@
     <row r="408">
       <c r="A408" s="22"/>
       <c r="B408" s="18"/>
-      <c r="C408" s="18"/>
+      <c r="C408" s="8"/>
       <c r="D408" s="17" t="s">
-        <v>390</v>
+        <v>427</v>
       </c>
       <c r="E408" s="19"/>
       <c r="F408" s="20"/>
-      <c r="G408" s="20"/>
-      <c r="H408" s="21"/>
+      <c r="G408" s="21"/>
+      <c r="H408" s="4"/>
       <c r="I408" s="4"/>
       <c r="J408" s="4"/>
       <c r="K408" s="4"/>
@@ -15951,12 +15921,16 @@
     <row r="409">
       <c r="A409" s="22"/>
       <c r="B409" s="18"/>
-      <c r="C409" s="18"/>
-      <c r="D409" s="20"/>
+      <c r="C409" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="D409" s="17" t="s">
+        <v>429</v>
+      </c>
       <c r="E409" s="19"/>
       <c r="F409" s="20"/>
-      <c r="G409" s="20"/>
-      <c r="H409" s="21"/>
+      <c r="G409" s="21"/>
+      <c r="H409" s="4"/>
       <c r="I409" s="4"/>
       <c r="J409" s="4"/>
       <c r="K409" s="4"/>
@@ -15980,12 +15954,14 @@
     <row r="410">
       <c r="A410" s="22"/>
       <c r="B410" s="18"/>
-      <c r="C410" s="18"/>
-      <c r="D410" s="20"/>
+      <c r="C410" s="8"/>
+      <c r="D410" s="17" t="s">
+        <v>430</v>
+      </c>
       <c r="E410" s="19"/>
       <c r="F410" s="20"/>
-      <c r="G410" s="20"/>
-      <c r="H410" s="21"/>
+      <c r="G410" s="21"/>
+      <c r="H410" s="4"/>
       <c r="I410" s="4"/>
       <c r="J410" s="4"/>
       <c r="K410" s="4"/>
@@ -16008,17 +15984,15 @@
     </row>
     <row r="411">
       <c r="A411" s="22"/>
-      <c r="B411" s="42" t="s">
-        <v>391</v>
-      </c>
-      <c r="C411" s="43"/>
+      <c r="B411" s="18"/>
+      <c r="C411" s="8"/>
       <c r="D411" s="17" t="s">
-        <v>392</v>
+        <v>431</v>
       </c>
       <c r="E411" s="19"/>
       <c r="F411" s="20"/>
-      <c r="G411" s="20"/>
-      <c r="H411" s="21"/>
+      <c r="G411" s="21"/>
+      <c r="H411" s="4"/>
       <c r="I411" s="4"/>
       <c r="J411" s="4"/>
       <c r="K411" s="4"/>
@@ -16041,15 +16015,15 @@
     </row>
     <row r="412">
       <c r="A412" s="22"/>
-      <c r="B412" s="47"/>
-      <c r="C412" s="48"/>
+      <c r="B412" s="18"/>
+      <c r="C412" s="8"/>
       <c r="D412" s="17" t="s">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="E412" s="19"/>
       <c r="F412" s="20"/>
-      <c r="G412" s="20"/>
-      <c r="H412" s="21"/>
+      <c r="G412" s="21"/>
+      <c r="H412" s="4"/>
       <c r="I412" s="4"/>
       <c r="J412" s="4"/>
       <c r="K412" s="4"/>
@@ -16072,15 +16046,15 @@
     </row>
     <row r="413">
       <c r="A413" s="22"/>
-      <c r="B413" s="47"/>
-      <c r="C413" s="48"/>
+      <c r="B413" s="18"/>
+      <c r="C413" s="8"/>
       <c r="D413" s="17" t="s">
-        <v>394</v>
+        <v>433</v>
       </c>
       <c r="E413" s="19"/>
       <c r="F413" s="20"/>
-      <c r="G413" s="20"/>
-      <c r="H413" s="21"/>
+      <c r="G413" s="21"/>
+      <c r="H413" s="4"/>
       <c r="I413" s="4"/>
       <c r="J413" s="4"/>
       <c r="K413" s="4"/>
@@ -16103,15 +16077,15 @@
     </row>
     <row r="414">
       <c r="A414" s="22"/>
-      <c r="B414" s="47"/>
-      <c r="C414" s="48"/>
+      <c r="B414" s="18"/>
+      <c r="C414" s="8"/>
       <c r="D414" s="17" t="s">
-        <v>395</v>
+        <v>434</v>
       </c>
       <c r="E414" s="19"/>
       <c r="F414" s="20"/>
-      <c r="G414" s="20"/>
-      <c r="H414" s="21"/>
+      <c r="G414" s="21"/>
+      <c r="H414" s="4"/>
       <c r="I414" s="4"/>
       <c r="J414" s="4"/>
       <c r="K414" s="4"/>
@@ -16134,15 +16108,15 @@
     </row>
     <row r="415">
       <c r="A415" s="22"/>
-      <c r="B415" s="47"/>
-      <c r="C415" s="48"/>
+      <c r="B415" s="18"/>
+      <c r="C415" s="8"/>
       <c r="D415" s="17" t="s">
-        <v>396</v>
+        <v>435</v>
       </c>
       <c r="E415" s="19"/>
       <c r="F415" s="20"/>
-      <c r="G415" s="20"/>
-      <c r="H415" s="21"/>
+      <c r="G415" s="21"/>
+      <c r="H415" s="4"/>
       <c r="I415" s="4"/>
       <c r="J415" s="4"/>
       <c r="K415" s="4"/>
@@ -16165,15 +16139,15 @@
     </row>
     <row r="416">
       <c r="A416" s="22"/>
-      <c r="B416" s="47"/>
-      <c r="C416" s="48"/>
+      <c r="B416" s="18"/>
+      <c r="C416" s="8"/>
       <c r="D416" s="17" t="s">
-        <v>397</v>
+        <v>436</v>
       </c>
       <c r="E416" s="19"/>
       <c r="F416" s="20"/>
-      <c r="G416" s="20"/>
-      <c r="H416" s="21"/>
+      <c r="G416" s="21"/>
+      <c r="H416" s="4"/>
       <c r="I416" s="4"/>
       <c r="J416" s="4"/>
       <c r="K416" s="4"/>
@@ -16196,15 +16170,15 @@
     </row>
     <row r="417">
       <c r="A417" s="22"/>
-      <c r="B417" s="47"/>
-      <c r="C417" s="48"/>
+      <c r="B417" s="18"/>
+      <c r="C417" s="8"/>
       <c r="D417" s="17" t="s">
-        <v>398</v>
+        <v>437</v>
       </c>
       <c r="E417" s="19"/>
       <c r="F417" s="20"/>
-      <c r="G417" s="20"/>
-      <c r="H417" s="21"/>
+      <c r="G417" s="21"/>
+      <c r="H417" s="4"/>
       <c r="I417" s="4"/>
       <c r="J417" s="4"/>
       <c r="K417" s="4"/>
@@ -16227,15 +16201,17 @@
     </row>
     <row r="418">
       <c r="A418" s="22"/>
-      <c r="B418" s="47"/>
-      <c r="C418" s="48"/>
+      <c r="B418" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="C418" s="18"/>
       <c r="D418" s="17" t="s">
-        <v>399</v>
+        <v>18</v>
       </c>
       <c r="E418" s="19"/>
       <c r="F418" s="20"/>
-      <c r="G418" s="20"/>
-      <c r="H418" s="21"/>
+      <c r="G418" s="21"/>
+      <c r="H418" s="4"/>
       <c r="I418" s="4"/>
       <c r="J418" s="4"/>
       <c r="K418" s="4"/>
@@ -16258,15 +16234,15 @@
     </row>
     <row r="419">
       <c r="A419" s="22"/>
-      <c r="B419" s="47"/>
-      <c r="C419" s="48"/>
+      <c r="B419" s="18"/>
+      <c r="C419" s="18"/>
       <c r="D419" s="17" t="s">
-        <v>400</v>
+        <v>439</v>
       </c>
       <c r="E419" s="19"/>
       <c r="F419" s="20"/>
-      <c r="G419" s="20"/>
-      <c r="H419" s="21"/>
+      <c r="G419" s="21"/>
+      <c r="H419" s="4"/>
       <c r="I419" s="4"/>
       <c r="J419" s="4"/>
       <c r="K419" s="4"/>
@@ -16289,15 +16265,15 @@
     </row>
     <row r="420">
       <c r="A420" s="22"/>
-      <c r="B420" s="47"/>
-      <c r="C420" s="48"/>
+      <c r="B420" s="18"/>
+      <c r="C420" s="18"/>
       <c r="D420" s="17" t="s">
-        <v>401</v>
+        <v>440</v>
       </c>
       <c r="E420" s="19"/>
       <c r="F420" s="20"/>
-      <c r="G420" s="20"/>
-      <c r="H420" s="21"/>
+      <c r="G420" s="21"/>
+      <c r="H420" s="4"/>
       <c r="I420" s="4"/>
       <c r="J420" s="4"/>
       <c r="K420" s="4"/>
@@ -16320,15 +16296,15 @@
     </row>
     <row r="421">
       <c r="A421" s="22"/>
-      <c r="B421" s="47"/>
-      <c r="C421" s="48"/>
+      <c r="B421" s="18"/>
+      <c r="C421" s="18"/>
       <c r="D421" s="17" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
       <c r="E421" s="19"/>
       <c r="F421" s="20"/>
-      <c r="G421" s="20"/>
-      <c r="H421" s="21"/>
+      <c r="G421" s="21"/>
+      <c r="H421" s="4"/>
       <c r="I421" s="4"/>
       <c r="J421" s="4"/>
       <c r="K421" s="4"/>
@@ -16351,15 +16327,15 @@
     </row>
     <row r="422">
       <c r="A422" s="22"/>
-      <c r="B422" s="47"/>
-      <c r="C422" s="48"/>
+      <c r="B422" s="18"/>
+      <c r="C422" s="18"/>
       <c r="D422" s="17" t="s">
-        <v>403</v>
+        <v>19</v>
       </c>
       <c r="E422" s="19"/>
       <c r="F422" s="20"/>
-      <c r="G422" s="20"/>
-      <c r="H422" s="21"/>
+      <c r="G422" s="21"/>
+      <c r="H422" s="4"/>
       <c r="I422" s="4"/>
       <c r="J422" s="4"/>
       <c r="K422" s="4"/>
@@ -16382,15 +16358,15 @@
     </row>
     <row r="423">
       <c r="A423" s="22"/>
-      <c r="B423" s="47"/>
-      <c r="C423" s="48"/>
+      <c r="B423" s="18"/>
+      <c r="C423" s="18"/>
       <c r="D423" s="17" t="s">
-        <v>404</v>
+        <v>20</v>
       </c>
       <c r="E423" s="19"/>
       <c r="F423" s="20"/>
-      <c r="G423" s="20"/>
-      <c r="H423" s="21"/>
+      <c r="G423" s="21"/>
+      <c r="H423" s="4"/>
       <c r="I423" s="4"/>
       <c r="J423" s="4"/>
       <c r="K423" s="4"/>
@@ -16413,15 +16389,15 @@
     </row>
     <row r="424">
       <c r="A424" s="22"/>
-      <c r="B424" s="47"/>
-      <c r="C424" s="48"/>
+      <c r="B424" s="18"/>
+      <c r="C424" s="18"/>
       <c r="D424" s="17" t="s">
-        <v>405</v>
+        <v>442</v>
       </c>
       <c r="E424" s="19"/>
       <c r="F424" s="20"/>
-      <c r="G424" s="20"/>
-      <c r="H424" s="21"/>
+      <c r="G424" s="21"/>
+      <c r="H424" s="4"/>
       <c r="I424" s="4"/>
       <c r="J424" s="4"/>
       <c r="K424" s="4"/>
@@ -16444,15 +16420,15 @@
     </row>
     <row r="425">
       <c r="A425" s="22"/>
-      <c r="B425" s="47"/>
-      <c r="C425" s="48"/>
+      <c r="B425" s="18"/>
+      <c r="C425" s="18"/>
       <c r="D425" s="17" t="s">
-        <v>406</v>
+        <v>443</v>
       </c>
       <c r="E425" s="19"/>
       <c r="F425" s="20"/>
-      <c r="G425" s="20"/>
-      <c r="H425" s="21"/>
+      <c r="G425" s="21"/>
+      <c r="H425" s="4"/>
       <c r="I425" s="4"/>
       <c r="J425" s="4"/>
       <c r="K425" s="4"/>
@@ -16475,13 +16451,15 @@
     </row>
     <row r="426">
       <c r="A426" s="22"/>
-      <c r="B426" s="20"/>
-      <c r="C426" s="20"/>
-      <c r="D426" s="20"/>
+      <c r="B426" s="18"/>
+      <c r="C426" s="18"/>
+      <c r="D426" s="17" t="s">
+        <v>444</v>
+      </c>
       <c r="E426" s="19"/>
       <c r="F426" s="20"/>
-      <c r="G426" s="20"/>
-      <c r="H426" s="21"/>
+      <c r="G426" s="21"/>
+      <c r="H426" s="4"/>
       <c r="I426" s="4"/>
       <c r="J426" s="4"/>
       <c r="K426" s="4"/>
@@ -16503,14 +16481,16 @@
       <c r="AA426" s="4"/>
     </row>
     <row r="427">
-      <c r="A427" s="26"/>
-      <c r="B427" s="49"/>
-      <c r="C427" s="49"/>
-      <c r="D427" s="49"/>
-      <c r="E427" s="29"/>
-      <c r="F427" s="49"/>
-      <c r="G427" s="49"/>
-      <c r="H427" s="50"/>
+      <c r="A427" s="22"/>
+      <c r="B427" s="18"/>
+      <c r="C427" s="18"/>
+      <c r="D427" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="E427" s="19"/>
+      <c r="F427" s="20"/>
+      <c r="G427" s="21"/>
+      <c r="H427" s="4"/>
       <c r="I427" s="4"/>
       <c r="J427" s="4"/>
       <c r="K427" s="4"/>
@@ -16532,17 +16512,15 @@
       <c r="AA427" s="4"/>
     </row>
     <row r="428">
-      <c r="A428" s="51" t="s">
-        <v>407</v>
-      </c>
-      <c r="B428" s="52"/>
-      <c r="C428" s="52"/>
-      <c r="D428" s="53" t="s">
-        <v>408</v>
-      </c>
-      <c r="E428" s="54"/>
-      <c r="F428" s="55"/>
-      <c r="G428" s="56"/>
+      <c r="A428" s="22"/>
+      <c r="B428" s="18"/>
+      <c r="C428" s="18"/>
+      <c r="D428" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E428" s="19"/>
+      <c r="F428" s="20"/>
+      <c r="G428" s="21"/>
       <c r="H428" s="4"/>
       <c r="I428" s="4"/>
       <c r="J428" s="4"/>
@@ -16565,15 +16543,13 @@
       <c r="AA428" s="4"/>
     </row>
     <row r="429">
-      <c r="A429" s="57"/>
-      <c r="B429" s="57"/>
-      <c r="C429" s="57"/>
-      <c r="D429" s="53" t="s">
-        <v>409</v>
-      </c>
-      <c r="E429" s="54"/>
-      <c r="F429" s="58"/>
-      <c r="G429" s="59"/>
+      <c r="A429" s="61"/>
+      <c r="B429" s="62"/>
+      <c r="C429" s="62"/>
+      <c r="D429" s="62"/>
+      <c r="E429" s="63"/>
+      <c r="F429" s="62"/>
+      <c r="G429" s="64"/>
       <c r="H429" s="4"/>
       <c r="I429" s="4"/>
       <c r="J429" s="4"/>
@@ -16596,15 +16572,13 @@
       <c r="AA429" s="4"/>
     </row>
     <row r="430">
-      <c r="A430" s="57"/>
-      <c r="B430" s="57"/>
-      <c r="C430" s="57"/>
-      <c r="D430" s="53" t="s">
-        <v>410</v>
-      </c>
-      <c r="E430" s="54"/>
-      <c r="F430" s="58"/>
-      <c r="G430" s="59"/>
+      <c r="A430" s="61"/>
+      <c r="B430" s="62"/>
+      <c r="C430" s="62"/>
+      <c r="D430" s="62"/>
+      <c r="E430" s="63"/>
+      <c r="F430" s="62"/>
+      <c r="G430" s="64"/>
       <c r="H430" s="4"/>
       <c r="I430" s="4"/>
       <c r="J430" s="4"/>
@@ -16627,15 +16601,13 @@
       <c r="AA430" s="4"/>
     </row>
     <row r="431">
-      <c r="A431" s="57"/>
-      <c r="B431" s="57"/>
-      <c r="C431" s="57"/>
-      <c r="D431" s="53" t="s">
-        <v>411</v>
-      </c>
-      <c r="E431" s="54"/>
-      <c r="F431" s="58"/>
-      <c r="G431" s="59"/>
+      <c r="A431" s="61"/>
+      <c r="B431" s="62"/>
+      <c r="C431" s="62"/>
+      <c r="D431" s="62"/>
+      <c r="E431" s="63"/>
+      <c r="F431" s="62"/>
+      <c r="G431" s="64"/>
       <c r="H431" s="4"/>
       <c r="I431" s="4"/>
       <c r="J431" s="4"/>
@@ -16658,15 +16630,13 @@
       <c r="AA431" s="4"/>
     </row>
     <row r="432">
-      <c r="A432" s="57"/>
-      <c r="B432" s="57"/>
-      <c r="C432" s="57"/>
-      <c r="D432" s="53" t="s">
-        <v>412</v>
-      </c>
-      <c r="E432" s="54"/>
-      <c r="F432" s="58"/>
-      <c r="G432" s="59"/>
+      <c r="A432" s="61"/>
+      <c r="B432" s="62"/>
+      <c r="C432" s="62"/>
+      <c r="D432" s="62"/>
+      <c r="E432" s="63"/>
+      <c r="F432" s="62"/>
+      <c r="G432" s="64"/>
       <c r="H432" s="4"/>
       <c r="I432" s="4"/>
       <c r="J432" s="4"/>
@@ -16689,15 +16659,13 @@
       <c r="AA432" s="4"/>
     </row>
     <row r="433">
-      <c r="A433" s="57"/>
-      <c r="B433" s="57"/>
-      <c r="C433" s="57"/>
-      <c r="D433" s="53" t="s">
-        <v>413</v>
-      </c>
-      <c r="E433" s="54"/>
-      <c r="F433" s="58"/>
-      <c r="G433" s="59"/>
+      <c r="A433" s="61"/>
+      <c r="B433" s="62"/>
+      <c r="C433" s="62"/>
+      <c r="D433" s="62"/>
+      <c r="E433" s="63"/>
+      <c r="F433" s="62"/>
+      <c r="G433" s="64"/>
       <c r="H433" s="4"/>
       <c r="I433" s="4"/>
       <c r="J433" s="4"/>
@@ -16720,12 +16688,12 @@
       <c r="AA433" s="4"/>
     </row>
     <row r="434">
-      <c r="A434" s="60"/>
-      <c r="B434" s="60"/>
-      <c r="C434" s="60"/>
-      <c r="D434" s="61"/>
-      <c r="E434" s="62"/>
-      <c r="F434" s="63"/>
+      <c r="A434" s="61"/>
+      <c r="B434" s="62"/>
+      <c r="C434" s="62"/>
+      <c r="D434" s="62"/>
+      <c r="E434" s="63"/>
+      <c r="F434" s="62"/>
       <c r="G434" s="64"/>
       <c r="H434" s="4"/>
       <c r="I434" s="4"/>
@@ -16749,19 +16717,13 @@
       <c r="AA434" s="4"/>
     </row>
     <row r="435">
-      <c r="A435" s="46" t="s">
-        <v>414</v>
-      </c>
-      <c r="B435" s="65"/>
-      <c r="C435" s="12"/>
-      <c r="D435" s="12"/>
-      <c r="E435" s="12"/>
-      <c r="F435" s="14" t="s">
-        <v>415</v>
-      </c>
-      <c r="G435" s="15" t="s">
-        <v>416</v>
-      </c>
+      <c r="A435" s="61"/>
+      <c r="B435" s="62"/>
+      <c r="C435" s="62"/>
+      <c r="D435" s="62"/>
+      <c r="E435" s="63"/>
+      <c r="F435" s="62"/>
+      <c r="G435" s="64"/>
       <c r="H435" s="4"/>
       <c r="I435" s="4"/>
       <c r="J435" s="4"/>
@@ -16784,21 +16746,15 @@
       <c r="AA435" s="4"/>
     </row>
     <row r="436">
-      <c r="A436" s="22"/>
-      <c r="B436" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="C436" s="66" t="s">
-        <v>418</v>
-      </c>
-      <c r="D436" s="67"/>
-      <c r="E436" s="19"/>
-      <c r="F436" s="20"/>
-      <c r="G436" s="21"/>
+      <c r="A436" s="61"/>
+      <c r="B436" s="62"/>
+      <c r="C436" s="62"/>
+      <c r="D436" s="62"/>
+      <c r="E436" s="63"/>
+      <c r="F436" s="62"/>
+      <c r="G436" s="64"/>
       <c r="H436" s="4"/>
-      <c r="I436" s="10" t="s">
-        <v>419</v>
-      </c>
+      <c r="I436" s="4"/>
       <c r="J436" s="4"/>
       <c r="K436" s="4"/>
       <c r="L436" s="4"/>
@@ -16819,19 +16775,15 @@
       <c r="AA436" s="4"/>
     </row>
     <row r="437">
-      <c r="A437" s="22"/>
-      <c r="B437" s="18"/>
-      <c r="C437" s="66" t="s">
-        <v>420</v>
-      </c>
-      <c r="D437" s="67"/>
-      <c r="E437" s="19"/>
-      <c r="F437" s="20"/>
-      <c r="G437" s="21"/>
+      <c r="A437" s="61"/>
+      <c r="B437" s="62"/>
+      <c r="C437" s="62"/>
+      <c r="D437" s="62"/>
+      <c r="E437" s="63"/>
+      <c r="F437" s="62"/>
+      <c r="G437" s="64"/>
       <c r="H437" s="4"/>
-      <c r="I437" s="10" t="s">
-        <v>419</v>
-      </c>
+      <c r="I437" s="4"/>
       <c r="J437" s="4"/>
       <c r="K437" s="4"/>
       <c r="L437" s="4"/>
@@ -16852,13 +16804,13 @@
       <c r="AA437" s="4"/>
     </row>
     <row r="438">
-      <c r="A438" s="22"/>
-      <c r="B438" s="18"/>
-      <c r="C438" s="20"/>
-      <c r="D438" s="20"/>
-      <c r="E438" s="19"/>
-      <c r="F438" s="20"/>
-      <c r="G438" s="21"/>
+      <c r="A438" s="61"/>
+      <c r="B438" s="62"/>
+      <c r="C438" s="62"/>
+      <c r="D438" s="62"/>
+      <c r="E438" s="63"/>
+      <c r="F438" s="62"/>
+      <c r="G438" s="64"/>
       <c r="H438" s="4"/>
       <c r="I438" s="4"/>
       <c r="J438" s="4"/>
@@ -16881,13 +16833,13 @@
       <c r="AA438" s="4"/>
     </row>
     <row r="439">
-      <c r="A439" s="22"/>
-      <c r="B439" s="18"/>
-      <c r="C439" s="20"/>
-      <c r="D439" s="20"/>
-      <c r="E439" s="19"/>
-      <c r="F439" s="20"/>
-      <c r="G439" s="21"/>
+      <c r="A439" s="26"/>
+      <c r="B439" s="47"/>
+      <c r="C439" s="47"/>
+      <c r="D439" s="47"/>
+      <c r="E439" s="29"/>
+      <c r="F439" s="47"/>
+      <c r="G439" s="48"/>
       <c r="H439" s="4"/>
       <c r="I439" s="4"/>
       <c r="J439" s="4"/>
@@ -16910,13 +16862,15 @@
       <c r="AA439" s="4"/>
     </row>
     <row r="440">
-      <c r="A440" s="22"/>
-      <c r="B440" s="18"/>
-      <c r="C440" s="20"/>
-      <c r="D440" s="20"/>
-      <c r="E440" s="19"/>
-      <c r="F440" s="20"/>
-      <c r="G440" s="21"/>
+      <c r="A440" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="B440" s="4"/>
+      <c r="C440" s="4"/>
+      <c r="D440" s="4"/>
+      <c r="E440" s="65"/>
+      <c r="F440" s="4"/>
+      <c r="G440" s="4"/>
       <c r="H440" s="4"/>
       <c r="I440" s="4"/>
       <c r="J440" s="4"/>
@@ -16939,13 +16893,13 @@
       <c r="AA440" s="4"/>
     </row>
     <row r="441">
-      <c r="A441" s="22"/>
-      <c r="B441" s="18"/>
-      <c r="C441" s="20"/>
-      <c r="D441" s="20"/>
-      <c r="E441" s="19"/>
-      <c r="F441" s="20"/>
-      <c r="G441" s="21"/>
+      <c r="A441" s="66"/>
+      <c r="B441" s="4"/>
+      <c r="C441" s="4"/>
+      <c r="D441" s="4"/>
+      <c r="E441" s="65"/>
+      <c r="F441" s="4"/>
+      <c r="G441" s="4"/>
       <c r="H441" s="4"/>
       <c r="I441" s="4"/>
       <c r="J441" s="4"/>
@@ -16968,13 +16922,15 @@
       <c r="AA441" s="4"/>
     </row>
     <row r="442">
-      <c r="A442" s="22"/>
-      <c r="B442" s="18"/>
-      <c r="C442" s="20"/>
-      <c r="D442" s="20"/>
-      <c r="E442" s="19"/>
-      <c r="F442" s="20"/>
-      <c r="G442" s="21"/>
+      <c r="A442" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="B442" s="4"/>
+      <c r="C442" s="4"/>
+      <c r="D442" s="4"/>
+      <c r="E442" s="65"/>
+      <c r="F442" s="4"/>
+      <c r="G442" s="4"/>
       <c r="H442" s="4"/>
       <c r="I442" s="4"/>
       <c r="J442" s="4"/>
@@ -16997,19 +16953,15 @@
       <c r="AA442" s="4"/>
     </row>
     <row r="443">
-      <c r="A443" s="22"/>
-      <c r="B443" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="C443" s="18"/>
-      <c r="D443" s="18"/>
-      <c r="E443" s="19"/>
-      <c r="F443" s="20"/>
-      <c r="G443" s="21"/>
-      <c r="H443" s="10"/>
-      <c r="I443" s="10" t="s">
-        <v>419</v>
-      </c>
+      <c r="A443" s="66"/>
+      <c r="B443" s="4"/>
+      <c r="C443" s="4"/>
+      <c r="D443" s="4"/>
+      <c r="E443" s="65"/>
+      <c r="F443" s="4"/>
+      <c r="G443" s="4"/>
+      <c r="H443" s="4"/>
+      <c r="I443" s="4"/>
       <c r="J443" s="4"/>
       <c r="K443" s="4"/>
       <c r="L443" s="4"/>
@@ -17030,19 +16982,15 @@
       <c r="AA443" s="4"/>
     </row>
     <row r="444">
-      <c r="A444" s="22"/>
-      <c r="B444" s="17" t="s">
-        <v>422</v>
-      </c>
-      <c r="C444" s="23" t="s">
-        <v>423</v>
-      </c>
-      <c r="D444" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="E444" s="19"/>
-      <c r="F444" s="20"/>
-      <c r="G444" s="21"/>
+      <c r="A444" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B444" s="4"/>
+      <c r="C444" s="4"/>
+      <c r="D444" s="4"/>
+      <c r="E444" s="65"/>
+      <c r="F444" s="4"/>
+      <c r="G444" s="4"/>
       <c r="H444" s="4"/>
       <c r="I444" s="4"/>
       <c r="J444" s="4"/>
@@ -17065,15 +17013,13 @@
       <c r="AA444" s="4"/>
     </row>
     <row r="445">
-      <c r="A445" s="22"/>
-      <c r="B445" s="18"/>
-      <c r="C445" s="8"/>
-      <c r="D445" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="E445" s="19"/>
-      <c r="F445" s="20"/>
-      <c r="G445" s="21"/>
+      <c r="A445" s="66"/>
+      <c r="B445" s="4"/>
+      <c r="C445" s="4"/>
+      <c r="D445" s="4"/>
+      <c r="E445" s="65"/>
+      <c r="F445" s="4"/>
+      <c r="G445" s="4"/>
       <c r="H445" s="4"/>
       <c r="I445" s="4"/>
       <c r="J445" s="4"/>
@@ -17096,15 +17042,15 @@
       <c r="AA445" s="4"/>
     </row>
     <row r="446">
-      <c r="A446" s="22"/>
-      <c r="B446" s="18"/>
-      <c r="C446" s="8"/>
-      <c r="D446" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="E446" s="19"/>
-      <c r="F446" s="20"/>
-      <c r="G446" s="21"/>
+      <c r="A446" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B446" s="4"/>
+      <c r="C446" s="4"/>
+      <c r="D446" s="4"/>
+      <c r="E446" s="65"/>
+      <c r="F446" s="4"/>
+      <c r="G446" s="4"/>
       <c r="H446" s="4"/>
       <c r="I446" s="4"/>
       <c r="J446" s="4"/>
@@ -17127,15 +17073,13 @@
       <c r="AA446" s="4"/>
     </row>
     <row r="447">
-      <c r="A447" s="22"/>
-      <c r="B447" s="18"/>
-      <c r="C447" s="8"/>
-      <c r="D447" s="17" t="s">
-        <v>427</v>
-      </c>
-      <c r="E447" s="19"/>
-      <c r="F447" s="20"/>
-      <c r="G447" s="21"/>
+      <c r="A447" s="66"/>
+      <c r="B447" s="4"/>
+      <c r="C447" s="4"/>
+      <c r="D447" s="4"/>
+      <c r="E447" s="65"/>
+      <c r="F447" s="4"/>
+      <c r="G447" s="4"/>
       <c r="H447" s="4"/>
       <c r="I447" s="4"/>
       <c r="J447" s="4"/>
@@ -17158,15 +17102,15 @@
       <c r="AA447" s="4"/>
     </row>
     <row r="448">
-      <c r="A448" s="22"/>
-      <c r="B448" s="18"/>
-      <c r="C448" s="8"/>
-      <c r="D448" s="17" t="s">
-        <v>428</v>
-      </c>
-      <c r="E448" s="19"/>
-      <c r="F448" s="20"/>
-      <c r="G448" s="21"/>
+      <c r="A448" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B448" s="4"/>
+      <c r="C448" s="4"/>
+      <c r="D448" s="4"/>
+      <c r="E448" s="65"/>
+      <c r="F448" s="4"/>
+      <c r="G448" s="4"/>
       <c r="H448" s="4"/>
       <c r="I448" s="4"/>
       <c r="J448" s="4"/>
@@ -17189,15 +17133,13 @@
       <c r="AA448" s="4"/>
     </row>
     <row r="449">
-      <c r="A449" s="22"/>
-      <c r="B449" s="18"/>
-      <c r="C449" s="8"/>
-      <c r="D449" s="17" t="s">
-        <v>429</v>
-      </c>
-      <c r="E449" s="19"/>
-      <c r="F449" s="20"/>
-      <c r="G449" s="21"/>
+      <c r="A449" s="67"/>
+      <c r="B449" s="4"/>
+      <c r="C449" s="4"/>
+      <c r="D449" s="4"/>
+      <c r="E449" s="65"/>
+      <c r="F449" s="4"/>
+      <c r="G449" s="4"/>
       <c r="H449" s="4"/>
       <c r="I449" s="4"/>
       <c r="J449" s="4"/>
@@ -17220,15 +17162,13 @@
       <c r="AA449" s="4"/>
     </row>
     <row r="450">
-      <c r="A450" s="22"/>
-      <c r="B450" s="18"/>
-      <c r="C450" s="8"/>
-      <c r="D450" s="17" t="s">
-        <v>430</v>
-      </c>
-      <c r="E450" s="19"/>
-      <c r="F450" s="20"/>
-      <c r="G450" s="21"/>
+      <c r="A450" s="4"/>
+      <c r="B450" s="4"/>
+      <c r="C450" s="4"/>
+      <c r="D450" s="4"/>
+      <c r="E450" s="65"/>
+      <c r="F450" s="4"/>
+      <c r="G450" s="4"/>
       <c r="H450" s="4"/>
       <c r="I450" s="4"/>
       <c r="J450" s="4"/>
@@ -17251,15 +17191,13 @@
       <c r="AA450" s="4"/>
     </row>
     <row r="451">
-      <c r="A451" s="22"/>
-      <c r="B451" s="18"/>
-      <c r="C451" s="8"/>
-      <c r="D451" s="17" t="s">
-        <v>431</v>
-      </c>
-      <c r="E451" s="19"/>
-      <c r="F451" s="20"/>
-      <c r="G451" s="21"/>
+      <c r="A451" s="4"/>
+      <c r="B451" s="4"/>
+      <c r="C451" s="4"/>
+      <c r="D451" s="4"/>
+      <c r="E451" s="65"/>
+      <c r="F451" s="4"/>
+      <c r="G451" s="4"/>
       <c r="H451" s="4"/>
       <c r="I451" s="4"/>
       <c r="J451" s="4"/>
@@ -17282,15 +17220,13 @@
       <c r="AA451" s="4"/>
     </row>
     <row r="452">
-      <c r="A452" s="22"/>
-      <c r="B452" s="18"/>
-      <c r="C452" s="8"/>
-      <c r="D452" s="17" t="s">
-        <v>432</v>
-      </c>
-      <c r="E452" s="19"/>
-      <c r="F452" s="20"/>
-      <c r="G452" s="21"/>
+      <c r="A452" s="4"/>
+      <c r="B452" s="4"/>
+      <c r="C452" s="4"/>
+      <c r="D452" s="4"/>
+      <c r="E452" s="65"/>
+      <c r="F452" s="4"/>
+      <c r="G452" s="4"/>
       <c r="H452" s="4"/>
       <c r="I452" s="4"/>
       <c r="J452" s="4"/>
@@ -17313,15 +17249,13 @@
       <c r="AA452" s="4"/>
     </row>
     <row r="453">
-      <c r="A453" s="22"/>
-      <c r="B453" s="18"/>
-      <c r="C453" s="8"/>
-      <c r="D453" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="E453" s="19"/>
-      <c r="F453" s="20"/>
-      <c r="G453" s="21"/>
+      <c r="A453" s="4"/>
+      <c r="B453" s="4"/>
+      <c r="C453" s="4"/>
+      <c r="D453" s="4"/>
+      <c r="E453" s="65"/>
+      <c r="F453" s="4"/>
+      <c r="G453" s="4"/>
       <c r="H453" s="4"/>
       <c r="I453" s="4"/>
       <c r="J453" s="4"/>
@@ -17344,15 +17278,13 @@
       <c r="AA453" s="4"/>
     </row>
     <row r="454">
-      <c r="A454" s="22"/>
-      <c r="B454" s="18"/>
-      <c r="C454" s="8"/>
-      <c r="D454" s="17" t="s">
-        <v>434</v>
-      </c>
-      <c r="E454" s="19"/>
-      <c r="F454" s="20"/>
-      <c r="G454" s="21"/>
+      <c r="A454" s="4"/>
+      <c r="B454" s="4"/>
+      <c r="C454" s="4"/>
+      <c r="D454" s="4"/>
+      <c r="E454" s="65"/>
+      <c r="F454" s="4"/>
+      <c r="G454" s="4"/>
       <c r="H454" s="4"/>
       <c r="I454" s="4"/>
       <c r="J454" s="4"/>
@@ -17375,15 +17307,13 @@
       <c r="AA454" s="4"/>
     </row>
     <row r="455">
-      <c r="A455" s="22"/>
-      <c r="B455" s="18"/>
-      <c r="C455" s="8"/>
-      <c r="D455" s="17" t="s">
-        <v>435</v>
-      </c>
-      <c r="E455" s="19"/>
-      <c r="F455" s="20"/>
-      <c r="G455" s="21"/>
+      <c r="A455" s="4"/>
+      <c r="B455" s="4"/>
+      <c r="C455" s="4"/>
+      <c r="D455" s="4"/>
+      <c r="E455" s="65"/>
+      <c r="F455" s="4"/>
+      <c r="G455" s="4"/>
       <c r="H455" s="4"/>
       <c r="I455" s="4"/>
       <c r="J455" s="4"/>
@@ -17406,15 +17336,13 @@
       <c r="AA455" s="4"/>
     </row>
     <row r="456">
-      <c r="A456" s="22"/>
-      <c r="B456" s="18"/>
-      <c r="C456" s="8"/>
-      <c r="D456" s="17" t="s">
-        <v>436</v>
-      </c>
-      <c r="E456" s="19"/>
-      <c r="F456" s="20"/>
-      <c r="G456" s="21"/>
+      <c r="A456" s="4"/>
+      <c r="B456" s="4"/>
+      <c r="C456" s="4"/>
+      <c r="D456" s="4"/>
+      <c r="E456" s="65"/>
+      <c r="F456" s="4"/>
+      <c r="G456" s="4"/>
       <c r="H456" s="4"/>
       <c r="I456" s="4"/>
       <c r="J456" s="4"/>
@@ -17437,15 +17365,13 @@
       <c r="AA456" s="4"/>
     </row>
     <row r="457">
-      <c r="A457" s="22"/>
-      <c r="B457" s="18"/>
-      <c r="C457" s="8"/>
-      <c r="D457" s="17" t="s">
-        <v>437</v>
-      </c>
-      <c r="E457" s="19"/>
-      <c r="F457" s="20"/>
-      <c r="G457" s="21"/>
+      <c r="A457" s="4"/>
+      <c r="B457" s="4"/>
+      <c r="C457" s="4"/>
+      <c r="D457" s="4"/>
+      <c r="E457" s="65"/>
+      <c r="F457" s="4"/>
+      <c r="G457" s="4"/>
       <c r="H457" s="4"/>
       <c r="I457" s="4"/>
       <c r="J457" s="4"/>
@@ -17468,17 +17394,13 @@
       <c r="AA457" s="4"/>
     </row>
     <row r="458">
-      <c r="A458" s="22"/>
-      <c r="B458" s="18"/>
-      <c r="C458" s="23" t="s">
-        <v>438</v>
-      </c>
-      <c r="D458" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="E458" s="19"/>
-      <c r="F458" s="20"/>
-      <c r="G458" s="21"/>
+      <c r="A458" s="4"/>
+      <c r="B458" s="4"/>
+      <c r="C458" s="4"/>
+      <c r="D458" s="4"/>
+      <c r="E458" s="65"/>
+      <c r="F458" s="4"/>
+      <c r="G458" s="4"/>
       <c r="H458" s="4"/>
       <c r="I458" s="4"/>
       <c r="J458" s="4"/>
@@ -17501,15 +17423,13 @@
       <c r="AA458" s="4"/>
     </row>
     <row r="459">
-      <c r="A459" s="22"/>
-      <c r="B459" s="18"/>
-      <c r="C459" s="8"/>
-      <c r="D459" s="17" t="s">
-        <v>440</v>
-      </c>
-      <c r="E459" s="19"/>
-      <c r="F459" s="20"/>
-      <c r="G459" s="21"/>
+      <c r="A459" s="4"/>
+      <c r="B459" s="4"/>
+      <c r="C459" s="4"/>
+      <c r="D459" s="4"/>
+      <c r="E459" s="65"/>
+      <c r="F459" s="4"/>
+      <c r="G459" s="4"/>
       <c r="H459" s="4"/>
       <c r="I459" s="4"/>
       <c r="J459" s="4"/>
@@ -17532,15 +17452,13 @@
       <c r="AA459" s="4"/>
     </row>
     <row r="460">
-      <c r="A460" s="22"/>
-      <c r="B460" s="18"/>
-      <c r="C460" s="8"/>
-      <c r="D460" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="E460" s="19"/>
-      <c r="F460" s="20"/>
-      <c r="G460" s="21"/>
+      <c r="A460" s="4"/>
+      <c r="B460" s="4"/>
+      <c r="C460" s="4"/>
+      <c r="D460" s="4"/>
+      <c r="E460" s="65"/>
+      <c r="F460" s="4"/>
+      <c r="G460" s="4"/>
       <c r="H460" s="4"/>
       <c r="I460" s="4"/>
       <c r="J460" s="4"/>
@@ -17563,15 +17481,13 @@
       <c r="AA460" s="4"/>
     </row>
     <row r="461">
-      <c r="A461" s="22"/>
-      <c r="B461" s="18"/>
-      <c r="C461" s="8"/>
-      <c r="D461" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="E461" s="19"/>
-      <c r="F461" s="20"/>
-      <c r="G461" s="21"/>
+      <c r="A461" s="4"/>
+      <c r="B461" s="4"/>
+      <c r="C461" s="4"/>
+      <c r="D461" s="4"/>
+      <c r="E461" s="65"/>
+      <c r="F461" s="4"/>
+      <c r="G461" s="4"/>
       <c r="H461" s="4"/>
       <c r="I461" s="4"/>
       <c r="J461" s="4"/>
@@ -17594,15 +17510,13 @@
       <c r="AA461" s="4"/>
     </row>
     <row r="462">
-      <c r="A462" s="22"/>
-      <c r="B462" s="18"/>
-      <c r="C462" s="8"/>
-      <c r="D462" s="17" t="s">
-        <v>443</v>
-      </c>
-      <c r="E462" s="19"/>
-      <c r="F462" s="20"/>
-      <c r="G462" s="21"/>
+      <c r="A462" s="4"/>
+      <c r="B462" s="4"/>
+      <c r="C462" s="4"/>
+      <c r="D462" s="4"/>
+      <c r="E462" s="65"/>
+      <c r="F462" s="4"/>
+      <c r="G462" s="4"/>
       <c r="H462" s="4"/>
       <c r="I462" s="4"/>
       <c r="J462" s="4"/>
@@ -17625,15 +17539,13 @@
       <c r="AA462" s="4"/>
     </row>
     <row r="463">
-      <c r="A463" s="22"/>
-      <c r="B463" s="18"/>
-      <c r="C463" s="8"/>
-      <c r="D463" s="17" t="s">
-        <v>444</v>
-      </c>
-      <c r="E463" s="19"/>
-      <c r="F463" s="20"/>
-      <c r="G463" s="21"/>
+      <c r="A463" s="4"/>
+      <c r="B463" s="4"/>
+      <c r="C463" s="4"/>
+      <c r="D463" s="4"/>
+      <c r="E463" s="65"/>
+      <c r="F463" s="4"/>
+      <c r="G463" s="4"/>
       <c r="H463" s="4"/>
       <c r="I463" s="4"/>
       <c r="J463" s="4"/>
@@ -17656,17 +17568,13 @@
       <c r="AA463" s="4"/>
     </row>
     <row r="464">
-      <c r="A464" s="22"/>
-      <c r="B464" s="18"/>
-      <c r="C464" s="23" t="s">
-        <v>445</v>
-      </c>
-      <c r="D464" s="17" t="s">
-        <v>446</v>
-      </c>
-      <c r="E464" s="19"/>
-      <c r="F464" s="20"/>
-      <c r="G464" s="21"/>
+      <c r="A464" s="4"/>
+      <c r="B464" s="4"/>
+      <c r="C464" s="4"/>
+      <c r="D464" s="4"/>
+      <c r="E464" s="65"/>
+      <c r="F464" s="4"/>
+      <c r="G464" s="4"/>
       <c r="H464" s="4"/>
       <c r="I464" s="4"/>
       <c r="J464" s="4"/>
@@ -17689,15 +17597,13 @@
       <c r="AA464" s="4"/>
     </row>
     <row r="465">
-      <c r="A465" s="22"/>
-      <c r="B465" s="18"/>
-      <c r="C465" s="8"/>
-      <c r="D465" s="17" t="s">
-        <v>447</v>
-      </c>
-      <c r="E465" s="19"/>
-      <c r="F465" s="20"/>
-      <c r="G465" s="21"/>
+      <c r="A465" s="4"/>
+      <c r="B465" s="4"/>
+      <c r="C465" s="4"/>
+      <c r="D465" s="4"/>
+      <c r="E465" s="65"/>
+      <c r="F465" s="4"/>
+      <c r="G465" s="4"/>
       <c r="H465" s="4"/>
       <c r="I465" s="4"/>
       <c r="J465" s="4"/>
@@ -17720,15 +17626,13 @@
       <c r="AA465" s="4"/>
     </row>
     <row r="466">
-      <c r="A466" s="22"/>
-      <c r="B466" s="18"/>
-      <c r="C466" s="8"/>
-      <c r="D466" s="17" t="s">
-        <v>448</v>
-      </c>
-      <c r="E466" s="19"/>
-      <c r="F466" s="20"/>
-      <c r="G466" s="21"/>
+      <c r="A466" s="4"/>
+      <c r="B466" s="4"/>
+      <c r="C466" s="4"/>
+      <c r="D466" s="4"/>
+      <c r="E466" s="65"/>
+      <c r="F466" s="4"/>
+      <c r="G466" s="4"/>
       <c r="H466" s="4"/>
       <c r="I466" s="4"/>
       <c r="J466" s="4"/>
@@ -17751,15 +17655,13 @@
       <c r="AA466" s="4"/>
     </row>
     <row r="467">
-      <c r="A467" s="22"/>
-      <c r="B467" s="18"/>
-      <c r="C467" s="8"/>
-      <c r="D467" s="17" t="s">
-        <v>449</v>
-      </c>
-      <c r="E467" s="19"/>
-      <c r="F467" s="20"/>
-      <c r="G467" s="21"/>
+      <c r="A467" s="4"/>
+      <c r="B467" s="4"/>
+      <c r="C467" s="4"/>
+      <c r="D467" s="4"/>
+      <c r="E467" s="65"/>
+      <c r="F467" s="4"/>
+      <c r="G467" s="4"/>
       <c r="H467" s="4"/>
       <c r="I467" s="4"/>
       <c r="J467" s="4"/>
@@ -17782,15 +17684,13 @@
       <c r="AA467" s="4"/>
     </row>
     <row r="468">
-      <c r="A468" s="22"/>
-      <c r="B468" s="18"/>
-      <c r="C468" s="8"/>
-      <c r="D468" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="E468" s="19"/>
-      <c r="F468" s="20"/>
-      <c r="G468" s="21"/>
+      <c r="A468" s="4"/>
+      <c r="B468" s="4"/>
+      <c r="C468" s="4"/>
+      <c r="D468" s="4"/>
+      <c r="E468" s="65"/>
+      <c r="F468" s="4"/>
+      <c r="G468" s="4"/>
       <c r="H468" s="4"/>
       <c r="I468" s="4"/>
       <c r="J468" s="4"/>
@@ -17813,15 +17713,13 @@
       <c r="AA468" s="4"/>
     </row>
     <row r="469">
-      <c r="A469" s="22"/>
-      <c r="B469" s="18"/>
-      <c r="C469" s="8"/>
-      <c r="D469" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="E469" s="19"/>
-      <c r="F469" s="20"/>
-      <c r="G469" s="21"/>
+      <c r="A469" s="4"/>
+      <c r="B469" s="4"/>
+      <c r="C469" s="4"/>
+      <c r="D469" s="4"/>
+      <c r="E469" s="65"/>
+      <c r="F469" s="4"/>
+      <c r="G469" s="4"/>
       <c r="H469" s="4"/>
       <c r="I469" s="4"/>
       <c r="J469" s="4"/>
@@ -17844,15 +17742,13 @@
       <c r="AA469" s="4"/>
     </row>
     <row r="470">
-      <c r="A470" s="22"/>
-      <c r="B470" s="18"/>
-      <c r="C470" s="8"/>
-      <c r="D470" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="E470" s="19"/>
-      <c r="F470" s="20"/>
-      <c r="G470" s="21"/>
+      <c r="A470" s="4"/>
+      <c r="B470" s="4"/>
+      <c r="C470" s="4"/>
+      <c r="D470" s="4"/>
+      <c r="E470" s="65"/>
+      <c r="F470" s="4"/>
+      <c r="G470" s="4"/>
       <c r="H470" s="4"/>
       <c r="I470" s="4"/>
       <c r="J470" s="4"/>
@@ -17875,15 +17771,13 @@
       <c r="AA470" s="4"/>
     </row>
     <row r="471">
-      <c r="A471" s="22"/>
-      <c r="B471" s="18"/>
-      <c r="C471" s="8"/>
-      <c r="D471" s="17" t="s">
-        <v>453</v>
-      </c>
-      <c r="E471" s="19"/>
-      <c r="F471" s="20"/>
-      <c r="G471" s="21"/>
+      <c r="A471" s="4"/>
+      <c r="B471" s="4"/>
+      <c r="C471" s="4"/>
+      <c r="D471" s="4"/>
+      <c r="E471" s="65"/>
+      <c r="F471" s="4"/>
+      <c r="G471" s="4"/>
       <c r="H471" s="4"/>
       <c r="I471" s="4"/>
       <c r="J471" s="4"/>
@@ -17906,15 +17800,13 @@
       <c r="AA471" s="4"/>
     </row>
     <row r="472">
-      <c r="A472" s="22"/>
-      <c r="B472" s="18"/>
-      <c r="C472" s="8"/>
-      <c r="D472" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="E472" s="19"/>
-      <c r="F472" s="20"/>
-      <c r="G472" s="21"/>
+      <c r="A472" s="4"/>
+      <c r="B472" s="4"/>
+      <c r="C472" s="4"/>
+      <c r="D472" s="4"/>
+      <c r="E472" s="65"/>
+      <c r="F472" s="4"/>
+      <c r="G472" s="4"/>
       <c r="H472" s="4"/>
       <c r="I472" s="4"/>
       <c r="J472" s="4"/>
@@ -17937,17 +17829,13 @@
       <c r="AA472" s="4"/>
     </row>
     <row r="473">
-      <c r="A473" s="22"/>
-      <c r="B473" s="17" t="s">
-        <v>455</v>
-      </c>
-      <c r="C473" s="18"/>
-      <c r="D473" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E473" s="19"/>
-      <c r="F473" s="20"/>
-      <c r="G473" s="21"/>
+      <c r="A473" s="4"/>
+      <c r="B473" s="4"/>
+      <c r="C473" s="4"/>
+      <c r="D473" s="4"/>
+      <c r="E473" s="65"/>
+      <c r="F473" s="4"/>
+      <c r="G473" s="4"/>
       <c r="H473" s="4"/>
       <c r="I473" s="4"/>
       <c r="J473" s="4"/>
@@ -17970,15 +17858,13 @@
       <c r="AA473" s="4"/>
     </row>
     <row r="474">
-      <c r="A474" s="22"/>
-      <c r="B474" s="18"/>
-      <c r="C474" s="18"/>
-      <c r="D474" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="E474" s="19"/>
-      <c r="F474" s="20"/>
-      <c r="G474" s="21"/>
+      <c r="A474" s="4"/>
+      <c r="B474" s="4"/>
+      <c r="C474" s="4"/>
+      <c r="D474" s="4"/>
+      <c r="E474" s="65"/>
+      <c r="F474" s="4"/>
+      <c r="G474" s="4"/>
       <c r="H474" s="4"/>
       <c r="I474" s="4"/>
       <c r="J474" s="4"/>
@@ -18001,15 +17887,13 @@
       <c r="AA474" s="4"/>
     </row>
     <row r="475">
-      <c r="A475" s="22"/>
-      <c r="B475" s="18"/>
-      <c r="C475" s="18"/>
-      <c r="D475" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="E475" s="19"/>
-      <c r="F475" s="20"/>
-      <c r="G475" s="21"/>
+      <c r="A475" s="4"/>
+      <c r="B475" s="4"/>
+      <c r="C475" s="4"/>
+      <c r="D475" s="4"/>
+      <c r="E475" s="65"/>
+      <c r="F475" s="4"/>
+      <c r="G475" s="4"/>
       <c r="H475" s="4"/>
       <c r="I475" s="4"/>
       <c r="J475" s="4"/>
@@ -18032,15 +17916,13 @@
       <c r="AA475" s="4"/>
     </row>
     <row r="476">
-      <c r="A476" s="22"/>
-      <c r="B476" s="18"/>
-      <c r="C476" s="18"/>
-      <c r="D476" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="E476" s="19"/>
-      <c r="F476" s="20"/>
-      <c r="G476" s="21"/>
+      <c r="A476" s="4"/>
+      <c r="B476" s="4"/>
+      <c r="C476" s="4"/>
+      <c r="D476" s="4"/>
+      <c r="E476" s="65"/>
+      <c r="F476" s="4"/>
+      <c r="G476" s="4"/>
       <c r="H476" s="4"/>
       <c r="I476" s="4"/>
       <c r="J476" s="4"/>
@@ -18063,15 +17945,13 @@
       <c r="AA476" s="4"/>
     </row>
     <row r="477">
-      <c r="A477" s="22"/>
-      <c r="B477" s="18"/>
-      <c r="C477" s="18"/>
-      <c r="D477" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E477" s="19"/>
-      <c r="F477" s="20"/>
-      <c r="G477" s="21"/>
+      <c r="A477" s="4"/>
+      <c r="B477" s="4"/>
+      <c r="C477" s="4"/>
+      <c r="D477" s="4"/>
+      <c r="E477" s="65"/>
+      <c r="F477" s="4"/>
+      <c r="G477" s="4"/>
       <c r="H477" s="4"/>
       <c r="I477" s="4"/>
       <c r="J477" s="4"/>
@@ -18094,15 +17974,13 @@
       <c r="AA477" s="4"/>
     </row>
     <row r="478">
-      <c r="A478" s="22"/>
-      <c r="B478" s="18"/>
-      <c r="C478" s="18"/>
-      <c r="D478" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E478" s="19"/>
-      <c r="F478" s="20"/>
-      <c r="G478" s="21"/>
+      <c r="A478" s="4"/>
+      <c r="B478" s="4"/>
+      <c r="C478" s="4"/>
+      <c r="D478" s="4"/>
+      <c r="E478" s="65"/>
+      <c r="F478" s="4"/>
+      <c r="G478" s="4"/>
       <c r="H478" s="4"/>
       <c r="I478" s="4"/>
       <c r="J478" s="4"/>
@@ -18125,15 +18003,13 @@
       <c r="AA478" s="4"/>
     </row>
     <row r="479">
-      <c r="A479" s="22"/>
-      <c r="B479" s="18"/>
-      <c r="C479" s="18"/>
-      <c r="D479" s="17" t="s">
-        <v>459</v>
-      </c>
-      <c r="E479" s="19"/>
-      <c r="F479" s="20"/>
-      <c r="G479" s="21"/>
+      <c r="A479" s="4"/>
+      <c r="B479" s="4"/>
+      <c r="C479" s="4"/>
+      <c r="D479" s="4"/>
+      <c r="E479" s="65"/>
+      <c r="F479" s="4"/>
+      <c r="G479" s="4"/>
       <c r="H479" s="4"/>
       <c r="I479" s="4"/>
       <c r="J479" s="4"/>
@@ -18156,15 +18032,13 @@
       <c r="AA479" s="4"/>
     </row>
     <row r="480">
-      <c r="A480" s="22"/>
-      <c r="B480" s="18"/>
-      <c r="C480" s="18"/>
-      <c r="D480" s="17" t="s">
-        <v>460</v>
-      </c>
-      <c r="E480" s="19"/>
-      <c r="F480" s="20"/>
-      <c r="G480" s="21"/>
+      <c r="A480" s="4"/>
+      <c r="B480" s="4"/>
+      <c r="C480" s="4"/>
+      <c r="D480" s="4"/>
+      <c r="E480" s="65"/>
+      <c r="F480" s="4"/>
+      <c r="G480" s="4"/>
       <c r="H480" s="4"/>
       <c r="I480" s="4"/>
       <c r="J480" s="4"/>
@@ -18187,15 +18061,13 @@
       <c r="AA480" s="4"/>
     </row>
     <row r="481">
-      <c r="A481" s="22"/>
-      <c r="B481" s="18"/>
-      <c r="C481" s="18"/>
-      <c r="D481" s="17" t="s">
-        <v>461</v>
-      </c>
-      <c r="E481" s="19"/>
-      <c r="F481" s="20"/>
-      <c r="G481" s="21"/>
+      <c r="A481" s="4"/>
+      <c r="B481" s="4"/>
+      <c r="C481" s="4"/>
+      <c r="D481" s="4"/>
+      <c r="E481" s="65"/>
+      <c r="F481" s="4"/>
+      <c r="G481" s="4"/>
       <c r="H481" s="4"/>
       <c r="I481" s="4"/>
       <c r="J481" s="4"/>
@@ -18218,15 +18090,13 @@
       <c r="AA481" s="4"/>
     </row>
     <row r="482">
-      <c r="A482" s="22"/>
-      <c r="B482" s="18"/>
-      <c r="C482" s="18"/>
-      <c r="D482" s="17" t="s">
-        <v>462</v>
-      </c>
-      <c r="E482" s="19"/>
-      <c r="F482" s="20"/>
-      <c r="G482" s="21"/>
+      <c r="A482" s="4"/>
+      <c r="B482" s="4"/>
+      <c r="C482" s="4"/>
+      <c r="D482" s="4"/>
+      <c r="E482" s="65"/>
+      <c r="F482" s="4"/>
+      <c r="G482" s="4"/>
       <c r="H482" s="4"/>
       <c r="I482" s="4"/>
       <c r="J482" s="4"/>
@@ -18249,15 +18119,13 @@
       <c r="AA482" s="4"/>
     </row>
     <row r="483">
-      <c r="A483" s="22"/>
-      <c r="B483" s="18"/>
-      <c r="C483" s="18"/>
-      <c r="D483" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E483" s="19"/>
-      <c r="F483" s="20"/>
-      <c r="G483" s="21"/>
+      <c r="A483" s="4"/>
+      <c r="B483" s="4"/>
+      <c r="C483" s="4"/>
+      <c r="D483" s="4"/>
+      <c r="E483" s="65"/>
+      <c r="F483" s="4"/>
+      <c r="G483" s="4"/>
       <c r="H483" s="4"/>
       <c r="I483" s="4"/>
       <c r="J483" s="4"/>
@@ -18280,13 +18148,13 @@
       <c r="AA483" s="4"/>
     </row>
     <row r="484">
-      <c r="A484" s="68"/>
-      <c r="B484" s="69"/>
-      <c r="C484" s="69"/>
-      <c r="D484" s="69"/>
-      <c r="E484" s="70"/>
-      <c r="F484" s="69"/>
-      <c r="G484" s="71"/>
+      <c r="A484" s="4"/>
+      <c r="B484" s="4"/>
+      <c r="C484" s="4"/>
+      <c r="D484" s="4"/>
+      <c r="E484" s="65"/>
+      <c r="F484" s="4"/>
+      <c r="G484" s="4"/>
       <c r="H484" s="4"/>
       <c r="I484" s="4"/>
       <c r="J484" s="4"/>
@@ -18309,13 +18177,13 @@
       <c r="AA484" s="4"/>
     </row>
     <row r="485">
-      <c r="A485" s="68"/>
-      <c r="B485" s="69"/>
-      <c r="C485" s="69"/>
-      <c r="D485" s="69"/>
-      <c r="E485" s="70"/>
-      <c r="F485" s="69"/>
-      <c r="G485" s="71"/>
+      <c r="A485" s="4"/>
+      <c r="B485" s="4"/>
+      <c r="C485" s="4"/>
+      <c r="D485" s="4"/>
+      <c r="E485" s="65"/>
+      <c r="F485" s="4"/>
+      <c r="G485" s="4"/>
       <c r="H485" s="4"/>
       <c r="I485" s="4"/>
       <c r="J485" s="4"/>
@@ -18338,13 +18206,13 @@
       <c r="AA485" s="4"/>
     </row>
     <row r="486">
-      <c r="A486" s="68"/>
-      <c r="B486" s="69"/>
-      <c r="C486" s="69"/>
-      <c r="D486" s="69"/>
-      <c r="E486" s="70"/>
-      <c r="F486" s="69"/>
-      <c r="G486" s="71"/>
+      <c r="A486" s="4"/>
+      <c r="B486" s="4"/>
+      <c r="C486" s="4"/>
+      <c r="D486" s="4"/>
+      <c r="E486" s="65"/>
+      <c r="F486" s="4"/>
+      <c r="G486" s="4"/>
       <c r="H486" s="4"/>
       <c r="I486" s="4"/>
       <c r="J486" s="4"/>
@@ -18367,13 +18235,13 @@
       <c r="AA486" s="4"/>
     </row>
     <row r="487">
-      <c r="A487" s="68"/>
-      <c r="B487" s="69"/>
-      <c r="C487" s="69"/>
-      <c r="D487" s="69"/>
-      <c r="E487" s="70"/>
-      <c r="F487" s="69"/>
-      <c r="G487" s="71"/>
+      <c r="A487" s="4"/>
+      <c r="B487" s="4"/>
+      <c r="C487" s="4"/>
+      <c r="D487" s="4"/>
+      <c r="E487" s="65"/>
+      <c r="F487" s="4"/>
+      <c r="G487" s="4"/>
       <c r="H487" s="4"/>
       <c r="I487" s="4"/>
       <c r="J487" s="4"/>
@@ -18396,13 +18264,13 @@
       <c r="AA487" s="4"/>
     </row>
     <row r="488">
-      <c r="A488" s="68"/>
-      <c r="B488" s="69"/>
-      <c r="C488" s="69"/>
-      <c r="D488" s="69"/>
-      <c r="E488" s="70"/>
-      <c r="F488" s="69"/>
-      <c r="G488" s="71"/>
+      <c r="A488" s="4"/>
+      <c r="B488" s="4"/>
+      <c r="C488" s="4"/>
+      <c r="D488" s="4"/>
+      <c r="E488" s="65"/>
+      <c r="F488" s="4"/>
+      <c r="G488" s="4"/>
       <c r="H488" s="4"/>
       <c r="I488" s="4"/>
       <c r="J488" s="4"/>
@@ -18425,13 +18293,13 @@
       <c r="AA488" s="4"/>
     </row>
     <row r="489">
-      <c r="A489" s="68"/>
-      <c r="B489" s="69"/>
-      <c r="C489" s="69"/>
-      <c r="D489" s="69"/>
-      <c r="E489" s="70"/>
-      <c r="F489" s="69"/>
-      <c r="G489" s="71"/>
+      <c r="A489" s="4"/>
+      <c r="B489" s="4"/>
+      <c r="C489" s="4"/>
+      <c r="D489" s="4"/>
+      <c r="E489" s="65"/>
+      <c r="F489" s="4"/>
+      <c r="G489" s="4"/>
       <c r="H489" s="4"/>
       <c r="I489" s="4"/>
       <c r="J489" s="4"/>
@@ -18454,13 +18322,13 @@
       <c r="AA489" s="4"/>
     </row>
     <row r="490">
-      <c r="A490" s="68"/>
-      <c r="B490" s="69"/>
-      <c r="C490" s="69"/>
-      <c r="D490" s="69"/>
-      <c r="E490" s="70"/>
-      <c r="F490" s="69"/>
-      <c r="G490" s="71"/>
+      <c r="A490" s="4"/>
+      <c r="B490" s="4"/>
+      <c r="C490" s="4"/>
+      <c r="D490" s="4"/>
+      <c r="E490" s="65"/>
+      <c r="F490" s="4"/>
+      <c r="G490" s="4"/>
       <c r="H490" s="4"/>
       <c r="I490" s="4"/>
       <c r="J490" s="4"/>
@@ -18483,13 +18351,13 @@
       <c r="AA490" s="4"/>
     </row>
     <row r="491">
-      <c r="A491" s="68"/>
-      <c r="B491" s="69"/>
-      <c r="C491" s="69"/>
-      <c r="D491" s="69"/>
-      <c r="E491" s="70"/>
-      <c r="F491" s="69"/>
-      <c r="G491" s="71"/>
+      <c r="A491" s="4"/>
+      <c r="B491" s="4"/>
+      <c r="C491" s="4"/>
+      <c r="D491" s="4"/>
+      <c r="E491" s="65"/>
+      <c r="F491" s="4"/>
+      <c r="G491" s="4"/>
       <c r="H491" s="4"/>
       <c r="I491" s="4"/>
       <c r="J491" s="4"/>
@@ -18512,13 +18380,13 @@
       <c r="AA491" s="4"/>
     </row>
     <row r="492">
-      <c r="A492" s="68"/>
-      <c r="B492" s="69"/>
-      <c r="C492" s="69"/>
-      <c r="D492" s="69"/>
-      <c r="E492" s="70"/>
-      <c r="F492" s="69"/>
-      <c r="G492" s="71"/>
+      <c r="A492" s="4"/>
+      <c r="B492" s="4"/>
+      <c r="C492" s="4"/>
+      <c r="D492" s="4"/>
+      <c r="E492" s="65"/>
+      <c r="F492" s="4"/>
+      <c r="G492" s="4"/>
       <c r="H492" s="4"/>
       <c r="I492" s="4"/>
       <c r="J492" s="4"/>
@@ -18541,13 +18409,13 @@
       <c r="AA492" s="4"/>
     </row>
     <row r="493">
-      <c r="A493" s="68"/>
-      <c r="B493" s="69"/>
-      <c r="C493" s="69"/>
-      <c r="D493" s="69"/>
-      <c r="E493" s="70"/>
-      <c r="F493" s="69"/>
-      <c r="G493" s="71"/>
+      <c r="A493" s="4"/>
+      <c r="B493" s="4"/>
+      <c r="C493" s="4"/>
+      <c r="D493" s="4"/>
+      <c r="E493" s="65"/>
+      <c r="F493" s="4"/>
+      <c r="G493" s="4"/>
       <c r="H493" s="4"/>
       <c r="I493" s="4"/>
       <c r="J493" s="4"/>
@@ -18570,13 +18438,13 @@
       <c r="AA493" s="4"/>
     </row>
     <row r="494">
-      <c r="A494" s="26"/>
-      <c r="B494" s="49"/>
-      <c r="C494" s="49"/>
-      <c r="D494" s="49"/>
-      <c r="E494" s="29"/>
-      <c r="F494" s="49"/>
-      <c r="G494" s="50"/>
+      <c r="A494" s="4"/>
+      <c r="B494" s="4"/>
+      <c r="C494" s="4"/>
+      <c r="D494" s="4"/>
+      <c r="E494" s="65"/>
+      <c r="F494" s="4"/>
+      <c r="G494" s="4"/>
       <c r="H494" s="4"/>
       <c r="I494" s="4"/>
       <c r="J494" s="4"/>
@@ -18599,13 +18467,11 @@
       <c r="AA494" s="4"/>
     </row>
     <row r="495">
-      <c r="A495" s="10" t="s">
-        <v>463</v>
-      </c>
+      <c r="A495" s="4"/>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
       <c r="D495" s="4"/>
-      <c r="E495" s="72"/>
+      <c r="E495" s="65"/>
       <c r="F495" s="4"/>
       <c r="G495" s="4"/>
       <c r="H495" s="4"/>
@@ -18630,11 +18496,11 @@
       <c r="AA495" s="4"/>
     </row>
     <row r="496">
-      <c r="A496" s="73"/>
+      <c r="A496" s="4"/>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
       <c r="D496" s="4"/>
-      <c r="E496" s="72"/>
+      <c r="E496" s="65"/>
       <c r="F496" s="4"/>
       <c r="G496" s="4"/>
       <c r="H496" s="4"/>
@@ -18659,13 +18525,11 @@
       <c r="AA496" s="4"/>
     </row>
     <row r="497">
-      <c r="A497" s="10" t="s">
-        <v>464</v>
-      </c>
+      <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
       <c r="D497" s="4"/>
-      <c r="E497" s="72"/>
+      <c r="E497" s="65"/>
       <c r="F497" s="4"/>
       <c r="G497" s="4"/>
       <c r="H497" s="4"/>
@@ -18690,11 +18554,11 @@
       <c r="AA497" s="4"/>
     </row>
     <row r="498">
-      <c r="A498" s="73"/>
+      <c r="A498" s="4"/>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
       <c r="D498" s="4"/>
-      <c r="E498" s="72"/>
+      <c r="E498" s="65"/>
       <c r="F498" s="4"/>
       <c r="G498" s="4"/>
       <c r="H498" s="4"/>
@@ -18719,13 +18583,11 @@
       <c r="AA498" s="4"/>
     </row>
     <row r="499">
-      <c r="A499" s="10" t="s">
-        <v>465</v>
-      </c>
+      <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
       <c r="D499" s="4"/>
-      <c r="E499" s="72"/>
+      <c r="E499" s="65"/>
       <c r="F499" s="4"/>
       <c r="G499" s="4"/>
       <c r="H499" s="4"/>
@@ -18750,11 +18612,11 @@
       <c r="AA499" s="4"/>
     </row>
     <row r="500">
-      <c r="A500" s="73"/>
+      <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
       <c r="D500" s="4"/>
-      <c r="E500" s="72"/>
+      <c r="E500" s="65"/>
       <c r="F500" s="4"/>
       <c r="G500" s="4"/>
       <c r="H500" s="4"/>
@@ -18779,13 +18641,11 @@
       <c r="AA500" s="4"/>
     </row>
     <row r="501">
-      <c r="A501" s="10" t="s">
-        <v>466</v>
-      </c>
+      <c r="A501" s="4"/>
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
       <c r="D501" s="4"/>
-      <c r="E501" s="72"/>
+      <c r="E501" s="65"/>
       <c r="F501" s="4"/>
       <c r="G501" s="4"/>
       <c r="H501" s="4"/>
@@ -18810,11 +18670,11 @@
       <c r="AA501" s="4"/>
     </row>
     <row r="502">
-      <c r="A502" s="73"/>
+      <c r="A502" s="4"/>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
       <c r="D502" s="4"/>
-      <c r="E502" s="72"/>
+      <c r="E502" s="65"/>
       <c r="F502" s="4"/>
       <c r="G502" s="4"/>
       <c r="H502" s="4"/>
@@ -18839,13 +18699,11 @@
       <c r="AA502" s="4"/>
     </row>
     <row r="503">
-      <c r="A503" s="10" t="s">
-        <v>467</v>
-      </c>
+      <c r="A503" s="4"/>
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
       <c r="D503" s="4"/>
-      <c r="E503" s="72"/>
+      <c r="E503" s="65"/>
       <c r="F503" s="4"/>
       <c r="G503" s="4"/>
       <c r="H503" s="4"/>
@@ -18870,11 +18728,11 @@
       <c r="AA503" s="4"/>
     </row>
     <row r="504">
-      <c r="A504" s="74"/>
+      <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
       <c r="D504" s="4"/>
-      <c r="E504" s="72"/>
+      <c r="E504" s="65"/>
       <c r="F504" s="4"/>
       <c r="G504" s="4"/>
       <c r="H504" s="4"/>
@@ -18903,7 +18761,7 @@
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
       <c r="D505" s="4"/>
-      <c r="E505" s="72"/>
+      <c r="E505" s="65"/>
       <c r="F505" s="4"/>
       <c r="G505" s="4"/>
       <c r="H505" s="4"/>
@@ -18932,7 +18790,7 @@
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
       <c r="D506" s="4"/>
-      <c r="E506" s="72"/>
+      <c r="E506" s="65"/>
       <c r="F506" s="4"/>
       <c r="G506" s="4"/>
       <c r="H506" s="4"/>
@@ -18961,7 +18819,7 @@
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
       <c r="D507" s="4"/>
-      <c r="E507" s="72"/>
+      <c r="E507" s="65"/>
       <c r="F507" s="4"/>
       <c r="G507" s="4"/>
       <c r="H507" s="4"/>
@@ -18990,7 +18848,7 @@
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
       <c r="D508" s="4"/>
-      <c r="E508" s="72"/>
+      <c r="E508" s="65"/>
       <c r="F508" s="4"/>
       <c r="G508" s="4"/>
       <c r="H508" s="4"/>
@@ -19019,7 +18877,7 @@
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
       <c r="D509" s="4"/>
-      <c r="E509" s="72"/>
+      <c r="E509" s="65"/>
       <c r="F509" s="4"/>
       <c r="G509" s="4"/>
       <c r="H509" s="4"/>
@@ -19048,7 +18906,7 @@
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
       <c r="D510" s="4"/>
-      <c r="E510" s="72"/>
+      <c r="E510" s="65"/>
       <c r="F510" s="4"/>
       <c r="G510" s="4"/>
       <c r="H510" s="4"/>
@@ -19077,7 +18935,7 @@
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
       <c r="D511" s="4"/>
-      <c r="E511" s="72"/>
+      <c r="E511" s="65"/>
       <c r="F511" s="4"/>
       <c r="G511" s="4"/>
       <c r="H511" s="4"/>
@@ -19106,7 +18964,7 @@
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
       <c r="D512" s="4"/>
-      <c r="E512" s="72"/>
+      <c r="E512" s="65"/>
       <c r="F512" s="4"/>
       <c r="G512" s="4"/>
       <c r="H512" s="4"/>
@@ -19135,7 +18993,7 @@
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
       <c r="D513" s="4"/>
-      <c r="E513" s="72"/>
+      <c r="E513" s="65"/>
       <c r="F513" s="4"/>
       <c r="G513" s="4"/>
       <c r="H513" s="4"/>
@@ -19164,7 +19022,7 @@
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
       <c r="D514" s="4"/>
-      <c r="E514" s="72"/>
+      <c r="E514" s="65"/>
       <c r="F514" s="4"/>
       <c r="G514" s="4"/>
       <c r="H514" s="4"/>
@@ -19193,7 +19051,7 @@
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
       <c r="D515" s="4"/>
-      <c r="E515" s="72"/>
+      <c r="E515" s="65"/>
       <c r="F515" s="4"/>
       <c r="G515" s="4"/>
       <c r="H515" s="4"/>
@@ -19222,7 +19080,7 @@
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
       <c r="D516" s="4"/>
-      <c r="E516" s="72"/>
+      <c r="E516" s="65"/>
       <c r="F516" s="4"/>
       <c r="G516" s="4"/>
       <c r="H516" s="4"/>
@@ -19251,7 +19109,7 @@
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
       <c r="D517" s="4"/>
-      <c r="E517" s="72"/>
+      <c r="E517" s="65"/>
       <c r="F517" s="4"/>
       <c r="G517" s="4"/>
       <c r="H517" s="4"/>
@@ -19280,7 +19138,7 @@
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
       <c r="D518" s="4"/>
-      <c r="E518" s="72"/>
+      <c r="E518" s="65"/>
       <c r="F518" s="4"/>
       <c r="G518" s="4"/>
       <c r="H518" s="4"/>
@@ -19309,7 +19167,7 @@
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
       <c r="D519" s="4"/>
-      <c r="E519" s="72"/>
+      <c r="E519" s="65"/>
       <c r="F519" s="4"/>
       <c r="G519" s="4"/>
       <c r="H519" s="4"/>
@@ -19338,7 +19196,7 @@
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
       <c r="D520" s="4"/>
-      <c r="E520" s="72"/>
+      <c r="E520" s="65"/>
       <c r="F520" s="4"/>
       <c r="G520" s="4"/>
       <c r="H520" s="4"/>
@@ -19367,7 +19225,7 @@
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
       <c r="D521" s="4"/>
-      <c r="E521" s="72"/>
+      <c r="E521" s="65"/>
       <c r="F521" s="4"/>
       <c r="G521" s="4"/>
       <c r="H521" s="4"/>
@@ -19396,7 +19254,7 @@
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
       <c r="D522" s="4"/>
-      <c r="E522" s="72"/>
+      <c r="E522" s="65"/>
       <c r="F522" s="4"/>
       <c r="G522" s="4"/>
       <c r="H522" s="4"/>
@@ -19425,7 +19283,7 @@
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
       <c r="D523" s="4"/>
-      <c r="E523" s="72"/>
+      <c r="E523" s="65"/>
       <c r="F523" s="4"/>
       <c r="G523" s="4"/>
       <c r="H523" s="4"/>
@@ -19454,7 +19312,7 @@
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
       <c r="D524" s="4"/>
-      <c r="E524" s="72"/>
+      <c r="E524" s="65"/>
       <c r="F524" s="4"/>
       <c r="G524" s="4"/>
       <c r="H524" s="4"/>
@@ -19483,7 +19341,7 @@
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
       <c r="D525" s="4"/>
-      <c r="E525" s="72"/>
+      <c r="E525" s="65"/>
       <c r="F525" s="4"/>
       <c r="G525" s="4"/>
       <c r="H525" s="4"/>
@@ -19512,7 +19370,7 @@
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
       <c r="D526" s="4"/>
-      <c r="E526" s="72"/>
+      <c r="E526" s="65"/>
       <c r="F526" s="4"/>
       <c r="G526" s="4"/>
       <c r="H526" s="4"/>
@@ -19541,7 +19399,7 @@
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
       <c r="D527" s="4"/>
-      <c r="E527" s="72"/>
+      <c r="E527" s="65"/>
       <c r="F527" s="4"/>
       <c r="G527" s="4"/>
       <c r="H527" s="4"/>
@@ -19570,7 +19428,7 @@
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
       <c r="D528" s="4"/>
-      <c r="E528" s="72"/>
+      <c r="E528" s="65"/>
       <c r="F528" s="4"/>
       <c r="G528" s="4"/>
       <c r="H528" s="4"/>
@@ -19599,7 +19457,7 @@
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
       <c r="D529" s="4"/>
-      <c r="E529" s="72"/>
+      <c r="E529" s="65"/>
       <c r="F529" s="4"/>
       <c r="G529" s="4"/>
       <c r="H529" s="4"/>
@@ -19628,7 +19486,7 @@
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
       <c r="D530" s="4"/>
-      <c r="E530" s="72"/>
+      <c r="E530" s="65"/>
       <c r="F530" s="4"/>
       <c r="G530" s="4"/>
       <c r="H530" s="4"/>
@@ -19657,7 +19515,7 @@
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
       <c r="D531" s="4"/>
-      <c r="E531" s="72"/>
+      <c r="E531" s="65"/>
       <c r="F531" s="4"/>
       <c r="G531" s="4"/>
       <c r="H531" s="4"/>
@@ -19686,7 +19544,7 @@
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
       <c r="D532" s="4"/>
-      <c r="E532" s="72"/>
+      <c r="E532" s="65"/>
       <c r="F532" s="4"/>
       <c r="G532" s="4"/>
       <c r="H532" s="4"/>
@@ -19715,7 +19573,7 @@
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
       <c r="D533" s="4"/>
-      <c r="E533" s="72"/>
+      <c r="E533" s="65"/>
       <c r="F533" s="4"/>
       <c r="G533" s="4"/>
       <c r="H533" s="4"/>
@@ -19744,7 +19602,7 @@
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
       <c r="D534" s="4"/>
-      <c r="E534" s="72"/>
+      <c r="E534" s="65"/>
       <c r="F534" s="4"/>
       <c r="G534" s="4"/>
       <c r="H534" s="4"/>
@@ -19773,7 +19631,7 @@
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
       <c r="D535" s="4"/>
-      <c r="E535" s="72"/>
+      <c r="E535" s="65"/>
       <c r="F535" s="4"/>
       <c r="G535" s="4"/>
       <c r="H535" s="4"/>
@@ -19802,7 +19660,7 @@
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
       <c r="D536" s="4"/>
-      <c r="E536" s="72"/>
+      <c r="E536" s="65"/>
       <c r="F536" s="4"/>
       <c r="G536" s="4"/>
       <c r="H536" s="4"/>
@@ -19831,7 +19689,7 @@
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
       <c r="D537" s="4"/>
-      <c r="E537" s="72"/>
+      <c r="E537" s="65"/>
       <c r="F537" s="4"/>
       <c r="G537" s="4"/>
       <c r="H537" s="4"/>
@@ -19860,7 +19718,7 @@
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
       <c r="D538" s="4"/>
-      <c r="E538" s="72"/>
+      <c r="E538" s="65"/>
       <c r="F538" s="4"/>
       <c r="G538" s="4"/>
       <c r="H538" s="4"/>
@@ -19889,7 +19747,7 @@
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
       <c r="D539" s="4"/>
-      <c r="E539" s="72"/>
+      <c r="E539" s="65"/>
       <c r="F539" s="4"/>
       <c r="G539" s="4"/>
       <c r="H539" s="4"/>
@@ -19913,1704 +19771,108 @@
       <c r="Z539" s="4"/>
       <c r="AA539" s="4"/>
     </row>
-    <row r="540">
-      <c r="A540" s="4"/>
-      <c r="B540" s="4"/>
-      <c r="C540" s="4"/>
-      <c r="D540" s="4"/>
-      <c r="E540" s="72"/>
-      <c r="F540" s="4"/>
-      <c r="G540" s="4"/>
-      <c r="H540" s="4"/>
-      <c r="I540" s="4"/>
-      <c r="J540" s="4"/>
-      <c r="K540" s="4"/>
-      <c r="L540" s="4"/>
-      <c r="M540" s="4"/>
-      <c r="N540" s="4"/>
-      <c r="O540" s="4"/>
-      <c r="P540" s="4"/>
-      <c r="Q540" s="4"/>
-      <c r="R540" s="4"/>
-      <c r="S540" s="4"/>
-      <c r="T540" s="4"/>
-      <c r="U540" s="4"/>
-      <c r="V540" s="4"/>
-      <c r="W540" s="4"/>
-      <c r="X540" s="4"/>
-      <c r="Y540" s="4"/>
-      <c r="Z540" s="4"/>
-      <c r="AA540" s="4"/>
-    </row>
-    <row r="541">
-      <c r="A541" s="4"/>
-      <c r="B541" s="4"/>
-      <c r="C541" s="4"/>
-      <c r="D541" s="4"/>
-      <c r="E541" s="72"/>
-      <c r="F541" s="4"/>
-      <c r="G541" s="4"/>
-      <c r="H541" s="4"/>
-      <c r="I541" s="4"/>
-      <c r="J541" s="4"/>
-      <c r="K541" s="4"/>
-      <c r="L541" s="4"/>
-      <c r="M541" s="4"/>
-      <c r="N541" s="4"/>
-      <c r="O541" s="4"/>
-      <c r="P541" s="4"/>
-      <c r="Q541" s="4"/>
-      <c r="R541" s="4"/>
-      <c r="S541" s="4"/>
-      <c r="T541" s="4"/>
-      <c r="U541" s="4"/>
-      <c r="V541" s="4"/>
-      <c r="W541" s="4"/>
-      <c r="X541" s="4"/>
-      <c r="Y541" s="4"/>
-      <c r="Z541" s="4"/>
-      <c r="AA541" s="4"/>
-    </row>
-    <row r="542">
-      <c r="A542" s="4"/>
-      <c r="B542" s="4"/>
-      <c r="C542" s="4"/>
-      <c r="D542" s="4"/>
-      <c r="E542" s="72"/>
-      <c r="F542" s="4"/>
-      <c r="G542" s="4"/>
-      <c r="H542" s="4"/>
-      <c r="I542" s="4"/>
-      <c r="J542" s="4"/>
-      <c r="K542" s="4"/>
-      <c r="L542" s="4"/>
-      <c r="M542" s="4"/>
-      <c r="N542" s="4"/>
-      <c r="O542" s="4"/>
-      <c r="P542" s="4"/>
-      <c r="Q542" s="4"/>
-      <c r="R542" s="4"/>
-      <c r="S542" s="4"/>
-      <c r="T542" s="4"/>
-      <c r="U542" s="4"/>
-      <c r="V542" s="4"/>
-      <c r="W542" s="4"/>
-      <c r="X542" s="4"/>
-      <c r="Y542" s="4"/>
-      <c r="Z542" s="4"/>
-      <c r="AA542" s="4"/>
-    </row>
-    <row r="543">
-      <c r="A543" s="4"/>
-      <c r="B543" s="4"/>
-      <c r="C543" s="4"/>
-      <c r="D543" s="4"/>
-      <c r="E543" s="72"/>
-      <c r="F543" s="4"/>
-      <c r="G543" s="4"/>
-      <c r="H543" s="4"/>
-      <c r="I543" s="4"/>
-      <c r="J543" s="4"/>
-      <c r="K543" s="4"/>
-      <c r="L543" s="4"/>
-      <c r="M543" s="4"/>
-      <c r="N543" s="4"/>
-      <c r="O543" s="4"/>
-      <c r="P543" s="4"/>
-      <c r="Q543" s="4"/>
-      <c r="R543" s="4"/>
-      <c r="S543" s="4"/>
-      <c r="T543" s="4"/>
-      <c r="U543" s="4"/>
-      <c r="V543" s="4"/>
-      <c r="W543" s="4"/>
-      <c r="X543" s="4"/>
-      <c r="Y543" s="4"/>
-      <c r="Z543" s="4"/>
-      <c r="AA543" s="4"/>
-    </row>
-    <row r="544">
-      <c r="A544" s="4"/>
-      <c r="B544" s="4"/>
-      <c r="C544" s="4"/>
-      <c r="D544" s="4"/>
-      <c r="E544" s="72"/>
-      <c r="F544" s="4"/>
-      <c r="G544" s="4"/>
-      <c r="H544" s="4"/>
-      <c r="I544" s="4"/>
-      <c r="J544" s="4"/>
-      <c r="K544" s="4"/>
-      <c r="L544" s="4"/>
-      <c r="M544" s="4"/>
-      <c r="N544" s="4"/>
-      <c r="O544" s="4"/>
-      <c r="P544" s="4"/>
-      <c r="Q544" s="4"/>
-      <c r="R544" s="4"/>
-      <c r="S544" s="4"/>
-      <c r="T544" s="4"/>
-      <c r="U544" s="4"/>
-      <c r="V544" s="4"/>
-      <c r="W544" s="4"/>
-      <c r="X544" s="4"/>
-      <c r="Y544" s="4"/>
-      <c r="Z544" s="4"/>
-      <c r="AA544" s="4"/>
-    </row>
-    <row r="545">
-      <c r="A545" s="4"/>
-      <c r="B545" s="4"/>
-      <c r="C545" s="4"/>
-      <c r="D545" s="4"/>
-      <c r="E545" s="72"/>
-      <c r="F545" s="4"/>
-      <c r="G545" s="4"/>
-      <c r="H545" s="4"/>
-      <c r="I545" s="4"/>
-      <c r="J545" s="4"/>
-      <c r="K545" s="4"/>
-      <c r="L545" s="4"/>
-      <c r="M545" s="4"/>
-      <c r="N545" s="4"/>
-      <c r="O545" s="4"/>
-      <c r="P545" s="4"/>
-      <c r="Q545" s="4"/>
-      <c r="R545" s="4"/>
-      <c r="S545" s="4"/>
-      <c r="T545" s="4"/>
-      <c r="U545" s="4"/>
-      <c r="V545" s="4"/>
-      <c r="W545" s="4"/>
-      <c r="X545" s="4"/>
-      <c r="Y545" s="4"/>
-      <c r="Z545" s="4"/>
-      <c r="AA545" s="4"/>
-    </row>
-    <row r="546">
-      <c r="A546" s="4"/>
-      <c r="B546" s="4"/>
-      <c r="C546" s="4"/>
-      <c r="D546" s="4"/>
-      <c r="E546" s="72"/>
-      <c r="F546" s="4"/>
-      <c r="G546" s="4"/>
-      <c r="H546" s="4"/>
-      <c r="I546" s="4"/>
-      <c r="J546" s="4"/>
-      <c r="K546" s="4"/>
-      <c r="L546" s="4"/>
-      <c r="M546" s="4"/>
-      <c r="N546" s="4"/>
-      <c r="O546" s="4"/>
-      <c r="P546" s="4"/>
-      <c r="Q546" s="4"/>
-      <c r="R546" s="4"/>
-      <c r="S546" s="4"/>
-      <c r="T546" s="4"/>
-      <c r="U546" s="4"/>
-      <c r="V546" s="4"/>
-      <c r="W546" s="4"/>
-      <c r="X546" s="4"/>
-      <c r="Y546" s="4"/>
-      <c r="Z546" s="4"/>
-      <c r="AA546" s="4"/>
-    </row>
-    <row r="547">
-      <c r="A547" s="4"/>
-      <c r="B547" s="4"/>
-      <c r="C547" s="4"/>
-      <c r="D547" s="4"/>
-      <c r="E547" s="72"/>
-      <c r="F547" s="4"/>
-      <c r="G547" s="4"/>
-      <c r="H547" s="4"/>
-      <c r="I547" s="4"/>
-      <c r="J547" s="4"/>
-      <c r="K547" s="4"/>
-      <c r="L547" s="4"/>
-      <c r="M547" s="4"/>
-      <c r="N547" s="4"/>
-      <c r="O547" s="4"/>
-      <c r="P547" s="4"/>
-      <c r="Q547" s="4"/>
-      <c r="R547" s="4"/>
-      <c r="S547" s="4"/>
-      <c r="T547" s="4"/>
-      <c r="U547" s="4"/>
-      <c r="V547" s="4"/>
-      <c r="W547" s="4"/>
-      <c r="X547" s="4"/>
-      <c r="Y547" s="4"/>
-      <c r="Z547" s="4"/>
-      <c r="AA547" s="4"/>
-    </row>
-    <row r="548">
-      <c r="A548" s="4"/>
-      <c r="B548" s="4"/>
-      <c r="C548" s="4"/>
-      <c r="D548" s="4"/>
-      <c r="E548" s="72"/>
-      <c r="F548" s="4"/>
-      <c r="G548" s="4"/>
-      <c r="H548" s="4"/>
-      <c r="I548" s="4"/>
-      <c r="J548" s="4"/>
-      <c r="K548" s="4"/>
-      <c r="L548" s="4"/>
-      <c r="M548" s="4"/>
-      <c r="N548" s="4"/>
-      <c r="O548" s="4"/>
-      <c r="P548" s="4"/>
-      <c r="Q548" s="4"/>
-      <c r="R548" s="4"/>
-      <c r="S548" s="4"/>
-      <c r="T548" s="4"/>
-      <c r="U548" s="4"/>
-      <c r="V548" s="4"/>
-      <c r="W548" s="4"/>
-      <c r="X548" s="4"/>
-      <c r="Y548" s="4"/>
-      <c r="Z548" s="4"/>
-      <c r="AA548" s="4"/>
-    </row>
-    <row r="549">
-      <c r="A549" s="4"/>
-      <c r="B549" s="4"/>
-      <c r="C549" s="4"/>
-      <c r="D549" s="4"/>
-      <c r="E549" s="72"/>
-      <c r="F549" s="4"/>
-      <c r="G549" s="4"/>
-      <c r="H549" s="4"/>
-      <c r="I549" s="4"/>
-      <c r="J549" s="4"/>
-      <c r="K549" s="4"/>
-      <c r="L549" s="4"/>
-      <c r="M549" s="4"/>
-      <c r="N549" s="4"/>
-      <c r="O549" s="4"/>
-      <c r="P549" s="4"/>
-      <c r="Q549" s="4"/>
-      <c r="R549" s="4"/>
-      <c r="S549" s="4"/>
-      <c r="T549" s="4"/>
-      <c r="U549" s="4"/>
-      <c r="V549" s="4"/>
-      <c r="W549" s="4"/>
-      <c r="X549" s="4"/>
-      <c r="Y549" s="4"/>
-      <c r="Z549" s="4"/>
-      <c r="AA549" s="4"/>
-    </row>
-    <row r="550">
-      <c r="A550" s="4"/>
-      <c r="B550" s="4"/>
-      <c r="C550" s="4"/>
-      <c r="D550" s="4"/>
-      <c r="E550" s="72"/>
-      <c r="F550" s="4"/>
-      <c r="G550" s="4"/>
-      <c r="H550" s="4"/>
-      <c r="I550" s="4"/>
-      <c r="J550" s="4"/>
-      <c r="K550" s="4"/>
-      <c r="L550" s="4"/>
-      <c r="M550" s="4"/>
-      <c r="N550" s="4"/>
-      <c r="O550" s="4"/>
-      <c r="P550" s="4"/>
-      <c r="Q550" s="4"/>
-      <c r="R550" s="4"/>
-      <c r="S550" s="4"/>
-      <c r="T550" s="4"/>
-      <c r="U550" s="4"/>
-      <c r="V550" s="4"/>
-      <c r="W550" s="4"/>
-      <c r="X550" s="4"/>
-      <c r="Y550" s="4"/>
-      <c r="Z550" s="4"/>
-      <c r="AA550" s="4"/>
-    </row>
-    <row r="551">
-      <c r="A551" s="4"/>
-      <c r="B551" s="4"/>
-      <c r="C551" s="4"/>
-      <c r="D551" s="4"/>
-      <c r="E551" s="72"/>
-      <c r="F551" s="4"/>
-      <c r="G551" s="4"/>
-      <c r="H551" s="4"/>
-      <c r="I551" s="4"/>
-      <c r="J551" s="4"/>
-      <c r="K551" s="4"/>
-      <c r="L551" s="4"/>
-      <c r="M551" s="4"/>
-      <c r="N551" s="4"/>
-      <c r="O551" s="4"/>
-      <c r="P551" s="4"/>
-      <c r="Q551" s="4"/>
-      <c r="R551" s="4"/>
-      <c r="S551" s="4"/>
-      <c r="T551" s="4"/>
-      <c r="U551" s="4"/>
-      <c r="V551" s="4"/>
-      <c r="W551" s="4"/>
-      <c r="X551" s="4"/>
-      <c r="Y551" s="4"/>
-      <c r="Z551" s="4"/>
-      <c r="AA551" s="4"/>
-    </row>
-    <row r="552">
-      <c r="A552" s="4"/>
-      <c r="B552" s="4"/>
-      <c r="C552" s="4"/>
-      <c r="D552" s="4"/>
-      <c r="E552" s="72"/>
-      <c r="F552" s="4"/>
-      <c r="G552" s="4"/>
-      <c r="H552" s="4"/>
-      <c r="I552" s="4"/>
-      <c r="J552" s="4"/>
-      <c r="K552" s="4"/>
-      <c r="L552" s="4"/>
-      <c r="M552" s="4"/>
-      <c r="N552" s="4"/>
-      <c r="O552" s="4"/>
-      <c r="P552" s="4"/>
-      <c r="Q552" s="4"/>
-      <c r="R552" s="4"/>
-      <c r="S552" s="4"/>
-      <c r="T552" s="4"/>
-      <c r="U552" s="4"/>
-      <c r="V552" s="4"/>
-      <c r="W552" s="4"/>
-      <c r="X552" s="4"/>
-      <c r="Y552" s="4"/>
-      <c r="Z552" s="4"/>
-      <c r="AA552" s="4"/>
-    </row>
-    <row r="553">
-      <c r="A553" s="4"/>
-      <c r="B553" s="4"/>
-      <c r="C553" s="4"/>
-      <c r="D553" s="4"/>
-      <c r="E553" s="72"/>
-      <c r="F553" s="4"/>
-      <c r="G553" s="4"/>
-      <c r="H553" s="4"/>
-      <c r="I553" s="4"/>
-      <c r="J553" s="4"/>
-      <c r="K553" s="4"/>
-      <c r="L553" s="4"/>
-      <c r="M553" s="4"/>
-      <c r="N553" s="4"/>
-      <c r="O553" s="4"/>
-      <c r="P553" s="4"/>
-      <c r="Q553" s="4"/>
-      <c r="R553" s="4"/>
-      <c r="S553" s="4"/>
-      <c r="T553" s="4"/>
-      <c r="U553" s="4"/>
-      <c r="V553" s="4"/>
-      <c r="W553" s="4"/>
-      <c r="X553" s="4"/>
-      <c r="Y553" s="4"/>
-      <c r="Z553" s="4"/>
-      <c r="AA553" s="4"/>
-    </row>
-    <row r="554">
-      <c r="A554" s="4"/>
-      <c r="B554" s="4"/>
-      <c r="C554" s="4"/>
-      <c r="D554" s="4"/>
-      <c r="E554" s="72"/>
-      <c r="F554" s="4"/>
-      <c r="G554" s="4"/>
-      <c r="H554" s="4"/>
-      <c r="I554" s="4"/>
-      <c r="J554" s="4"/>
-      <c r="K554" s="4"/>
-      <c r="L554" s="4"/>
-      <c r="M554" s="4"/>
-      <c r="N554" s="4"/>
-      <c r="O554" s="4"/>
-      <c r="P554" s="4"/>
-      <c r="Q554" s="4"/>
-      <c r="R554" s="4"/>
-      <c r="S554" s="4"/>
-      <c r="T554" s="4"/>
-      <c r="U554" s="4"/>
-      <c r="V554" s="4"/>
-      <c r="W554" s="4"/>
-      <c r="X554" s="4"/>
-      <c r="Y554" s="4"/>
-      <c r="Z554" s="4"/>
-      <c r="AA554" s="4"/>
-    </row>
-    <row r="555">
-      <c r="A555" s="4"/>
-      <c r="B555" s="4"/>
-      <c r="C555" s="4"/>
-      <c r="D555" s="4"/>
-      <c r="E555" s="72"/>
-      <c r="F555" s="4"/>
-      <c r="G555" s="4"/>
-      <c r="H555" s="4"/>
-      <c r="I555" s="4"/>
-      <c r="J555" s="4"/>
-      <c r="K555" s="4"/>
-      <c r="L555" s="4"/>
-      <c r="M555" s="4"/>
-      <c r="N555" s="4"/>
-      <c r="O555" s="4"/>
-      <c r="P555" s="4"/>
-      <c r="Q555" s="4"/>
-      <c r="R555" s="4"/>
-      <c r="S555" s="4"/>
-      <c r="T555" s="4"/>
-      <c r="U555" s="4"/>
-      <c r="V555" s="4"/>
-      <c r="W555" s="4"/>
-      <c r="X555" s="4"/>
-      <c r="Y555" s="4"/>
-      <c r="Z555" s="4"/>
-      <c r="AA555" s="4"/>
-    </row>
-    <row r="556">
-      <c r="A556" s="4"/>
-      <c r="B556" s="4"/>
-      <c r="C556" s="4"/>
-      <c r="D556" s="4"/>
-      <c r="E556" s="72"/>
-      <c r="F556" s="4"/>
-      <c r="G556" s="4"/>
-      <c r="H556" s="4"/>
-      <c r="I556" s="4"/>
-      <c r="J556" s="4"/>
-      <c r="K556" s="4"/>
-      <c r="L556" s="4"/>
-      <c r="M556" s="4"/>
-      <c r="N556" s="4"/>
-      <c r="O556" s="4"/>
-      <c r="P556" s="4"/>
-      <c r="Q556" s="4"/>
-      <c r="R556" s="4"/>
-      <c r="S556" s="4"/>
-      <c r="T556" s="4"/>
-      <c r="U556" s="4"/>
-      <c r="V556" s="4"/>
-      <c r="W556" s="4"/>
-      <c r="X556" s="4"/>
-      <c r="Y556" s="4"/>
-      <c r="Z556" s="4"/>
-      <c r="AA556" s="4"/>
-    </row>
-    <row r="557">
-      <c r="A557" s="4"/>
-      <c r="B557" s="4"/>
-      <c r="C557" s="4"/>
-      <c r="D557" s="4"/>
-      <c r="E557" s="72"/>
-      <c r="F557" s="4"/>
-      <c r="G557" s="4"/>
-      <c r="H557" s="4"/>
-      <c r="I557" s="4"/>
-      <c r="J557" s="4"/>
-      <c r="K557" s="4"/>
-      <c r="L557" s="4"/>
-      <c r="M557" s="4"/>
-      <c r="N557" s="4"/>
-      <c r="O557" s="4"/>
-      <c r="P557" s="4"/>
-      <c r="Q557" s="4"/>
-      <c r="R557" s="4"/>
-      <c r="S557" s="4"/>
-      <c r="T557" s="4"/>
-      <c r="U557" s="4"/>
-      <c r="V557" s="4"/>
-      <c r="W557" s="4"/>
-      <c r="X557" s="4"/>
-      <c r="Y557" s="4"/>
-      <c r="Z557" s="4"/>
-      <c r="AA557" s="4"/>
-    </row>
-    <row r="558">
-      <c r="A558" s="4"/>
-      <c r="B558" s="4"/>
-      <c r="C558" s="4"/>
-      <c r="D558" s="4"/>
-      <c r="E558" s="72"/>
-      <c r="F558" s="4"/>
-      <c r="G558" s="4"/>
-      <c r="H558" s="4"/>
-      <c r="I558" s="4"/>
-      <c r="J558" s="4"/>
-      <c r="K558" s="4"/>
-      <c r="L558" s="4"/>
-      <c r="M558" s="4"/>
-      <c r="N558" s="4"/>
-      <c r="O558" s="4"/>
-      <c r="P558" s="4"/>
-      <c r="Q558" s="4"/>
-      <c r="R558" s="4"/>
-      <c r="S558" s="4"/>
-      <c r="T558" s="4"/>
-      <c r="U558" s="4"/>
-      <c r="V558" s="4"/>
-      <c r="W558" s="4"/>
-      <c r="X558" s="4"/>
-      <c r="Y558" s="4"/>
-      <c r="Z558" s="4"/>
-      <c r="AA558" s="4"/>
-    </row>
-    <row r="559">
-      <c r="A559" s="4"/>
-      <c r="B559" s="4"/>
-      <c r="C559" s="4"/>
-      <c r="D559" s="4"/>
-      <c r="E559" s="72"/>
-      <c r="F559" s="4"/>
-      <c r="G559" s="4"/>
-      <c r="H559" s="4"/>
-      <c r="I559" s="4"/>
-      <c r="J559" s="4"/>
-      <c r="K559" s="4"/>
-      <c r="L559" s="4"/>
-      <c r="M559" s="4"/>
-      <c r="N559" s="4"/>
-      <c r="O559" s="4"/>
-      <c r="P559" s="4"/>
-      <c r="Q559" s="4"/>
-      <c r="R559" s="4"/>
-      <c r="S559" s="4"/>
-      <c r="T559" s="4"/>
-      <c r="U559" s="4"/>
-      <c r="V559" s="4"/>
-      <c r="W559" s="4"/>
-      <c r="X559" s="4"/>
-      <c r="Y559" s="4"/>
-      <c r="Z559" s="4"/>
-      <c r="AA559" s="4"/>
-    </row>
-    <row r="560">
-      <c r="A560" s="4"/>
-      <c r="B560" s="4"/>
-      <c r="C560" s="4"/>
-      <c r="D560" s="4"/>
-      <c r="E560" s="72"/>
-      <c r="F560" s="4"/>
-      <c r="G560" s="4"/>
-      <c r="H560" s="4"/>
-      <c r="I560" s="4"/>
-      <c r="J560" s="4"/>
-      <c r="K560" s="4"/>
-      <c r="L560" s="4"/>
-      <c r="M560" s="4"/>
-      <c r="N560" s="4"/>
-      <c r="O560" s="4"/>
-      <c r="P560" s="4"/>
-      <c r="Q560" s="4"/>
-      <c r="R560" s="4"/>
-      <c r="S560" s="4"/>
-      <c r="T560" s="4"/>
-      <c r="U560" s="4"/>
-      <c r="V560" s="4"/>
-      <c r="W560" s="4"/>
-      <c r="X560" s="4"/>
-      <c r="Y560" s="4"/>
-      <c r="Z560" s="4"/>
-      <c r="AA560" s="4"/>
-    </row>
-    <row r="561">
-      <c r="A561" s="4"/>
-      <c r="B561" s="4"/>
-      <c r="C561" s="4"/>
-      <c r="D561" s="4"/>
-      <c r="E561" s="72"/>
-      <c r="F561" s="4"/>
-      <c r="G561" s="4"/>
-      <c r="H561" s="4"/>
-      <c r="I561" s="4"/>
-      <c r="J561" s="4"/>
-      <c r="K561" s="4"/>
-      <c r="L561" s="4"/>
-      <c r="M561" s="4"/>
-      <c r="N561" s="4"/>
-      <c r="O561" s="4"/>
-      <c r="P561" s="4"/>
-      <c r="Q561" s="4"/>
-      <c r="R561" s="4"/>
-      <c r="S561" s="4"/>
-      <c r="T561" s="4"/>
-      <c r="U561" s="4"/>
-      <c r="V561" s="4"/>
-      <c r="W561" s="4"/>
-      <c r="X561" s="4"/>
-      <c r="Y561" s="4"/>
-      <c r="Z561" s="4"/>
-      <c r="AA561" s="4"/>
-    </row>
-    <row r="562">
-      <c r="A562" s="4"/>
-      <c r="B562" s="4"/>
-      <c r="C562" s="4"/>
-      <c r="D562" s="4"/>
-      <c r="E562" s="72"/>
-      <c r="F562" s="4"/>
-      <c r="G562" s="4"/>
-      <c r="H562" s="4"/>
-      <c r="I562" s="4"/>
-      <c r="J562" s="4"/>
-      <c r="K562" s="4"/>
-      <c r="L562" s="4"/>
-      <c r="M562" s="4"/>
-      <c r="N562" s="4"/>
-      <c r="O562" s="4"/>
-      <c r="P562" s="4"/>
-      <c r="Q562" s="4"/>
-      <c r="R562" s="4"/>
-      <c r="S562" s="4"/>
-      <c r="T562" s="4"/>
-      <c r="U562" s="4"/>
-      <c r="V562" s="4"/>
-      <c r="W562" s="4"/>
-      <c r="X562" s="4"/>
-      <c r="Y562" s="4"/>
-      <c r="Z562" s="4"/>
-      <c r="AA562" s="4"/>
-    </row>
-    <row r="563">
-      <c r="A563" s="4"/>
-      <c r="B563" s="4"/>
-      <c r="C563" s="4"/>
-      <c r="D563" s="4"/>
-      <c r="E563" s="72"/>
-      <c r="F563" s="4"/>
-      <c r="G563" s="4"/>
-      <c r="H563" s="4"/>
-      <c r="I563" s="4"/>
-      <c r="J563" s="4"/>
-      <c r="K563" s="4"/>
-      <c r="L563" s="4"/>
-      <c r="M563" s="4"/>
-      <c r="N563" s="4"/>
-      <c r="O563" s="4"/>
-      <c r="P563" s="4"/>
-      <c r="Q563" s="4"/>
-      <c r="R563" s="4"/>
-      <c r="S563" s="4"/>
-      <c r="T563" s="4"/>
-      <c r="U563" s="4"/>
-      <c r="V563" s="4"/>
-      <c r="W563" s="4"/>
-      <c r="X563" s="4"/>
-      <c r="Y563" s="4"/>
-      <c r="Z563" s="4"/>
-      <c r="AA563" s="4"/>
-    </row>
-    <row r="564">
-      <c r="A564" s="4"/>
-      <c r="B564" s="4"/>
-      <c r="C564" s="4"/>
-      <c r="D564" s="4"/>
-      <c r="E564" s="72"/>
-      <c r="F564" s="4"/>
-      <c r="G564" s="4"/>
-      <c r="H564" s="4"/>
-      <c r="I564" s="4"/>
-      <c r="J564" s="4"/>
-      <c r="K564" s="4"/>
-      <c r="L564" s="4"/>
-      <c r="M564" s="4"/>
-      <c r="N564" s="4"/>
-      <c r="O564" s="4"/>
-      <c r="P564" s="4"/>
-      <c r="Q564" s="4"/>
-      <c r="R564" s="4"/>
-      <c r="S564" s="4"/>
-      <c r="T564" s="4"/>
-      <c r="U564" s="4"/>
-      <c r="V564" s="4"/>
-      <c r="W564" s="4"/>
-      <c r="X564" s="4"/>
-      <c r="Y564" s="4"/>
-      <c r="Z564" s="4"/>
-      <c r="AA564" s="4"/>
-    </row>
-    <row r="565">
-      <c r="A565" s="4"/>
-      <c r="B565" s="4"/>
-      <c r="C565" s="4"/>
-      <c r="D565" s="4"/>
-      <c r="E565" s="72"/>
-      <c r="F565" s="4"/>
-      <c r="G565" s="4"/>
-      <c r="H565" s="4"/>
-      <c r="I565" s="4"/>
-      <c r="J565" s="4"/>
-      <c r="K565" s="4"/>
-      <c r="L565" s="4"/>
-      <c r="M565" s="4"/>
-      <c r="N565" s="4"/>
-      <c r="O565" s="4"/>
-      <c r="P565" s="4"/>
-      <c r="Q565" s="4"/>
-      <c r="R565" s="4"/>
-      <c r="S565" s="4"/>
-      <c r="T565" s="4"/>
-      <c r="U565" s="4"/>
-      <c r="V565" s="4"/>
-      <c r="W565" s="4"/>
-      <c r="X565" s="4"/>
-      <c r="Y565" s="4"/>
-      <c r="Z565" s="4"/>
-      <c r="AA565" s="4"/>
-    </row>
-    <row r="566">
-      <c r="A566" s="4"/>
-      <c r="B566" s="4"/>
-      <c r="C566" s="4"/>
-      <c r="D566" s="4"/>
-      <c r="E566" s="72"/>
-      <c r="F566" s="4"/>
-      <c r="G566" s="4"/>
-      <c r="H566" s="4"/>
-      <c r="I566" s="4"/>
-      <c r="J566" s="4"/>
-      <c r="K566" s="4"/>
-      <c r="L566" s="4"/>
-      <c r="M566" s="4"/>
-      <c r="N566" s="4"/>
-      <c r="O566" s="4"/>
-      <c r="P566" s="4"/>
-      <c r="Q566" s="4"/>
-      <c r="R566" s="4"/>
-      <c r="S566" s="4"/>
-      <c r="T566" s="4"/>
-      <c r="U566" s="4"/>
-      <c r="V566" s="4"/>
-      <c r="W566" s="4"/>
-      <c r="X566" s="4"/>
-      <c r="Y566" s="4"/>
-      <c r="Z566" s="4"/>
-      <c r="AA566" s="4"/>
-    </row>
-    <row r="567">
-      <c r="A567" s="4"/>
-      <c r="B567" s="4"/>
-      <c r="C567" s="4"/>
-      <c r="D567" s="4"/>
-      <c r="E567" s="72"/>
-      <c r="F567" s="4"/>
-      <c r="G567" s="4"/>
-      <c r="H567" s="4"/>
-      <c r="I567" s="4"/>
-      <c r="J567" s="4"/>
-      <c r="K567" s="4"/>
-      <c r="L567" s="4"/>
-      <c r="M567" s="4"/>
-      <c r="N567" s="4"/>
-      <c r="O567" s="4"/>
-      <c r="P567" s="4"/>
-      <c r="Q567" s="4"/>
-      <c r="R567" s="4"/>
-      <c r="S567" s="4"/>
-      <c r="T567" s="4"/>
-      <c r="U567" s="4"/>
-      <c r="V567" s="4"/>
-      <c r="W567" s="4"/>
-      <c r="X567" s="4"/>
-      <c r="Y567" s="4"/>
-      <c r="Z567" s="4"/>
-      <c r="AA567" s="4"/>
-    </row>
-    <row r="568">
-      <c r="A568" s="4"/>
-      <c r="B568" s="4"/>
-      <c r="C568" s="4"/>
-      <c r="D568" s="4"/>
-      <c r="E568" s="72"/>
-      <c r="F568" s="4"/>
-      <c r="G568" s="4"/>
-      <c r="H568" s="4"/>
-      <c r="I568" s="4"/>
-      <c r="J568" s="4"/>
-      <c r="K568" s="4"/>
-      <c r="L568" s="4"/>
-      <c r="M568" s="4"/>
-      <c r="N568" s="4"/>
-      <c r="O568" s="4"/>
-      <c r="P568" s="4"/>
-      <c r="Q568" s="4"/>
-      <c r="R568" s="4"/>
-      <c r="S568" s="4"/>
-      <c r="T568" s="4"/>
-      <c r="U568" s="4"/>
-      <c r="V568" s="4"/>
-      <c r="W568" s="4"/>
-      <c r="X568" s="4"/>
-      <c r="Y568" s="4"/>
-      <c r="Z568" s="4"/>
-      <c r="AA568" s="4"/>
-    </row>
-    <row r="569">
-      <c r="A569" s="4"/>
-      <c r="B569" s="4"/>
-      <c r="C569" s="4"/>
-      <c r="D569" s="4"/>
-      <c r="E569" s="72"/>
-      <c r="F569" s="4"/>
-      <c r="G569" s="4"/>
-      <c r="H569" s="4"/>
-      <c r="I569" s="4"/>
-      <c r="J569" s="4"/>
-      <c r="K569" s="4"/>
-      <c r="L569" s="4"/>
-      <c r="M569" s="4"/>
-      <c r="N569" s="4"/>
-      <c r="O569" s="4"/>
-      <c r="P569" s="4"/>
-      <c r="Q569" s="4"/>
-      <c r="R569" s="4"/>
-      <c r="S569" s="4"/>
-      <c r="T569" s="4"/>
-      <c r="U569" s="4"/>
-      <c r="V569" s="4"/>
-      <c r="W569" s="4"/>
-      <c r="X569" s="4"/>
-      <c r="Y569" s="4"/>
-      <c r="Z569" s="4"/>
-      <c r="AA569" s="4"/>
-    </row>
-    <row r="570">
-      <c r="A570" s="4"/>
-      <c r="B570" s="4"/>
-      <c r="C570" s="4"/>
-      <c r="D570" s="4"/>
-      <c r="E570" s="72"/>
-      <c r="F570" s="4"/>
-      <c r="G570" s="4"/>
-      <c r="H570" s="4"/>
-      <c r="I570" s="4"/>
-      <c r="J570" s="4"/>
-      <c r="K570" s="4"/>
-      <c r="L570" s="4"/>
-      <c r="M570" s="4"/>
-      <c r="N570" s="4"/>
-      <c r="O570" s="4"/>
-      <c r="P570" s="4"/>
-      <c r="Q570" s="4"/>
-      <c r="R570" s="4"/>
-      <c r="S570" s="4"/>
-      <c r="T570" s="4"/>
-      <c r="U570" s="4"/>
-      <c r="V570" s="4"/>
-      <c r="W570" s="4"/>
-      <c r="X570" s="4"/>
-      <c r="Y570" s="4"/>
-      <c r="Z570" s="4"/>
-      <c r="AA570" s="4"/>
-    </row>
-    <row r="571">
-      <c r="A571" s="4"/>
-      <c r="B571" s="4"/>
-      <c r="C571" s="4"/>
-      <c r="D571" s="4"/>
-      <c r="E571" s="72"/>
-      <c r="F571" s="4"/>
-      <c r="G571" s="4"/>
-      <c r="H571" s="4"/>
-      <c r="I571" s="4"/>
-      <c r="J571" s="4"/>
-      <c r="K571" s="4"/>
-      <c r="L571" s="4"/>
-      <c r="M571" s="4"/>
-      <c r="N571" s="4"/>
-      <c r="O571" s="4"/>
-      <c r="P571" s="4"/>
-      <c r="Q571" s="4"/>
-      <c r="R571" s="4"/>
-      <c r="S571" s="4"/>
-      <c r="T571" s="4"/>
-      <c r="U571" s="4"/>
-      <c r="V571" s="4"/>
-      <c r="W571" s="4"/>
-      <c r="X571" s="4"/>
-      <c r="Y571" s="4"/>
-      <c r="Z571" s="4"/>
-      <c r="AA571" s="4"/>
-    </row>
-    <row r="572">
-      <c r="A572" s="4"/>
-      <c r="B572" s="4"/>
-      <c r="C572" s="4"/>
-      <c r="D572" s="4"/>
-      <c r="E572" s="72"/>
-      <c r="F572" s="4"/>
-      <c r="G572" s="4"/>
-      <c r="H572" s="4"/>
-      <c r="I572" s="4"/>
-      <c r="J572" s="4"/>
-      <c r="K572" s="4"/>
-      <c r="L572" s="4"/>
-      <c r="M572" s="4"/>
-      <c r="N572" s="4"/>
-      <c r="O572" s="4"/>
-      <c r="P572" s="4"/>
-      <c r="Q572" s="4"/>
-      <c r="R572" s="4"/>
-      <c r="S572" s="4"/>
-      <c r="T572" s="4"/>
-      <c r="U572" s="4"/>
-      <c r="V572" s="4"/>
-      <c r="W572" s="4"/>
-      <c r="X572" s="4"/>
-      <c r="Y572" s="4"/>
-      <c r="Z572" s="4"/>
-      <c r="AA572" s="4"/>
-    </row>
-    <row r="573">
-      <c r="A573" s="4"/>
-      <c r="B573" s="4"/>
-      <c r="C573" s="4"/>
-      <c r="D573" s="4"/>
-      <c r="E573" s="72"/>
-      <c r="F573" s="4"/>
-      <c r="G573" s="4"/>
-      <c r="H573" s="4"/>
-      <c r="I573" s="4"/>
-      <c r="J573" s="4"/>
-      <c r="K573" s="4"/>
-      <c r="L573" s="4"/>
-      <c r="M573" s="4"/>
-      <c r="N573" s="4"/>
-      <c r="O573" s="4"/>
-      <c r="P573" s="4"/>
-      <c r="Q573" s="4"/>
-      <c r="R573" s="4"/>
-      <c r="S573" s="4"/>
-      <c r="T573" s="4"/>
-      <c r="U573" s="4"/>
-      <c r="V573" s="4"/>
-      <c r="W573" s="4"/>
-      <c r="X573" s="4"/>
-      <c r="Y573" s="4"/>
-      <c r="Z573" s="4"/>
-      <c r="AA573" s="4"/>
-    </row>
-    <row r="574">
-      <c r="A574" s="4"/>
-      <c r="B574" s="4"/>
-      <c r="C574" s="4"/>
-      <c r="D574" s="4"/>
-      <c r="E574" s="72"/>
-      <c r="F574" s="4"/>
-      <c r="G574" s="4"/>
-      <c r="H574" s="4"/>
-      <c r="I574" s="4"/>
-      <c r="J574" s="4"/>
-      <c r="K574" s="4"/>
-      <c r="L574" s="4"/>
-      <c r="M574" s="4"/>
-      <c r="N574" s="4"/>
-      <c r="O574" s="4"/>
-      <c r="P574" s="4"/>
-      <c r="Q574" s="4"/>
-      <c r="R574" s="4"/>
-      <c r="S574" s="4"/>
-      <c r="T574" s="4"/>
-      <c r="U574" s="4"/>
-      <c r="V574" s="4"/>
-      <c r="W574" s="4"/>
-      <c r="X574" s="4"/>
-      <c r="Y574" s="4"/>
-      <c r="Z574" s="4"/>
-      <c r="AA574" s="4"/>
-    </row>
-    <row r="575">
-      <c r="A575" s="4"/>
-      <c r="B575" s="4"/>
-      <c r="C575" s="4"/>
-      <c r="D575" s="4"/>
-      <c r="E575" s="72"/>
-      <c r="F575" s="4"/>
-      <c r="G575" s="4"/>
-      <c r="H575" s="4"/>
-      <c r="I575" s="4"/>
-      <c r="J575" s="4"/>
-      <c r="K575" s="4"/>
-      <c r="L575" s="4"/>
-      <c r="M575" s="4"/>
-      <c r="N575" s="4"/>
-      <c r="O575" s="4"/>
-      <c r="P575" s="4"/>
-      <c r="Q575" s="4"/>
-      <c r="R575" s="4"/>
-      <c r="S575" s="4"/>
-      <c r="T575" s="4"/>
-      <c r="U575" s="4"/>
-      <c r="V575" s="4"/>
-      <c r="W575" s="4"/>
-      <c r="X575" s="4"/>
-      <c r="Y575" s="4"/>
-      <c r="Z575" s="4"/>
-      <c r="AA575" s="4"/>
-    </row>
-    <row r="576">
-      <c r="A576" s="4"/>
-      <c r="B576" s="4"/>
-      <c r="C576" s="4"/>
-      <c r="D576" s="4"/>
-      <c r="E576" s="72"/>
-      <c r="F576" s="4"/>
-      <c r="G576" s="4"/>
-      <c r="H576" s="4"/>
-      <c r="I576" s="4"/>
-      <c r="J576" s="4"/>
-      <c r="K576" s="4"/>
-      <c r="L576" s="4"/>
-      <c r="M576" s="4"/>
-      <c r="N576" s="4"/>
-      <c r="O576" s="4"/>
-      <c r="P576" s="4"/>
-      <c r="Q576" s="4"/>
-      <c r="R576" s="4"/>
-      <c r="S576" s="4"/>
-      <c r="T576" s="4"/>
-      <c r="U576" s="4"/>
-      <c r="V576" s="4"/>
-      <c r="W576" s="4"/>
-      <c r="X576" s="4"/>
-      <c r="Y576" s="4"/>
-      <c r="Z576" s="4"/>
-      <c r="AA576" s="4"/>
-    </row>
-    <row r="577">
-      <c r="A577" s="4"/>
-      <c r="B577" s="4"/>
-      <c r="C577" s="4"/>
-      <c r="D577" s="4"/>
-      <c r="E577" s="72"/>
-      <c r="F577" s="4"/>
-      <c r="G577" s="4"/>
-      <c r="H577" s="4"/>
-      <c r="I577" s="4"/>
-      <c r="J577" s="4"/>
-      <c r="K577" s="4"/>
-      <c r="L577" s="4"/>
-      <c r="M577" s="4"/>
-      <c r="N577" s="4"/>
-      <c r="O577" s="4"/>
-      <c r="P577" s="4"/>
-      <c r="Q577" s="4"/>
-      <c r="R577" s="4"/>
-      <c r="S577" s="4"/>
-      <c r="T577" s="4"/>
-      <c r="U577" s="4"/>
-      <c r="V577" s="4"/>
-      <c r="W577" s="4"/>
-      <c r="X577" s="4"/>
-      <c r="Y577" s="4"/>
-      <c r="Z577" s="4"/>
-      <c r="AA577" s="4"/>
-    </row>
-    <row r="578">
-      <c r="A578" s="4"/>
-      <c r="B578" s="4"/>
-      <c r="C578" s="4"/>
-      <c r="D578" s="4"/>
-      <c r="E578" s="72"/>
-      <c r="F578" s="4"/>
-      <c r="G578" s="4"/>
-      <c r="H578" s="4"/>
-      <c r="I578" s="4"/>
-      <c r="J578" s="4"/>
-      <c r="K578" s="4"/>
-      <c r="L578" s="4"/>
-      <c r="M578" s="4"/>
-      <c r="N578" s="4"/>
-      <c r="O578" s="4"/>
-      <c r="P578" s="4"/>
-      <c r="Q578" s="4"/>
-      <c r="R578" s="4"/>
-      <c r="S578" s="4"/>
-      <c r="T578" s="4"/>
-      <c r="U578" s="4"/>
-      <c r="V578" s="4"/>
-      <c r="W578" s="4"/>
-      <c r="X578" s="4"/>
-      <c r="Y578" s="4"/>
-      <c r="Z578" s="4"/>
-      <c r="AA578" s="4"/>
-    </row>
-    <row r="579">
-      <c r="A579" s="4"/>
-      <c r="B579" s="4"/>
-      <c r="C579" s="4"/>
-      <c r="D579" s="4"/>
-      <c r="E579" s="72"/>
-      <c r="F579" s="4"/>
-      <c r="G579" s="4"/>
-      <c r="H579" s="4"/>
-      <c r="I579" s="4"/>
-      <c r="J579" s="4"/>
-      <c r="K579" s="4"/>
-      <c r="L579" s="4"/>
-      <c r="M579" s="4"/>
-      <c r="N579" s="4"/>
-      <c r="O579" s="4"/>
-      <c r="P579" s="4"/>
-      <c r="Q579" s="4"/>
-      <c r="R579" s="4"/>
-      <c r="S579" s="4"/>
-      <c r="T579" s="4"/>
-      <c r="U579" s="4"/>
-      <c r="V579" s="4"/>
-      <c r="W579" s="4"/>
-      <c r="X579" s="4"/>
-      <c r="Y579" s="4"/>
-      <c r="Z579" s="4"/>
-      <c r="AA579" s="4"/>
-    </row>
-    <row r="580">
-      <c r="A580" s="4"/>
-      <c r="B580" s="4"/>
-      <c r="C580" s="4"/>
-      <c r="D580" s="4"/>
-      <c r="E580" s="72"/>
-      <c r="F580" s="4"/>
-      <c r="G580" s="4"/>
-      <c r="H580" s="4"/>
-      <c r="I580" s="4"/>
-      <c r="J580" s="4"/>
-      <c r="K580" s="4"/>
-      <c r="L580" s="4"/>
-      <c r="M580" s="4"/>
-      <c r="N580" s="4"/>
-      <c r="O580" s="4"/>
-      <c r="P580" s="4"/>
-      <c r="Q580" s="4"/>
-      <c r="R580" s="4"/>
-      <c r="S580" s="4"/>
-      <c r="T580" s="4"/>
-      <c r="U580" s="4"/>
-      <c r="V580" s="4"/>
-      <c r="W580" s="4"/>
-      <c r="X580" s="4"/>
-      <c r="Y580" s="4"/>
-      <c r="Z580" s="4"/>
-      <c r="AA580" s="4"/>
-    </row>
-    <row r="581">
-      <c r="A581" s="4"/>
-      <c r="B581" s="4"/>
-      <c r="C581" s="4"/>
-      <c r="D581" s="4"/>
-      <c r="E581" s="72"/>
-      <c r="F581" s="4"/>
-      <c r="G581" s="4"/>
-      <c r="H581" s="4"/>
-      <c r="I581" s="4"/>
-      <c r="J581" s="4"/>
-      <c r="K581" s="4"/>
-      <c r="L581" s="4"/>
-      <c r="M581" s="4"/>
-      <c r="N581" s="4"/>
-      <c r="O581" s="4"/>
-      <c r="P581" s="4"/>
-      <c r="Q581" s="4"/>
-      <c r="R581" s="4"/>
-      <c r="S581" s="4"/>
-      <c r="T581" s="4"/>
-      <c r="U581" s="4"/>
-      <c r="V581" s="4"/>
-      <c r="W581" s="4"/>
-      <c r="X581" s="4"/>
-      <c r="Y581" s="4"/>
-      <c r="Z581" s="4"/>
-      <c r="AA581" s="4"/>
-    </row>
-    <row r="582">
-      <c r="A582" s="4"/>
-      <c r="B582" s="4"/>
-      <c r="C582" s="4"/>
-      <c r="D582" s="4"/>
-      <c r="E582" s="72"/>
-      <c r="F582" s="4"/>
-      <c r="G582" s="4"/>
-      <c r="H582" s="4"/>
-      <c r="I582" s="4"/>
-      <c r="J582" s="4"/>
-      <c r="K582" s="4"/>
-      <c r="L582" s="4"/>
-      <c r="M582" s="4"/>
-      <c r="N582" s="4"/>
-      <c r="O582" s="4"/>
-      <c r="P582" s="4"/>
-      <c r="Q582" s="4"/>
-      <c r="R582" s="4"/>
-      <c r="S582" s="4"/>
-      <c r="T582" s="4"/>
-      <c r="U582" s="4"/>
-      <c r="V582" s="4"/>
-      <c r="W582" s="4"/>
-      <c r="X582" s="4"/>
-      <c r="Y582" s="4"/>
-      <c r="Z582" s="4"/>
-      <c r="AA582" s="4"/>
-    </row>
-    <row r="583">
-      <c r="A583" s="4"/>
-      <c r="B583" s="4"/>
-      <c r="C583" s="4"/>
-      <c r="D583" s="4"/>
-      <c r="E583" s="72"/>
-      <c r="F583" s="4"/>
-      <c r="G583" s="4"/>
-      <c r="H583" s="4"/>
-      <c r="I583" s="4"/>
-      <c r="J583" s="4"/>
-      <c r="K583" s="4"/>
-      <c r="L583" s="4"/>
-      <c r="M583" s="4"/>
-      <c r="N583" s="4"/>
-      <c r="O583" s="4"/>
-      <c r="P583" s="4"/>
-      <c r="Q583" s="4"/>
-      <c r="R583" s="4"/>
-      <c r="S583" s="4"/>
-      <c r="T583" s="4"/>
-      <c r="U583" s="4"/>
-      <c r="V583" s="4"/>
-      <c r="W583" s="4"/>
-      <c r="X583" s="4"/>
-      <c r="Y583" s="4"/>
-      <c r="Z583" s="4"/>
-      <c r="AA583" s="4"/>
-    </row>
-    <row r="584">
-      <c r="A584" s="4"/>
-      <c r="B584" s="4"/>
-      <c r="C584" s="4"/>
-      <c r="D584" s="4"/>
-      <c r="E584" s="72"/>
-      <c r="F584" s="4"/>
-      <c r="G584" s="4"/>
-      <c r="H584" s="4"/>
-      <c r="I584" s="4"/>
-      <c r="J584" s="4"/>
-      <c r="K584" s="4"/>
-      <c r="L584" s="4"/>
-      <c r="M584" s="4"/>
-      <c r="N584" s="4"/>
-      <c r="O584" s="4"/>
-      <c r="P584" s="4"/>
-      <c r="Q584" s="4"/>
-      <c r="R584" s="4"/>
-      <c r="S584" s="4"/>
-      <c r="T584" s="4"/>
-      <c r="U584" s="4"/>
-      <c r="V584" s="4"/>
-      <c r="W584" s="4"/>
-      <c r="X584" s="4"/>
-      <c r="Y584" s="4"/>
-      <c r="Z584" s="4"/>
-      <c r="AA584" s="4"/>
-    </row>
-    <row r="585">
-      <c r="A585" s="4"/>
-      <c r="B585" s="4"/>
-      <c r="C585" s="4"/>
-      <c r="D585" s="4"/>
-      <c r="E585" s="72"/>
-      <c r="F585" s="4"/>
-      <c r="G585" s="4"/>
-      <c r="H585" s="4"/>
-      <c r="I585" s="4"/>
-      <c r="J585" s="4"/>
-      <c r="K585" s="4"/>
-      <c r="L585" s="4"/>
-      <c r="M585" s="4"/>
-      <c r="N585" s="4"/>
-      <c r="O585" s="4"/>
-      <c r="P585" s="4"/>
-      <c r="Q585" s="4"/>
-      <c r="R585" s="4"/>
-      <c r="S585" s="4"/>
-      <c r="T585" s="4"/>
-      <c r="U585" s="4"/>
-      <c r="V585" s="4"/>
-      <c r="W585" s="4"/>
-      <c r="X585" s="4"/>
-      <c r="Y585" s="4"/>
-      <c r="Z585" s="4"/>
-      <c r="AA585" s="4"/>
-    </row>
-    <row r="586">
-      <c r="A586" s="4"/>
-      <c r="B586" s="4"/>
-      <c r="C586" s="4"/>
-      <c r="D586" s="4"/>
-      <c r="E586" s="72"/>
-      <c r="F586" s="4"/>
-      <c r="G586" s="4"/>
-      <c r="H586" s="4"/>
-      <c r="I586" s="4"/>
-      <c r="J586" s="4"/>
-      <c r="K586" s="4"/>
-      <c r="L586" s="4"/>
-      <c r="M586" s="4"/>
-      <c r="N586" s="4"/>
-      <c r="O586" s="4"/>
-      <c r="P586" s="4"/>
-      <c r="Q586" s="4"/>
-      <c r="R586" s="4"/>
-      <c r="S586" s="4"/>
-      <c r="T586" s="4"/>
-      <c r="U586" s="4"/>
-      <c r="V586" s="4"/>
-      <c r="W586" s="4"/>
-      <c r="X586" s="4"/>
-      <c r="Y586" s="4"/>
-      <c r="Z586" s="4"/>
-      <c r="AA586" s="4"/>
-    </row>
-    <row r="587">
-      <c r="A587" s="4"/>
-      <c r="B587" s="4"/>
-      <c r="C587" s="4"/>
-      <c r="D587" s="4"/>
-      <c r="E587" s="72"/>
-      <c r="F587" s="4"/>
-      <c r="G587" s="4"/>
-      <c r="H587" s="4"/>
-      <c r="I587" s="4"/>
-      <c r="J587" s="4"/>
-      <c r="K587" s="4"/>
-      <c r="L587" s="4"/>
-      <c r="M587" s="4"/>
-      <c r="N587" s="4"/>
-      <c r="O587" s="4"/>
-      <c r="P587" s="4"/>
-      <c r="Q587" s="4"/>
-      <c r="R587" s="4"/>
-      <c r="S587" s="4"/>
-      <c r="T587" s="4"/>
-      <c r="U587" s="4"/>
-      <c r="V587" s="4"/>
-      <c r="W587" s="4"/>
-      <c r="X587" s="4"/>
-      <c r="Y587" s="4"/>
-      <c r="Z587" s="4"/>
-      <c r="AA587" s="4"/>
-    </row>
-    <row r="588">
-      <c r="A588" s="4"/>
-      <c r="B588" s="4"/>
-      <c r="C588" s="4"/>
-      <c r="D588" s="4"/>
-      <c r="E588" s="72"/>
-      <c r="F588" s="4"/>
-      <c r="G588" s="4"/>
-      <c r="H588" s="4"/>
-      <c r="I588" s="4"/>
-      <c r="J588" s="4"/>
-      <c r="K588" s="4"/>
-      <c r="L588" s="4"/>
-      <c r="M588" s="4"/>
-      <c r="N588" s="4"/>
-      <c r="O588" s="4"/>
-      <c r="P588" s="4"/>
-      <c r="Q588" s="4"/>
-      <c r="R588" s="4"/>
-      <c r="S588" s="4"/>
-      <c r="T588" s="4"/>
-      <c r="U588" s="4"/>
-      <c r="V588" s="4"/>
-      <c r="W588" s="4"/>
-      <c r="X588" s="4"/>
-      <c r="Y588" s="4"/>
-      <c r="Z588" s="4"/>
-      <c r="AA588" s="4"/>
-    </row>
-    <row r="589">
-      <c r="A589" s="4"/>
-      <c r="B589" s="4"/>
-      <c r="C589" s="4"/>
-      <c r="D589" s="4"/>
-      <c r="E589" s="72"/>
-      <c r="F589" s="4"/>
-      <c r="G589" s="4"/>
-      <c r="H589" s="4"/>
-      <c r="I589" s="4"/>
-      <c r="J589" s="4"/>
-      <c r="K589" s="4"/>
-      <c r="L589" s="4"/>
-      <c r="M589" s="4"/>
-      <c r="N589" s="4"/>
-      <c r="O589" s="4"/>
-      <c r="P589" s="4"/>
-      <c r="Q589" s="4"/>
-      <c r="R589" s="4"/>
-      <c r="S589" s="4"/>
-      <c r="T589" s="4"/>
-      <c r="U589" s="4"/>
-      <c r="V589" s="4"/>
-      <c r="W589" s="4"/>
-      <c r="X589" s="4"/>
-      <c r="Y589" s="4"/>
-      <c r="Z589" s="4"/>
-      <c r="AA589" s="4"/>
-    </row>
-    <row r="590">
-      <c r="A590" s="4"/>
-      <c r="B590" s="4"/>
-      <c r="C590" s="4"/>
-      <c r="D590" s="4"/>
-      <c r="E590" s="72"/>
-      <c r="F590" s="4"/>
-      <c r="G590" s="4"/>
-      <c r="H590" s="4"/>
-      <c r="I590" s="4"/>
-      <c r="J590" s="4"/>
-      <c r="K590" s="4"/>
-      <c r="L590" s="4"/>
-      <c r="M590" s="4"/>
-      <c r="N590" s="4"/>
-      <c r="O590" s="4"/>
-      <c r="P590" s="4"/>
-      <c r="Q590" s="4"/>
-      <c r="R590" s="4"/>
-      <c r="S590" s="4"/>
-      <c r="T590" s="4"/>
-      <c r="U590" s="4"/>
-      <c r="V590" s="4"/>
-      <c r="W590" s="4"/>
-      <c r="X590" s="4"/>
-      <c r="Y590" s="4"/>
-      <c r="Z590" s="4"/>
-      <c r="AA590" s="4"/>
-    </row>
-    <row r="591">
-      <c r="A591" s="4"/>
-      <c r="B591" s="4"/>
-      <c r="C591" s="4"/>
-      <c r="D591" s="4"/>
-      <c r="E591" s="72"/>
-      <c r="F591" s="4"/>
-      <c r="G591" s="4"/>
-      <c r="H591" s="4"/>
-      <c r="I591" s="4"/>
-      <c r="J591" s="4"/>
-      <c r="K591" s="4"/>
-      <c r="L591" s="4"/>
-      <c r="M591" s="4"/>
-      <c r="N591" s="4"/>
-      <c r="O591" s="4"/>
-      <c r="P591" s="4"/>
-      <c r="Q591" s="4"/>
-      <c r="R591" s="4"/>
-      <c r="S591" s="4"/>
-      <c r="T591" s="4"/>
-      <c r="U591" s="4"/>
-      <c r="V591" s="4"/>
-      <c r="W591" s="4"/>
-      <c r="X591" s="4"/>
-      <c r="Y591" s="4"/>
-      <c r="Z591" s="4"/>
-      <c r="AA591" s="4"/>
-    </row>
-    <row r="592">
-      <c r="A592" s="4"/>
-      <c r="B592" s="4"/>
-      <c r="C592" s="4"/>
-      <c r="D592" s="4"/>
-      <c r="E592" s="72"/>
-      <c r="F592" s="4"/>
-      <c r="G592" s="4"/>
-      <c r="H592" s="4"/>
-      <c r="I592" s="4"/>
-      <c r="J592" s="4"/>
-      <c r="K592" s="4"/>
-      <c r="L592" s="4"/>
-      <c r="M592" s="4"/>
-      <c r="N592" s="4"/>
-      <c r="O592" s="4"/>
-      <c r="P592" s="4"/>
-      <c r="Q592" s="4"/>
-      <c r="R592" s="4"/>
-      <c r="S592" s="4"/>
-      <c r="T592" s="4"/>
-      <c r="U592" s="4"/>
-      <c r="V592" s="4"/>
-      <c r="W592" s="4"/>
-      <c r="X592" s="4"/>
-      <c r="Y592" s="4"/>
-      <c r="Z592" s="4"/>
-      <c r="AA592" s="4"/>
-    </row>
-    <row r="593">
-      <c r="A593" s="4"/>
-      <c r="B593" s="4"/>
-      <c r="C593" s="4"/>
-      <c r="D593" s="4"/>
-      <c r="E593" s="72"/>
-      <c r="F593" s="4"/>
-      <c r="G593" s="4"/>
-      <c r="H593" s="4"/>
-      <c r="I593" s="4"/>
-      <c r="J593" s="4"/>
-      <c r="K593" s="4"/>
-      <c r="L593" s="4"/>
-      <c r="M593" s="4"/>
-      <c r="N593" s="4"/>
-      <c r="O593" s="4"/>
-      <c r="P593" s="4"/>
-      <c r="Q593" s="4"/>
-      <c r="R593" s="4"/>
-      <c r="S593" s="4"/>
-      <c r="T593" s="4"/>
-      <c r="U593" s="4"/>
-      <c r="V593" s="4"/>
-      <c r="W593" s="4"/>
-      <c r="X593" s="4"/>
-      <c r="Y593" s="4"/>
-      <c r="Z593" s="4"/>
-      <c r="AA593" s="4"/>
-    </row>
-    <row r="594">
-      <c r="A594" s="4"/>
-      <c r="B594" s="4"/>
-      <c r="C594" s="4"/>
-      <c r="D594" s="4"/>
-      <c r="E594" s="72"/>
-      <c r="F594" s="4"/>
-      <c r="G594" s="4"/>
-      <c r="H594" s="4"/>
-      <c r="I594" s="4"/>
-      <c r="J594" s="4"/>
-      <c r="K594" s="4"/>
-      <c r="L594" s="4"/>
-      <c r="M594" s="4"/>
-      <c r="N594" s="4"/>
-      <c r="O594" s="4"/>
-      <c r="P594" s="4"/>
-      <c r="Q594" s="4"/>
-      <c r="R594" s="4"/>
-      <c r="S594" s="4"/>
-      <c r="T594" s="4"/>
-      <c r="U594" s="4"/>
-      <c r="V594" s="4"/>
-      <c r="W594" s="4"/>
-      <c r="X594" s="4"/>
-      <c r="Y594" s="4"/>
-      <c r="Z594" s="4"/>
-      <c r="AA594" s="4"/>
-    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="100">
+  <mergeCells count="99">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="B4:C10"/>
-    <mergeCell ref="C257:C263"/>
     <mergeCell ref="A4:A115"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="C264:C270"/>
     <mergeCell ref="C11:C15"/>
     <mergeCell ref="B11:B21"/>
-    <mergeCell ref="C271:C273"/>
     <mergeCell ref="C16:C21"/>
-    <mergeCell ref="C274:C280"/>
     <mergeCell ref="B22:B35"/>
     <mergeCell ref="C22:C26"/>
     <mergeCell ref="C27:C35"/>
-    <mergeCell ref="C281:C282"/>
-    <mergeCell ref="B283:C313"/>
+    <mergeCell ref="C287:C297"/>
+    <mergeCell ref="B287:B319"/>
     <mergeCell ref="B36:C44"/>
+    <mergeCell ref="C298:C308"/>
     <mergeCell ref="B45:C52"/>
     <mergeCell ref="B53:B70"/>
     <mergeCell ref="C53:C59"/>
-    <mergeCell ref="B314:B334"/>
+    <mergeCell ref="C309:C319"/>
     <mergeCell ref="C60:C69"/>
-    <mergeCell ref="C314:C320"/>
-    <mergeCell ref="C321:C327"/>
-    <mergeCell ref="C328:C334"/>
+    <mergeCell ref="C320:C324"/>
+    <mergeCell ref="B320:B340"/>
+    <mergeCell ref="C325:C330"/>
     <mergeCell ref="B71:C83"/>
-    <mergeCell ref="C335:C340"/>
-    <mergeCell ref="B335:B358"/>
+    <mergeCell ref="C331:C332"/>
+    <mergeCell ref="C333:C336"/>
     <mergeCell ref="C84:C91"/>
+    <mergeCell ref="C337:C340"/>
     <mergeCell ref="B84:B96"/>
-    <mergeCell ref="C341:C347"/>
-    <mergeCell ref="C348:C350"/>
-    <mergeCell ref="C351:C354"/>
-    <mergeCell ref="C355:C358"/>
+    <mergeCell ref="B341:C347"/>
+    <mergeCell ref="B348:C352"/>
     <mergeCell ref="B97:C112"/>
-    <mergeCell ref="B359:C366"/>
-    <mergeCell ref="B367:C389"/>
+    <mergeCell ref="B353:C357"/>
+    <mergeCell ref="B358:C362"/>
+    <mergeCell ref="B363:C371"/>
+    <mergeCell ref="F374:G374"/>
     <mergeCell ref="B113:C115"/>
+    <mergeCell ref="F376:G376"/>
     <mergeCell ref="B116:D116"/>
-    <mergeCell ref="A116:A240"/>
-    <mergeCell ref="B117:C140"/>
-    <mergeCell ref="B390:C394"/>
-    <mergeCell ref="B395:C400"/>
-    <mergeCell ref="B141:B185"/>
-    <mergeCell ref="C141:C146"/>
-    <mergeCell ref="C147:C152"/>
-    <mergeCell ref="B401:C410"/>
-    <mergeCell ref="C153:C156"/>
-    <mergeCell ref="B411:C425"/>
-    <mergeCell ref="C160:C163"/>
-    <mergeCell ref="C157:C159"/>
-    <mergeCell ref="C164:C172"/>
-    <mergeCell ref="F430:G430"/>
-    <mergeCell ref="F429:G429"/>
-    <mergeCell ref="F432:G432"/>
-    <mergeCell ref="F431:G431"/>
-    <mergeCell ref="A428:C434"/>
-    <mergeCell ref="F428:G428"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="C436:D436"/>
-    <mergeCell ref="B436:B442"/>
-    <mergeCell ref="A435:A494"/>
-    <mergeCell ref="B435:E435"/>
-    <mergeCell ref="C178:C183"/>
-    <mergeCell ref="F434:G434"/>
-    <mergeCell ref="F433:G433"/>
-    <mergeCell ref="C437:D437"/>
-    <mergeCell ref="B186:B231"/>
-    <mergeCell ref="C444:C457"/>
-    <mergeCell ref="B444:B472"/>
-    <mergeCell ref="B443:D443"/>
-    <mergeCell ref="C186:C198"/>
-    <mergeCell ref="C199:C201"/>
-    <mergeCell ref="C202:C212"/>
-    <mergeCell ref="C458:C463"/>
-    <mergeCell ref="C464:C472"/>
-    <mergeCell ref="C216:C218"/>
-    <mergeCell ref="C213:C215"/>
+    <mergeCell ref="F375:G375"/>
+    <mergeCell ref="A116:A217"/>
+    <mergeCell ref="A374:C379"/>
+    <mergeCell ref="B117:C139"/>
+    <mergeCell ref="B380:E380"/>
+    <mergeCell ref="A380:A439"/>
+    <mergeCell ref="F378:G378"/>
+    <mergeCell ref="F377:G377"/>
+    <mergeCell ref="B381:B387"/>
+    <mergeCell ref="C381:D381"/>
+    <mergeCell ref="F379:G379"/>
+    <mergeCell ref="C382:D382"/>
+    <mergeCell ref="B388:D388"/>
+    <mergeCell ref="B389:B417"/>
+    <mergeCell ref="C389:C402"/>
+    <mergeCell ref="C140:C143"/>
+    <mergeCell ref="B140:B173"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="C147:C150"/>
+    <mergeCell ref="C403:C408"/>
+    <mergeCell ref="C151:C153"/>
+    <mergeCell ref="C409:C417"/>
+    <mergeCell ref="C154:C156"/>
+    <mergeCell ref="C157:C164"/>
+    <mergeCell ref="B418:C428"/>
+    <mergeCell ref="C165:C168"/>
+    <mergeCell ref="C169:C173"/>
+    <mergeCell ref="B174:B208"/>
+    <mergeCell ref="C174:C182"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="A440:A441"/>
+    <mergeCell ref="A442:A443"/>
+    <mergeCell ref="C185:C195"/>
+    <mergeCell ref="A444:A445"/>
+    <mergeCell ref="A446:A447"/>
+    <mergeCell ref="A448:A449"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="C204:C208"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="C211:C213"/>
+    <mergeCell ref="B209:B215"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="B216:C217"/>
+    <mergeCell ref="C214:C215"/>
     <mergeCell ref="C219:C221"/>
-    <mergeCell ref="B473:C483"/>
-    <mergeCell ref="C222:C224"/>
-    <mergeCell ref="C225:C231"/>
-    <mergeCell ref="C232:C234"/>
-    <mergeCell ref="B232:B237"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="B238:C239"/>
-    <mergeCell ref="A495:A496"/>
-    <mergeCell ref="A497:A498"/>
-    <mergeCell ref="B242:B282"/>
-    <mergeCell ref="A241:A427"/>
-    <mergeCell ref="B241:D241"/>
-    <mergeCell ref="A499:A500"/>
-    <mergeCell ref="C242:C244"/>
-    <mergeCell ref="A501:A502"/>
-    <mergeCell ref="C248:C249"/>
-    <mergeCell ref="A503:A504"/>
-    <mergeCell ref="C245:C247"/>
-    <mergeCell ref="C250:C253"/>
-    <mergeCell ref="C254:C256"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="A218:A373"/>
+    <mergeCell ref="B219:B255"/>
+    <mergeCell ref="C224:C225"/>
+    <mergeCell ref="C222:C223"/>
+    <mergeCell ref="C226:C229"/>
+    <mergeCell ref="C230:C232"/>
+    <mergeCell ref="C233:C239"/>
+    <mergeCell ref="C240:C245"/>
+    <mergeCell ref="C248:C253"/>
+    <mergeCell ref="C246:C247"/>
+    <mergeCell ref="B256:C286"/>
+    <mergeCell ref="C254:C255"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MainSheet.xlsx
+++ b/MainSheet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="452" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="468" uniqueCount="468">
   <si>
     <t>分类1</t>
   </si>
@@ -284,9 +284,36 @@
     <t>发箍</t>
   </si>
   <si>
+    <t>发夹</t>
+  </si>
+  <si>
+    <t>头带/头巾</t>
+  </si>
+  <si>
+    <t>蝴蝶结</t>
+  </si>
+  <si>
+    <t>簪</t>
+  </si>
+  <si>
+    <t>舌环/舌钉</t>
+  </si>
+  <si>
+    <t>鼻环</t>
+  </si>
+  <si>
     <t>耳环/耳钉/耳坠</t>
   </si>
   <si>
+    <t>口罩</t>
+  </si>
+  <si>
+    <t>面具/面罩</t>
+  </si>
+  <si>
+    <t>面纱</t>
+  </si>
+  <si>
     <t>半面罩防毒面具</t>
   </si>
   <si>
@@ -333,6 +360,9 @@
   </si>
   <si>
     <t>连体衣</t>
+  </si>
+  <si>
+    <t>露背高领毛衣</t>
   </si>
   <si>
     <t>kigurumi</t>
@@ -462,9 +492,6 @@
     <t>眼罩</t>
   </si>
   <si>
-    <t>口罩</t>
-  </si>
-  <si>
     <t>对乳房/乳头</t>
   </si>
   <si>
@@ -735,6 +762,9 @@
     <t>作为M时的喜好程度</t>
   </si>
   <si>
+    <t>以下行为若无特别标注均指S对M的行为</t>
+  </si>
+  <si>
     <t>对身体特定部位</t>
   </si>
   <si>
@@ -747,6 +777,9 @@
     <t>口交（M对S）</t>
   </si>
   <si>
+    <t>含套</t>
+  </si>
+  <si>
     <t>对眼睛</t>
   </si>
   <si>
@@ -942,6 +975,9 @@
     <t>木乃伊</t>
   </si>
   <si>
+    <t>自缚</t>
+  </si>
+  <si>
     <t>援交</t>
   </si>
   <si>
@@ -954,6 +990,9 @@
     <t>暴露</t>
   </si>
   <si>
+    <t>真空</t>
+  </si>
+  <si>
     <t>裸露</t>
   </si>
   <si>
@@ -978,9 +1017,18 @@
     <t>裸露时器具</t>
   </si>
   <si>
+    <t>服装内拘束</t>
+  </si>
+  <si>
+    <t>裸露时拘束</t>
+  </si>
+  <si>
     <t>自慰</t>
   </si>
   <si>
+    <t>汽车里</t>
+  </si>
+  <si>
     <t>无人公众场所</t>
   </si>
   <si>
@@ -993,7 +1041,7 @@
     <t>尿液</t>
   </si>
   <si>
-    <t>在他人面前放尿</t>
+    <t>在S面前放尿</t>
   </si>
   <si>
     <t>饮尿（M对S）</t>
@@ -1044,7 +1092,7 @@
     <t>粪便</t>
   </si>
   <si>
-    <t>在他人面前脱粪</t>
+    <t>在S面前脱粪</t>
   </si>
   <si>
     <t>粪浴</t>
@@ -2801,7 +2849,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3113,7 +3161,7 @@
     <col min="6" max="6" width="24.0" hidden="false" customWidth="true"/>
     <col min="7" max="7" width="26.0" hidden="false" customWidth="true"/>
     <col min="8" max="8" width="26.0" hidden="false" customWidth="true"/>
-    <col min="9" max="9" width="26.0" hidden="false" customWidth="true"/>
+    <col min="9" max="9" width="41.0" hidden="false" customWidth="true"/>
     <col min="10" max="10" width="14.0" hidden="false" customWidth="true"/>
     <col min="11" max="11" width="14.0" hidden="false" customWidth="true"/>
     <col min="12" max="12" width="14.0" hidden="false" customWidth="true"/>
@@ -3136,7 +3184,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5961,8 +6009,10 @@
     <row r="91">
       <c r="A91" s="22"/>
       <c r="B91" s="18"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="20"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="17" t="s">
+        <v>93</v>
+      </c>
       <c r="E91" s="19"/>
       <c r="F91" s="20"/>
       <c r="G91" s="21"/>
@@ -5990,8 +6040,10 @@
     <row r="92">
       <c r="A92" s="22"/>
       <c r="B92" s="18"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="20"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="17" t="s">
+        <v>94</v>
+      </c>
       <c r="E92" s="19"/>
       <c r="F92" s="20"/>
       <c r="G92" s="21"/>
@@ -6019,8 +6071,10 @@
     <row r="93">
       <c r="A93" s="22"/>
       <c r="B93" s="18"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="20"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="E93" s="19"/>
       <c r="F93" s="20"/>
       <c r="G93" s="21"/>
@@ -6048,8 +6102,10 @@
     <row r="94">
       <c r="A94" s="22"/>
       <c r="B94" s="18"/>
-      <c r="C94" s="20"/>
-      <c r="D94" s="20"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="17" t="s">
+        <v>96</v>
+      </c>
       <c r="E94" s="19"/>
       <c r="F94" s="20"/>
       <c r="G94" s="21"/>
@@ -6077,8 +6133,10 @@
     <row r="95">
       <c r="A95" s="22"/>
       <c r="B95" s="18"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="20"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="17" t="s">
+        <v>97</v>
+      </c>
       <c r="E95" s="19"/>
       <c r="F95" s="20"/>
       <c r="G95" s="21"/>
@@ -6106,8 +6164,10 @@
     <row r="96">
       <c r="A96" s="22"/>
       <c r="B96" s="18"/>
-      <c r="C96" s="20"/>
-      <c r="D96" s="20"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="17" t="s">
+        <v>98</v>
+      </c>
       <c r="E96" s="19"/>
       <c r="F96" s="20"/>
       <c r="G96" s="21"/>
@@ -6134,12 +6194,10 @@
     </row>
     <row r="97">
       <c r="A97" s="22"/>
-      <c r="B97" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C97" s="18"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="8"/>
       <c r="D97" s="17" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E97" s="19"/>
       <c r="F97" s="20"/>
@@ -6168,9 +6226,9 @@
     <row r="98">
       <c r="A98" s="22"/>
       <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
+      <c r="C98" s="8"/>
       <c r="D98" s="17" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E98" s="19"/>
       <c r="F98" s="20"/>
@@ -6199,9 +6257,9 @@
     <row r="99">
       <c r="A99" s="22"/>
       <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
+      <c r="C99" s="8"/>
       <c r="D99" s="17" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E99" s="19"/>
       <c r="F99" s="20"/>
@@ -6230,10 +6288,8 @@
     <row r="100">
       <c r="A100" s="22"/>
       <c r="B100" s="18"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="17" t="s">
-        <v>97</v>
-      </c>
+      <c r="C100" s="24"/>
+      <c r="D100" s="20"/>
       <c r="E100" s="19"/>
       <c r="F100" s="20"/>
       <c r="G100" s="21"/>
@@ -6261,10 +6317,8 @@
     <row r="101">
       <c r="A101" s="22"/>
       <c r="B101" s="18"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="17" t="s">
-        <v>98</v>
-      </c>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
       <c r="E101" s="19"/>
       <c r="F101" s="20"/>
       <c r="G101" s="21"/>
@@ -6292,10 +6346,8 @@
     <row r="102">
       <c r="A102" s="22"/>
       <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="17" t="s">
-        <v>99</v>
-      </c>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
       <c r="E102" s="19"/>
       <c r="F102" s="20"/>
       <c r="G102" s="21"/>
@@ -6323,10 +6375,8 @@
     <row r="103">
       <c r="A103" s="22"/>
       <c r="B103" s="18"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="17" t="s">
-        <v>100</v>
-      </c>
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
       <c r="E103" s="19"/>
       <c r="F103" s="20"/>
       <c r="G103" s="21"/>
@@ -6354,10 +6404,8 @@
     <row r="104">
       <c r="A104" s="22"/>
       <c r="B104" s="18"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="17" t="s">
-        <v>101</v>
-      </c>
+      <c r="C104" s="20"/>
+      <c r="D104" s="20"/>
       <c r="E104" s="19"/>
       <c r="F104" s="20"/>
       <c r="G104" s="21"/>
@@ -6385,10 +6433,8 @@
     <row r="105">
       <c r="A105" s="22"/>
       <c r="B105" s="18"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="17" t="s">
-        <v>102</v>
-      </c>
+      <c r="C105" s="20"/>
+      <c r="D105" s="20"/>
       <c r="E105" s="19"/>
       <c r="F105" s="20"/>
       <c r="G105" s="21"/>
@@ -6415,7 +6461,9 @@
     </row>
     <row r="106">
       <c r="A106" s="22"/>
-      <c r="B106" s="18"/>
+      <c r="B106" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="C106" s="18"/>
       <c r="D106" s="17" t="s">
         <v>103</v>
@@ -6541,7 +6589,9 @@
       <c r="A110" s="22"/>
       <c r="B110" s="18"/>
       <c r="C110" s="18"/>
-      <c r="D110" s="20"/>
+      <c r="D110" s="17" t="s">
+        <v>107</v>
+      </c>
       <c r="E110" s="19"/>
       <c r="F110" s="20"/>
       <c r="G110" s="21"/>
@@ -6571,7 +6621,7 @@
       <c r="B111" s="18"/>
       <c r="C111" s="18"/>
       <c r="D111" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E111" s="19"/>
       <c r="F111" s="20"/>
@@ -6602,7 +6652,7 @@
       <c r="B112" s="18"/>
       <c r="C112" s="18"/>
       <c r="D112" s="17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E112" s="19"/>
       <c r="F112" s="20"/>
@@ -6630,16 +6680,14 @@
     </row>
     <row r="113">
       <c r="A113" s="22"/>
-      <c r="B113" s="17" t="s">
-        <v>109</v>
-      </c>
+      <c r="B113" s="18"/>
       <c r="C113" s="18"/>
       <c r="D113" s="17" t="s">
         <v>110</v>
       </c>
       <c r="E113" s="19"/>
-      <c r="F113" s="17"/>
-      <c r="G113" s="25"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="21"/>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
@@ -6669,8 +6717,8 @@
         <v>111</v>
       </c>
       <c r="E114" s="19"/>
-      <c r="F114" s="17"/>
-      <c r="G114" s="25"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="21"/>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
@@ -6693,15 +6741,15 @@
       <c r="AA114" s="4"/>
     </row>
     <row r="115">
-      <c r="A115" s="26"/>
-      <c r="B115" s="27"/>
-      <c r="C115" s="27"/>
-      <c r="D115" s="28" t="s">
+      <c r="A115" s="22"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="E115" s="29"/>
-      <c r="F115" s="28"/>
-      <c r="G115" s="30"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="21"/>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
@@ -6724,19 +6772,15 @@
       <c r="AA115" s="4"/>
     </row>
     <row r="116">
-      <c r="A116" s="31" t="s">
+      <c r="A116" s="22"/>
+      <c r="B116" s="18"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B116" s="32"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="24"/>
-      <c r="E116" s="33"/>
-      <c r="F116" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G116" s="34" t="s">
-        <v>115</v>
-      </c>
+      <c r="E116" s="19"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="21"/>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
@@ -6760,12 +6804,10 @@
     </row>
     <row r="117">
       <c r="A117" s="22"/>
-      <c r="B117" s="35" t="s">
-        <v>116</v>
-      </c>
+      <c r="B117" s="18"/>
       <c r="C117" s="18"/>
       <c r="D117" s="17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E117" s="19"/>
       <c r="F117" s="20"/>
@@ -6796,7 +6838,7 @@
       <c r="B118" s="18"/>
       <c r="C118" s="18"/>
       <c r="D118" s="17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E118" s="19"/>
       <c r="F118" s="20"/>
@@ -6827,7 +6869,7 @@
       <c r="B119" s="18"/>
       <c r="C119" s="18"/>
       <c r="D119" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E119" s="19"/>
       <c r="F119" s="20"/>
@@ -6858,7 +6900,7 @@
       <c r="B120" s="18"/>
       <c r="C120" s="18"/>
       <c r="D120" s="17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E120" s="19"/>
       <c r="F120" s="20"/>
@@ -6889,7 +6931,7 @@
       <c r="B121" s="18"/>
       <c r="C121" s="18"/>
       <c r="D121" s="17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E121" s="19"/>
       <c r="F121" s="20"/>
@@ -6917,14 +6959,16 @@
     </row>
     <row r="122">
       <c r="A122" s="22"/>
-      <c r="B122" s="18"/>
+      <c r="B122" s="17" t="s">
+        <v>119</v>
+      </c>
       <c r="C122" s="18"/>
       <c r="D122" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E122" s="19"/>
-      <c r="F122" s="20"/>
-      <c r="G122" s="21"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="25"/>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
@@ -6951,11 +6995,11 @@
       <c r="B123" s="18"/>
       <c r="C123" s="18"/>
       <c r="D123" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E123" s="19"/>
-      <c r="F123" s="20"/>
-      <c r="G123" s="21"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="25"/>
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
@@ -6978,15 +7022,15 @@
       <c r="AA123" s="4"/>
     </row>
     <row r="124">
-      <c r="A124" s="22"/>
-      <c r="B124" s="18"/>
-      <c r="C124" s="18"/>
-      <c r="D124" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E124" s="19"/>
-      <c r="F124" s="20"/>
-      <c r="G124" s="21"/>
+      <c r="A124" s="26"/>
+      <c r="B124" s="27"/>
+      <c r="C124" s="27"/>
+      <c r="D124" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="E124" s="29"/>
+      <c r="F124" s="28"/>
+      <c r="G124" s="30"/>
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
@@ -7009,15 +7053,19 @@
       <c r="AA124" s="4"/>
     </row>
     <row r="125">
-      <c r="A125" s="22"/>
-      <c r="B125" s="18"/>
-      <c r="C125" s="18"/>
-      <c r="D125" s="17" t="s">
+      <c r="A125" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="B125" s="32"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="33"/>
+      <c r="F125" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="G125" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="E125" s="19"/>
-      <c r="F125" s="20"/>
-      <c r="G125" s="21"/>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
@@ -7041,10 +7089,12 @@
     </row>
     <row r="126">
       <c r="A126" s="22"/>
-      <c r="B126" s="18"/>
+      <c r="B126" s="35" t="s">
+        <v>126</v>
+      </c>
       <c r="C126" s="18"/>
       <c r="D126" s="17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E126" s="19"/>
       <c r="F126" s="20"/>
@@ -7075,7 +7125,7 @@
       <c r="B127" s="18"/>
       <c r="C127" s="18"/>
       <c r="D127" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E127" s="19"/>
       <c r="F127" s="20"/>
@@ -7106,7 +7156,7 @@
       <c r="B128" s="18"/>
       <c r="C128" s="18"/>
       <c r="D128" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E128" s="19"/>
       <c r="F128" s="20"/>
@@ -7137,7 +7187,7 @@
       <c r="B129" s="18"/>
       <c r="C129" s="18"/>
       <c r="D129" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E129" s="19"/>
       <c r="F129" s="20"/>
@@ -7168,7 +7218,7 @@
       <c r="B130" s="18"/>
       <c r="C130" s="18"/>
       <c r="D130" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E130" s="19"/>
       <c r="F130" s="20"/>
@@ -7199,7 +7249,7 @@
       <c r="B131" s="18"/>
       <c r="C131" s="18"/>
       <c r="D131" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E131" s="19"/>
       <c r="F131" s="20"/>
@@ -7230,7 +7280,7 @@
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
       <c r="D132" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E132" s="19"/>
       <c r="F132" s="20"/>
@@ -7261,7 +7311,7 @@
       <c r="B133" s="18"/>
       <c r="C133" s="18"/>
       <c r="D133" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E133" s="19"/>
       <c r="F133" s="20"/>
@@ -7292,7 +7342,7 @@
       <c r="B134" s="18"/>
       <c r="C134" s="18"/>
       <c r="D134" s="17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E134" s="19"/>
       <c r="F134" s="20"/>
@@ -7323,7 +7373,7 @@
       <c r="B135" s="18"/>
       <c r="C135" s="18"/>
       <c r="D135" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E135" s="19"/>
       <c r="F135" s="20"/>
@@ -7354,7 +7404,7 @@
       <c r="B136" s="18"/>
       <c r="C136" s="18"/>
       <c r="D136" s="17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E136" s="19"/>
       <c r="F136" s="20"/>
@@ -7385,7 +7435,7 @@
       <c r="B137" s="18"/>
       <c r="C137" s="18"/>
       <c r="D137" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E137" s="19"/>
       <c r="F137" s="20"/>
@@ -7416,7 +7466,7 @@
       <c r="B138" s="18"/>
       <c r="C138" s="18"/>
       <c r="D138" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E138" s="19"/>
       <c r="F138" s="20"/>
@@ -7447,7 +7497,7 @@
       <c r="B139" s="18"/>
       <c r="C139" s="18"/>
       <c r="D139" s="17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E139" s="19"/>
       <c r="F139" s="20"/>
@@ -7475,14 +7525,10 @@
     </row>
     <row r="140">
       <c r="A140" s="22"/>
-      <c r="B140" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="C140" s="17" t="s">
+      <c r="B140" s="18"/>
+      <c r="C140" s="18"/>
+      <c r="D140" s="17" t="s">
         <v>141</v>
-      </c>
-      <c r="D140" s="17" t="s">
-        <v>142</v>
       </c>
       <c r="E140" s="19"/>
       <c r="F140" s="20"/>
@@ -7513,7 +7559,7 @@
       <c r="B141" s="18"/>
       <c r="C141" s="18"/>
       <c r="D141" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E141" s="19"/>
       <c r="F141" s="20"/>
@@ -7544,7 +7590,7 @@
       <c r="B142" s="18"/>
       <c r="C142" s="18"/>
       <c r="D142" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E142" s="19"/>
       <c r="F142" s="20"/>
@@ -7575,7 +7621,7 @@
       <c r="B143" s="18"/>
       <c r="C143" s="18"/>
       <c r="D143" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E143" s="19"/>
       <c r="F143" s="20"/>
@@ -7604,11 +7650,9 @@
     <row r="144">
       <c r="A144" s="22"/>
       <c r="B144" s="18"/>
-      <c r="C144" s="17" t="s">
-        <v>146</v>
-      </c>
+      <c r="C144" s="18"/>
       <c r="D144" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E144" s="19"/>
       <c r="F144" s="20"/>
@@ -7639,7 +7683,7 @@
       <c r="B145" s="18"/>
       <c r="C145" s="18"/>
       <c r="D145" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E145" s="19"/>
       <c r="F145" s="20"/>
@@ -7669,8 +7713,8 @@
       <c r="A146" s="22"/>
       <c r="B146" s="18"/>
       <c r="C146" s="18"/>
-      <c r="D146" s="23" t="s">
-        <v>149</v>
+      <c r="D146" s="17" t="s">
+        <v>147</v>
       </c>
       <c r="E146" s="19"/>
       <c r="F146" s="20"/>
@@ -7699,11 +7743,9 @@
     <row r="147">
       <c r="A147" s="22"/>
       <c r="B147" s="18"/>
-      <c r="C147" s="17" t="s">
-        <v>150</v>
-      </c>
+      <c r="C147" s="18"/>
       <c r="D147" s="17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E147" s="19"/>
       <c r="F147" s="20"/>
@@ -7734,7 +7776,7 @@
       <c r="B148" s="18"/>
       <c r="C148" s="18"/>
       <c r="D148" s="17" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E148" s="19"/>
       <c r="F148" s="20"/>
@@ -7762,10 +7804,14 @@
     </row>
     <row r="149">
       <c r="A149" s="22"/>
-      <c r="B149" s="18"/>
-      <c r="C149" s="18"/>
+      <c r="B149" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="C149" s="17" t="s">
+        <v>151</v>
+      </c>
       <c r="D149" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E149" s="19"/>
       <c r="F149" s="20"/>
@@ -7796,7 +7842,7 @@
       <c r="B150" s="18"/>
       <c r="C150" s="18"/>
       <c r="D150" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E150" s="19"/>
       <c r="F150" s="20"/>
@@ -7825,11 +7871,9 @@
     <row r="151">
       <c r="A151" s="22"/>
       <c r="B151" s="18"/>
-      <c r="C151" s="17" t="s">
-        <v>155</v>
-      </c>
+      <c r="C151" s="18"/>
       <c r="D151" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E151" s="19"/>
       <c r="F151" s="20"/>
@@ -7860,7 +7904,7 @@
       <c r="B152" s="18"/>
       <c r="C152" s="18"/>
       <c r="D152" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E152" s="19"/>
       <c r="F152" s="20"/>
@@ -7889,9 +7933,11 @@
     <row r="153">
       <c r="A153" s="22"/>
       <c r="B153" s="18"/>
-      <c r="C153" s="18"/>
+      <c r="C153" s="17" t="s">
+        <v>156</v>
+      </c>
       <c r="D153" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E153" s="19"/>
       <c r="F153" s="20"/>
@@ -7920,11 +7966,9 @@
     <row r="154">
       <c r="A154" s="22"/>
       <c r="B154" s="18"/>
-      <c r="C154" s="17" t="s">
-        <v>159</v>
-      </c>
+      <c r="C154" s="18"/>
       <c r="D154" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E154" s="19"/>
       <c r="F154" s="20"/>
@@ -7954,8 +7998,8 @@
       <c r="A155" s="22"/>
       <c r="B155" s="18"/>
       <c r="C155" s="18"/>
-      <c r="D155" s="17" t="s">
-        <v>161</v>
+      <c r="D155" s="23" t="s">
+        <v>97</v>
       </c>
       <c r="E155" s="19"/>
       <c r="F155" s="20"/>
@@ -7984,9 +8028,11 @@
     <row r="156">
       <c r="A156" s="22"/>
       <c r="B156" s="18"/>
-      <c r="C156" s="18"/>
+      <c r="C156" s="17" t="s">
+        <v>159</v>
+      </c>
       <c r="D156" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E156" s="19"/>
       <c r="F156" s="20"/>
@@ -8015,11 +8061,9 @@
     <row r="157">
       <c r="A157" s="22"/>
       <c r="B157" s="18"/>
-      <c r="C157" s="17" t="s">
-        <v>163</v>
-      </c>
+      <c r="C157" s="18"/>
       <c r="D157" s="17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E157" s="19"/>
       <c r="F157" s="20"/>
@@ -8050,7 +8094,7 @@
       <c r="B158" s="18"/>
       <c r="C158" s="18"/>
       <c r="D158" s="17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E158" s="19"/>
       <c r="F158" s="20"/>
@@ -8081,7 +8125,7 @@
       <c r="B159" s="18"/>
       <c r="C159" s="18"/>
       <c r="D159" s="17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E159" s="19"/>
       <c r="F159" s="20"/>
@@ -8110,9 +8154,11 @@
     <row r="160">
       <c r="A160" s="22"/>
       <c r="B160" s="18"/>
-      <c r="C160" s="18"/>
+      <c r="C160" s="17" t="s">
+        <v>164</v>
+      </c>
       <c r="D160" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E160" s="19"/>
       <c r="F160" s="20"/>
@@ -8143,7 +8189,7 @@
       <c r="B161" s="18"/>
       <c r="C161" s="18"/>
       <c r="D161" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E161" s="19"/>
       <c r="F161" s="20"/>
@@ -8174,7 +8220,7 @@
       <c r="B162" s="18"/>
       <c r="C162" s="18"/>
       <c r="D162" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E162" s="19"/>
       <c r="F162" s="20"/>
@@ -8203,9 +8249,11 @@
     <row r="163">
       <c r="A163" s="22"/>
       <c r="B163" s="18"/>
-      <c r="C163" s="18"/>
+      <c r="C163" s="17" t="s">
+        <v>168</v>
+      </c>
       <c r="D163" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E163" s="19"/>
       <c r="F163" s="20"/>
@@ -8236,7 +8284,7 @@
       <c r="B164" s="18"/>
       <c r="C164" s="18"/>
       <c r="D164" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E164" s="19"/>
       <c r="F164" s="20"/>
@@ -8265,11 +8313,9 @@
     <row r="165">
       <c r="A165" s="22"/>
       <c r="B165" s="18"/>
-      <c r="C165" s="17" t="s">
-        <v>172</v>
-      </c>
+      <c r="C165" s="18"/>
       <c r="D165" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E165" s="19"/>
       <c r="F165" s="20"/>
@@ -8298,9 +8344,11 @@
     <row r="166">
       <c r="A166" s="22"/>
       <c r="B166" s="18"/>
-      <c r="C166" s="18"/>
+      <c r="C166" s="17" t="s">
+        <v>172</v>
+      </c>
       <c r="D166" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E166" s="19"/>
       <c r="F166" s="20"/>
@@ -8331,7 +8379,7 @@
       <c r="B167" s="18"/>
       <c r="C167" s="18"/>
       <c r="D167" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E167" s="19"/>
       <c r="F167" s="20"/>
@@ -8362,7 +8410,7 @@
       <c r="B168" s="18"/>
       <c r="C168" s="18"/>
       <c r="D168" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E168" s="19"/>
       <c r="F168" s="20"/>
@@ -8391,11 +8439,9 @@
     <row r="169">
       <c r="A169" s="22"/>
       <c r="B169" s="18"/>
-      <c r="C169" s="17" t="s">
-        <v>177</v>
-      </c>
+      <c r="C169" s="18"/>
       <c r="D169" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E169" s="19"/>
       <c r="F169" s="20"/>
@@ -8426,7 +8472,7 @@
       <c r="B170" s="18"/>
       <c r="C170" s="18"/>
       <c r="D170" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E170" s="19"/>
       <c r="F170" s="20"/>
@@ -8457,7 +8503,7 @@
       <c r="B171" s="18"/>
       <c r="C171" s="18"/>
       <c r="D171" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E171" s="19"/>
       <c r="F171" s="20"/>
@@ -8488,7 +8534,7 @@
       <c r="B172" s="18"/>
       <c r="C172" s="18"/>
       <c r="D172" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E172" s="19"/>
       <c r="F172" s="20"/>
@@ -8519,7 +8565,7 @@
       <c r="B173" s="18"/>
       <c r="C173" s="18"/>
       <c r="D173" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E173" s="19"/>
       <c r="F173" s="20"/>
@@ -8547,18 +8593,16 @@
     </row>
     <row r="174">
       <c r="A174" s="22"/>
-      <c r="B174" s="17" t="s">
-        <v>183</v>
-      </c>
+      <c r="B174" s="18"/>
       <c r="C174" s="17" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="E174" s="36"/>
-      <c r="F174" s="37"/>
-      <c r="G174" s="38"/>
+        <v>182</v>
+      </c>
+      <c r="E174" s="19"/>
+      <c r="F174" s="20"/>
+      <c r="G174" s="21"/>
       <c r="H174" s="4"/>
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
@@ -8585,11 +8629,11 @@
       <c r="B175" s="18"/>
       <c r="C175" s="18"/>
       <c r="D175" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="E175" s="36"/>
-      <c r="F175" s="37"/>
-      <c r="G175" s="38"/>
+        <v>183</v>
+      </c>
+      <c r="E175" s="19"/>
+      <c r="F175" s="20"/>
+      <c r="G175" s="21"/>
       <c r="H175" s="4"/>
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
@@ -8616,11 +8660,11 @@
       <c r="B176" s="18"/>
       <c r="C176" s="18"/>
       <c r="D176" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="E176" s="36"/>
-      <c r="F176" s="37"/>
-      <c r="G176" s="38"/>
+        <v>184</v>
+      </c>
+      <c r="E176" s="19"/>
+      <c r="F176" s="20"/>
+      <c r="G176" s="21"/>
       <c r="H176" s="4"/>
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
@@ -8647,11 +8691,11 @@
       <c r="B177" s="18"/>
       <c r="C177" s="18"/>
       <c r="D177" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="E177" s="36"/>
-      <c r="F177" s="37"/>
-      <c r="G177" s="38"/>
+        <v>185</v>
+      </c>
+      <c r="E177" s="19"/>
+      <c r="F177" s="20"/>
+      <c r="G177" s="21"/>
       <c r="H177" s="4"/>
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
@@ -8676,13 +8720,15 @@
     <row r="178">
       <c r="A178" s="22"/>
       <c r="B178" s="18"/>
-      <c r="C178" s="18"/>
+      <c r="C178" s="17" t="s">
+        <v>186</v>
+      </c>
       <c r="D178" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="E178" s="36"/>
-      <c r="F178" s="37"/>
-      <c r="G178" s="38"/>
+        <v>187</v>
+      </c>
+      <c r="E178" s="19"/>
+      <c r="F178" s="20"/>
+      <c r="G178" s="21"/>
       <c r="H178" s="4"/>
       <c r="I178" s="4"/>
       <c r="J178" s="4"/>
@@ -8709,11 +8755,11 @@
       <c r="B179" s="18"/>
       <c r="C179" s="18"/>
       <c r="D179" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="E179" s="36"/>
-      <c r="F179" s="37"/>
-      <c r="G179" s="38"/>
+        <v>188</v>
+      </c>
+      <c r="E179" s="19"/>
+      <c r="F179" s="20"/>
+      <c r="G179" s="21"/>
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
@@ -8740,11 +8786,11 @@
       <c r="B180" s="18"/>
       <c r="C180" s="18"/>
       <c r="D180" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="E180" s="36"/>
-      <c r="F180" s="37"/>
-      <c r="G180" s="38"/>
+        <v>189</v>
+      </c>
+      <c r="E180" s="19"/>
+      <c r="F180" s="20"/>
+      <c r="G180" s="21"/>
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
       <c r="J180" s="4"/>
@@ -8771,11 +8817,11 @@
       <c r="B181" s="18"/>
       <c r="C181" s="18"/>
       <c r="D181" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="E181" s="36"/>
-      <c r="F181" s="37"/>
-      <c r="G181" s="38"/>
+        <v>190</v>
+      </c>
+      <c r="E181" s="19"/>
+      <c r="F181" s="20"/>
+      <c r="G181" s="21"/>
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
@@ -8802,11 +8848,11 @@
       <c r="B182" s="18"/>
       <c r="C182" s="18"/>
       <c r="D182" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E182" s="36"/>
-      <c r="F182" s="37"/>
-      <c r="G182" s="38"/>
+        <v>191</v>
+      </c>
+      <c r="E182" s="19"/>
+      <c r="F182" s="20"/>
+      <c r="G182" s="21"/>
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
       <c r="J182" s="4"/>
@@ -8830,12 +8876,14 @@
     </row>
     <row r="183">
       <c r="A183" s="22"/>
-      <c r="B183" s="18"/>
+      <c r="B183" s="17" t="s">
+        <v>192</v>
+      </c>
       <c r="C183" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D183" s="17" t="s">
         <v>193</v>
-      </c>
-      <c r="D183" s="17" t="s">
-        <v>194</v>
       </c>
       <c r="E183" s="36"/>
       <c r="F183" s="37"/>
@@ -8866,7 +8914,7 @@
       <c r="B184" s="18"/>
       <c r="C184" s="18"/>
       <c r="D184" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E184" s="36"/>
       <c r="F184" s="37"/>
@@ -8895,11 +8943,9 @@
     <row r="185">
       <c r="A185" s="22"/>
       <c r="B185" s="18"/>
-      <c r="C185" s="23" t="s">
-        <v>196</v>
-      </c>
+      <c r="C185" s="18"/>
       <c r="D185" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E185" s="36"/>
       <c r="F185" s="37"/>
@@ -8928,9 +8974,9 @@
     <row r="186">
       <c r="A186" s="22"/>
       <c r="B186" s="18"/>
-      <c r="C186" s="8"/>
+      <c r="C186" s="18"/>
       <c r="D186" s="17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E186" s="36"/>
       <c r="F186" s="37"/>
@@ -8959,9 +9005,9 @@
     <row r="187">
       <c r="A187" s="22"/>
       <c r="B187" s="18"/>
-      <c r="C187" s="8"/>
+      <c r="C187" s="18"/>
       <c r="D187" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E187" s="36"/>
       <c r="F187" s="37"/>
@@ -8990,9 +9036,9 @@
     <row r="188">
       <c r="A188" s="22"/>
       <c r="B188" s="18"/>
-      <c r="C188" s="8"/>
+      <c r="C188" s="18"/>
       <c r="D188" s="17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E188" s="36"/>
       <c r="F188" s="37"/>
@@ -9021,9 +9067,9 @@
     <row r="189">
       <c r="A189" s="22"/>
       <c r="B189" s="18"/>
-      <c r="C189" s="8"/>
+      <c r="C189" s="18"/>
       <c r="D189" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E189" s="36"/>
       <c r="F189" s="37"/>
@@ -9052,9 +9098,9 @@
     <row r="190">
       <c r="A190" s="22"/>
       <c r="B190" s="18"/>
-      <c r="C190" s="8"/>
+      <c r="C190" s="18"/>
       <c r="D190" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E190" s="36"/>
       <c r="F190" s="37"/>
@@ -9083,9 +9129,9 @@
     <row r="191">
       <c r="A191" s="22"/>
       <c r="B191" s="18"/>
-      <c r="C191" s="8"/>
+      <c r="C191" s="18"/>
       <c r="D191" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E191" s="36"/>
       <c r="F191" s="37"/>
@@ -9114,9 +9160,11 @@
     <row r="192">
       <c r="A192" s="22"/>
       <c r="B192" s="18"/>
-      <c r="C192" s="8"/>
+      <c r="C192" s="17" t="s">
+        <v>202</v>
+      </c>
       <c r="D192" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E192" s="36"/>
       <c r="F192" s="37"/>
@@ -9145,9 +9193,9 @@
     <row r="193">
       <c r="A193" s="22"/>
       <c r="B193" s="18"/>
-      <c r="C193" s="8"/>
+      <c r="C193" s="18"/>
       <c r="D193" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E193" s="36"/>
       <c r="F193" s="37"/>
@@ -9176,7 +9224,9 @@
     <row r="194">
       <c r="A194" s="22"/>
       <c r="B194" s="18"/>
-      <c r="C194" s="8"/>
+      <c r="C194" s="23" t="s">
+        <v>205</v>
+      </c>
       <c r="D194" s="17" t="s">
         <v>206</v>
       </c>
@@ -9207,13 +9257,13 @@
     <row r="195">
       <c r="A195" s="22"/>
       <c r="B195" s="18"/>
-      <c r="C195" s="24"/>
+      <c r="C195" s="8"/>
       <c r="D195" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="E195" s="19"/>
-      <c r="F195" s="20"/>
-      <c r="G195" s="21"/>
+      <c r="E195" s="36"/>
+      <c r="F195" s="37"/>
+      <c r="G195" s="38"/>
       <c r="H195" s="4"/>
       <c r="I195" s="4"/>
       <c r="J195" s="4"/>
@@ -9238,15 +9288,13 @@
     <row r="196">
       <c r="A196" s="22"/>
       <c r="B196" s="18"/>
-      <c r="C196" s="17" t="s">
+      <c r="C196" s="8"/>
+      <c r="D196" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="D196" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="E196" s="19"/>
-      <c r="F196" s="20"/>
-      <c r="G196" s="21"/>
+      <c r="E196" s="36"/>
+      <c r="F196" s="37"/>
+      <c r="G196" s="38"/>
       <c r="H196" s="4"/>
       <c r="I196" s="4"/>
       <c r="J196" s="4"/>
@@ -9271,11 +9319,13 @@
     <row r="197">
       <c r="A197" s="22"/>
       <c r="B197" s="18"/>
-      <c r="C197" s="18"/>
-      <c r="D197" s="20"/>
-      <c r="E197" s="19"/>
-      <c r="F197" s="20"/>
-      <c r="G197" s="21"/>
+      <c r="C197" s="8"/>
+      <c r="D197" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="E197" s="36"/>
+      <c r="F197" s="37"/>
+      <c r="G197" s="38"/>
       <c r="H197" s="4"/>
       <c r="I197" s="4"/>
       <c r="J197" s="4"/>
@@ -9300,15 +9350,13 @@
     <row r="198">
       <c r="A198" s="22"/>
       <c r="B198" s="18"/>
-      <c r="C198" s="17" t="s">
+      <c r="C198" s="8"/>
+      <c r="D198" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="D198" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="E198" s="19"/>
-      <c r="F198" s="20"/>
-      <c r="G198" s="21"/>
+      <c r="E198" s="36"/>
+      <c r="F198" s="37"/>
+      <c r="G198" s="38"/>
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
       <c r="J198" s="4"/>
@@ -9333,13 +9381,13 @@
     <row r="199">
       <c r="A199" s="22"/>
       <c r="B199" s="18"/>
-      <c r="C199" s="18"/>
+      <c r="C199" s="8"/>
       <c r="D199" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="E199" s="19"/>
-      <c r="F199" s="20"/>
-      <c r="G199" s="21"/>
+        <v>211</v>
+      </c>
+      <c r="E199" s="36"/>
+      <c r="F199" s="37"/>
+      <c r="G199" s="38"/>
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
       <c r="J199" s="4"/>
@@ -9364,15 +9412,13 @@
     <row r="200">
       <c r="A200" s="22"/>
       <c r="B200" s="18"/>
-      <c r="C200" s="17" t="s">
-        <v>213</v>
-      </c>
+      <c r="C200" s="8"/>
       <c r="D200" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="E200" s="19"/>
-      <c r="F200" s="20"/>
-      <c r="G200" s="21"/>
+        <v>212</v>
+      </c>
+      <c r="E200" s="36"/>
+      <c r="F200" s="37"/>
+      <c r="G200" s="38"/>
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
       <c r="J200" s="4"/>
@@ -9397,13 +9443,13 @@
     <row r="201">
       <c r="A201" s="22"/>
       <c r="B201" s="18"/>
-      <c r="C201" s="18"/>
+      <c r="C201" s="8"/>
       <c r="D201" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="E201" s="19"/>
-      <c r="F201" s="20"/>
-      <c r="G201" s="21"/>
+        <v>213</v>
+      </c>
+      <c r="E201" s="36"/>
+      <c r="F201" s="37"/>
+      <c r="G201" s="38"/>
       <c r="H201" s="4"/>
       <c r="I201" s="4"/>
       <c r="J201" s="4"/>
@@ -9428,15 +9474,13 @@
     <row r="202">
       <c r="A202" s="22"/>
       <c r="B202" s="18"/>
-      <c r="C202" s="17" t="s">
-        <v>216</v>
-      </c>
+      <c r="C202" s="8"/>
       <c r="D202" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="E202" s="19"/>
-      <c r="F202" s="20"/>
-      <c r="G202" s="21"/>
+        <v>214</v>
+      </c>
+      <c r="E202" s="36"/>
+      <c r="F202" s="37"/>
+      <c r="G202" s="38"/>
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
       <c r="J202" s="4"/>
@@ -9461,13 +9505,13 @@
     <row r="203">
       <c r="A203" s="22"/>
       <c r="B203" s="18"/>
-      <c r="C203" s="18"/>
+      <c r="C203" s="8"/>
       <c r="D203" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="E203" s="19"/>
-      <c r="F203" s="20"/>
-      <c r="G203" s="21"/>
+        <v>215</v>
+      </c>
+      <c r="E203" s="36"/>
+      <c r="F203" s="37"/>
+      <c r="G203" s="38"/>
       <c r="H203" s="4"/>
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
@@ -9492,11 +9536,9 @@
     <row r="204">
       <c r="A204" s="22"/>
       <c r="B204" s="18"/>
-      <c r="C204" s="17" t="s">
-        <v>219</v>
-      </c>
+      <c r="C204" s="24"/>
       <c r="D204" s="17" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E204" s="19"/>
       <c r="F204" s="20"/>
@@ -9525,9 +9567,11 @@
     <row r="205">
       <c r="A205" s="22"/>
       <c r="B205" s="18"/>
-      <c r="C205" s="18"/>
+      <c r="C205" s="17" t="s">
+        <v>217</v>
+      </c>
       <c r="D205" s="17" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E205" s="19"/>
       <c r="F205" s="20"/>
@@ -9557,9 +9601,7 @@
       <c r="A206" s="22"/>
       <c r="B206" s="18"/>
       <c r="C206" s="18"/>
-      <c r="D206" s="17" t="s">
-        <v>222</v>
-      </c>
+      <c r="D206" s="20"/>
       <c r="E206" s="19"/>
       <c r="F206" s="20"/>
       <c r="G206" s="21"/>
@@ -9587,9 +9629,11 @@
     <row r="207">
       <c r="A207" s="22"/>
       <c r="B207" s="18"/>
-      <c r="C207" s="18"/>
+      <c r="C207" s="17" t="s">
+        <v>219</v>
+      </c>
       <c r="D207" s="17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E207" s="19"/>
       <c r="F207" s="20"/>
@@ -9620,7 +9664,7 @@
       <c r="B208" s="18"/>
       <c r="C208" s="18"/>
       <c r="D208" s="17" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E208" s="19"/>
       <c r="F208" s="20"/>
@@ -9648,14 +9692,12 @@
     </row>
     <row r="209">
       <c r="A209" s="22"/>
-      <c r="B209" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="C209" s="23" t="s">
-        <v>226</v>
+      <c r="B209" s="18"/>
+      <c r="C209" s="17" t="s">
+        <v>222</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E209" s="19"/>
       <c r="F209" s="20"/>
@@ -9683,10 +9725,10 @@
     </row>
     <row r="210">
       <c r="A210" s="22"/>
-      <c r="B210" s="8"/>
-      <c r="C210" s="8"/>
+      <c r="B210" s="18"/>
+      <c r="C210" s="18"/>
       <c r="D210" s="17" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E210" s="19"/>
       <c r="F210" s="20"/>
@@ -9714,12 +9756,12 @@
     </row>
     <row r="211">
       <c r="A211" s="22"/>
-      <c r="B211" s="8"/>
-      <c r="C211" s="23" t="s">
-        <v>229</v>
+      <c r="B211" s="18"/>
+      <c r="C211" s="17" t="s">
+        <v>225</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E211" s="19"/>
       <c r="F211" s="20"/>
@@ -9747,10 +9789,10 @@
     </row>
     <row r="212">
       <c r="A212" s="22"/>
-      <c r="B212" s="8"/>
-      <c r="C212" s="8"/>
+      <c r="B212" s="18"/>
+      <c r="C212" s="18"/>
       <c r="D212" s="17" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E212" s="19"/>
       <c r="F212" s="20"/>
@@ -9778,10 +9820,12 @@
     </row>
     <row r="213">
       <c r="A213" s="22"/>
-      <c r="B213" s="8"/>
-      <c r="C213" s="8"/>
+      <c r="B213" s="18"/>
+      <c r="C213" s="17" t="s">
+        <v>228</v>
+      </c>
       <c r="D213" s="17" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E213" s="19"/>
       <c r="F213" s="20"/>
@@ -9809,12 +9853,10 @@
     </row>
     <row r="214">
       <c r="A214" s="22"/>
-      <c r="B214" s="8"/>
-      <c r="C214" s="23" t="s">
-        <v>93</v>
-      </c>
+      <c r="B214" s="18"/>
+      <c r="C214" s="18"/>
       <c r="D214" s="17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E214" s="19"/>
       <c r="F214" s="20"/>
@@ -9842,10 +9884,10 @@
     </row>
     <row r="215">
       <c r="A215" s="22"/>
-      <c r="B215" s="8"/>
-      <c r="C215" s="8"/>
+      <c r="B215" s="18"/>
+      <c r="C215" s="18"/>
       <c r="D215" s="17" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E215" s="19"/>
       <c r="F215" s="20"/>
@@ -9873,12 +9915,10 @@
     </row>
     <row r="216">
       <c r="A216" s="22"/>
-      <c r="B216" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="C216" s="40"/>
+      <c r="B216" s="18"/>
+      <c r="C216" s="18"/>
       <c r="D216" s="17" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E216" s="19"/>
       <c r="F216" s="20"/>
@@ -9906,9 +9946,11 @@
     </row>
     <row r="217">
       <c r="A217" s="22"/>
-      <c r="B217" s="41"/>
-      <c r="C217" s="42"/>
-      <c r="D217" s="20"/>
+      <c r="B217" s="18"/>
+      <c r="C217" s="18"/>
+      <c r="D217" s="17" t="s">
+        <v>233</v>
+      </c>
       <c r="E217" s="19"/>
       <c r="F217" s="20"/>
       <c r="G217" s="21"/>
@@ -9934,22 +9976,20 @@
       <c r="AA217" s="4"/>
     </row>
     <row r="218">
-      <c r="A218" s="43" t="s">
+      <c r="A218" s="22"/>
+      <c r="B218" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="C218" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="D218" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="B218" s="14"/>
-      <c r="C218" s="12"/>
-      <c r="D218" s="12"/>
-      <c r="E218" s="13"/>
-      <c r="F218" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="G218" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="H218" s="15" t="s">
-        <v>239</v>
-      </c>
+      <c r="E218" s="19"/>
+      <c r="F218" s="20"/>
+      <c r="G218" s="21"/>
+      <c r="H218" s="4"/>
       <c r="I218" s="4"/>
       <c r="J218" s="4"/>
       <c r="K218" s="4"/>
@@ -9972,19 +10012,15 @@
     </row>
     <row r="219">
       <c r="A219" s="22"/>
-      <c r="B219" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="C219" s="17" t="s">
-        <v>241</v>
-      </c>
+      <c r="B219" s="8"/>
+      <c r="C219" s="8"/>
       <c r="D219" s="17" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E219" s="19"/>
       <c r="F219" s="20"/>
-      <c r="G219" s="20"/>
-      <c r="H219" s="21"/>
+      <c r="G219" s="21"/>
+      <c r="H219" s="4"/>
       <c r="I219" s="4"/>
       <c r="J219" s="4"/>
       <c r="K219" s="4"/>
@@ -10007,15 +10043,17 @@
     </row>
     <row r="220">
       <c r="A220" s="22"/>
-      <c r="B220" s="18"/>
-      <c r="C220" s="18"/>
+      <c r="B220" s="8"/>
+      <c r="C220" s="23" t="s">
+        <v>238</v>
+      </c>
       <c r="D220" s="17" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E220" s="19"/>
       <c r="F220" s="20"/>
-      <c r="G220" s="20"/>
-      <c r="H220" s="21"/>
+      <c r="G220" s="21"/>
+      <c r="H220" s="4"/>
       <c r="I220" s="4"/>
       <c r="J220" s="4"/>
       <c r="K220" s="4"/>
@@ -10038,13 +10076,15 @@
     </row>
     <row r="221">
       <c r="A221" s="22"/>
-      <c r="B221" s="18"/>
-      <c r="C221" s="18"/>
-      <c r="D221" s="20"/>
+      <c r="B221" s="8"/>
+      <c r="C221" s="8"/>
+      <c r="D221" s="17" t="s">
+        <v>240</v>
+      </c>
       <c r="E221" s="19"/>
       <c r="F221" s="20"/>
-      <c r="G221" s="20"/>
-      <c r="H221" s="21"/>
+      <c r="G221" s="21"/>
+      <c r="H221" s="4"/>
       <c r="I221" s="4"/>
       <c r="J221" s="4"/>
       <c r="K221" s="4"/>
@@ -10067,17 +10107,15 @@
     </row>
     <row r="222">
       <c r="A222" s="22"/>
-      <c r="B222" s="18"/>
-      <c r="C222" s="17" t="s">
-        <v>244</v>
-      </c>
+      <c r="B222" s="8"/>
+      <c r="C222" s="8"/>
       <c r="D222" s="17" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E222" s="19"/>
       <c r="F222" s="20"/>
-      <c r="G222" s="20"/>
-      <c r="H222" s="21"/>
+      <c r="G222" s="21"/>
+      <c r="H222" s="4"/>
       <c r="I222" s="4"/>
       <c r="J222" s="4"/>
       <c r="K222" s="4"/>
@@ -10100,15 +10138,17 @@
     </row>
     <row r="223">
       <c r="A223" s="22"/>
-      <c r="B223" s="18"/>
-      <c r="C223" s="18"/>
+      <c r="B223" s="8"/>
+      <c r="C223" s="23" t="s">
+        <v>102</v>
+      </c>
       <c r="D223" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E223" s="19"/>
       <c r="F223" s="20"/>
-      <c r="G223" s="20"/>
-      <c r="H223" s="21"/>
+      <c r="G223" s="21"/>
+      <c r="H223" s="4"/>
       <c r="I223" s="4"/>
       <c r="J223" s="4"/>
       <c r="K223" s="4"/>
@@ -10131,17 +10171,15 @@
     </row>
     <row r="224">
       <c r="A224" s="22"/>
-      <c r="B224" s="18"/>
-      <c r="C224" s="17" t="s">
-        <v>247</v>
-      </c>
+      <c r="B224" s="8"/>
+      <c r="C224" s="8"/>
       <c r="D224" s="17" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E224" s="19"/>
       <c r="F224" s="20"/>
-      <c r="G224" s="20"/>
-      <c r="H224" s="21"/>
+      <c r="G224" s="21"/>
+      <c r="H224" s="4"/>
       <c r="I224" s="4"/>
       <c r="J224" s="4"/>
       <c r="K224" s="4"/>
@@ -10164,13 +10202,17 @@
     </row>
     <row r="225">
       <c r="A225" s="22"/>
-      <c r="B225" s="18"/>
-      <c r="C225" s="18"/>
-      <c r="D225" s="20"/>
+      <c r="B225" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C225" s="40"/>
+      <c r="D225" s="17" t="s">
+        <v>244</v>
+      </c>
       <c r="E225" s="19"/>
       <c r="F225" s="20"/>
-      <c r="G225" s="20"/>
-      <c r="H225" s="21"/>
+      <c r="G225" s="21"/>
+      <c r="H225" s="4"/>
       <c r="I225" s="4"/>
       <c r="J225" s="4"/>
       <c r="K225" s="4"/>
@@ -10193,17 +10235,13 @@
     </row>
     <row r="226">
       <c r="A226" s="22"/>
-      <c r="B226" s="18"/>
-      <c r="C226" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="D226" s="17" t="s">
-        <v>250</v>
-      </c>
+      <c r="B226" s="41"/>
+      <c r="C226" s="42"/>
+      <c r="D226" s="20"/>
       <c r="E226" s="19"/>
       <c r="F226" s="20"/>
-      <c r="G226" s="20"/>
-      <c r="H226" s="21"/>
+      <c r="G226" s="21"/>
+      <c r="H226" s="4"/>
       <c r="I226" s="4"/>
       <c r="J226" s="4"/>
       <c r="K226" s="4"/>
@@ -10225,17 +10263,25 @@
       <c r="AA226" s="4"/>
     </row>
     <row r="227">
-      <c r="A227" s="22"/>
-      <c r="B227" s="18"/>
-      <c r="C227" s="18"/>
-      <c r="D227" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="E227" s="19"/>
-      <c r="F227" s="20"/>
-      <c r="G227" s="20"/>
-      <c r="H227" s="21"/>
-      <c r="I227" s="4"/>
+      <c r="A227" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="B227" s="14"/>
+      <c r="C227" s="12"/>
+      <c r="D227" s="12"/>
+      <c r="E227" s="13"/>
+      <c r="F227" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="G227" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="H227" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="I227" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="J227" s="4"/>
       <c r="K227" s="4"/>
       <c r="L227" s="4"/>
@@ -10257,8 +10303,12 @@
     </row>
     <row r="228">
       <c r="A228" s="22"/>
-      <c r="B228" s="18"/>
-      <c r="C228" s="18"/>
+      <c r="B228" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C228" s="17" t="s">
+        <v>251</v>
+      </c>
       <c r="D228" s="17" t="s">
         <v>252</v>
       </c>
@@ -10320,9 +10370,7 @@
     <row r="230">
       <c r="A230" s="22"/>
       <c r="B230" s="18"/>
-      <c r="C230" s="17" t="s">
-        <v>150</v>
-      </c>
+      <c r="C230" s="18"/>
       <c r="D230" s="17" t="s">
         <v>254</v>
       </c>
@@ -10353,9 +10401,11 @@
     <row r="231">
       <c r="A231" s="22"/>
       <c r="B231" s="18"/>
-      <c r="C231" s="18"/>
+      <c r="C231" s="17" t="s">
+        <v>255</v>
+      </c>
       <c r="D231" s="17" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E231" s="19"/>
       <c r="F231" s="20"/>
@@ -10386,7 +10436,7 @@
       <c r="B232" s="18"/>
       <c r="C232" s="18"/>
       <c r="D232" s="17" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E232" s="19"/>
       <c r="F232" s="20"/>
@@ -10416,10 +10466,10 @@
       <c r="A233" s="22"/>
       <c r="B233" s="18"/>
       <c r="C233" s="17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E233" s="19"/>
       <c r="F233" s="20"/>
@@ -10449,9 +10499,7 @@
       <c r="A234" s="22"/>
       <c r="B234" s="18"/>
       <c r="C234" s="18"/>
-      <c r="D234" s="17" t="s">
-        <v>259</v>
-      </c>
+      <c r="D234" s="20"/>
       <c r="E234" s="19"/>
       <c r="F234" s="20"/>
       <c r="G234" s="20"/>
@@ -10479,8 +10527,12 @@
     <row r="235">
       <c r="A235" s="22"/>
       <c r="B235" s="18"/>
-      <c r="C235" s="18"/>
-      <c r="D235" s="17"/>
+      <c r="C235" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="D235" s="17" t="s">
+        <v>261</v>
+      </c>
       <c r="E235" s="19"/>
       <c r="F235" s="20"/>
       <c r="G235" s="20"/>
@@ -10510,7 +10562,7 @@
       <c r="B236" s="18"/>
       <c r="C236" s="18"/>
       <c r="D236" s="17" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E236" s="19"/>
       <c r="F236" s="20"/>
@@ -10541,7 +10593,7 @@
       <c r="B237" s="18"/>
       <c r="C237" s="18"/>
       <c r="D237" s="17" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E237" s="19"/>
       <c r="F237" s="20"/>
@@ -10572,7 +10624,7 @@
       <c r="B238" s="18"/>
       <c r="C238" s="18"/>
       <c r="D238" s="17" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E238" s="19"/>
       <c r="F238" s="20"/>
@@ -10601,8 +10653,12 @@
     <row r="239">
       <c r="A239" s="22"/>
       <c r="B239" s="18"/>
-      <c r="C239" s="18"/>
-      <c r="D239" s="20"/>
+      <c r="C239" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D239" s="17" t="s">
+        <v>265</v>
+      </c>
       <c r="E239" s="19"/>
       <c r="F239" s="20"/>
       <c r="G239" s="20"/>
@@ -10630,11 +10686,9 @@
     <row r="240">
       <c r="A240" s="22"/>
       <c r="B240" s="18"/>
-      <c r="C240" s="17" t="s">
-        <v>263</v>
-      </c>
+      <c r="C240" s="18"/>
       <c r="D240" s="17" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E240" s="19"/>
       <c r="F240" s="20"/>
@@ -10665,7 +10719,7 @@
       <c r="B241" s="18"/>
       <c r="C241" s="18"/>
       <c r="D241" s="17" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E241" s="19"/>
       <c r="F241" s="20"/>
@@ -10694,9 +10748,11 @@
     <row r="242">
       <c r="A242" s="22"/>
       <c r="B242" s="18"/>
-      <c r="C242" s="18"/>
+      <c r="C242" s="17" t="s">
+        <v>268</v>
+      </c>
       <c r="D242" s="17" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E242" s="19"/>
       <c r="F242" s="20"/>
@@ -10727,7 +10783,7 @@
       <c r="B243" s="18"/>
       <c r="C243" s="18"/>
       <c r="D243" s="17" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E243" s="19"/>
       <c r="F243" s="20"/>
@@ -10757,9 +10813,7 @@
       <c r="A244" s="22"/>
       <c r="B244" s="18"/>
       <c r="C244" s="18"/>
-      <c r="D244" s="17" t="s">
-        <v>268</v>
-      </c>
+      <c r="D244" s="17"/>
       <c r="E244" s="19"/>
       <c r="F244" s="20"/>
       <c r="G244" s="20"/>
@@ -10789,7 +10843,7 @@
       <c r="B245" s="18"/>
       <c r="C245" s="18"/>
       <c r="D245" s="17" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="E245" s="19"/>
       <c r="F245" s="20"/>
@@ -10818,11 +10872,9 @@
     <row r="246">
       <c r="A246" s="22"/>
       <c r="B246" s="18"/>
-      <c r="C246" s="17" t="s">
-        <v>269</v>
-      </c>
+      <c r="C246" s="18"/>
       <c r="D246" s="17" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E246" s="19"/>
       <c r="F246" s="20"/>
@@ -10853,7 +10905,7 @@
       <c r="B247" s="18"/>
       <c r="C247" s="18"/>
       <c r="D247" s="17" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E247" s="19"/>
       <c r="F247" s="20"/>
@@ -10882,12 +10934,8 @@
     <row r="248">
       <c r="A248" s="22"/>
       <c r="B248" s="18"/>
-      <c r="C248" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="D248" s="17" t="s">
-        <v>273</v>
-      </c>
+      <c r="C248" s="18"/>
+      <c r="D248" s="20"/>
       <c r="E248" s="19"/>
       <c r="F248" s="20"/>
       <c r="G248" s="20"/>
@@ -10915,9 +10963,11 @@
     <row r="249">
       <c r="A249" s="22"/>
       <c r="B249" s="18"/>
-      <c r="C249" s="18"/>
+      <c r="C249" s="17" t="s">
+        <v>274</v>
+      </c>
       <c r="D249" s="17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E249" s="19"/>
       <c r="F249" s="20"/>
@@ -10948,7 +10998,7 @@
       <c r="B250" s="18"/>
       <c r="C250" s="18"/>
       <c r="D250" s="17" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E250" s="19"/>
       <c r="F250" s="20"/>
@@ -10979,7 +11029,7 @@
       <c r="B251" s="18"/>
       <c r="C251" s="18"/>
       <c r="D251" s="17" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E251" s="19"/>
       <c r="F251" s="20"/>
@@ -11010,7 +11060,7 @@
       <c r="B252" s="18"/>
       <c r="C252" s="18"/>
       <c r="D252" s="17" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="E252" s="19"/>
       <c r="F252" s="20"/>
@@ -11041,7 +11091,7 @@
       <c r="B253" s="18"/>
       <c r="C253" s="18"/>
       <c r="D253" s="17" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="E253" s="19"/>
       <c r="F253" s="20"/>
@@ -11070,11 +11120,9 @@
     <row r="254">
       <c r="A254" s="22"/>
       <c r="B254" s="18"/>
-      <c r="C254" s="17" t="s">
-        <v>219</v>
-      </c>
+      <c r="C254" s="18"/>
       <c r="D254" s="17" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E254" s="19"/>
       <c r="F254" s="20"/>
@@ -11103,8 +11151,12 @@
     <row r="255">
       <c r="A255" s="22"/>
       <c r="B255" s="18"/>
-      <c r="C255" s="18"/>
-      <c r="D255" s="20"/>
+      <c r="C255" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="D255" s="17" t="s">
+        <v>281</v>
+      </c>
       <c r="E255" s="19"/>
       <c r="F255" s="20"/>
       <c r="G255" s="20"/>
@@ -11131,12 +11183,10 @@
     </row>
     <row r="256">
       <c r="A256" s="22"/>
-      <c r="B256" s="17" t="s">
-        <v>278</v>
-      </c>
+      <c r="B256" s="18"/>
       <c r="C256" s="18"/>
       <c r="D256" s="17" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E256" s="19"/>
       <c r="F256" s="20"/>
@@ -11165,9 +11215,11 @@
     <row r="257">
       <c r="A257" s="22"/>
       <c r="B257" s="18"/>
-      <c r="C257" s="18"/>
+      <c r="C257" s="17" t="s">
+        <v>283</v>
+      </c>
       <c r="D257" s="17" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E257" s="19"/>
       <c r="F257" s="20"/>
@@ -11198,7 +11250,7 @@
       <c r="B258" s="18"/>
       <c r="C258" s="18"/>
       <c r="D258" s="17" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E258" s="19"/>
       <c r="F258" s="20"/>
@@ -11229,7 +11281,7 @@
       <c r="B259" s="18"/>
       <c r="C259" s="18"/>
       <c r="D259" s="17" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E259" s="19"/>
       <c r="F259" s="20"/>
@@ -11260,7 +11312,7 @@
       <c r="B260" s="18"/>
       <c r="C260" s="18"/>
       <c r="D260" s="17" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E260" s="19"/>
       <c r="F260" s="20"/>
@@ -11291,7 +11343,7 @@
       <c r="B261" s="18"/>
       <c r="C261" s="18"/>
       <c r="D261" s="17" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E261" s="19"/>
       <c r="F261" s="20"/>
@@ -11322,7 +11374,7 @@
       <c r="B262" s="18"/>
       <c r="C262" s="18"/>
       <c r="D262" s="17" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E262" s="19"/>
       <c r="F262" s="20"/>
@@ -11351,9 +11403,11 @@
     <row r="263">
       <c r="A263" s="22"/>
       <c r="B263" s="18"/>
-      <c r="C263" s="18"/>
+      <c r="C263" s="17" t="s">
+        <v>228</v>
+      </c>
       <c r="D263" s="17" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E263" s="19"/>
       <c r="F263" s="20"/>
@@ -11383,9 +11437,7 @@
       <c r="A264" s="22"/>
       <c r="B264" s="18"/>
       <c r="C264" s="18"/>
-      <c r="D264" s="17" t="s">
-        <v>287</v>
-      </c>
+      <c r="D264" s="20"/>
       <c r="E264" s="19"/>
       <c r="F264" s="20"/>
       <c r="G264" s="20"/>
@@ -11412,10 +11464,12 @@
     </row>
     <row r="265">
       <c r="A265" s="22"/>
-      <c r="B265" s="18"/>
+      <c r="B265" s="17" t="s">
+        <v>289</v>
+      </c>
       <c r="C265" s="18"/>
       <c r="D265" s="17" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E265" s="19"/>
       <c r="F265" s="20"/>
@@ -11446,7 +11500,7 @@
       <c r="B266" s="18"/>
       <c r="C266" s="18"/>
       <c r="D266" s="17" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E266" s="19"/>
       <c r="F266" s="20"/>
@@ -11477,7 +11531,7 @@
       <c r="B267" s="18"/>
       <c r="C267" s="18"/>
       <c r="D267" s="17" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E267" s="19"/>
       <c r="F267" s="20"/>
@@ -11508,7 +11562,7 @@
       <c r="B268" s="18"/>
       <c r="C268" s="18"/>
       <c r="D268" s="17" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E268" s="19"/>
       <c r="F268" s="20"/>
@@ -11539,7 +11593,7 @@
       <c r="B269" s="18"/>
       <c r="C269" s="18"/>
       <c r="D269" s="17" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E269" s="19"/>
       <c r="F269" s="20"/>
@@ -11570,7 +11624,7 @@
       <c r="B270" s="18"/>
       <c r="C270" s="18"/>
       <c r="D270" s="17" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E270" s="19"/>
       <c r="F270" s="20"/>
@@ -11601,7 +11655,7 @@
       <c r="B271" s="18"/>
       <c r="C271" s="18"/>
       <c r="D271" s="17" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E271" s="19"/>
       <c r="F271" s="20"/>
@@ -11632,7 +11686,7 @@
       <c r="B272" s="18"/>
       <c r="C272" s="18"/>
       <c r="D272" s="17" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E272" s="19"/>
       <c r="F272" s="20"/>
@@ -11663,7 +11717,7 @@
       <c r="B273" s="18"/>
       <c r="C273" s="18"/>
       <c r="D273" s="17" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E273" s="19"/>
       <c r="F273" s="20"/>
@@ -11694,7 +11748,7 @@
       <c r="B274" s="18"/>
       <c r="C274" s="18"/>
       <c r="D274" s="17" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E274" s="19"/>
       <c r="F274" s="20"/>
@@ -11725,7 +11779,7 @@
       <c r="B275" s="18"/>
       <c r="C275" s="18"/>
       <c r="D275" s="17" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E275" s="19"/>
       <c r="F275" s="20"/>
@@ -11756,7 +11810,7 @@
       <c r="B276" s="18"/>
       <c r="C276" s="18"/>
       <c r="D276" s="17" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E276" s="19"/>
       <c r="F276" s="20"/>
@@ -11787,7 +11841,7 @@
       <c r="B277" s="18"/>
       <c r="C277" s="18"/>
       <c r="D277" s="17" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E277" s="19"/>
       <c r="F277" s="20"/>
@@ -11818,7 +11872,7 @@
       <c r="B278" s="18"/>
       <c r="C278" s="18"/>
       <c r="D278" s="17" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E278" s="19"/>
       <c r="F278" s="20"/>
@@ -11849,7 +11903,7 @@
       <c r="B279" s="18"/>
       <c r="C279" s="18"/>
       <c r="D279" s="17" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E279" s="19"/>
       <c r="F279" s="20"/>
@@ -11880,7 +11934,7 @@
       <c r="B280" s="18"/>
       <c r="C280" s="18"/>
       <c r="D280" s="17" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E280" s="19"/>
       <c r="F280" s="20"/>
@@ -11911,7 +11965,7 @@
       <c r="B281" s="18"/>
       <c r="C281" s="18"/>
       <c r="D281" s="17" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E281" s="19"/>
       <c r="F281" s="20"/>
@@ -11942,7 +11996,7 @@
       <c r="B282" s="18"/>
       <c r="C282" s="18"/>
       <c r="D282" s="17" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E282" s="19"/>
       <c r="F282" s="20"/>
@@ -11973,7 +12027,7 @@
       <c r="B283" s="18"/>
       <c r="C283" s="18"/>
       <c r="D283" s="17" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E283" s="19"/>
       <c r="F283" s="20"/>
@@ -12004,7 +12058,7 @@
       <c r="B284" s="18"/>
       <c r="C284" s="18"/>
       <c r="D284" s="17" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E284" s="19"/>
       <c r="F284" s="20"/>
@@ -12035,7 +12089,7 @@
       <c r="B285" s="18"/>
       <c r="C285" s="18"/>
       <c r="D285" s="17" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E285" s="19"/>
       <c r="F285" s="20"/>
@@ -12066,7 +12120,7 @@
       <c r="B286" s="18"/>
       <c r="C286" s="18"/>
       <c r="D286" s="17" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E286" s="19"/>
       <c r="F286" s="20"/>
@@ -12094,12 +12148,8 @@
     </row>
     <row r="287">
       <c r="A287" s="22"/>
-      <c r="B287" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="C287" s="17" t="s">
-        <v>311</v>
-      </c>
+      <c r="B287" s="18"/>
+      <c r="C287" s="18"/>
       <c r="D287" s="17" t="s">
         <v>312</v>
       </c>
@@ -12225,7 +12275,7 @@
       <c r="B291" s="18"/>
       <c r="C291" s="18"/>
       <c r="D291" s="17" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="E291" s="19"/>
       <c r="F291" s="20"/>
@@ -12256,7 +12306,7 @@
       <c r="B292" s="18"/>
       <c r="C292" s="18"/>
       <c r="D292" s="17" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E292" s="19"/>
       <c r="F292" s="20"/>
@@ -12287,7 +12337,7 @@
       <c r="B293" s="18"/>
       <c r="C293" s="18"/>
       <c r="D293" s="17" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E293" s="19"/>
       <c r="F293" s="20"/>
@@ -12318,7 +12368,7 @@
       <c r="B294" s="18"/>
       <c r="C294" s="18"/>
       <c r="D294" s="17" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E294" s="19"/>
       <c r="F294" s="20"/>
@@ -12349,7 +12399,7 @@
       <c r="B295" s="18"/>
       <c r="C295" s="18"/>
       <c r="D295" s="17" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E295" s="19"/>
       <c r="F295" s="20"/>
@@ -12380,7 +12430,7 @@
       <c r="B296" s="18"/>
       <c r="C296" s="18"/>
       <c r="D296" s="17" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E296" s="19"/>
       <c r="F296" s="20"/>
@@ -12408,10 +12458,14 @@
     </row>
     <row r="297">
       <c r="A297" s="22"/>
-      <c r="B297" s="18"/>
-      <c r="C297" s="18"/>
+      <c r="B297" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="C297" s="17" t="s">
+        <v>323</v>
+      </c>
       <c r="D297" s="17" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E297" s="19"/>
       <c r="F297" s="20"/>
@@ -12440,11 +12494,9 @@
     <row r="298">
       <c r="A298" s="22"/>
       <c r="B298" s="18"/>
-      <c r="C298" s="17" t="s">
-        <v>322</v>
-      </c>
+      <c r="C298" s="18"/>
       <c r="D298" s="17" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="E298" s="19"/>
       <c r="F298" s="20"/>
@@ -12475,7 +12527,7 @@
       <c r="B299" s="18"/>
       <c r="C299" s="18"/>
       <c r="D299" s="17" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="E299" s="19"/>
       <c r="F299" s="20"/>
@@ -12506,7 +12558,7 @@
       <c r="B300" s="18"/>
       <c r="C300" s="18"/>
       <c r="D300" s="17" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="E300" s="19"/>
       <c r="F300" s="20"/>
@@ -12537,7 +12589,7 @@
       <c r="B301" s="18"/>
       <c r="C301" s="18"/>
       <c r="D301" s="17" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="E301" s="19"/>
       <c r="F301" s="20"/>
@@ -12568,7 +12620,7 @@
       <c r="B302" s="18"/>
       <c r="C302" s="18"/>
       <c r="D302" s="17" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="E302" s="19"/>
       <c r="F302" s="20"/>
@@ -12599,7 +12651,7 @@
       <c r="B303" s="18"/>
       <c r="C303" s="18"/>
       <c r="D303" s="17" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="E303" s="19"/>
       <c r="F303" s="20"/>
@@ -12630,7 +12682,7 @@
       <c r="B304" s="18"/>
       <c r="C304" s="18"/>
       <c r="D304" s="17" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="E304" s="19"/>
       <c r="F304" s="20"/>
@@ -12661,7 +12713,7 @@
       <c r="B305" s="18"/>
       <c r="C305" s="18"/>
       <c r="D305" s="17" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="E305" s="19"/>
       <c r="F305" s="20"/>
@@ -12692,7 +12744,7 @@
       <c r="B306" s="18"/>
       <c r="C306" s="18"/>
       <c r="D306" s="17" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="E306" s="19"/>
       <c r="F306" s="20"/>
@@ -12723,7 +12775,7 @@
       <c r="B307" s="18"/>
       <c r="C307" s="18"/>
       <c r="D307" s="17" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="E307" s="19"/>
       <c r="F307" s="20"/>
@@ -12754,7 +12806,7 @@
       <c r="B308" s="18"/>
       <c r="C308" s="18"/>
       <c r="D308" s="17" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="E308" s="19"/>
       <c r="F308" s="20"/>
@@ -12783,11 +12835,9 @@
     <row r="309">
       <c r="A309" s="22"/>
       <c r="B309" s="18"/>
-      <c r="C309" s="17" t="s">
-        <v>323</v>
-      </c>
+      <c r="C309" s="18"/>
       <c r="D309" s="17" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="E309" s="19"/>
       <c r="F309" s="20"/>
@@ -12818,7 +12868,7 @@
       <c r="B310" s="18"/>
       <c r="C310" s="18"/>
       <c r="D310" s="17" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="E310" s="19"/>
       <c r="F310" s="20"/>
@@ -12847,9 +12897,11 @@
     <row r="311">
       <c r="A311" s="22"/>
       <c r="B311" s="18"/>
-      <c r="C311" s="18"/>
+      <c r="C311" s="23" t="s">
+        <v>337</v>
+      </c>
       <c r="D311" s="17" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="E311" s="19"/>
       <c r="F311" s="20"/>
@@ -12878,9 +12930,9 @@
     <row r="312">
       <c r="A312" s="22"/>
       <c r="B312" s="18"/>
-      <c r="C312" s="18"/>
+      <c r="C312" s="8"/>
       <c r="D312" s="17" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="E312" s="19"/>
       <c r="F312" s="20"/>
@@ -12909,9 +12961,9 @@
     <row r="313">
       <c r="A313" s="22"/>
       <c r="B313" s="18"/>
-      <c r="C313" s="18"/>
+      <c r="C313" s="8"/>
       <c r="D313" s="17" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="E313" s="19"/>
       <c r="F313" s="20"/>
@@ -12940,9 +12992,9 @@
     <row r="314">
       <c r="A314" s="22"/>
       <c r="B314" s="18"/>
-      <c r="C314" s="18"/>
+      <c r="C314" s="8"/>
       <c r="D314" s="17" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="E314" s="19"/>
       <c r="F314" s="20"/>
@@ -12971,9 +13023,9 @@
     <row r="315">
       <c r="A315" s="22"/>
       <c r="B315" s="18"/>
-      <c r="C315" s="18"/>
+      <c r="C315" s="8"/>
       <c r="D315" s="17" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="E315" s="19"/>
       <c r="F315" s="20"/>
@@ -13002,9 +13054,9 @@
     <row r="316">
       <c r="A316" s="22"/>
       <c r="B316" s="18"/>
-      <c r="C316" s="18"/>
+      <c r="C316" s="8"/>
       <c r="D316" s="17" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="E316" s="19"/>
       <c r="F316" s="20"/>
@@ -13033,9 +13085,9 @@
     <row r="317">
       <c r="A317" s="22"/>
       <c r="B317" s="18"/>
-      <c r="C317" s="18"/>
+      <c r="C317" s="8"/>
       <c r="D317" s="17" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="E317" s="19"/>
       <c r="F317" s="20"/>
@@ -13064,9 +13116,9 @@
     <row r="318">
       <c r="A318" s="22"/>
       <c r="B318" s="18"/>
-      <c r="C318" s="18"/>
+      <c r="C318" s="8"/>
       <c r="D318" s="17" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="E318" s="19"/>
       <c r="F318" s="20"/>
@@ -13095,9 +13147,9 @@
     <row r="319">
       <c r="A319" s="22"/>
       <c r="B319" s="18"/>
-      <c r="C319" s="18"/>
+      <c r="C319" s="8"/>
       <c r="D319" s="17" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="E319" s="19"/>
       <c r="F319" s="20"/>
@@ -13125,14 +13177,10 @@
     </row>
     <row r="320">
       <c r="A320" s="22"/>
-      <c r="B320" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="C320" s="17" t="s">
-        <v>325</v>
-      </c>
+      <c r="B320" s="18"/>
+      <c r="C320" s="8"/>
       <c r="D320" s="17" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="E320" s="19"/>
       <c r="F320" s="20"/>
@@ -13161,17 +13209,15 @@
     <row r="321">
       <c r="A321" s="22"/>
       <c r="B321" s="18"/>
-      <c r="C321" s="18"/>
+      <c r="C321" s="8"/>
       <c r="D321" s="17" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E321" s="19"/>
       <c r="F321" s="20"/>
       <c r="G321" s="20"/>
       <c r="H321" s="21"/>
-      <c r="I321" s="10" t="s">
-        <v>328</v>
-      </c>
+      <c r="I321" s="4"/>
       <c r="J321" s="4"/>
       <c r="K321" s="4"/>
       <c r="L321" s="4"/>
@@ -13194,17 +13240,15 @@
     <row r="322">
       <c r="A322" s="22"/>
       <c r="B322" s="18"/>
-      <c r="C322" s="18"/>
+      <c r="C322" s="8"/>
       <c r="D322" s="17" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="E322" s="19"/>
       <c r="F322" s="20"/>
       <c r="G322" s="20"/>
       <c r="H322" s="21"/>
-      <c r="I322" s="10" t="s">
-        <v>330</v>
-      </c>
+      <c r="I322" s="4"/>
       <c r="J322" s="4"/>
       <c r="K322" s="4"/>
       <c r="L322" s="4"/>
@@ -13227,9 +13271,9 @@
     <row r="323">
       <c r="A323" s="22"/>
       <c r="B323" s="18"/>
-      <c r="C323" s="18"/>
+      <c r="C323" s="8"/>
       <c r="D323" s="17" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="E323" s="19"/>
       <c r="F323" s="20"/>
@@ -13258,9 +13302,9 @@
     <row r="324">
       <c r="A324" s="22"/>
       <c r="B324" s="18"/>
-      <c r="C324" s="18"/>
+      <c r="C324" s="24"/>
       <c r="D324" s="17" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E324" s="19"/>
       <c r="F324" s="20"/>
@@ -13290,10 +13334,10 @@
       <c r="A325" s="22"/>
       <c r="B325" s="18"/>
       <c r="C325" s="17" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="E325" s="19"/>
       <c r="F325" s="20"/>
@@ -13324,7 +13368,7 @@
       <c r="B326" s="18"/>
       <c r="C326" s="18"/>
       <c r="D326" s="17" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="E326" s="19"/>
       <c r="F326" s="20"/>
@@ -13355,7 +13399,7 @@
       <c r="B327" s="18"/>
       <c r="C327" s="18"/>
       <c r="D327" s="17" t="s">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="E327" s="19"/>
       <c r="F327" s="20"/>
@@ -13386,7 +13430,7 @@
       <c r="B328" s="18"/>
       <c r="C328" s="18"/>
       <c r="D328" s="17" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="E328" s="19"/>
       <c r="F328" s="20"/>
@@ -13417,7 +13461,7 @@
       <c r="B329" s="18"/>
       <c r="C329" s="18"/>
       <c r="D329" s="17" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="E329" s="19"/>
       <c r="F329" s="20"/>
@@ -13448,7 +13492,7 @@
       <c r="B330" s="18"/>
       <c r="C330" s="18"/>
       <c r="D330" s="17" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="E330" s="19"/>
       <c r="F330" s="20"/>
@@ -13477,11 +13521,9 @@
     <row r="331">
       <c r="A331" s="22"/>
       <c r="B331" s="18"/>
-      <c r="C331" s="17" t="s">
-        <v>339</v>
-      </c>
+      <c r="C331" s="18"/>
       <c r="D331" s="17" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="E331" s="19"/>
       <c r="F331" s="20"/>
@@ -13510,9 +13552,9 @@
     <row r="332">
       <c r="A332" s="22"/>
       <c r="B332" s="18"/>
-      <c r="C332" s="20"/>
+      <c r="C332" s="18"/>
       <c r="D332" s="17" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="E332" s="19"/>
       <c r="F332" s="20"/>
@@ -13541,11 +13583,9 @@
     <row r="333">
       <c r="A333" s="22"/>
       <c r="B333" s="18"/>
-      <c r="C333" s="17" t="s">
-        <v>342</v>
-      </c>
+      <c r="C333" s="18"/>
       <c r="D333" s="17" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="E333" s="19"/>
       <c r="F333" s="20"/>
@@ -13576,7 +13616,7 @@
       <c r="B334" s="18"/>
       <c r="C334" s="18"/>
       <c r="D334" s="17" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="E334" s="19"/>
       <c r="F334" s="20"/>
@@ -13607,7 +13647,7 @@
       <c r="B335" s="18"/>
       <c r="C335" s="18"/>
       <c r="D335" s="17" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="E335" s="19"/>
       <c r="F335" s="20"/>
@@ -13638,7 +13678,7 @@
       <c r="B336" s="18"/>
       <c r="C336" s="18"/>
       <c r="D336" s="17" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="E336" s="19"/>
       <c r="F336" s="20"/>
@@ -13667,11 +13707,9 @@
     <row r="337">
       <c r="A337" s="22"/>
       <c r="B337" s="18"/>
-      <c r="C337" s="17" t="s">
-        <v>347</v>
-      </c>
+      <c r="C337" s="18"/>
       <c r="D337" s="17" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="E337" s="19"/>
       <c r="F337" s="20"/>
@@ -13702,7 +13740,7 @@
       <c r="B338" s="18"/>
       <c r="C338" s="18"/>
       <c r="D338" s="17" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="E338" s="19"/>
       <c r="F338" s="20"/>
@@ -13731,17 +13769,17 @@
     <row r="339">
       <c r="A339" s="22"/>
       <c r="B339" s="18"/>
-      <c r="C339" s="18"/>
+      <c r="C339" s="17" t="s">
+        <v>339</v>
+      </c>
       <c r="D339" s="17" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="E339" s="19"/>
       <c r="F339" s="20"/>
       <c r="G339" s="20"/>
       <c r="H339" s="21"/>
-      <c r="I339" s="10" t="s">
-        <v>351</v>
-      </c>
+      <c r="I339" s="4"/>
       <c r="J339" s="4"/>
       <c r="K339" s="4"/>
       <c r="L339" s="4"/>
@@ -13766,15 +13804,13 @@
       <c r="B340" s="18"/>
       <c r="C340" s="18"/>
       <c r="D340" s="17" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="E340" s="19"/>
       <c r="F340" s="20"/>
       <c r="G340" s="20"/>
       <c r="H340" s="21"/>
-      <c r="I340" s="10" t="s">
-        <v>353</v>
-      </c>
+      <c r="I340" s="4"/>
       <c r="J340" s="4"/>
       <c r="K340" s="4"/>
       <c r="L340" s="4"/>
@@ -13796,12 +13832,10 @@
     </row>
     <row r="341">
       <c r="A341" s="22"/>
-      <c r="B341" s="17" t="s">
-        <v>354</v>
-      </c>
+      <c r="B341" s="18"/>
       <c r="C341" s="18"/>
       <c r="D341" s="17" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="E341" s="19"/>
       <c r="F341" s="20"/>
@@ -13832,7 +13866,7 @@
       <c r="B342" s="18"/>
       <c r="C342" s="18"/>
       <c r="D342" s="17" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="E342" s="19"/>
       <c r="F342" s="20"/>
@@ -13863,7 +13897,7 @@
       <c r="B343" s="18"/>
       <c r="C343" s="18"/>
       <c r="D343" s="17" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="E343" s="19"/>
       <c r="F343" s="20"/>
@@ -13894,7 +13928,7 @@
       <c r="B344" s="18"/>
       <c r="C344" s="18"/>
       <c r="D344" s="17" t="s">
-        <v>358</v>
+        <v>298</v>
       </c>
       <c r="E344" s="19"/>
       <c r="F344" s="20"/>
@@ -13925,7 +13959,7 @@
       <c r="B345" s="18"/>
       <c r="C345" s="18"/>
       <c r="D345" s="17" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="E345" s="19"/>
       <c r="F345" s="20"/>
@@ -13956,7 +13990,7 @@
       <c r="B346" s="18"/>
       <c r="C346" s="18"/>
       <c r="D346" s="17" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="E346" s="19"/>
       <c r="F346" s="20"/>
@@ -13987,7 +14021,7 @@
       <c r="B347" s="18"/>
       <c r="C347" s="18"/>
       <c r="D347" s="17" t="s">
-        <v>361</v>
+        <v>331</v>
       </c>
       <c r="E347" s="19"/>
       <c r="F347" s="20"/>
@@ -14015,12 +14049,10 @@
     </row>
     <row r="348">
       <c r="A348" s="22"/>
-      <c r="B348" s="17" t="s">
-        <v>362</v>
-      </c>
+      <c r="B348" s="18"/>
       <c r="C348" s="18"/>
       <c r="D348" s="17" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="E348" s="19"/>
       <c r="F348" s="20"/>
@@ -14051,7 +14083,7 @@
       <c r="B349" s="18"/>
       <c r="C349" s="18"/>
       <c r="D349" s="17" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="E349" s="19"/>
       <c r="F349" s="20"/>
@@ -14082,7 +14114,7 @@
       <c r="B350" s="18"/>
       <c r="C350" s="18"/>
       <c r="D350" s="17" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="E350" s="19"/>
       <c r="F350" s="20"/>
@@ -14113,7 +14145,7 @@
       <c r="B351" s="18"/>
       <c r="C351" s="18"/>
       <c r="D351" s="17" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="E351" s="19"/>
       <c r="F351" s="20"/>
@@ -14144,7 +14176,7 @@
       <c r="B352" s="18"/>
       <c r="C352" s="18"/>
       <c r="D352" s="17" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="E352" s="19"/>
       <c r="F352" s="20"/>
@@ -14173,11 +14205,13 @@
     <row r="353">
       <c r="A353" s="22"/>
       <c r="B353" s="17" t="s">
-        <v>368</v>
-      </c>
-      <c r="C353" s="18"/>
+        <v>340</v>
+      </c>
+      <c r="C353" s="17" t="s">
+        <v>341</v>
+      </c>
       <c r="D353" s="17" t="s">
-        <v>369</v>
+        <v>342</v>
       </c>
       <c r="E353" s="19"/>
       <c r="F353" s="20"/>
@@ -14208,13 +14242,15 @@
       <c r="B354" s="18"/>
       <c r="C354" s="18"/>
       <c r="D354" s="17" t="s">
-        <v>370</v>
+        <v>343</v>
       </c>
       <c r="E354" s="19"/>
       <c r="F354" s="20"/>
       <c r="G354" s="20"/>
       <c r="H354" s="21"/>
-      <c r="I354" s="4"/>
+      <c r="I354" s="10" t="s">
+        <v>344</v>
+      </c>
       <c r="J354" s="4"/>
       <c r="K354" s="4"/>
       <c r="L354" s="4"/>
@@ -14239,13 +14275,15 @@
       <c r="B355" s="18"/>
       <c r="C355" s="18"/>
       <c r="D355" s="17" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="E355" s="19"/>
       <c r="F355" s="20"/>
       <c r="G355" s="20"/>
       <c r="H355" s="21"/>
-      <c r="I355" s="4"/>
+      <c r="I355" s="10" t="s">
+        <v>346</v>
+      </c>
       <c r="J355" s="4"/>
       <c r="K355" s="4"/>
       <c r="L355" s="4"/>
@@ -14270,7 +14308,7 @@
       <c r="B356" s="18"/>
       <c r="C356" s="18"/>
       <c r="D356" s="17" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="E356" s="19"/>
       <c r="F356" s="20"/>
@@ -14301,7 +14339,7 @@
       <c r="B357" s="18"/>
       <c r="C357" s="18"/>
       <c r="D357" s="17" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="E357" s="19"/>
       <c r="F357" s="20"/>
@@ -14329,12 +14367,12 @@
     </row>
     <row r="358">
       <c r="A358" s="22"/>
-      <c r="B358" s="17" t="s">
-        <v>374</v>
-      </c>
-      <c r="C358" s="18"/>
+      <c r="B358" s="18"/>
+      <c r="C358" s="17" t="s">
+        <v>349</v>
+      </c>
       <c r="D358" s="17" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="E358" s="19"/>
       <c r="F358" s="20"/>
@@ -14365,7 +14403,7 @@
       <c r="B359" s="18"/>
       <c r="C359" s="18"/>
       <c r="D359" s="17" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="E359" s="19"/>
       <c r="F359" s="20"/>
@@ -14396,7 +14434,7 @@
       <c r="B360" s="18"/>
       <c r="C360" s="18"/>
       <c r="D360" s="17" t="s">
-        <v>377</v>
+        <v>261</v>
       </c>
       <c r="E360" s="19"/>
       <c r="F360" s="20"/>
@@ -14427,7 +14465,7 @@
       <c r="B361" s="18"/>
       <c r="C361" s="18"/>
       <c r="D361" s="17" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="E361" s="19"/>
       <c r="F361" s="20"/>
@@ -14458,7 +14496,7 @@
       <c r="B362" s="18"/>
       <c r="C362" s="18"/>
       <c r="D362" s="17" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="E362" s="19"/>
       <c r="F362" s="20"/>
@@ -14486,12 +14524,10 @@
     </row>
     <row r="363">
       <c r="A363" s="22"/>
-      <c r="B363" s="44" t="s">
-        <v>380</v>
-      </c>
-      <c r="C363" s="40"/>
+      <c r="B363" s="18"/>
+      <c r="C363" s="18"/>
       <c r="D363" s="17" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="E363" s="19"/>
       <c r="F363" s="20"/>
@@ -14519,10 +14555,12 @@
     </row>
     <row r="364">
       <c r="A364" s="22"/>
-      <c r="B364" s="45"/>
-      <c r="C364" s="46"/>
+      <c r="B364" s="18"/>
+      <c r="C364" s="17" t="s">
+        <v>355</v>
+      </c>
       <c r="D364" s="17" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="E364" s="19"/>
       <c r="F364" s="20"/>
@@ -14550,10 +14588,10 @@
     </row>
     <row r="365">
       <c r="A365" s="22"/>
-      <c r="B365" s="45"/>
-      <c r="C365" s="46"/>
+      <c r="B365" s="18"/>
+      <c r="C365" s="20"/>
       <c r="D365" s="17" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="E365" s="19"/>
       <c r="F365" s="20"/>
@@ -14581,10 +14619,12 @@
     </row>
     <row r="366">
       <c r="A366" s="22"/>
-      <c r="B366" s="45"/>
-      <c r="C366" s="46"/>
+      <c r="B366" s="18"/>
+      <c r="C366" s="17" t="s">
+        <v>358</v>
+      </c>
       <c r="D366" s="17" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="E366" s="19"/>
       <c r="F366" s="20"/>
@@ -14612,10 +14652,10 @@
     </row>
     <row r="367">
       <c r="A367" s="22"/>
-      <c r="B367" s="45"/>
-      <c r="C367" s="46"/>
+      <c r="B367" s="18"/>
+      <c r="C367" s="18"/>
       <c r="D367" s="17" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="E367" s="19"/>
       <c r="F367" s="20"/>
@@ -14643,10 +14683,10 @@
     </row>
     <row r="368">
       <c r="A368" s="22"/>
-      <c r="B368" s="45"/>
-      <c r="C368" s="46"/>
+      <c r="B368" s="18"/>
+      <c r="C368" s="18"/>
       <c r="D368" s="17" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="E368" s="19"/>
       <c r="F368" s="20"/>
@@ -14674,10 +14714,10 @@
     </row>
     <row r="369">
       <c r="A369" s="22"/>
-      <c r="B369" s="45"/>
-      <c r="C369" s="46"/>
+      <c r="B369" s="18"/>
+      <c r="C369" s="18"/>
       <c r="D369" s="17" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="E369" s="19"/>
       <c r="F369" s="20"/>
@@ -14705,10 +14745,12 @@
     </row>
     <row r="370">
       <c r="A370" s="22"/>
-      <c r="B370" s="45"/>
-      <c r="C370" s="46"/>
+      <c r="B370" s="18"/>
+      <c r="C370" s="17" t="s">
+        <v>363</v>
+      </c>
       <c r="D370" s="17" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="E370" s="19"/>
       <c r="F370" s="20"/>
@@ -14736,10 +14778,10 @@
     </row>
     <row r="371">
       <c r="A371" s="22"/>
-      <c r="B371" s="45"/>
-      <c r="C371" s="46"/>
+      <c r="B371" s="18"/>
+      <c r="C371" s="18"/>
       <c r="D371" s="17" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="E371" s="19"/>
       <c r="F371" s="20"/>
@@ -14767,14 +14809,18 @@
     </row>
     <row r="372">
       <c r="A372" s="22"/>
-      <c r="B372" s="20"/>
-      <c r="C372" s="20"/>
-      <c r="D372" s="20"/>
+      <c r="B372" s="18"/>
+      <c r="C372" s="18"/>
+      <c r="D372" s="17" t="s">
+        <v>366</v>
+      </c>
       <c r="E372" s="19"/>
       <c r="F372" s="20"/>
       <c r="G372" s="20"/>
       <c r="H372" s="21"/>
-      <c r="I372" s="4"/>
+      <c r="I372" s="10" t="s">
+        <v>367</v>
+      </c>
       <c r="J372" s="4"/>
       <c r="K372" s="4"/>
       <c r="L372" s="4"/>
@@ -14795,15 +14841,19 @@
       <c r="AA372" s="4"/>
     </row>
     <row r="373">
-      <c r="A373" s="26"/>
-      <c r="B373" s="47"/>
-      <c r="C373" s="47"/>
-      <c r="D373" s="47"/>
-      <c r="E373" s="29"/>
-      <c r="F373" s="47"/>
-      <c r="G373" s="47"/>
-      <c r="H373" s="48"/>
-      <c r="I373" s="4"/>
+      <c r="A373" s="22"/>
+      <c r="B373" s="18"/>
+      <c r="C373" s="18"/>
+      <c r="D373" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="E373" s="19"/>
+      <c r="F373" s="20"/>
+      <c r="G373" s="20"/>
+      <c r="H373" s="21"/>
+      <c r="I373" s="10" t="s">
+        <v>369</v>
+      </c>
       <c r="J373" s="4"/>
       <c r="K373" s="4"/>
       <c r="L373" s="4"/>
@@ -14824,18 +14874,18 @@
       <c r="AA373" s="4"/>
     </row>
     <row r="374">
-      <c r="A374" s="49" t="s">
-        <v>390</v>
-      </c>
-      <c r="B374" s="50"/>
-      <c r="C374" s="50"/>
-      <c r="D374" s="51" t="s">
-        <v>391</v>
-      </c>
-      <c r="E374" s="52"/>
-      <c r="F374" s="53"/>
-      <c r="G374" s="54"/>
-      <c r="H374" s="4"/>
+      <c r="A374" s="22"/>
+      <c r="B374" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="C374" s="18"/>
+      <c r="D374" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="E374" s="19"/>
+      <c r="F374" s="20"/>
+      <c r="G374" s="20"/>
+      <c r="H374" s="21"/>
       <c r="I374" s="4"/>
       <c r="J374" s="4"/>
       <c r="K374" s="4"/>
@@ -14857,16 +14907,16 @@
       <c r="AA374" s="4"/>
     </row>
     <row r="375">
-      <c r="A375" s="55"/>
-      <c r="B375" s="55"/>
-      <c r="C375" s="55"/>
-      <c r="D375" s="51" t="s">
-        <v>392</v>
-      </c>
-      <c r="E375" s="52"/>
-      <c r="F375" s="56"/>
-      <c r="G375" s="57"/>
-      <c r="H375" s="4"/>
+      <c r="A375" s="22"/>
+      <c r="B375" s="18"/>
+      <c r="C375" s="18"/>
+      <c r="D375" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="E375" s="19"/>
+      <c r="F375" s="20"/>
+      <c r="G375" s="20"/>
+      <c r="H375" s="21"/>
       <c r="I375" s="4"/>
       <c r="J375" s="4"/>
       <c r="K375" s="4"/>
@@ -14888,16 +14938,16 @@
       <c r="AA375" s="4"/>
     </row>
     <row r="376">
-      <c r="A376" s="55"/>
-      <c r="B376" s="55"/>
-      <c r="C376" s="55"/>
-      <c r="D376" s="51" t="s">
-        <v>393</v>
-      </c>
-      <c r="E376" s="52"/>
-      <c r="F376" s="56"/>
-      <c r="G376" s="57"/>
-      <c r="H376" s="4"/>
+      <c r="A376" s="22"/>
+      <c r="B376" s="18"/>
+      <c r="C376" s="18"/>
+      <c r="D376" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="E376" s="19"/>
+      <c r="F376" s="20"/>
+      <c r="G376" s="20"/>
+      <c r="H376" s="21"/>
       <c r="I376" s="4"/>
       <c r="J376" s="4"/>
       <c r="K376" s="4"/>
@@ -14919,16 +14969,16 @@
       <c r="AA376" s="4"/>
     </row>
     <row r="377">
-      <c r="A377" s="55"/>
-      <c r="B377" s="55"/>
-      <c r="C377" s="55"/>
-      <c r="D377" s="51" t="s">
-        <v>394</v>
-      </c>
-      <c r="E377" s="52"/>
-      <c r="F377" s="56"/>
-      <c r="G377" s="57"/>
-      <c r="H377" s="4"/>
+      <c r="A377" s="22"/>
+      <c r="B377" s="18"/>
+      <c r="C377" s="18"/>
+      <c r="D377" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="E377" s="19"/>
+      <c r="F377" s="20"/>
+      <c r="G377" s="20"/>
+      <c r="H377" s="21"/>
       <c r="I377" s="4"/>
       <c r="J377" s="4"/>
       <c r="K377" s="4"/>
@@ -14950,16 +15000,16 @@
       <c r="AA377" s="4"/>
     </row>
     <row r="378">
-      <c r="A378" s="55"/>
-      <c r="B378" s="55"/>
-      <c r="C378" s="55"/>
-      <c r="D378" s="51" t="s">
-        <v>395</v>
-      </c>
-      <c r="E378" s="52"/>
-      <c r="F378" s="56"/>
-      <c r="G378" s="57"/>
-      <c r="H378" s="4"/>
+      <c r="A378" s="22"/>
+      <c r="B378" s="18"/>
+      <c r="C378" s="18"/>
+      <c r="D378" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="E378" s="19"/>
+      <c r="F378" s="20"/>
+      <c r="G378" s="20"/>
+      <c r="H378" s="21"/>
       <c r="I378" s="4"/>
       <c r="J378" s="4"/>
       <c r="K378" s="4"/>
@@ -14981,16 +15031,16 @@
       <c r="AA378" s="4"/>
     </row>
     <row r="379">
-      <c r="A379" s="55"/>
-      <c r="B379" s="55"/>
-      <c r="C379" s="55"/>
-      <c r="D379" s="51" t="s">
-        <v>396</v>
-      </c>
-      <c r="E379" s="52"/>
-      <c r="F379" s="56"/>
-      <c r="G379" s="57"/>
-      <c r="H379" s="4"/>
+      <c r="A379" s="22"/>
+      <c r="B379" s="18"/>
+      <c r="C379" s="18"/>
+      <c r="D379" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="E379" s="19"/>
+      <c r="F379" s="20"/>
+      <c r="G379" s="20"/>
+      <c r="H379" s="21"/>
       <c r="I379" s="4"/>
       <c r="J379" s="4"/>
       <c r="K379" s="4"/>
@@ -15012,20 +15062,16 @@
       <c r="AA379" s="4"/>
     </row>
     <row r="380">
-      <c r="A380" s="43" t="s">
-        <v>397</v>
-      </c>
-      <c r="B380" s="58"/>
-      <c r="C380" s="12"/>
-      <c r="D380" s="12"/>
-      <c r="E380" s="12"/>
-      <c r="F380" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="G380" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="H380" s="4"/>
+      <c r="A380" s="22"/>
+      <c r="B380" s="18"/>
+      <c r="C380" s="18"/>
+      <c r="D380" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="E380" s="19"/>
+      <c r="F380" s="20"/>
+      <c r="G380" s="20"/>
+      <c r="H380" s="21"/>
       <c r="I380" s="4"/>
       <c r="J380" s="4"/>
       <c r="K380" s="4"/>
@@ -15049,19 +15095,17 @@
     <row r="381">
       <c r="A381" s="22"/>
       <c r="B381" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="C381" s="59" t="s">
-        <v>401</v>
-      </c>
-      <c r="D381" s="60"/>
+        <v>378</v>
+      </c>
+      <c r="C381" s="18"/>
+      <c r="D381" s="17" t="s">
+        <v>379</v>
+      </c>
       <c r="E381" s="19"/>
       <c r="F381" s="20"/>
-      <c r="G381" s="21"/>
-      <c r="H381" s="4"/>
-      <c r="I381" s="10" t="s">
-        <v>402</v>
-      </c>
+      <c r="G381" s="20"/>
+      <c r="H381" s="21"/>
+      <c r="I381" s="4"/>
       <c r="J381" s="4"/>
       <c r="K381" s="4"/>
       <c r="L381" s="4"/>
@@ -15084,17 +15128,15 @@
     <row r="382">
       <c r="A382" s="22"/>
       <c r="B382" s="18"/>
-      <c r="C382" s="59" t="s">
-        <v>403</v>
-      </c>
-      <c r="D382" s="60"/>
+      <c r="C382" s="18"/>
+      <c r="D382" s="17" t="s">
+        <v>380</v>
+      </c>
       <c r="E382" s="19"/>
       <c r="F382" s="20"/>
-      <c r="G382" s="21"/>
-      <c r="H382" s="4"/>
-      <c r="I382" s="10" t="s">
-        <v>402</v>
-      </c>
+      <c r="G382" s="20"/>
+      <c r="H382" s="21"/>
+      <c r="I382" s="4"/>
       <c r="J382" s="4"/>
       <c r="K382" s="4"/>
       <c r="L382" s="4"/>
@@ -15117,12 +15159,14 @@
     <row r="383">
       <c r="A383" s="22"/>
       <c r="B383" s="18"/>
-      <c r="C383" s="20"/>
-      <c r="D383" s="20"/>
+      <c r="C383" s="18"/>
+      <c r="D383" s="17" t="s">
+        <v>381</v>
+      </c>
       <c r="E383" s="19"/>
       <c r="F383" s="20"/>
-      <c r="G383" s="21"/>
-      <c r="H383" s="4"/>
+      <c r="G383" s="20"/>
+      <c r="H383" s="21"/>
       <c r="I383" s="4"/>
       <c r="J383" s="4"/>
       <c r="K383" s="4"/>
@@ -15146,12 +15190,14 @@
     <row r="384">
       <c r="A384" s="22"/>
       <c r="B384" s="18"/>
-      <c r="C384" s="20"/>
-      <c r="D384" s="20"/>
+      <c r="C384" s="18"/>
+      <c r="D384" s="17" t="s">
+        <v>382</v>
+      </c>
       <c r="E384" s="19"/>
       <c r="F384" s="20"/>
-      <c r="G384" s="21"/>
-      <c r="H384" s="4"/>
+      <c r="G384" s="20"/>
+      <c r="H384" s="21"/>
       <c r="I384" s="4"/>
       <c r="J384" s="4"/>
       <c r="K384" s="4"/>
@@ -15175,12 +15221,14 @@
     <row r="385">
       <c r="A385" s="22"/>
       <c r="B385" s="18"/>
-      <c r="C385" s="20"/>
-      <c r="D385" s="20"/>
+      <c r="C385" s="18"/>
+      <c r="D385" s="17" t="s">
+        <v>383</v>
+      </c>
       <c r="E385" s="19"/>
       <c r="F385" s="20"/>
-      <c r="G385" s="21"/>
-      <c r="H385" s="4"/>
+      <c r="G385" s="20"/>
+      <c r="H385" s="21"/>
       <c r="I385" s="4"/>
       <c r="J385" s="4"/>
       <c r="K385" s="4"/>
@@ -15203,13 +15251,17 @@
     </row>
     <row r="386">
       <c r="A386" s="22"/>
-      <c r="B386" s="18"/>
-      <c r="C386" s="20"/>
-      <c r="D386" s="20"/>
+      <c r="B386" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="C386" s="18"/>
+      <c r="D386" s="17" t="s">
+        <v>385</v>
+      </c>
       <c r="E386" s="19"/>
       <c r="F386" s="20"/>
-      <c r="G386" s="21"/>
-      <c r="H386" s="4"/>
+      <c r="G386" s="20"/>
+      <c r="H386" s="21"/>
       <c r="I386" s="4"/>
       <c r="J386" s="4"/>
       <c r="K386" s="4"/>
@@ -15233,12 +15285,14 @@
     <row r="387">
       <c r="A387" s="22"/>
       <c r="B387" s="18"/>
-      <c r="C387" s="20"/>
-      <c r="D387" s="20"/>
+      <c r="C387" s="18"/>
+      <c r="D387" s="17" t="s">
+        <v>386</v>
+      </c>
       <c r="E387" s="19"/>
       <c r="F387" s="20"/>
-      <c r="G387" s="21"/>
-      <c r="H387" s="4"/>
+      <c r="G387" s="20"/>
+      <c r="H387" s="21"/>
       <c r="I387" s="4"/>
       <c r="J387" s="4"/>
       <c r="K387" s="4"/>
@@ -15261,18 +15315,16 @@
     </row>
     <row r="388">
       <c r="A388" s="22"/>
-      <c r="B388" s="17" t="s">
-        <v>404</v>
-      </c>
+      <c r="B388" s="18"/>
       <c r="C388" s="18"/>
-      <c r="D388" s="18"/>
+      <c r="D388" s="17" t="s">
+        <v>387</v>
+      </c>
       <c r="E388" s="19"/>
       <c r="F388" s="20"/>
-      <c r="G388" s="21"/>
-      <c r="H388" s="10"/>
-      <c r="I388" s="10" t="s">
-        <v>402</v>
-      </c>
+      <c r="G388" s="20"/>
+      <c r="H388" s="21"/>
+      <c r="I388" s="4"/>
       <c r="J388" s="4"/>
       <c r="K388" s="4"/>
       <c r="L388" s="4"/>
@@ -15294,19 +15346,15 @@
     </row>
     <row r="389">
       <c r="A389" s="22"/>
-      <c r="B389" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="C389" s="23" t="s">
-        <v>406</v>
-      </c>
+      <c r="B389" s="18"/>
+      <c r="C389" s="18"/>
       <c r="D389" s="17" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="E389" s="19"/>
       <c r="F389" s="20"/>
-      <c r="G389" s="21"/>
-      <c r="H389" s="4"/>
+      <c r="G389" s="20"/>
+      <c r="H389" s="21"/>
       <c r="I389" s="4"/>
       <c r="J389" s="4"/>
       <c r="K389" s="4"/>
@@ -15330,14 +15378,14 @@
     <row r="390">
       <c r="A390" s="22"/>
       <c r="B390" s="18"/>
-      <c r="C390" s="8"/>
+      <c r="C390" s="18"/>
       <c r="D390" s="17" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="E390" s="19"/>
       <c r="F390" s="20"/>
-      <c r="G390" s="21"/>
-      <c r="H390" s="4"/>
+      <c r="G390" s="20"/>
+      <c r="H390" s="21"/>
       <c r="I390" s="4"/>
       <c r="J390" s="4"/>
       <c r="K390" s="4"/>
@@ -15360,15 +15408,17 @@
     </row>
     <row r="391">
       <c r="A391" s="22"/>
-      <c r="B391" s="18"/>
-      <c r="C391" s="8"/>
+      <c r="B391" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="C391" s="18"/>
       <c r="D391" s="17" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="E391" s="19"/>
       <c r="F391" s="20"/>
-      <c r="G391" s="21"/>
-      <c r="H391" s="4"/>
+      <c r="G391" s="20"/>
+      <c r="H391" s="21"/>
       <c r="I391" s="4"/>
       <c r="J391" s="4"/>
       <c r="K391" s="4"/>
@@ -15392,14 +15442,14 @@
     <row r="392">
       <c r="A392" s="22"/>
       <c r="B392" s="18"/>
-      <c r="C392" s="8"/>
+      <c r="C392" s="18"/>
       <c r="D392" s="17" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="E392" s="19"/>
       <c r="F392" s="20"/>
-      <c r="G392" s="21"/>
-      <c r="H392" s="4"/>
+      <c r="G392" s="20"/>
+      <c r="H392" s="21"/>
       <c r="I392" s="4"/>
       <c r="J392" s="4"/>
       <c r="K392" s="4"/>
@@ -15423,14 +15473,14 @@
     <row r="393">
       <c r="A393" s="22"/>
       <c r="B393" s="18"/>
-      <c r="C393" s="8"/>
+      <c r="C393" s="18"/>
       <c r="D393" s="17" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="E393" s="19"/>
       <c r="F393" s="20"/>
-      <c r="G393" s="21"/>
-      <c r="H393" s="4"/>
+      <c r="G393" s="20"/>
+      <c r="H393" s="21"/>
       <c r="I393" s="4"/>
       <c r="J393" s="4"/>
       <c r="K393" s="4"/>
@@ -15454,14 +15504,14 @@
     <row r="394">
       <c r="A394" s="22"/>
       <c r="B394" s="18"/>
-      <c r="C394" s="8"/>
+      <c r="C394" s="18"/>
       <c r="D394" s="17" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="E394" s="19"/>
       <c r="F394" s="20"/>
-      <c r="G394" s="21"/>
-      <c r="H394" s="4"/>
+      <c r="G394" s="20"/>
+      <c r="H394" s="21"/>
       <c r="I394" s="4"/>
       <c r="J394" s="4"/>
       <c r="K394" s="4"/>
@@ -15485,14 +15535,14 @@
     <row r="395">
       <c r="A395" s="22"/>
       <c r="B395" s="18"/>
-      <c r="C395" s="8"/>
+      <c r="C395" s="18"/>
       <c r="D395" s="17" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="E395" s="19"/>
       <c r="F395" s="20"/>
-      <c r="G395" s="21"/>
-      <c r="H395" s="4"/>
+      <c r="G395" s="20"/>
+      <c r="H395" s="21"/>
       <c r="I395" s="4"/>
       <c r="J395" s="4"/>
       <c r="K395" s="4"/>
@@ -15515,15 +15565,17 @@
     </row>
     <row r="396">
       <c r="A396" s="22"/>
-      <c r="B396" s="18"/>
-      <c r="C396" s="8"/>
+      <c r="B396" s="44" t="s">
+        <v>396</v>
+      </c>
+      <c r="C396" s="40"/>
       <c r="D396" s="17" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="E396" s="19"/>
       <c r="F396" s="20"/>
-      <c r="G396" s="21"/>
-      <c r="H396" s="4"/>
+      <c r="G396" s="20"/>
+      <c r="H396" s="21"/>
       <c r="I396" s="4"/>
       <c r="J396" s="4"/>
       <c r="K396" s="4"/>
@@ -15546,15 +15598,15 @@
     </row>
     <row r="397">
       <c r="A397" s="22"/>
-      <c r="B397" s="18"/>
-      <c r="C397" s="8"/>
+      <c r="B397" s="45"/>
+      <c r="C397" s="46"/>
       <c r="D397" s="17" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="E397" s="19"/>
       <c r="F397" s="20"/>
-      <c r="G397" s="21"/>
-      <c r="H397" s="4"/>
+      <c r="G397" s="20"/>
+      <c r="H397" s="21"/>
       <c r="I397" s="4"/>
       <c r="J397" s="4"/>
       <c r="K397" s="4"/>
@@ -15577,15 +15629,15 @@
     </row>
     <row r="398">
       <c r="A398" s="22"/>
-      <c r="B398" s="18"/>
-      <c r="C398" s="8"/>
+      <c r="B398" s="45"/>
+      <c r="C398" s="46"/>
       <c r="D398" s="17" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="E398" s="19"/>
       <c r="F398" s="20"/>
-      <c r="G398" s="21"/>
-      <c r="H398" s="4"/>
+      <c r="G398" s="20"/>
+      <c r="H398" s="21"/>
       <c r="I398" s="4"/>
       <c r="J398" s="4"/>
       <c r="K398" s="4"/>
@@ -15608,15 +15660,15 @@
     </row>
     <row r="399">
       <c r="A399" s="22"/>
-      <c r="B399" s="18"/>
-      <c r="C399" s="8"/>
+      <c r="B399" s="45"/>
+      <c r="C399" s="46"/>
       <c r="D399" s="17" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="E399" s="19"/>
       <c r="F399" s="20"/>
-      <c r="G399" s="21"/>
-      <c r="H399" s="4"/>
+      <c r="G399" s="20"/>
+      <c r="H399" s="21"/>
       <c r="I399" s="4"/>
       <c r="J399" s="4"/>
       <c r="K399" s="4"/>
@@ -15639,15 +15691,15 @@
     </row>
     <row r="400">
       <c r="A400" s="22"/>
-      <c r="B400" s="18"/>
-      <c r="C400" s="8"/>
+      <c r="B400" s="45"/>
+      <c r="C400" s="46"/>
       <c r="D400" s="17" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="E400" s="19"/>
       <c r="F400" s="20"/>
-      <c r="G400" s="21"/>
-      <c r="H400" s="4"/>
+      <c r="G400" s="20"/>
+      <c r="H400" s="21"/>
       <c r="I400" s="4"/>
       <c r="J400" s="4"/>
       <c r="K400" s="4"/>
@@ -15670,15 +15722,15 @@
     </row>
     <row r="401">
       <c r="A401" s="22"/>
-      <c r="B401" s="18"/>
-      <c r="C401" s="8"/>
+      <c r="B401" s="45"/>
+      <c r="C401" s="46"/>
       <c r="D401" s="17" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="E401" s="19"/>
       <c r="F401" s="20"/>
-      <c r="G401" s="21"/>
-      <c r="H401" s="4"/>
+      <c r="G401" s="20"/>
+      <c r="H401" s="21"/>
       <c r="I401" s="4"/>
       <c r="J401" s="4"/>
       <c r="K401" s="4"/>
@@ -15701,15 +15753,15 @@
     </row>
     <row r="402">
       <c r="A402" s="22"/>
-      <c r="B402" s="18"/>
-      <c r="C402" s="8"/>
+      <c r="B402" s="45"/>
+      <c r="C402" s="46"/>
       <c r="D402" s="17" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="E402" s="19"/>
       <c r="F402" s="20"/>
-      <c r="G402" s="21"/>
-      <c r="H402" s="4"/>
+      <c r="G402" s="20"/>
+      <c r="H402" s="21"/>
       <c r="I402" s="4"/>
       <c r="J402" s="4"/>
       <c r="K402" s="4"/>
@@ -15732,17 +15784,15 @@
     </row>
     <row r="403">
       <c r="A403" s="22"/>
-      <c r="B403" s="18"/>
-      <c r="C403" s="23" t="s">
-        <v>421</v>
-      </c>
+      <c r="B403" s="45"/>
+      <c r="C403" s="46"/>
       <c r="D403" s="17" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="E403" s="19"/>
       <c r="F403" s="20"/>
-      <c r="G403" s="21"/>
-      <c r="H403" s="4"/>
+      <c r="G403" s="20"/>
+      <c r="H403" s="21"/>
       <c r="I403" s="4"/>
       <c r="J403" s="4"/>
       <c r="K403" s="4"/>
@@ -15765,15 +15815,15 @@
     </row>
     <row r="404">
       <c r="A404" s="22"/>
-      <c r="B404" s="18"/>
-      <c r="C404" s="8"/>
+      <c r="B404" s="45"/>
+      <c r="C404" s="46"/>
       <c r="D404" s="17" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="E404" s="19"/>
       <c r="F404" s="20"/>
-      <c r="G404" s="21"/>
-      <c r="H404" s="4"/>
+      <c r="G404" s="20"/>
+      <c r="H404" s="21"/>
       <c r="I404" s="4"/>
       <c r="J404" s="4"/>
       <c r="K404" s="4"/>
@@ -15796,15 +15846,13 @@
     </row>
     <row r="405">
       <c r="A405" s="22"/>
-      <c r="B405" s="18"/>
-      <c r="C405" s="8"/>
-      <c r="D405" s="17" t="s">
-        <v>424</v>
-      </c>
+      <c r="B405" s="20"/>
+      <c r="C405" s="20"/>
+      <c r="D405" s="20"/>
       <c r="E405" s="19"/>
       <c r="F405" s="20"/>
-      <c r="G405" s="21"/>
-      <c r="H405" s="4"/>
+      <c r="G405" s="20"/>
+      <c r="H405" s="21"/>
       <c r="I405" s="4"/>
       <c r="J405" s="4"/>
       <c r="K405" s="4"/>
@@ -15826,16 +15874,14 @@
       <c r="AA405" s="4"/>
     </row>
     <row r="406">
-      <c r="A406" s="22"/>
-      <c r="B406" s="18"/>
-      <c r="C406" s="8"/>
-      <c r="D406" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="E406" s="19"/>
-      <c r="F406" s="20"/>
-      <c r="G406" s="21"/>
-      <c r="H406" s="4"/>
+      <c r="A406" s="26"/>
+      <c r="B406" s="47"/>
+      <c r="C406" s="47"/>
+      <c r="D406" s="47"/>
+      <c r="E406" s="29"/>
+      <c r="F406" s="47"/>
+      <c r="G406" s="47"/>
+      <c r="H406" s="48"/>
       <c r="I406" s="4"/>
       <c r="J406" s="4"/>
       <c r="K406" s="4"/>
@@ -15857,15 +15903,17 @@
       <c r="AA406" s="4"/>
     </row>
     <row r="407">
-      <c r="A407" s="22"/>
-      <c r="B407" s="18"/>
-      <c r="C407" s="8"/>
-      <c r="D407" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="E407" s="19"/>
-      <c r="F407" s="20"/>
-      <c r="G407" s="21"/>
+      <c r="A407" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="B407" s="50"/>
+      <c r="C407" s="50"/>
+      <c r="D407" s="51" t="s">
+        <v>407</v>
+      </c>
+      <c r="E407" s="52"/>
+      <c r="F407" s="53"/>
+      <c r="G407" s="54"/>
       <c r="H407" s="4"/>
       <c r="I407" s="4"/>
       <c r="J407" s="4"/>
@@ -15888,15 +15936,15 @@
       <c r="AA407" s="4"/>
     </row>
     <row r="408">
-      <c r="A408" s="22"/>
-      <c r="B408" s="18"/>
-      <c r="C408" s="8"/>
-      <c r="D408" s="17" t="s">
-        <v>427</v>
-      </c>
-      <c r="E408" s="19"/>
-      <c r="F408" s="20"/>
-      <c r="G408" s="21"/>
+      <c r="A408" s="55"/>
+      <c r="B408" s="55"/>
+      <c r="C408" s="55"/>
+      <c r="D408" s="51" t="s">
+        <v>408</v>
+      </c>
+      <c r="E408" s="52"/>
+      <c r="F408" s="56"/>
+      <c r="G408" s="57"/>
       <c r="H408" s="4"/>
       <c r="I408" s="4"/>
       <c r="J408" s="4"/>
@@ -15919,17 +15967,15 @@
       <c r="AA408" s="4"/>
     </row>
     <row r="409">
-      <c r="A409" s="22"/>
-      <c r="B409" s="18"/>
-      <c r="C409" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="D409" s="17" t="s">
-        <v>429</v>
-      </c>
-      <c r="E409" s="19"/>
-      <c r="F409" s="20"/>
-      <c r="G409" s="21"/>
+      <c r="A409" s="55"/>
+      <c r="B409" s="55"/>
+      <c r="C409" s="55"/>
+      <c r="D409" s="51" t="s">
+        <v>409</v>
+      </c>
+      <c r="E409" s="52"/>
+      <c r="F409" s="56"/>
+      <c r="G409" s="57"/>
       <c r="H409" s="4"/>
       <c r="I409" s="4"/>
       <c r="J409" s="4"/>
@@ -15952,15 +15998,15 @@
       <c r="AA409" s="4"/>
     </row>
     <row r="410">
-      <c r="A410" s="22"/>
-      <c r="B410" s="18"/>
-      <c r="C410" s="8"/>
-      <c r="D410" s="17" t="s">
-        <v>430</v>
-      </c>
-      <c r="E410" s="19"/>
-      <c r="F410" s="20"/>
-      <c r="G410" s="21"/>
+      <c r="A410" s="55"/>
+      <c r="B410" s="55"/>
+      <c r="C410" s="55"/>
+      <c r="D410" s="51" t="s">
+        <v>410</v>
+      </c>
+      <c r="E410" s="52"/>
+      <c r="F410" s="56"/>
+      <c r="G410" s="57"/>
       <c r="H410" s="4"/>
       <c r="I410" s="4"/>
       <c r="J410" s="4"/>
@@ -15983,15 +16029,15 @@
       <c r="AA410" s="4"/>
     </row>
     <row r="411">
-      <c r="A411" s="22"/>
-      <c r="B411" s="18"/>
-      <c r="C411" s="8"/>
-      <c r="D411" s="17" t="s">
-        <v>431</v>
-      </c>
-      <c r="E411" s="19"/>
-      <c r="F411" s="20"/>
-      <c r="G411" s="21"/>
+      <c r="A411" s="55"/>
+      <c r="B411" s="55"/>
+      <c r="C411" s="55"/>
+      <c r="D411" s="51" t="s">
+        <v>411</v>
+      </c>
+      <c r="E411" s="52"/>
+      <c r="F411" s="56"/>
+      <c r="G411" s="57"/>
       <c r="H411" s="4"/>
       <c r="I411" s="4"/>
       <c r="J411" s="4"/>
@@ -16014,15 +16060,15 @@
       <c r="AA411" s="4"/>
     </row>
     <row r="412">
-      <c r="A412" s="22"/>
-      <c r="B412" s="18"/>
-      <c r="C412" s="8"/>
-      <c r="D412" s="17" t="s">
-        <v>432</v>
-      </c>
-      <c r="E412" s="19"/>
-      <c r="F412" s="20"/>
-      <c r="G412" s="21"/>
+      <c r="A412" s="55"/>
+      <c r="B412" s="55"/>
+      <c r="C412" s="55"/>
+      <c r="D412" s="51" t="s">
+        <v>412</v>
+      </c>
+      <c r="E412" s="52"/>
+      <c r="F412" s="56"/>
+      <c r="G412" s="57"/>
       <c r="H412" s="4"/>
       <c r="I412" s="4"/>
       <c r="J412" s="4"/>
@@ -16045,15 +16091,19 @@
       <c r="AA412" s="4"/>
     </row>
     <row r="413">
-      <c r="A413" s="22"/>
-      <c r="B413" s="18"/>
-      <c r="C413" s="8"/>
-      <c r="D413" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="E413" s="19"/>
-      <c r="F413" s="20"/>
-      <c r="G413" s="21"/>
+      <c r="A413" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="B413" s="58"/>
+      <c r="C413" s="12"/>
+      <c r="D413" s="12"/>
+      <c r="E413" s="12"/>
+      <c r="F413" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="G413" s="15" t="s">
+        <v>415</v>
+      </c>
       <c r="H413" s="4"/>
       <c r="I413" s="4"/>
       <c r="J413" s="4"/>
@@ -16077,16 +16127,20 @@
     </row>
     <row r="414">
       <c r="A414" s="22"/>
-      <c r="B414" s="18"/>
-      <c r="C414" s="8"/>
-      <c r="D414" s="17" t="s">
-        <v>434</v>
-      </c>
+      <c r="B414" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="C414" s="59" t="s">
+        <v>417</v>
+      </c>
+      <c r="D414" s="60"/>
       <c r="E414" s="19"/>
       <c r="F414" s="20"/>
       <c r="G414" s="21"/>
       <c r="H414" s="4"/>
-      <c r="I414" s="4"/>
+      <c r="I414" s="10" t="s">
+        <v>418</v>
+      </c>
       <c r="J414" s="4"/>
       <c r="K414" s="4"/>
       <c r="L414" s="4"/>
@@ -16109,15 +16163,17 @@
     <row r="415">
       <c r="A415" s="22"/>
       <c r="B415" s="18"/>
-      <c r="C415" s="8"/>
-      <c r="D415" s="17" t="s">
-        <v>435</v>
-      </c>
+      <c r="C415" s="59" t="s">
+        <v>419</v>
+      </c>
+      <c r="D415" s="60"/>
       <c r="E415" s="19"/>
       <c r="F415" s="20"/>
       <c r="G415" s="21"/>
       <c r="H415" s="4"/>
-      <c r="I415" s="4"/>
+      <c r="I415" s="10" t="s">
+        <v>418</v>
+      </c>
       <c r="J415" s="4"/>
       <c r="K415" s="4"/>
       <c r="L415" s="4"/>
@@ -16140,10 +16196,8 @@
     <row r="416">
       <c r="A416" s="22"/>
       <c r="B416" s="18"/>
-      <c r="C416" s="8"/>
-      <c r="D416" s="17" t="s">
-        <v>436</v>
-      </c>
+      <c r="C416" s="20"/>
+      <c r="D416" s="20"/>
       <c r="E416" s="19"/>
       <c r="F416" s="20"/>
       <c r="G416" s="21"/>
@@ -16171,10 +16225,8 @@
     <row r="417">
       <c r="A417" s="22"/>
       <c r="B417" s="18"/>
-      <c r="C417" s="8"/>
-      <c r="D417" s="17" t="s">
-        <v>437</v>
-      </c>
+      <c r="C417" s="20"/>
+      <c r="D417" s="20"/>
       <c r="E417" s="19"/>
       <c r="F417" s="20"/>
       <c r="G417" s="21"/>
@@ -16201,13 +16253,9 @@
     </row>
     <row r="418">
       <c r="A418" s="22"/>
-      <c r="B418" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="C418" s="18"/>
-      <c r="D418" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="B418" s="18"/>
+      <c r="C418" s="20"/>
+      <c r="D418" s="20"/>
       <c r="E418" s="19"/>
       <c r="F418" s="20"/>
       <c r="G418" s="21"/>
@@ -16235,10 +16283,8 @@
     <row r="419">
       <c r="A419" s="22"/>
       <c r="B419" s="18"/>
-      <c r="C419" s="18"/>
-      <c r="D419" s="17" t="s">
-        <v>439</v>
-      </c>
+      <c r="C419" s="20"/>
+      <c r="D419" s="20"/>
       <c r="E419" s="19"/>
       <c r="F419" s="20"/>
       <c r="G419" s="21"/>
@@ -16266,10 +16312,8 @@
     <row r="420">
       <c r="A420" s="22"/>
       <c r="B420" s="18"/>
-      <c r="C420" s="18"/>
-      <c r="D420" s="17" t="s">
-        <v>440</v>
-      </c>
+      <c r="C420" s="20"/>
+      <c r="D420" s="20"/>
       <c r="E420" s="19"/>
       <c r="F420" s="20"/>
       <c r="G420" s="21"/>
@@ -16296,16 +16340,18 @@
     </row>
     <row r="421">
       <c r="A421" s="22"/>
-      <c r="B421" s="18"/>
+      <c r="B421" s="17" t="s">
+        <v>420</v>
+      </c>
       <c r="C421" s="18"/>
-      <c r="D421" s="17" t="s">
-        <v>441</v>
-      </c>
+      <c r="D421" s="18"/>
       <c r="E421" s="19"/>
       <c r="F421" s="20"/>
       <c r="G421" s="21"/>
-      <c r="H421" s="4"/>
-      <c r="I421" s="4"/>
+      <c r="H421" s="10"/>
+      <c r="I421" s="10" t="s">
+        <v>418</v>
+      </c>
       <c r="J421" s="4"/>
       <c r="K421" s="4"/>
       <c r="L421" s="4"/>
@@ -16327,10 +16373,14 @@
     </row>
     <row r="422">
       <c r="A422" s="22"/>
-      <c r="B422" s="18"/>
-      <c r="C422" s="18"/>
+      <c r="B422" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="C422" s="23" t="s">
+        <v>422</v>
+      </c>
       <c r="D422" s="17" t="s">
-        <v>19</v>
+        <v>423</v>
       </c>
       <c r="E422" s="19"/>
       <c r="F422" s="20"/>
@@ -16359,9 +16409,9 @@
     <row r="423">
       <c r="A423" s="22"/>
       <c r="B423" s="18"/>
-      <c r="C423" s="18"/>
+      <c r="C423" s="8"/>
       <c r="D423" s="17" t="s">
-        <v>20</v>
+        <v>424</v>
       </c>
       <c r="E423" s="19"/>
       <c r="F423" s="20"/>
@@ -16390,9 +16440,9 @@
     <row r="424">
       <c r="A424" s="22"/>
       <c r="B424" s="18"/>
-      <c r="C424" s="18"/>
+      <c r="C424" s="8"/>
       <c r="D424" s="17" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="E424" s="19"/>
       <c r="F424" s="20"/>
@@ -16421,9 +16471,9 @@
     <row r="425">
       <c r="A425" s="22"/>
       <c r="B425" s="18"/>
-      <c r="C425" s="18"/>
+      <c r="C425" s="8"/>
       <c r="D425" s="17" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="E425" s="19"/>
       <c r="F425" s="20"/>
@@ -16452,9 +16502,9 @@
     <row r="426">
       <c r="A426" s="22"/>
       <c r="B426" s="18"/>
-      <c r="C426" s="18"/>
+      <c r="C426" s="8"/>
       <c r="D426" s="17" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="E426" s="19"/>
       <c r="F426" s="20"/>
@@ -16483,9 +16533,9 @@
     <row r="427">
       <c r="A427" s="22"/>
       <c r="B427" s="18"/>
-      <c r="C427" s="18"/>
+      <c r="C427" s="8"/>
       <c r="D427" s="17" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="E427" s="19"/>
       <c r="F427" s="20"/>
@@ -16514,9 +16564,9 @@
     <row r="428">
       <c r="A428" s="22"/>
       <c r="B428" s="18"/>
-      <c r="C428" s="18"/>
+      <c r="C428" s="8"/>
       <c r="D428" s="17" t="s">
-        <v>60</v>
+        <v>429</v>
       </c>
       <c r="E428" s="19"/>
       <c r="F428" s="20"/>
@@ -16543,13 +16593,15 @@
       <c r="AA428" s="4"/>
     </row>
     <row r="429">
-      <c r="A429" s="61"/>
-      <c r="B429" s="62"/>
-      <c r="C429" s="62"/>
-      <c r="D429" s="62"/>
-      <c r="E429" s="63"/>
-      <c r="F429" s="62"/>
-      <c r="G429" s="64"/>
+      <c r="A429" s="22"/>
+      <c r="B429" s="18"/>
+      <c r="C429" s="8"/>
+      <c r="D429" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="E429" s="19"/>
+      <c r="F429" s="20"/>
+      <c r="G429" s="21"/>
       <c r="H429" s="4"/>
       <c r="I429" s="4"/>
       <c r="J429" s="4"/>
@@ -16572,13 +16624,15 @@
       <c r="AA429" s="4"/>
     </row>
     <row r="430">
-      <c r="A430" s="61"/>
-      <c r="B430" s="62"/>
-      <c r="C430" s="62"/>
-      <c r="D430" s="62"/>
-      <c r="E430" s="63"/>
-      <c r="F430" s="62"/>
-      <c r="G430" s="64"/>
+      <c r="A430" s="22"/>
+      <c r="B430" s="18"/>
+      <c r="C430" s="8"/>
+      <c r="D430" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="E430" s="19"/>
+      <c r="F430" s="20"/>
+      <c r="G430" s="21"/>
       <c r="H430" s="4"/>
       <c r="I430" s="4"/>
       <c r="J430" s="4"/>
@@ -16601,13 +16655,15 @@
       <c r="AA430" s="4"/>
     </row>
     <row r="431">
-      <c r="A431" s="61"/>
-      <c r="B431" s="62"/>
-      <c r="C431" s="62"/>
-      <c r="D431" s="62"/>
-      <c r="E431" s="63"/>
-      <c r="F431" s="62"/>
-      <c r="G431" s="64"/>
+      <c r="A431" s="22"/>
+      <c r="B431" s="18"/>
+      <c r="C431" s="8"/>
+      <c r="D431" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="E431" s="19"/>
+      <c r="F431" s="20"/>
+      <c r="G431" s="21"/>
       <c r="H431" s="4"/>
       <c r="I431" s="4"/>
       <c r="J431" s="4"/>
@@ -16630,13 +16686,15 @@
       <c r="AA431" s="4"/>
     </row>
     <row r="432">
-      <c r="A432" s="61"/>
-      <c r="B432" s="62"/>
-      <c r="C432" s="62"/>
-      <c r="D432" s="62"/>
-      <c r="E432" s="63"/>
-      <c r="F432" s="62"/>
-      <c r="G432" s="64"/>
+      <c r="A432" s="22"/>
+      <c r="B432" s="18"/>
+      <c r="C432" s="8"/>
+      <c r="D432" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="E432" s="19"/>
+      <c r="F432" s="20"/>
+      <c r="G432" s="21"/>
       <c r="H432" s="4"/>
       <c r="I432" s="4"/>
       <c r="J432" s="4"/>
@@ -16659,13 +16717,15 @@
       <c r="AA432" s="4"/>
     </row>
     <row r="433">
-      <c r="A433" s="61"/>
-      <c r="B433" s="62"/>
-      <c r="C433" s="62"/>
-      <c r="D433" s="62"/>
-      <c r="E433" s="63"/>
-      <c r="F433" s="62"/>
-      <c r="G433" s="64"/>
+      <c r="A433" s="22"/>
+      <c r="B433" s="18"/>
+      <c r="C433" s="8"/>
+      <c r="D433" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="E433" s="19"/>
+      <c r="F433" s="20"/>
+      <c r="G433" s="21"/>
       <c r="H433" s="4"/>
       <c r="I433" s="4"/>
       <c r="J433" s="4"/>
@@ -16688,13 +16748,15 @@
       <c r="AA433" s="4"/>
     </row>
     <row r="434">
-      <c r="A434" s="61"/>
-      <c r="B434" s="62"/>
-      <c r="C434" s="62"/>
-      <c r="D434" s="62"/>
-      <c r="E434" s="63"/>
-      <c r="F434" s="62"/>
-      <c r="G434" s="64"/>
+      <c r="A434" s="22"/>
+      <c r="B434" s="18"/>
+      <c r="C434" s="8"/>
+      <c r="D434" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="E434" s="19"/>
+      <c r="F434" s="20"/>
+      <c r="G434" s="21"/>
       <c r="H434" s="4"/>
       <c r="I434" s="4"/>
       <c r="J434" s="4"/>
@@ -16717,13 +16779,15 @@
       <c r="AA434" s="4"/>
     </row>
     <row r="435">
-      <c r="A435" s="61"/>
-      <c r="B435" s="62"/>
-      <c r="C435" s="62"/>
-      <c r="D435" s="62"/>
-      <c r="E435" s="63"/>
-      <c r="F435" s="62"/>
-      <c r="G435" s="64"/>
+      <c r="A435" s="22"/>
+      <c r="B435" s="18"/>
+      <c r="C435" s="8"/>
+      <c r="D435" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="E435" s="19"/>
+      <c r="F435" s="20"/>
+      <c r="G435" s="21"/>
       <c r="H435" s="4"/>
       <c r="I435" s="4"/>
       <c r="J435" s="4"/>
@@ -16746,13 +16810,17 @@
       <c r="AA435" s="4"/>
     </row>
     <row r="436">
-      <c r="A436" s="61"/>
-      <c r="B436" s="62"/>
-      <c r="C436" s="62"/>
-      <c r="D436" s="62"/>
-      <c r="E436" s="63"/>
-      <c r="F436" s="62"/>
-      <c r="G436" s="64"/>
+      <c r="A436" s="22"/>
+      <c r="B436" s="18"/>
+      <c r="C436" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="D436" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="E436" s="19"/>
+      <c r="F436" s="20"/>
+      <c r="G436" s="21"/>
       <c r="H436" s="4"/>
       <c r="I436" s="4"/>
       <c r="J436" s="4"/>
@@ -16775,13 +16843,15 @@
       <c r="AA436" s="4"/>
     </row>
     <row r="437">
-      <c r="A437" s="61"/>
-      <c r="B437" s="62"/>
-      <c r="C437" s="62"/>
-      <c r="D437" s="62"/>
-      <c r="E437" s="63"/>
-      <c r="F437" s="62"/>
-      <c r="G437" s="64"/>
+      <c r="A437" s="22"/>
+      <c r="B437" s="18"/>
+      <c r="C437" s="8"/>
+      <c r="D437" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="E437" s="19"/>
+      <c r="F437" s="20"/>
+      <c r="G437" s="21"/>
       <c r="H437" s="4"/>
       <c r="I437" s="4"/>
       <c r="J437" s="4"/>
@@ -16804,13 +16874,15 @@
       <c r="AA437" s="4"/>
     </row>
     <row r="438">
-      <c r="A438" s="61"/>
-      <c r="B438" s="62"/>
-      <c r="C438" s="62"/>
-      <c r="D438" s="62"/>
-      <c r="E438" s="63"/>
-      <c r="F438" s="62"/>
-      <c r="G438" s="64"/>
+      <c r="A438" s="22"/>
+      <c r="B438" s="18"/>
+      <c r="C438" s="8"/>
+      <c r="D438" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="E438" s="19"/>
+      <c r="F438" s="20"/>
+      <c r="G438" s="21"/>
       <c r="H438" s="4"/>
       <c r="I438" s="4"/>
       <c r="J438" s="4"/>
@@ -16833,13 +16905,15 @@
       <c r="AA438" s="4"/>
     </row>
     <row r="439">
-      <c r="A439" s="26"/>
-      <c r="B439" s="47"/>
-      <c r="C439" s="47"/>
-      <c r="D439" s="47"/>
-      <c r="E439" s="29"/>
-      <c r="F439" s="47"/>
-      <c r="G439" s="48"/>
+      <c r="A439" s="22"/>
+      <c r="B439" s="18"/>
+      <c r="C439" s="8"/>
+      <c r="D439" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="E439" s="19"/>
+      <c r="F439" s="20"/>
+      <c r="G439" s="21"/>
       <c r="H439" s="4"/>
       <c r="I439" s="4"/>
       <c r="J439" s="4"/>
@@ -16862,15 +16936,15 @@
       <c r="AA439" s="4"/>
     </row>
     <row r="440">
-      <c r="A440" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="B440" s="4"/>
-      <c r="C440" s="4"/>
-      <c r="D440" s="4"/>
-      <c r="E440" s="65"/>
-      <c r="F440" s="4"/>
-      <c r="G440" s="4"/>
+      <c r="A440" s="22"/>
+      <c r="B440" s="18"/>
+      <c r="C440" s="8"/>
+      <c r="D440" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="E440" s="19"/>
+      <c r="F440" s="20"/>
+      <c r="G440" s="21"/>
       <c r="H440" s="4"/>
       <c r="I440" s="4"/>
       <c r="J440" s="4"/>
@@ -16893,13 +16967,15 @@
       <c r="AA440" s="4"/>
     </row>
     <row r="441">
-      <c r="A441" s="66"/>
-      <c r="B441" s="4"/>
-      <c r="C441" s="4"/>
-      <c r="D441" s="4"/>
-      <c r="E441" s="65"/>
-      <c r="F441" s="4"/>
-      <c r="G441" s="4"/>
+      <c r="A441" s="22"/>
+      <c r="B441" s="18"/>
+      <c r="C441" s="8"/>
+      <c r="D441" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="E441" s="19"/>
+      <c r="F441" s="20"/>
+      <c r="G441" s="21"/>
       <c r="H441" s="4"/>
       <c r="I441" s="4"/>
       <c r="J441" s="4"/>
@@ -16922,15 +16998,17 @@
       <c r="AA441" s="4"/>
     </row>
     <row r="442">
-      <c r="A442" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="B442" s="4"/>
-      <c r="C442" s="4"/>
-      <c r="D442" s="4"/>
-      <c r="E442" s="65"/>
-      <c r="F442" s="4"/>
-      <c r="G442" s="4"/>
+      <c r="A442" s="22"/>
+      <c r="B442" s="18"/>
+      <c r="C442" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="D442" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="E442" s="19"/>
+      <c r="F442" s="20"/>
+      <c r="G442" s="21"/>
       <c r="H442" s="4"/>
       <c r="I442" s="4"/>
       <c r="J442" s="4"/>
@@ -16953,13 +17031,15 @@
       <c r="AA442" s="4"/>
     </row>
     <row r="443">
-      <c r="A443" s="66"/>
-      <c r="B443" s="4"/>
-      <c r="C443" s="4"/>
-      <c r="D443" s="4"/>
-      <c r="E443" s="65"/>
-      <c r="F443" s="4"/>
-      <c r="G443" s="4"/>
+      <c r="A443" s="22"/>
+      <c r="B443" s="18"/>
+      <c r="C443" s="8"/>
+      <c r="D443" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="E443" s="19"/>
+      <c r="F443" s="20"/>
+      <c r="G443" s="21"/>
       <c r="H443" s="4"/>
       <c r="I443" s="4"/>
       <c r="J443" s="4"/>
@@ -16982,15 +17062,15 @@
       <c r="AA443" s="4"/>
     </row>
     <row r="444">
-      <c r="A444" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="B444" s="4"/>
-      <c r="C444" s="4"/>
-      <c r="D444" s="4"/>
-      <c r="E444" s="65"/>
-      <c r="F444" s="4"/>
-      <c r="G444" s="4"/>
+      <c r="A444" s="22"/>
+      <c r="B444" s="18"/>
+      <c r="C444" s="8"/>
+      <c r="D444" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="E444" s="19"/>
+      <c r="F444" s="20"/>
+      <c r="G444" s="21"/>
       <c r="H444" s="4"/>
       <c r="I444" s="4"/>
       <c r="J444" s="4"/>
@@ -17013,13 +17093,15 @@
       <c r="AA444" s="4"/>
     </row>
     <row r="445">
-      <c r="A445" s="66"/>
-      <c r="B445" s="4"/>
-      <c r="C445" s="4"/>
-      <c r="D445" s="4"/>
-      <c r="E445" s="65"/>
-      <c r="F445" s="4"/>
-      <c r="G445" s="4"/>
+      <c r="A445" s="22"/>
+      <c r="B445" s="18"/>
+      <c r="C445" s="8"/>
+      <c r="D445" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="E445" s="19"/>
+      <c r="F445" s="20"/>
+      <c r="G445" s="21"/>
       <c r="H445" s="4"/>
       <c r="I445" s="4"/>
       <c r="J445" s="4"/>
@@ -17042,15 +17124,15 @@
       <c r="AA445" s="4"/>
     </row>
     <row r="446">
-      <c r="A446" s="10" t="s">
+      <c r="A446" s="22"/>
+      <c r="B446" s="18"/>
+      <c r="C446" s="8"/>
+      <c r="D446" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="B446" s="4"/>
-      <c r="C446" s="4"/>
-      <c r="D446" s="4"/>
-      <c r="E446" s="65"/>
-      <c r="F446" s="4"/>
-      <c r="G446" s="4"/>
+      <c r="E446" s="19"/>
+      <c r="F446" s="20"/>
+      <c r="G446" s="21"/>
       <c r="H446" s="4"/>
       <c r="I446" s="4"/>
       <c r="J446" s="4"/>
@@ -17073,13 +17155,15 @@
       <c r="AA446" s="4"/>
     </row>
     <row r="447">
-      <c r="A447" s="66"/>
-      <c r="B447" s="4"/>
-      <c r="C447" s="4"/>
-      <c r="D447" s="4"/>
-      <c r="E447" s="65"/>
-      <c r="F447" s="4"/>
-      <c r="G447" s="4"/>
+      <c r="A447" s="22"/>
+      <c r="B447" s="18"/>
+      <c r="C447" s="8"/>
+      <c r="D447" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="E447" s="19"/>
+      <c r="F447" s="20"/>
+      <c r="G447" s="21"/>
       <c r="H447" s="4"/>
       <c r="I447" s="4"/>
       <c r="J447" s="4"/>
@@ -17102,15 +17186,15 @@
       <c r="AA447" s="4"/>
     </row>
     <row r="448">
-      <c r="A448" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="B448" s="4"/>
-      <c r="C448" s="4"/>
-      <c r="D448" s="4"/>
-      <c r="E448" s="65"/>
-      <c r="F448" s="4"/>
-      <c r="G448" s="4"/>
+      <c r="A448" s="22"/>
+      <c r="B448" s="18"/>
+      <c r="C448" s="8"/>
+      <c r="D448" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="E448" s="19"/>
+      <c r="F448" s="20"/>
+      <c r="G448" s="21"/>
       <c r="H448" s="4"/>
       <c r="I448" s="4"/>
       <c r="J448" s="4"/>
@@ -17133,13 +17217,15 @@
       <c r="AA448" s="4"/>
     </row>
     <row r="449">
-      <c r="A449" s="67"/>
-      <c r="B449" s="4"/>
-      <c r="C449" s="4"/>
-      <c r="D449" s="4"/>
-      <c r="E449" s="65"/>
-      <c r="F449" s="4"/>
-      <c r="G449" s="4"/>
+      <c r="A449" s="22"/>
+      <c r="B449" s="18"/>
+      <c r="C449" s="8"/>
+      <c r="D449" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="E449" s="19"/>
+      <c r="F449" s="20"/>
+      <c r="G449" s="21"/>
       <c r="H449" s="4"/>
       <c r="I449" s="4"/>
       <c r="J449" s="4"/>
@@ -17162,13 +17248,15 @@
       <c r="AA449" s="4"/>
     </row>
     <row r="450">
-      <c r="A450" s="4"/>
-      <c r="B450" s="4"/>
-      <c r="C450" s="4"/>
-      <c r="D450" s="4"/>
-      <c r="E450" s="65"/>
-      <c r="F450" s="4"/>
-      <c r="G450" s="4"/>
+      <c r="A450" s="22"/>
+      <c r="B450" s="18"/>
+      <c r="C450" s="8"/>
+      <c r="D450" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="E450" s="19"/>
+      <c r="F450" s="20"/>
+      <c r="G450" s="21"/>
       <c r="H450" s="4"/>
       <c r="I450" s="4"/>
       <c r="J450" s="4"/>
@@ -17191,13 +17279,17 @@
       <c r="AA450" s="4"/>
     </row>
     <row r="451">
-      <c r="A451" s="4"/>
-      <c r="B451" s="4"/>
-      <c r="C451" s="4"/>
-      <c r="D451" s="4"/>
-      <c r="E451" s="65"/>
-      <c r="F451" s="4"/>
-      <c r="G451" s="4"/>
+      <c r="A451" s="22"/>
+      <c r="B451" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="C451" s="18"/>
+      <c r="D451" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E451" s="19"/>
+      <c r="F451" s="20"/>
+      <c r="G451" s="21"/>
       <c r="H451" s="4"/>
       <c r="I451" s="4"/>
       <c r="J451" s="4"/>
@@ -17220,13 +17312,15 @@
       <c r="AA451" s="4"/>
     </row>
     <row r="452">
-      <c r="A452" s="4"/>
-      <c r="B452" s="4"/>
-      <c r="C452" s="4"/>
-      <c r="D452" s="4"/>
-      <c r="E452" s="65"/>
-      <c r="F452" s="4"/>
-      <c r="G452" s="4"/>
+      <c r="A452" s="22"/>
+      <c r="B452" s="18"/>
+      <c r="C452" s="18"/>
+      <c r="D452" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="E452" s="19"/>
+      <c r="F452" s="20"/>
+      <c r="G452" s="21"/>
       <c r="H452" s="4"/>
       <c r="I452" s="4"/>
       <c r="J452" s="4"/>
@@ -17249,13 +17343,15 @@
       <c r="AA452" s="4"/>
     </row>
     <row r="453">
-      <c r="A453" s="4"/>
-      <c r="B453" s="4"/>
-      <c r="C453" s="4"/>
-      <c r="D453" s="4"/>
-      <c r="E453" s="65"/>
-      <c r="F453" s="4"/>
-      <c r="G453" s="4"/>
+      <c r="A453" s="22"/>
+      <c r="B453" s="18"/>
+      <c r="C453" s="18"/>
+      <c r="D453" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="E453" s="19"/>
+      <c r="F453" s="20"/>
+      <c r="G453" s="21"/>
       <c r="H453" s="4"/>
       <c r="I453" s="4"/>
       <c r="J453" s="4"/>
@@ -17278,13 +17374,15 @@
       <c r="AA453" s="4"/>
     </row>
     <row r="454">
-      <c r="A454" s="4"/>
-      <c r="B454" s="4"/>
-      <c r="C454" s="4"/>
-      <c r="D454" s="4"/>
-      <c r="E454" s="65"/>
-      <c r="F454" s="4"/>
-      <c r="G454" s="4"/>
+      <c r="A454" s="22"/>
+      <c r="B454" s="18"/>
+      <c r="C454" s="18"/>
+      <c r="D454" s="17" t="s">
+        <v>457</v>
+      </c>
+      <c r="E454" s="19"/>
+      <c r="F454" s="20"/>
+      <c r="G454" s="21"/>
       <c r="H454" s="4"/>
       <c r="I454" s="4"/>
       <c r="J454" s="4"/>
@@ -17307,13 +17405,15 @@
       <c r="AA454" s="4"/>
     </row>
     <row r="455">
-      <c r="A455" s="4"/>
-      <c r="B455" s="4"/>
-      <c r="C455" s="4"/>
-      <c r="D455" s="4"/>
-      <c r="E455" s="65"/>
-      <c r="F455" s="4"/>
-      <c r="G455" s="4"/>
+      <c r="A455" s="22"/>
+      <c r="B455" s="18"/>
+      <c r="C455" s="18"/>
+      <c r="D455" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E455" s="19"/>
+      <c r="F455" s="20"/>
+      <c r="G455" s="21"/>
       <c r="H455" s="4"/>
       <c r="I455" s="4"/>
       <c r="J455" s="4"/>
@@ -17336,13 +17436,15 @@
       <c r="AA455" s="4"/>
     </row>
     <row r="456">
-      <c r="A456" s="4"/>
-      <c r="B456" s="4"/>
-      <c r="C456" s="4"/>
-      <c r="D456" s="4"/>
-      <c r="E456" s="65"/>
-      <c r="F456" s="4"/>
-      <c r="G456" s="4"/>
+      <c r="A456" s="22"/>
+      <c r="B456" s="18"/>
+      <c r="C456" s="18"/>
+      <c r="D456" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E456" s="19"/>
+      <c r="F456" s="20"/>
+      <c r="G456" s="21"/>
       <c r="H456" s="4"/>
       <c r="I456" s="4"/>
       <c r="J456" s="4"/>
@@ -17365,13 +17467,15 @@
       <c r="AA456" s="4"/>
     </row>
     <row r="457">
-      <c r="A457" s="4"/>
-      <c r="B457" s="4"/>
-      <c r="C457" s="4"/>
-      <c r="D457" s="4"/>
-      <c r="E457" s="65"/>
-      <c r="F457" s="4"/>
-      <c r="G457" s="4"/>
+      <c r="A457" s="22"/>
+      <c r="B457" s="18"/>
+      <c r="C457" s="18"/>
+      <c r="D457" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="E457" s="19"/>
+      <c r="F457" s="20"/>
+      <c r="G457" s="21"/>
       <c r="H457" s="4"/>
       <c r="I457" s="4"/>
       <c r="J457" s="4"/>
@@ -17394,13 +17498,15 @@
       <c r="AA457" s="4"/>
     </row>
     <row r="458">
-      <c r="A458" s="4"/>
-      <c r="B458" s="4"/>
-      <c r="C458" s="4"/>
-      <c r="D458" s="4"/>
-      <c r="E458" s="65"/>
-      <c r="F458" s="4"/>
-      <c r="G458" s="4"/>
+      <c r="A458" s="22"/>
+      <c r="B458" s="18"/>
+      <c r="C458" s="18"/>
+      <c r="D458" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="E458" s="19"/>
+      <c r="F458" s="20"/>
+      <c r="G458" s="21"/>
       <c r="H458" s="4"/>
       <c r="I458" s="4"/>
       <c r="J458" s="4"/>
@@ -17423,13 +17529,15 @@
       <c r="AA458" s="4"/>
     </row>
     <row r="459">
-      <c r="A459" s="4"/>
-      <c r="B459" s="4"/>
-      <c r="C459" s="4"/>
-      <c r="D459" s="4"/>
-      <c r="E459" s="65"/>
-      <c r="F459" s="4"/>
-      <c r="G459" s="4"/>
+      <c r="A459" s="22"/>
+      <c r="B459" s="18"/>
+      <c r="C459" s="18"/>
+      <c r="D459" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="E459" s="19"/>
+      <c r="F459" s="20"/>
+      <c r="G459" s="21"/>
       <c r="H459" s="4"/>
       <c r="I459" s="4"/>
       <c r="J459" s="4"/>
@@ -17452,13 +17560,15 @@
       <c r="AA459" s="4"/>
     </row>
     <row r="460">
-      <c r="A460" s="4"/>
-      <c r="B460" s="4"/>
-      <c r="C460" s="4"/>
-      <c r="D460" s="4"/>
-      <c r="E460" s="65"/>
-      <c r="F460" s="4"/>
-      <c r="G460" s="4"/>
+      <c r="A460" s="22"/>
+      <c r="B460" s="18"/>
+      <c r="C460" s="18"/>
+      <c r="D460" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="E460" s="19"/>
+      <c r="F460" s="20"/>
+      <c r="G460" s="21"/>
       <c r="H460" s="4"/>
       <c r="I460" s="4"/>
       <c r="J460" s="4"/>
@@ -17481,13 +17591,15 @@
       <c r="AA460" s="4"/>
     </row>
     <row r="461">
-      <c r="A461" s="4"/>
-      <c r="B461" s="4"/>
-      <c r="C461" s="4"/>
-      <c r="D461" s="4"/>
-      <c r="E461" s="65"/>
-      <c r="F461" s="4"/>
-      <c r="G461" s="4"/>
+      <c r="A461" s="22"/>
+      <c r="B461" s="18"/>
+      <c r="C461" s="18"/>
+      <c r="D461" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E461" s="19"/>
+      <c r="F461" s="20"/>
+      <c r="G461" s="21"/>
       <c r="H461" s="4"/>
       <c r="I461" s="4"/>
       <c r="J461" s="4"/>
@@ -17510,13 +17622,13 @@
       <c r="AA461" s="4"/>
     </row>
     <row r="462">
-      <c r="A462" s="4"/>
-      <c r="B462" s="4"/>
-      <c r="C462" s="4"/>
-      <c r="D462" s="4"/>
-      <c r="E462" s="65"/>
-      <c r="F462" s="4"/>
-      <c r="G462" s="4"/>
+      <c r="A462" s="61"/>
+      <c r="B462" s="62"/>
+      <c r="C462" s="62"/>
+      <c r="D462" s="62"/>
+      <c r="E462" s="63"/>
+      <c r="F462" s="62"/>
+      <c r="G462" s="64"/>
       <c r="H462" s="4"/>
       <c r="I462" s="4"/>
       <c r="J462" s="4"/>
@@ -17539,13 +17651,13 @@
       <c r="AA462" s="4"/>
     </row>
     <row r="463">
-      <c r="A463" s="4"/>
-      <c r="B463" s="4"/>
-      <c r="C463" s="4"/>
-      <c r="D463" s="4"/>
-      <c r="E463" s="65"/>
-      <c r="F463" s="4"/>
-      <c r="G463" s="4"/>
+      <c r="A463" s="61"/>
+      <c r="B463" s="62"/>
+      <c r="C463" s="62"/>
+      <c r="D463" s="62"/>
+      <c r="E463" s="63"/>
+      <c r="F463" s="62"/>
+      <c r="G463" s="64"/>
       <c r="H463" s="4"/>
       <c r="I463" s="4"/>
       <c r="J463" s="4"/>
@@ -17568,13 +17680,13 @@
       <c r="AA463" s="4"/>
     </row>
     <row r="464">
-      <c r="A464" s="4"/>
-      <c r="B464" s="4"/>
-      <c r="C464" s="4"/>
-      <c r="D464" s="4"/>
-      <c r="E464" s="65"/>
-      <c r="F464" s="4"/>
-      <c r="G464" s="4"/>
+      <c r="A464" s="61"/>
+      <c r="B464" s="62"/>
+      <c r="C464" s="62"/>
+      <c r="D464" s="62"/>
+      <c r="E464" s="63"/>
+      <c r="F464" s="62"/>
+      <c r="G464" s="64"/>
       <c r="H464" s="4"/>
       <c r="I464" s="4"/>
       <c r="J464" s="4"/>
@@ -17597,13 +17709,13 @@
       <c r="AA464" s="4"/>
     </row>
     <row r="465">
-      <c r="A465" s="4"/>
-      <c r="B465" s="4"/>
-      <c r="C465" s="4"/>
-      <c r="D465" s="4"/>
-      <c r="E465" s="65"/>
-      <c r="F465" s="4"/>
-      <c r="G465" s="4"/>
+      <c r="A465" s="61"/>
+      <c r="B465" s="62"/>
+      <c r="C465" s="62"/>
+      <c r="D465" s="62"/>
+      <c r="E465" s="63"/>
+      <c r="F465" s="62"/>
+      <c r="G465" s="64"/>
       <c r="H465" s="4"/>
       <c r="I465" s="4"/>
       <c r="J465" s="4"/>
@@ -17626,13 +17738,13 @@
       <c r="AA465" s="4"/>
     </row>
     <row r="466">
-      <c r="A466" s="4"/>
-      <c r="B466" s="4"/>
-      <c r="C466" s="4"/>
-      <c r="D466" s="4"/>
-      <c r="E466" s="65"/>
-      <c r="F466" s="4"/>
-      <c r="G466" s="4"/>
+      <c r="A466" s="61"/>
+      <c r="B466" s="62"/>
+      <c r="C466" s="62"/>
+      <c r="D466" s="62"/>
+      <c r="E466" s="63"/>
+      <c r="F466" s="62"/>
+      <c r="G466" s="64"/>
       <c r="H466" s="4"/>
       <c r="I466" s="4"/>
       <c r="J466" s="4"/>
@@ -17655,13 +17767,13 @@
       <c r="AA466" s="4"/>
     </row>
     <row r="467">
-      <c r="A467" s="4"/>
-      <c r="B467" s="4"/>
-      <c r="C467" s="4"/>
-      <c r="D467" s="4"/>
-      <c r="E467" s="65"/>
-      <c r="F467" s="4"/>
-      <c r="G467" s="4"/>
+      <c r="A467" s="61"/>
+      <c r="B467" s="62"/>
+      <c r="C467" s="62"/>
+      <c r="D467" s="62"/>
+      <c r="E467" s="63"/>
+      <c r="F467" s="62"/>
+      <c r="G467" s="64"/>
       <c r="H467" s="4"/>
       <c r="I467" s="4"/>
       <c r="J467" s="4"/>
@@ -17684,13 +17796,13 @@
       <c r="AA467" s="4"/>
     </row>
     <row r="468">
-      <c r="A468" s="4"/>
-      <c r="B468" s="4"/>
-      <c r="C468" s="4"/>
-      <c r="D468" s="4"/>
-      <c r="E468" s="65"/>
-      <c r="F468" s="4"/>
-      <c r="G468" s="4"/>
+      <c r="A468" s="61"/>
+      <c r="B468" s="62"/>
+      <c r="C468" s="62"/>
+      <c r="D468" s="62"/>
+      <c r="E468" s="63"/>
+      <c r="F468" s="62"/>
+      <c r="G468" s="64"/>
       <c r="H468" s="4"/>
       <c r="I468" s="4"/>
       <c r="J468" s="4"/>
@@ -17713,13 +17825,13 @@
       <c r="AA468" s="4"/>
     </row>
     <row r="469">
-      <c r="A469" s="4"/>
-      <c r="B469" s="4"/>
-      <c r="C469" s="4"/>
-      <c r="D469" s="4"/>
-      <c r="E469" s="65"/>
-      <c r="F469" s="4"/>
-      <c r="G469" s="4"/>
+      <c r="A469" s="61"/>
+      <c r="B469" s="62"/>
+      <c r="C469" s="62"/>
+      <c r="D469" s="62"/>
+      <c r="E469" s="63"/>
+      <c r="F469" s="62"/>
+      <c r="G469" s="64"/>
       <c r="H469" s="4"/>
       <c r="I469" s="4"/>
       <c r="J469" s="4"/>
@@ -17742,13 +17854,13 @@
       <c r="AA469" s="4"/>
     </row>
     <row r="470">
-      <c r="A470" s="4"/>
-      <c r="B470" s="4"/>
-      <c r="C470" s="4"/>
-      <c r="D470" s="4"/>
-      <c r="E470" s="65"/>
-      <c r="F470" s="4"/>
-      <c r="G470" s="4"/>
+      <c r="A470" s="61"/>
+      <c r="B470" s="62"/>
+      <c r="C470" s="62"/>
+      <c r="D470" s="62"/>
+      <c r="E470" s="63"/>
+      <c r="F470" s="62"/>
+      <c r="G470" s="64"/>
       <c r="H470" s="4"/>
       <c r="I470" s="4"/>
       <c r="J470" s="4"/>
@@ -17771,13 +17883,13 @@
       <c r="AA470" s="4"/>
     </row>
     <row r="471">
-      <c r="A471" s="4"/>
-      <c r="B471" s="4"/>
-      <c r="C471" s="4"/>
-      <c r="D471" s="4"/>
-      <c r="E471" s="65"/>
-      <c r="F471" s="4"/>
-      <c r="G471" s="4"/>
+      <c r="A471" s="61"/>
+      <c r="B471" s="62"/>
+      <c r="C471" s="62"/>
+      <c r="D471" s="62"/>
+      <c r="E471" s="63"/>
+      <c r="F471" s="62"/>
+      <c r="G471" s="64"/>
       <c r="H471" s="4"/>
       <c r="I471" s="4"/>
       <c r="J471" s="4"/>
@@ -17800,13 +17912,13 @@
       <c r="AA471" s="4"/>
     </row>
     <row r="472">
-      <c r="A472" s="4"/>
-      <c r="B472" s="4"/>
-      <c r="C472" s="4"/>
-      <c r="D472" s="4"/>
-      <c r="E472" s="65"/>
-      <c r="F472" s="4"/>
-      <c r="G472" s="4"/>
+      <c r="A472" s="26"/>
+      <c r="B472" s="47"/>
+      <c r="C472" s="47"/>
+      <c r="D472" s="47"/>
+      <c r="E472" s="29"/>
+      <c r="F472" s="47"/>
+      <c r="G472" s="48"/>
       <c r="H472" s="4"/>
       <c r="I472" s="4"/>
       <c r="J472" s="4"/>
@@ -17829,7 +17941,9 @@
       <c r="AA472" s="4"/>
     </row>
     <row r="473">
-      <c r="A473" s="4"/>
+      <c r="A473" s="10" t="s">
+        <v>462</v>
+      </c>
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
       <c r="D473" s="4"/>
@@ -17858,7 +17972,7 @@
       <c r="AA473" s="4"/>
     </row>
     <row r="474">
-      <c r="A474" s="4"/>
+      <c r="A474" s="66"/>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
       <c r="D474" s="4"/>
@@ -17887,7 +18001,9 @@
       <c r="AA474" s="4"/>
     </row>
     <row r="475">
-      <c r="A475" s="4"/>
+      <c r="A475" s="10" t="s">
+        <v>463</v>
+      </c>
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
       <c r="D475" s="4"/>
@@ -17916,7 +18032,7 @@
       <c r="AA475" s="4"/>
     </row>
     <row r="476">
-      <c r="A476" s="4"/>
+      <c r="A476" s="66"/>
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
       <c r="D476" s="4"/>
@@ -17945,7 +18061,9 @@
       <c r="AA476" s="4"/>
     </row>
     <row r="477">
-      <c r="A477" s="4"/>
+      <c r="A477" s="10" t="s">
+        <v>464</v>
+      </c>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
       <c r="D477" s="4"/>
@@ -17974,7 +18092,7 @@
       <c r="AA477" s="4"/>
     </row>
     <row r="478">
-      <c r="A478" s="4"/>
+      <c r="A478" s="66"/>
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
       <c r="D478" s="4"/>
@@ -18003,7 +18121,9 @@
       <c r="AA478" s="4"/>
     </row>
     <row r="479">
-      <c r="A479" s="4"/>
+      <c r="A479" s="10" t="s">
+        <v>465</v>
+      </c>
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
       <c r="D479" s="4"/>
@@ -18032,7 +18152,7 @@
       <c r="AA479" s="4"/>
     </row>
     <row r="480">
-      <c r="A480" s="4"/>
+      <c r="A480" s="66"/>
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
       <c r="D480" s="4"/>
@@ -18061,7 +18181,9 @@
       <c r="AA480" s="4"/>
     </row>
     <row r="481">
-      <c r="A481" s="4"/>
+      <c r="A481" s="10" t="s">
+        <v>466</v>
+      </c>
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
       <c r="D481" s="4"/>
@@ -18090,7 +18212,7 @@
       <c r="AA481" s="4"/>
     </row>
     <row r="482">
-      <c r="A482" s="4"/>
+      <c r="A482" s="67"/>
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
       <c r="D482" s="4"/>
@@ -19771,108 +19893,1066 @@
       <c r="Z539" s="4"/>
       <c r="AA539" s="4"/>
     </row>
+    <row r="540">
+      <c r="A540" s="4"/>
+      <c r="B540" s="4"/>
+      <c r="C540" s="4"/>
+      <c r="D540" s="4"/>
+      <c r="E540" s="65"/>
+      <c r="F540" s="4"/>
+      <c r="G540" s="4"/>
+      <c r="H540" s="4"/>
+      <c r="I540" s="4"/>
+      <c r="J540" s="4"/>
+      <c r="K540" s="4"/>
+      <c r="L540" s="4"/>
+      <c r="M540" s="4"/>
+      <c r="N540" s="4"/>
+      <c r="O540" s="4"/>
+      <c r="P540" s="4"/>
+      <c r="Q540" s="4"/>
+      <c r="R540" s="4"/>
+      <c r="S540" s="4"/>
+      <c r="T540" s="4"/>
+      <c r="U540" s="4"/>
+      <c r="V540" s="4"/>
+      <c r="W540" s="4"/>
+      <c r="X540" s="4"/>
+      <c r="Y540" s="4"/>
+      <c r="Z540" s="4"/>
+      <c r="AA540" s="4"/>
+    </row>
+    <row r="541">
+      <c r="A541" s="4"/>
+      <c r="B541" s="4"/>
+      <c r="C541" s="4"/>
+      <c r="D541" s="4"/>
+      <c r="E541" s="65"/>
+      <c r="F541" s="4"/>
+      <c r="G541" s="4"/>
+      <c r="H541" s="4"/>
+      <c r="I541" s="4"/>
+      <c r="J541" s="4"/>
+      <c r="K541" s="4"/>
+      <c r="L541" s="4"/>
+      <c r="M541" s="4"/>
+      <c r="N541" s="4"/>
+      <c r="O541" s="4"/>
+      <c r="P541" s="4"/>
+      <c r="Q541" s="4"/>
+      <c r="R541" s="4"/>
+      <c r="S541" s="4"/>
+      <c r="T541" s="4"/>
+      <c r="U541" s="4"/>
+      <c r="V541" s="4"/>
+      <c r="W541" s="4"/>
+      <c r="X541" s="4"/>
+      <c r="Y541" s="4"/>
+      <c r="Z541" s="4"/>
+      <c r="AA541" s="4"/>
+    </row>
+    <row r="542">
+      <c r="A542" s="4"/>
+      <c r="B542" s="4"/>
+      <c r="C542" s="4"/>
+      <c r="D542" s="4"/>
+      <c r="E542" s="65"/>
+      <c r="F542" s="4"/>
+      <c r="G542" s="4"/>
+      <c r="H542" s="4"/>
+      <c r="I542" s="4"/>
+      <c r="J542" s="4"/>
+      <c r="K542" s="4"/>
+      <c r="L542" s="4"/>
+      <c r="M542" s="4"/>
+      <c r="N542" s="4"/>
+      <c r="O542" s="4"/>
+      <c r="P542" s="4"/>
+      <c r="Q542" s="4"/>
+      <c r="R542" s="4"/>
+      <c r="S542" s="4"/>
+      <c r="T542" s="4"/>
+      <c r="U542" s="4"/>
+      <c r="V542" s="4"/>
+      <c r="W542" s="4"/>
+      <c r="X542" s="4"/>
+      <c r="Y542" s="4"/>
+      <c r="Z542" s="4"/>
+      <c r="AA542" s="4"/>
+    </row>
+    <row r="543">
+      <c r="A543" s="4"/>
+      <c r="B543" s="4"/>
+      <c r="C543" s="4"/>
+      <c r="D543" s="4"/>
+      <c r="E543" s="65"/>
+      <c r="F543" s="4"/>
+      <c r="G543" s="4"/>
+      <c r="H543" s="4"/>
+      <c r="I543" s="4"/>
+      <c r="J543" s="4"/>
+      <c r="K543" s="4"/>
+      <c r="L543" s="4"/>
+      <c r="M543" s="4"/>
+      <c r="N543" s="4"/>
+      <c r="O543" s="4"/>
+      <c r="P543" s="4"/>
+      <c r="Q543" s="4"/>
+      <c r="R543" s="4"/>
+      <c r="S543" s="4"/>
+      <c r="T543" s="4"/>
+      <c r="U543" s="4"/>
+      <c r="V543" s="4"/>
+      <c r="W543" s="4"/>
+      <c r="X543" s="4"/>
+      <c r="Y543" s="4"/>
+      <c r="Z543" s="4"/>
+      <c r="AA543" s="4"/>
+    </row>
+    <row r="544">
+      <c r="A544" s="4"/>
+      <c r="B544" s="4"/>
+      <c r="C544" s="4"/>
+      <c r="D544" s="4"/>
+      <c r="E544" s="65"/>
+      <c r="F544" s="4"/>
+      <c r="G544" s="4"/>
+      <c r="H544" s="4"/>
+      <c r="I544" s="4"/>
+      <c r="J544" s="4"/>
+      <c r="K544" s="4"/>
+      <c r="L544" s="4"/>
+      <c r="M544" s="4"/>
+      <c r="N544" s="4"/>
+      <c r="O544" s="4"/>
+      <c r="P544" s="4"/>
+      <c r="Q544" s="4"/>
+      <c r="R544" s="4"/>
+      <c r="S544" s="4"/>
+      <c r="T544" s="4"/>
+      <c r="U544" s="4"/>
+      <c r="V544" s="4"/>
+      <c r="W544" s="4"/>
+      <c r="X544" s="4"/>
+      <c r="Y544" s="4"/>
+      <c r="Z544" s="4"/>
+      <c r="AA544" s="4"/>
+    </row>
+    <row r="545">
+      <c r="A545" s="4"/>
+      <c r="B545" s="4"/>
+      <c r="C545" s="4"/>
+      <c r="D545" s="4"/>
+      <c r="E545" s="65"/>
+      <c r="F545" s="4"/>
+      <c r="G545" s="4"/>
+      <c r="H545" s="4"/>
+      <c r="I545" s="4"/>
+      <c r="J545" s="4"/>
+      <c r="K545" s="4"/>
+      <c r="L545" s="4"/>
+      <c r="M545" s="4"/>
+      <c r="N545" s="4"/>
+      <c r="O545" s="4"/>
+      <c r="P545" s="4"/>
+      <c r="Q545" s="4"/>
+      <c r="R545" s="4"/>
+      <c r="S545" s="4"/>
+      <c r="T545" s="4"/>
+      <c r="U545" s="4"/>
+      <c r="V545" s="4"/>
+      <c r="W545" s="4"/>
+      <c r="X545" s="4"/>
+      <c r="Y545" s="4"/>
+      <c r="Z545" s="4"/>
+      <c r="AA545" s="4"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="4"/>
+      <c r="B546" s="4"/>
+      <c r="C546" s="4"/>
+      <c r="D546" s="4"/>
+      <c r="E546" s="65"/>
+      <c r="F546" s="4"/>
+      <c r="G546" s="4"/>
+      <c r="H546" s="4"/>
+      <c r="I546" s="4"/>
+      <c r="J546" s="4"/>
+      <c r="K546" s="4"/>
+      <c r="L546" s="4"/>
+      <c r="M546" s="4"/>
+      <c r="N546" s="4"/>
+      <c r="O546" s="4"/>
+      <c r="P546" s="4"/>
+      <c r="Q546" s="4"/>
+      <c r="R546" s="4"/>
+      <c r="S546" s="4"/>
+      <c r="T546" s="4"/>
+      <c r="U546" s="4"/>
+      <c r="V546" s="4"/>
+      <c r="W546" s="4"/>
+      <c r="X546" s="4"/>
+      <c r="Y546" s="4"/>
+      <c r="Z546" s="4"/>
+      <c r="AA546" s="4"/>
+    </row>
+    <row r="547">
+      <c r="A547" s="4"/>
+      <c r="B547" s="4"/>
+      <c r="C547" s="4"/>
+      <c r="D547" s="4"/>
+      <c r="E547" s="65"/>
+      <c r="F547" s="4"/>
+      <c r="G547" s="4"/>
+      <c r="H547" s="4"/>
+      <c r="I547" s="4"/>
+      <c r="J547" s="4"/>
+      <c r="K547" s="4"/>
+      <c r="L547" s="4"/>
+      <c r="M547" s="4"/>
+      <c r="N547" s="4"/>
+      <c r="O547" s="4"/>
+      <c r="P547" s="4"/>
+      <c r="Q547" s="4"/>
+      <c r="R547" s="4"/>
+      <c r="S547" s="4"/>
+      <c r="T547" s="4"/>
+      <c r="U547" s="4"/>
+      <c r="V547" s="4"/>
+      <c r="W547" s="4"/>
+      <c r="X547" s="4"/>
+      <c r="Y547" s="4"/>
+      <c r="Z547" s="4"/>
+      <c r="AA547" s="4"/>
+    </row>
+    <row r="548">
+      <c r="A548" s="4"/>
+      <c r="B548" s="4"/>
+      <c r="C548" s="4"/>
+      <c r="D548" s="4"/>
+      <c r="E548" s="65"/>
+      <c r="F548" s="4"/>
+      <c r="G548" s="4"/>
+      <c r="H548" s="4"/>
+      <c r="I548" s="4"/>
+      <c r="J548" s="4"/>
+      <c r="K548" s="4"/>
+      <c r="L548" s="4"/>
+      <c r="M548" s="4"/>
+      <c r="N548" s="4"/>
+      <c r="O548" s="4"/>
+      <c r="P548" s="4"/>
+      <c r="Q548" s="4"/>
+      <c r="R548" s="4"/>
+      <c r="S548" s="4"/>
+      <c r="T548" s="4"/>
+      <c r="U548" s="4"/>
+      <c r="V548" s="4"/>
+      <c r="W548" s="4"/>
+      <c r="X548" s="4"/>
+      <c r="Y548" s="4"/>
+      <c r="Z548" s="4"/>
+      <c r="AA548" s="4"/>
+    </row>
+    <row r="549">
+      <c r="A549" s="4"/>
+      <c r="B549" s="4"/>
+      <c r="C549" s="4"/>
+      <c r="D549" s="4"/>
+      <c r="E549" s="65"/>
+      <c r="F549" s="4"/>
+      <c r="G549" s="4"/>
+      <c r="H549" s="4"/>
+      <c r="I549" s="4"/>
+      <c r="J549" s="4"/>
+      <c r="K549" s="4"/>
+      <c r="L549" s="4"/>
+      <c r="M549" s="4"/>
+      <c r="N549" s="4"/>
+      <c r="O549" s="4"/>
+      <c r="P549" s="4"/>
+      <c r="Q549" s="4"/>
+      <c r="R549" s="4"/>
+      <c r="S549" s="4"/>
+      <c r="T549" s="4"/>
+      <c r="U549" s="4"/>
+      <c r="V549" s="4"/>
+      <c r="W549" s="4"/>
+      <c r="X549" s="4"/>
+      <c r="Y549" s="4"/>
+      <c r="Z549" s="4"/>
+      <c r="AA549" s="4"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="4"/>
+      <c r="B550" s="4"/>
+      <c r="C550" s="4"/>
+      <c r="D550" s="4"/>
+      <c r="E550" s="65"/>
+      <c r="F550" s="4"/>
+      <c r="G550" s="4"/>
+      <c r="H550" s="4"/>
+      <c r="I550" s="4"/>
+      <c r="J550" s="4"/>
+      <c r="K550" s="4"/>
+      <c r="L550" s="4"/>
+      <c r="M550" s="4"/>
+      <c r="N550" s="4"/>
+      <c r="O550" s="4"/>
+      <c r="P550" s="4"/>
+      <c r="Q550" s="4"/>
+      <c r="R550" s="4"/>
+      <c r="S550" s="4"/>
+      <c r="T550" s="4"/>
+      <c r="U550" s="4"/>
+      <c r="V550" s="4"/>
+      <c r="W550" s="4"/>
+      <c r="X550" s="4"/>
+      <c r="Y550" s="4"/>
+      <c r="Z550" s="4"/>
+      <c r="AA550" s="4"/>
+    </row>
+    <row r="551">
+      <c r="A551" s="4"/>
+      <c r="B551" s="4"/>
+      <c r="C551" s="4"/>
+      <c r="D551" s="4"/>
+      <c r="E551" s="65"/>
+      <c r="F551" s="4"/>
+      <c r="G551" s="4"/>
+      <c r="H551" s="4"/>
+      <c r="I551" s="4"/>
+      <c r="J551" s="4"/>
+      <c r="K551" s="4"/>
+      <c r="L551" s="4"/>
+      <c r="M551" s="4"/>
+      <c r="N551" s="4"/>
+      <c r="O551" s="4"/>
+      <c r="P551" s="4"/>
+      <c r="Q551" s="4"/>
+      <c r="R551" s="4"/>
+      <c r="S551" s="4"/>
+      <c r="T551" s="4"/>
+      <c r="U551" s="4"/>
+      <c r="V551" s="4"/>
+      <c r="W551" s="4"/>
+      <c r="X551" s="4"/>
+      <c r="Y551" s="4"/>
+      <c r="Z551" s="4"/>
+      <c r="AA551" s="4"/>
+    </row>
+    <row r="552">
+      <c r="A552" s="4"/>
+      <c r="B552" s="4"/>
+      <c r="C552" s="4"/>
+      <c r="D552" s="4"/>
+      <c r="E552" s="65"/>
+      <c r="F552" s="4"/>
+      <c r="G552" s="4"/>
+      <c r="H552" s="4"/>
+      <c r="I552" s="4"/>
+      <c r="J552" s="4"/>
+      <c r="K552" s="4"/>
+      <c r="L552" s="4"/>
+      <c r="M552" s="4"/>
+      <c r="N552" s="4"/>
+      <c r="O552" s="4"/>
+      <c r="P552" s="4"/>
+      <c r="Q552" s="4"/>
+      <c r="R552" s="4"/>
+      <c r="S552" s="4"/>
+      <c r="T552" s="4"/>
+      <c r="U552" s="4"/>
+      <c r="V552" s="4"/>
+      <c r="W552" s="4"/>
+      <c r="X552" s="4"/>
+      <c r="Y552" s="4"/>
+      <c r="Z552" s="4"/>
+      <c r="AA552" s="4"/>
+    </row>
+    <row r="553">
+      <c r="A553" s="4"/>
+      <c r="B553" s="4"/>
+      <c r="C553" s="4"/>
+      <c r="D553" s="4"/>
+      <c r="E553" s="65"/>
+      <c r="F553" s="4"/>
+      <c r="G553" s="4"/>
+      <c r="H553" s="4"/>
+      <c r="I553" s="4"/>
+      <c r="J553" s="4"/>
+      <c r="K553" s="4"/>
+      <c r="L553" s="4"/>
+      <c r="M553" s="4"/>
+      <c r="N553" s="4"/>
+      <c r="O553" s="4"/>
+      <c r="P553" s="4"/>
+      <c r="Q553" s="4"/>
+      <c r="R553" s="4"/>
+      <c r="S553" s="4"/>
+      <c r="T553" s="4"/>
+      <c r="U553" s="4"/>
+      <c r="V553" s="4"/>
+      <c r="W553" s="4"/>
+      <c r="X553" s="4"/>
+      <c r="Y553" s="4"/>
+      <c r="Z553" s="4"/>
+      <c r="AA553" s="4"/>
+    </row>
+    <row r="554">
+      <c r="A554" s="4"/>
+      <c r="B554" s="4"/>
+      <c r="C554" s="4"/>
+      <c r="D554" s="4"/>
+      <c r="E554" s="65"/>
+      <c r="F554" s="4"/>
+      <c r="G554" s="4"/>
+      <c r="H554" s="4"/>
+      <c r="I554" s="4"/>
+      <c r="J554" s="4"/>
+      <c r="K554" s="4"/>
+      <c r="L554" s="4"/>
+      <c r="M554" s="4"/>
+      <c r="N554" s="4"/>
+      <c r="O554" s="4"/>
+      <c r="P554" s="4"/>
+      <c r="Q554" s="4"/>
+      <c r="R554" s="4"/>
+      <c r="S554" s="4"/>
+      <c r="T554" s="4"/>
+      <c r="U554" s="4"/>
+      <c r="V554" s="4"/>
+      <c r="W554" s="4"/>
+      <c r="X554" s="4"/>
+      <c r="Y554" s="4"/>
+      <c r="Z554" s="4"/>
+      <c r="AA554" s="4"/>
+    </row>
+    <row r="555">
+      <c r="A555" s="4"/>
+      <c r="B555" s="4"/>
+      <c r="C555" s="4"/>
+      <c r="D555" s="4"/>
+      <c r="E555" s="65"/>
+      <c r="F555" s="4"/>
+      <c r="G555" s="4"/>
+      <c r="H555" s="4"/>
+      <c r="I555" s="4"/>
+      <c r="J555" s="4"/>
+      <c r="K555" s="4"/>
+      <c r="L555" s="4"/>
+      <c r="M555" s="4"/>
+      <c r="N555" s="4"/>
+      <c r="O555" s="4"/>
+      <c r="P555" s="4"/>
+      <c r="Q555" s="4"/>
+      <c r="R555" s="4"/>
+      <c r="S555" s="4"/>
+      <c r="T555" s="4"/>
+      <c r="U555" s="4"/>
+      <c r="V555" s="4"/>
+      <c r="W555" s="4"/>
+      <c r="X555" s="4"/>
+      <c r="Y555" s="4"/>
+      <c r="Z555" s="4"/>
+      <c r="AA555" s="4"/>
+    </row>
+    <row r="556">
+      <c r="A556" s="4"/>
+      <c r="B556" s="4"/>
+      <c r="C556" s="4"/>
+      <c r="D556" s="4"/>
+      <c r="E556" s="65"/>
+      <c r="F556" s="4"/>
+      <c r="G556" s="4"/>
+      <c r="H556" s="4"/>
+      <c r="I556" s="4"/>
+      <c r="J556" s="4"/>
+      <c r="K556" s="4"/>
+      <c r="L556" s="4"/>
+      <c r="M556" s="4"/>
+      <c r="N556" s="4"/>
+      <c r="O556" s="4"/>
+      <c r="P556" s="4"/>
+      <c r="Q556" s="4"/>
+      <c r="R556" s="4"/>
+      <c r="S556" s="4"/>
+      <c r="T556" s="4"/>
+      <c r="U556" s="4"/>
+      <c r="V556" s="4"/>
+      <c r="W556" s="4"/>
+      <c r="X556" s="4"/>
+      <c r="Y556" s="4"/>
+      <c r="Z556" s="4"/>
+      <c r="AA556" s="4"/>
+    </row>
+    <row r="557">
+      <c r="A557" s="4"/>
+      <c r="B557" s="4"/>
+      <c r="C557" s="4"/>
+      <c r="D557" s="4"/>
+      <c r="E557" s="65"/>
+      <c r="F557" s="4"/>
+      <c r="G557" s="4"/>
+      <c r="H557" s="4"/>
+      <c r="I557" s="4"/>
+      <c r="J557" s="4"/>
+      <c r="K557" s="4"/>
+      <c r="L557" s="4"/>
+      <c r="M557" s="4"/>
+      <c r="N557" s="4"/>
+      <c r="O557" s="4"/>
+      <c r="P557" s="4"/>
+      <c r="Q557" s="4"/>
+      <c r="R557" s="4"/>
+      <c r="S557" s="4"/>
+      <c r="T557" s="4"/>
+      <c r="U557" s="4"/>
+      <c r="V557" s="4"/>
+      <c r="W557" s="4"/>
+      <c r="X557" s="4"/>
+      <c r="Y557" s="4"/>
+      <c r="Z557" s="4"/>
+      <c r="AA557" s="4"/>
+    </row>
+    <row r="558">
+      <c r="A558" s="4"/>
+      <c r="B558" s="4"/>
+      <c r="C558" s="4"/>
+      <c r="D558" s="4"/>
+      <c r="E558" s="65"/>
+      <c r="F558" s="4"/>
+      <c r="G558" s="4"/>
+      <c r="H558" s="4"/>
+      <c r="I558" s="4"/>
+      <c r="J558" s="4"/>
+      <c r="K558" s="4"/>
+      <c r="L558" s="4"/>
+      <c r="M558" s="4"/>
+      <c r="N558" s="4"/>
+      <c r="O558" s="4"/>
+      <c r="P558" s="4"/>
+      <c r="Q558" s="4"/>
+      <c r="R558" s="4"/>
+      <c r="S558" s="4"/>
+      <c r="T558" s="4"/>
+      <c r="U558" s="4"/>
+      <c r="V558" s="4"/>
+      <c r="W558" s="4"/>
+      <c r="X558" s="4"/>
+      <c r="Y558" s="4"/>
+      <c r="Z558" s="4"/>
+      <c r="AA558" s="4"/>
+    </row>
+    <row r="559">
+      <c r="A559" s="4"/>
+      <c r="B559" s="4"/>
+      <c r="C559" s="4"/>
+      <c r="D559" s="4"/>
+      <c r="E559" s="65"/>
+      <c r="F559" s="4"/>
+      <c r="G559" s="4"/>
+      <c r="H559" s="4"/>
+      <c r="I559" s="4"/>
+      <c r="J559" s="4"/>
+      <c r="K559" s="4"/>
+      <c r="L559" s="4"/>
+      <c r="M559" s="4"/>
+      <c r="N559" s="4"/>
+      <c r="O559" s="4"/>
+      <c r="P559" s="4"/>
+      <c r="Q559" s="4"/>
+      <c r="R559" s="4"/>
+      <c r="S559" s="4"/>
+      <c r="T559" s="4"/>
+      <c r="U559" s="4"/>
+      <c r="V559" s="4"/>
+      <c r="W559" s="4"/>
+      <c r="X559" s="4"/>
+      <c r="Y559" s="4"/>
+      <c r="Z559" s="4"/>
+      <c r="AA559" s="4"/>
+    </row>
+    <row r="560">
+      <c r="A560" s="4"/>
+      <c r="B560" s="4"/>
+      <c r="C560" s="4"/>
+      <c r="D560" s="4"/>
+      <c r="E560" s="65"/>
+      <c r="F560" s="4"/>
+      <c r="G560" s="4"/>
+      <c r="H560" s="4"/>
+      <c r="I560" s="4"/>
+      <c r="J560" s="4"/>
+      <c r="K560" s="4"/>
+      <c r="L560" s="4"/>
+      <c r="M560" s="4"/>
+      <c r="N560" s="4"/>
+      <c r="O560" s="4"/>
+      <c r="P560" s="4"/>
+      <c r="Q560" s="4"/>
+      <c r="R560" s="4"/>
+      <c r="S560" s="4"/>
+      <c r="T560" s="4"/>
+      <c r="U560" s="4"/>
+      <c r="V560" s="4"/>
+      <c r="W560" s="4"/>
+      <c r="X560" s="4"/>
+      <c r="Y560" s="4"/>
+      <c r="Z560" s="4"/>
+      <c r="AA560" s="4"/>
+    </row>
+    <row r="561">
+      <c r="A561" s="4"/>
+      <c r="B561" s="4"/>
+      <c r="C561" s="4"/>
+      <c r="D561" s="4"/>
+      <c r="E561" s="65"/>
+      <c r="F561" s="4"/>
+      <c r="G561" s="4"/>
+      <c r="H561" s="4"/>
+      <c r="I561" s="4"/>
+      <c r="J561" s="4"/>
+      <c r="K561" s="4"/>
+      <c r="L561" s="4"/>
+      <c r="M561" s="4"/>
+      <c r="N561" s="4"/>
+      <c r="O561" s="4"/>
+      <c r="P561" s="4"/>
+      <c r="Q561" s="4"/>
+      <c r="R561" s="4"/>
+      <c r="S561" s="4"/>
+      <c r="T561" s="4"/>
+      <c r="U561" s="4"/>
+      <c r="V561" s="4"/>
+      <c r="W561" s="4"/>
+      <c r="X561" s="4"/>
+      <c r="Y561" s="4"/>
+      <c r="Z561" s="4"/>
+      <c r="AA561" s="4"/>
+    </row>
+    <row r="562">
+      <c r="A562" s="4"/>
+      <c r="B562" s="4"/>
+      <c r="C562" s="4"/>
+      <c r="D562" s="4"/>
+      <c r="E562" s="65"/>
+      <c r="F562" s="4"/>
+      <c r="G562" s="4"/>
+      <c r="H562" s="4"/>
+      <c r="I562" s="4"/>
+      <c r="J562" s="4"/>
+      <c r="K562" s="4"/>
+      <c r="L562" s="4"/>
+      <c r="M562" s="4"/>
+      <c r="N562" s="4"/>
+      <c r="O562" s="4"/>
+      <c r="P562" s="4"/>
+      <c r="Q562" s="4"/>
+      <c r="R562" s="4"/>
+      <c r="S562" s="4"/>
+      <c r="T562" s="4"/>
+      <c r="U562" s="4"/>
+      <c r="V562" s="4"/>
+      <c r="W562" s="4"/>
+      <c r="X562" s="4"/>
+      <c r="Y562" s="4"/>
+      <c r="Z562" s="4"/>
+      <c r="AA562" s="4"/>
+    </row>
+    <row r="563">
+      <c r="A563" s="4"/>
+      <c r="B563" s="4"/>
+      <c r="C563" s="4"/>
+      <c r="D563" s="4"/>
+      <c r="E563" s="65"/>
+      <c r="F563" s="4"/>
+      <c r="G563" s="4"/>
+      <c r="H563" s="4"/>
+      <c r="I563" s="4"/>
+      <c r="J563" s="4"/>
+      <c r="K563" s="4"/>
+      <c r="L563" s="4"/>
+      <c r="M563" s="4"/>
+      <c r="N563" s="4"/>
+      <c r="O563" s="4"/>
+      <c r="P563" s="4"/>
+      <c r="Q563" s="4"/>
+      <c r="R563" s="4"/>
+      <c r="S563" s="4"/>
+      <c r="T563" s="4"/>
+      <c r="U563" s="4"/>
+      <c r="V563" s="4"/>
+      <c r="W563" s="4"/>
+      <c r="X563" s="4"/>
+      <c r="Y563" s="4"/>
+      <c r="Z563" s="4"/>
+      <c r="AA563" s="4"/>
+    </row>
+    <row r="564">
+      <c r="A564" s="4"/>
+      <c r="B564" s="4"/>
+      <c r="C564" s="4"/>
+      <c r="D564" s="4"/>
+      <c r="E564" s="65"/>
+      <c r="F564" s="4"/>
+      <c r="G564" s="4"/>
+      <c r="H564" s="4"/>
+      <c r="I564" s="4"/>
+      <c r="J564" s="4"/>
+      <c r="K564" s="4"/>
+      <c r="L564" s="4"/>
+      <c r="M564" s="4"/>
+      <c r="N564" s="4"/>
+      <c r="O564" s="4"/>
+      <c r="P564" s="4"/>
+      <c r="Q564" s="4"/>
+      <c r="R564" s="4"/>
+      <c r="S564" s="4"/>
+      <c r="T564" s="4"/>
+      <c r="U564" s="4"/>
+      <c r="V564" s="4"/>
+      <c r="W564" s="4"/>
+      <c r="X564" s="4"/>
+      <c r="Y564" s="4"/>
+      <c r="Z564" s="4"/>
+      <c r="AA564" s="4"/>
+    </row>
+    <row r="565">
+      <c r="A565" s="4"/>
+      <c r="B565" s="4"/>
+      <c r="C565" s="4"/>
+      <c r="D565" s="4"/>
+      <c r="E565" s="65"/>
+      <c r="F565" s="4"/>
+      <c r="G565" s="4"/>
+      <c r="H565" s="4"/>
+      <c r="I565" s="4"/>
+      <c r="J565" s="4"/>
+      <c r="K565" s="4"/>
+      <c r="L565" s="4"/>
+      <c r="M565" s="4"/>
+      <c r="N565" s="4"/>
+      <c r="O565" s="4"/>
+      <c r="P565" s="4"/>
+      <c r="Q565" s="4"/>
+      <c r="R565" s="4"/>
+      <c r="S565" s="4"/>
+      <c r="T565" s="4"/>
+      <c r="U565" s="4"/>
+      <c r="V565" s="4"/>
+      <c r="W565" s="4"/>
+      <c r="X565" s="4"/>
+      <c r="Y565" s="4"/>
+      <c r="Z565" s="4"/>
+      <c r="AA565" s="4"/>
+    </row>
+    <row r="566">
+      <c r="A566" s="4"/>
+      <c r="B566" s="4"/>
+      <c r="C566" s="4"/>
+      <c r="D566" s="4"/>
+      <c r="E566" s="65"/>
+      <c r="F566" s="4"/>
+      <c r="G566" s="4"/>
+      <c r="H566" s="4"/>
+      <c r="I566" s="4"/>
+      <c r="J566" s="4"/>
+      <c r="K566" s="4"/>
+      <c r="L566" s="4"/>
+      <c r="M566" s="4"/>
+      <c r="N566" s="4"/>
+      <c r="O566" s="4"/>
+      <c r="P566" s="4"/>
+      <c r="Q566" s="4"/>
+      <c r="R566" s="4"/>
+      <c r="S566" s="4"/>
+      <c r="T566" s="4"/>
+      <c r="U566" s="4"/>
+      <c r="V566" s="4"/>
+      <c r="W566" s="4"/>
+      <c r="X566" s="4"/>
+      <c r="Y566" s="4"/>
+      <c r="Z566" s="4"/>
+      <c r="AA566" s="4"/>
+    </row>
+    <row r="567">
+      <c r="A567" s="4"/>
+      <c r="B567" s="4"/>
+      <c r="C567" s="4"/>
+      <c r="D567" s="4"/>
+      <c r="E567" s="65"/>
+      <c r="F567" s="4"/>
+      <c r="G567" s="4"/>
+      <c r="H567" s="4"/>
+      <c r="I567" s="4"/>
+      <c r="J567" s="4"/>
+      <c r="K567" s="4"/>
+      <c r="L567" s="4"/>
+      <c r="M567" s="4"/>
+      <c r="N567" s="4"/>
+      <c r="O567" s="4"/>
+      <c r="P567" s="4"/>
+      <c r="Q567" s="4"/>
+      <c r="R567" s="4"/>
+      <c r="S567" s="4"/>
+      <c r="T567" s="4"/>
+      <c r="U567" s="4"/>
+      <c r="V567" s="4"/>
+      <c r="W567" s="4"/>
+      <c r="X567" s="4"/>
+      <c r="Y567" s="4"/>
+      <c r="Z567" s="4"/>
+      <c r="AA567" s="4"/>
+    </row>
+    <row r="568">
+      <c r="A568" s="4"/>
+      <c r="B568" s="4"/>
+      <c r="C568" s="4"/>
+      <c r="D568" s="4"/>
+      <c r="E568" s="65"/>
+      <c r="F568" s="4"/>
+      <c r="G568" s="4"/>
+      <c r="H568" s="4"/>
+      <c r="I568" s="4"/>
+      <c r="J568" s="4"/>
+      <c r="K568" s="4"/>
+      <c r="L568" s="4"/>
+      <c r="M568" s="4"/>
+      <c r="N568" s="4"/>
+      <c r="O568" s="4"/>
+      <c r="P568" s="4"/>
+      <c r="Q568" s="4"/>
+      <c r="R568" s="4"/>
+      <c r="S568" s="4"/>
+      <c r="T568" s="4"/>
+      <c r="U568" s="4"/>
+      <c r="V568" s="4"/>
+      <c r="W568" s="4"/>
+      <c r="X568" s="4"/>
+      <c r="Y568" s="4"/>
+      <c r="Z568" s="4"/>
+      <c r="AA568" s="4"/>
+    </row>
+    <row r="569">
+      <c r="A569" s="4"/>
+      <c r="B569" s="4"/>
+      <c r="C569" s="4"/>
+      <c r="D569" s="4"/>
+      <c r="E569" s="65"/>
+      <c r="F569" s="4"/>
+      <c r="G569" s="4"/>
+      <c r="H569" s="4"/>
+      <c r="I569" s="4"/>
+      <c r="J569" s="4"/>
+      <c r="K569" s="4"/>
+      <c r="L569" s="4"/>
+      <c r="M569" s="4"/>
+      <c r="N569" s="4"/>
+      <c r="O569" s="4"/>
+      <c r="P569" s="4"/>
+      <c r="Q569" s="4"/>
+      <c r="R569" s="4"/>
+      <c r="S569" s="4"/>
+      <c r="T569" s="4"/>
+      <c r="U569" s="4"/>
+      <c r="V569" s="4"/>
+      <c r="W569" s="4"/>
+      <c r="X569" s="4"/>
+      <c r="Y569" s="4"/>
+      <c r="Z569" s="4"/>
+      <c r="AA569" s="4"/>
+    </row>
+    <row r="570">
+      <c r="A570" s="4"/>
+      <c r="B570" s="4"/>
+      <c r="C570" s="4"/>
+      <c r="D570" s="4"/>
+      <c r="E570" s="65"/>
+      <c r="F570" s="4"/>
+      <c r="G570" s="4"/>
+      <c r="H570" s="4"/>
+      <c r="I570" s="4"/>
+      <c r="J570" s="4"/>
+      <c r="K570" s="4"/>
+      <c r="L570" s="4"/>
+      <c r="M570" s="4"/>
+      <c r="N570" s="4"/>
+      <c r="O570" s="4"/>
+      <c r="P570" s="4"/>
+      <c r="Q570" s="4"/>
+      <c r="R570" s="4"/>
+      <c r="S570" s="4"/>
+      <c r="T570" s="4"/>
+      <c r="U570" s="4"/>
+      <c r="V570" s="4"/>
+      <c r="W570" s="4"/>
+      <c r="X570" s="4"/>
+      <c r="Y570" s="4"/>
+      <c r="Z570" s="4"/>
+      <c r="AA570" s="4"/>
+    </row>
+    <row r="571">
+      <c r="A571" s="4"/>
+      <c r="B571" s="4"/>
+      <c r="C571" s="4"/>
+      <c r="D571" s="4"/>
+      <c r="E571" s="65"/>
+      <c r="F571" s="4"/>
+      <c r="G571" s="4"/>
+      <c r="H571" s="4"/>
+      <c r="I571" s="4"/>
+      <c r="J571" s="4"/>
+      <c r="K571" s="4"/>
+      <c r="L571" s="4"/>
+      <c r="M571" s="4"/>
+      <c r="N571" s="4"/>
+      <c r="O571" s="4"/>
+      <c r="P571" s="4"/>
+      <c r="Q571" s="4"/>
+      <c r="R571" s="4"/>
+      <c r="S571" s="4"/>
+      <c r="T571" s="4"/>
+      <c r="U571" s="4"/>
+      <c r="V571" s="4"/>
+      <c r="W571" s="4"/>
+      <c r="X571" s="4"/>
+      <c r="Y571" s="4"/>
+      <c r="Z571" s="4"/>
+      <c r="AA571" s="4"/>
+    </row>
+    <row r="572">
+      <c r="A572" s="4"/>
+      <c r="B572" s="4"/>
+      <c r="C572" s="4"/>
+      <c r="D572" s="4"/>
+      <c r="E572" s="65"/>
+      <c r="F572" s="4"/>
+      <c r="G572" s="4"/>
+      <c r="H572" s="4"/>
+      <c r="I572" s="4"/>
+      <c r="J572" s="4"/>
+      <c r="K572" s="4"/>
+      <c r="L572" s="4"/>
+      <c r="M572" s="4"/>
+      <c r="N572" s="4"/>
+      <c r="O572" s="4"/>
+      <c r="P572" s="4"/>
+      <c r="Q572" s="4"/>
+      <c r="R572" s="4"/>
+      <c r="S572" s="4"/>
+      <c r="T572" s="4"/>
+      <c r="U572" s="4"/>
+      <c r="V572" s="4"/>
+      <c r="W572" s="4"/>
+      <c r="X572" s="4"/>
+      <c r="Y572" s="4"/>
+      <c r="Z572" s="4"/>
+      <c r="AA572" s="4"/>
+    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="99">
+  <mergeCells count="100">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="B4:C10"/>
-    <mergeCell ref="A4:A115"/>
+    <mergeCell ref="C257:C262"/>
+    <mergeCell ref="A4:A124"/>
+    <mergeCell ref="C263:C264"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="C11:C15"/>
+    <mergeCell ref="B265:C296"/>
     <mergeCell ref="B11:B21"/>
     <mergeCell ref="C16:C21"/>
     <mergeCell ref="B22:B35"/>
     <mergeCell ref="C22:C26"/>
     <mergeCell ref="C27:C35"/>
-    <mergeCell ref="C287:C297"/>
-    <mergeCell ref="B287:B319"/>
     <mergeCell ref="B36:C44"/>
-    <mergeCell ref="C298:C308"/>
+    <mergeCell ref="B297:B352"/>
+    <mergeCell ref="C297:C310"/>
     <mergeCell ref="B45:C52"/>
+    <mergeCell ref="C311:C324"/>
     <mergeCell ref="B53:B70"/>
     <mergeCell ref="C53:C59"/>
-    <mergeCell ref="C309:C319"/>
     <mergeCell ref="C60:C69"/>
-    <mergeCell ref="C320:C324"/>
-    <mergeCell ref="B320:B340"/>
-    <mergeCell ref="C325:C330"/>
+    <mergeCell ref="C325:C338"/>
     <mergeCell ref="B71:C83"/>
-    <mergeCell ref="C331:C332"/>
-    <mergeCell ref="C333:C336"/>
-    <mergeCell ref="C84:C91"/>
-    <mergeCell ref="C337:C340"/>
-    <mergeCell ref="B84:B96"/>
-    <mergeCell ref="B341:C347"/>
-    <mergeCell ref="B348:C352"/>
-    <mergeCell ref="B97:C112"/>
-    <mergeCell ref="B353:C357"/>
-    <mergeCell ref="B358:C362"/>
-    <mergeCell ref="B363:C371"/>
-    <mergeCell ref="F374:G374"/>
-    <mergeCell ref="B113:C115"/>
-    <mergeCell ref="F376:G376"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="F375:G375"/>
-    <mergeCell ref="A116:A217"/>
-    <mergeCell ref="A374:C379"/>
-    <mergeCell ref="B117:C139"/>
-    <mergeCell ref="B380:E380"/>
-    <mergeCell ref="A380:A439"/>
-    <mergeCell ref="F378:G378"/>
-    <mergeCell ref="F377:G377"/>
-    <mergeCell ref="B381:B387"/>
-    <mergeCell ref="C381:D381"/>
-    <mergeCell ref="F379:G379"/>
-    <mergeCell ref="C382:D382"/>
-    <mergeCell ref="B388:D388"/>
-    <mergeCell ref="B389:B417"/>
-    <mergeCell ref="C389:C402"/>
-    <mergeCell ref="C140:C143"/>
-    <mergeCell ref="B140:B173"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="C147:C150"/>
-    <mergeCell ref="C403:C408"/>
-    <mergeCell ref="C151:C153"/>
-    <mergeCell ref="C409:C417"/>
-    <mergeCell ref="C154:C156"/>
-    <mergeCell ref="C157:C164"/>
-    <mergeCell ref="B418:C428"/>
-    <mergeCell ref="C165:C168"/>
-    <mergeCell ref="C169:C173"/>
-    <mergeCell ref="B174:B208"/>
-    <mergeCell ref="C174:C182"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="A440:A441"/>
-    <mergeCell ref="A442:A443"/>
-    <mergeCell ref="C185:C195"/>
-    <mergeCell ref="A444:A445"/>
-    <mergeCell ref="A446:A447"/>
-    <mergeCell ref="A448:A449"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="C198:C199"/>
-    <mergeCell ref="C204:C208"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="C211:C213"/>
-    <mergeCell ref="B209:B215"/>
+    <mergeCell ref="C339:C352"/>
+    <mergeCell ref="C84:C100"/>
+    <mergeCell ref="B84:B105"/>
+    <mergeCell ref="B353:B373"/>
+    <mergeCell ref="C353:C357"/>
+    <mergeCell ref="C358:C363"/>
+    <mergeCell ref="B106:C121"/>
+    <mergeCell ref="C364:C365"/>
+    <mergeCell ref="C366:C369"/>
+    <mergeCell ref="C370:C373"/>
+    <mergeCell ref="B374:C380"/>
+    <mergeCell ref="B122:C124"/>
+    <mergeCell ref="A125:A226"/>
+    <mergeCell ref="B126:C148"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="B381:C385"/>
+    <mergeCell ref="B386:C390"/>
+    <mergeCell ref="B391:C395"/>
+    <mergeCell ref="B396:C404"/>
+    <mergeCell ref="F408:G408"/>
+    <mergeCell ref="F407:G407"/>
+    <mergeCell ref="B149:B182"/>
+    <mergeCell ref="C149:C152"/>
+    <mergeCell ref="A407:C412"/>
+    <mergeCell ref="C156:C159"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="F410:G410"/>
+    <mergeCell ref="B414:B420"/>
+    <mergeCell ref="C415:D415"/>
+    <mergeCell ref="A413:A472"/>
+    <mergeCell ref="F409:G409"/>
+    <mergeCell ref="C160:C162"/>
+    <mergeCell ref="B413:E413"/>
+    <mergeCell ref="F412:G412"/>
+    <mergeCell ref="F411:G411"/>
+    <mergeCell ref="C414:D414"/>
+    <mergeCell ref="C163:C165"/>
+    <mergeCell ref="B422:B450"/>
+    <mergeCell ref="B421:D421"/>
+    <mergeCell ref="C422:C435"/>
+    <mergeCell ref="C166:C173"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="C436:C441"/>
+    <mergeCell ref="C178:C182"/>
+    <mergeCell ref="C183:C191"/>
+    <mergeCell ref="B183:B217"/>
+    <mergeCell ref="C442:C450"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="B451:C461"/>
+    <mergeCell ref="C194:C204"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="C205:C206"/>
+    <mergeCell ref="C211:C212"/>
     <mergeCell ref="C209:C210"/>
-    <mergeCell ref="B216:C217"/>
-    <mergeCell ref="C214:C215"/>
-    <mergeCell ref="C219:C221"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="A218:A373"/>
-    <mergeCell ref="B219:B255"/>
-    <mergeCell ref="C224:C225"/>
-    <mergeCell ref="C222:C223"/>
-    <mergeCell ref="C226:C229"/>
-    <mergeCell ref="C230:C232"/>
-    <mergeCell ref="C233:C239"/>
-    <mergeCell ref="C240:C245"/>
-    <mergeCell ref="C248:C253"/>
-    <mergeCell ref="C246:C247"/>
-    <mergeCell ref="B256:C286"/>
-    <mergeCell ref="C254:C255"/>
+    <mergeCell ref="C213:C217"/>
+    <mergeCell ref="A473:A474"/>
+    <mergeCell ref="B218:B224"/>
+    <mergeCell ref="C220:C222"/>
+    <mergeCell ref="A475:A476"/>
+    <mergeCell ref="C218:C219"/>
+    <mergeCell ref="A477:A478"/>
+    <mergeCell ref="C223:C224"/>
+    <mergeCell ref="A479:A480"/>
+    <mergeCell ref="A481:A482"/>
+    <mergeCell ref="C228:C230"/>
+    <mergeCell ref="B225:C226"/>
+    <mergeCell ref="B228:B264"/>
+    <mergeCell ref="A227:A406"/>
+    <mergeCell ref="B227:D227"/>
+    <mergeCell ref="C231:C232"/>
+    <mergeCell ref="C235:C238"/>
+    <mergeCell ref="C233:C234"/>
+    <mergeCell ref="C239:C241"/>
+    <mergeCell ref="C242:C248"/>
+    <mergeCell ref="C249:C254"/>
+    <mergeCell ref="C255:C256"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
